--- a/base work.xlsx
+++ b/base work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496">
   <si>
     <t>nane</t>
   </si>
@@ -9646,6 +9646,9 @@
     <t>lovecrafts.com</t>
   </si>
   <si>
+    <t>В резерв</t>
+  </si>
+  <si>
     <t>https://www.work.ua/jobs/1867868</t>
   </si>
   <si>
@@ -9783,6 +9786,9 @@
     <t>ООО Smartinfosys</t>
   </si>
   <si>
+    <t>Тестировщик (Junior manual QA)</t>
+  </si>
+  <si>
     <t>http://rabota.ua/company4971832/vacancy6562730</t>
   </si>
   <si>
@@ -10006,6 +10012,81 @@
   </si>
   <si>
     <t>Смайл Экспо, ООО. Киев</t>
+  </si>
+  <si>
+    <t>Тестировщик</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company1277303/vacancy6290181</t>
+  </si>
+  <si>
+    <t>Компьютерные технологии, ООО Торговая компания</t>
+  </si>
+  <si>
+    <t>Junior Manual QA</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company782154/vacancy6436180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genesis </t>
+  </si>
+  <si>
+    <t>Junior / Middle Manual QA Engineer</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company2281888/vacancy6598031</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company4953171/vacancy6556387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Головко Я.Ю., ФЛП </t>
+  </si>
+  <si>
+    <r>
+      <t>Контакт:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Денис Телефон: +380675446371</t>
+    </r>
+  </si>
+  <si>
+    <t>https://rabota.ua/company2901014/vacancy6600579</t>
+  </si>
+  <si>
+    <t>Космонова, ООО </t>
+  </si>
+  <si>
+    <t>Контакт:Диана Яблуновская
+Телефон: +380443590030</t>
+  </si>
+  <si>
+    <t>Middle QA Engineer (manual)</t>
+  </si>
+  <si>
+    <t>https://www.work.ua/jobs/2555694/</t>
+  </si>
+  <si>
+    <t>Twin Win Games   </t>
+  </si>
+  <si>
+    <t>Middle QA Engineer (Manual)</t>
+  </si>
+  <si>
+    <t>https://www.work.ua/jobs/2555772/</t>
+  </si>
+  <si>
+    <t>Miritec   </t>
   </si>
   <si>
     <t>История общения</t>
@@ -10482,13 +10563,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="dd/mmm"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd/mmm"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -10545,36 +10626,68 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="19"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Inherit"/>
+      <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="16"/>
+      <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11.25"/>
-      <color rgb="FF003399"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12.75"/>
+      <sz val="16"/>
       <color rgb="FF008ED5"/>
       <name val="Arial"/>
       <charset val="1"/>
@@ -10588,6 +10701,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="13.5"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF147BC0"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF777777"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF003399"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.75"/>
+      <color rgb="FF008ED5"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -10596,6 +10754,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -10618,9 +10799,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10634,10 +10814,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10648,18 +10829,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10682,44 +10863,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -10735,8 +10878,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10747,6 +10911,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -10775,7 +10945,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10787,19 +11005,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10811,61 +11035,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10883,13 +11059,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10901,49 +11107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11000,6 +11170,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -11011,6 +11201,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11039,26 +11238,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -11073,159 +11252,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="26" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26">
       <alignment vertical="top"/>
     </xf>
@@ -11283,52 +11453,163 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="26" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="26" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="26" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="26" applyFont="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" indent="7"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="11"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="26" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="26" applyFont="1">
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5">
+    <xf numFmtId="181" fontId="0" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="181" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
@@ -11337,7 +11618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyFont="1" applyAlignment="1">
@@ -11737,7 +12018,7 @@
   <cols>
     <col min="1" max="1" width="20.1416666666667"/>
     <col min="2" max="2" width="29.35"/>
-    <col min="3" max="3" width="34.2833333333333" style="36"/>
+    <col min="3" max="3" width="34.2833333333333" style="73"/>
     <col min="4" max="4" width="24.85"/>
     <col min="5" max="5" width="71.6666666666667"/>
     <col min="6" max="1025" width="8.575"/>
@@ -11746,20 +12027,20 @@
     <row r="1" spans="3:3">
       <c r="C1"/>
     </row>
-    <row r="2" s="19" customFormat="1" spans="1:5">
-      <c r="A2" s="19" t="s">
+    <row r="2" s="20" customFormat="1" spans="1:5">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11770,7 +12051,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="75" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -11787,7 +12068,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="73" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -11804,7 +12085,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="75" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -11821,7 +12102,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="73" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
@@ -11838,7 +12119,7 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="73" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
@@ -11855,7 +12136,7 @@
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="73" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
@@ -11884,7 +12165,7 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="73" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
@@ -11901,7 +12182,7 @@
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="73" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
@@ -11918,7 +12199,7 @@
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="73" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
@@ -11950,7 +12231,7 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="73" t="s">
         <v>59</v>
       </c>
       <c r="D14" t="s">
@@ -11967,7 +12248,7 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="73" t="s">
         <v>64</v>
       </c>
       <c r="D15" t="s">
@@ -11984,7 +12265,7 @@
       <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="73" t="s">
         <v>69</v>
       </c>
       <c r="D16" t="s">
@@ -12001,7 +12282,7 @@
       <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="73" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
@@ -12018,7 +12299,7 @@
       <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="73" t="s">
         <v>79</v>
       </c>
       <c r="E18" t="s">
@@ -12032,7 +12313,7 @@
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="73" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
@@ -12049,7 +12330,7 @@
       <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="73" t="s">
         <v>88</v>
       </c>
       <c r="E20" t="s">
@@ -12063,7 +12344,7 @@
       <c r="B21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="73" t="s">
         <v>92</v>
       </c>
       <c r="D21" t="s">
@@ -12080,7 +12361,7 @@
       <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="73" t="s">
         <v>97</v>
       </c>
       <c r="D22" t="s">
@@ -12097,7 +12378,7 @@
       <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="73" t="s">
         <v>102</v>
       </c>
       <c r="D23" t="s">
@@ -12114,7 +12395,7 @@
       <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="73" t="s">
         <v>107</v>
       </c>
       <c r="D24" t="s">
@@ -12143,7 +12424,7 @@
       <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="73" t="s">
         <v>115</v>
       </c>
       <c r="D26" t="s">
@@ -12160,7 +12441,7 @@
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="73" t="s">
         <v>120</v>
       </c>
       <c r="D27" t="s">
@@ -12252,7 +12533,7 @@
       <c r="B34" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="73" t="s">
         <v>143</v>
       </c>
       <c r="D34" t="s">
@@ -12293,7 +12574,7 @@
       <c r="B37" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="73" t="s">
         <v>154</v>
       </c>
       <c r="D37" t="s">
@@ -12310,7 +12591,7 @@
       <c r="B38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="73" t="s">
         <v>159</v>
       </c>
       <c r="D38" t="s">
@@ -12327,7 +12608,7 @@
       <c r="B39" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="73" t="s">
         <v>164</v>
       </c>
       <c r="D39" t="s">
@@ -12374,7 +12655,7 @@
       <c r="B42" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="73" t="s">
         <v>177</v>
       </c>
       <c r="D42" t="s">
@@ -12406,7 +12687,7 @@
       <c r="B44" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="73" t="s">
         <v>186</v>
       </c>
       <c r="D44" t="s">
@@ -12420,7 +12701,7 @@
       <c r="B45" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="75" t="s">
         <v>190</v>
       </c>
       <c r="D45" t="s">
@@ -12461,7 +12742,7 @@
       <c r="B48" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="73" t="s">
         <v>201</v>
       </c>
       <c r="D48" t="s">
@@ -12493,7 +12774,7 @@
       <c r="B50" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="73" t="s">
         <v>210</v>
       </c>
       <c r="D50" t="s">
@@ -12552,7 +12833,7 @@
       <c r="B54" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="73" t="s">
         <v>226</v>
       </c>
       <c r="D54" t="s">
@@ -12569,7 +12850,7 @@
       <c r="B55" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="73" t="s">
         <v>231</v>
       </c>
       <c r="D55" t="s">
@@ -12586,7 +12867,7 @@
       <c r="B56" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="73" t="s">
         <v>236</v>
       </c>
       <c r="D56" t="s">
@@ -12603,7 +12884,7 @@
       <c r="B57" t="s">
         <v>240</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="73" t="s">
         <v>241</v>
       </c>
       <c r="D57" t="s">
@@ -12632,7 +12913,7 @@
       <c r="B59" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="73" t="s">
         <v>249</v>
       </c>
       <c r="D59" t="s">
@@ -12649,7 +12930,7 @@
       <c r="B60" t="s">
         <v>253</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="73" t="s">
         <v>254</v>
       </c>
       <c r="D60" t="s">
@@ -12663,7 +12944,7 @@
       <c r="B61" t="s">
         <v>257</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="73" t="s">
         <v>258</v>
       </c>
       <c r="D61" t="s">
@@ -12692,7 +12973,7 @@
       <c r="B63" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="73" t="s">
         <v>266</v>
       </c>
       <c r="D63" t="s">
@@ -12721,7 +13002,7 @@
       <c r="B65" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="73" t="s">
         <v>274</v>
       </c>
       <c r="D65" t="s">
@@ -12738,7 +13019,7 @@
       <c r="B66" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="73" t="s">
         <v>279</v>
       </c>
       <c r="E66" t="s">
@@ -12752,7 +13033,7 @@
       <c r="B67" t="s">
         <v>282</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="73" t="s">
         <v>283</v>
       </c>
       <c r="D67" t="s">
@@ -12781,7 +13062,7 @@
       <c r="B69" t="s">
         <v>290</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="73" t="s">
         <v>291</v>
       </c>
       <c r="D69" t="s">
@@ -12813,7 +13094,7 @@
       <c r="B71" t="s">
         <v>299</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="73" t="s">
         <v>300</v>
       </c>
       <c r="D71" t="s">
@@ -12839,7 +13120,7 @@
       <c r="B73" t="s">
         <v>305</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="73" t="s">
         <v>306</v>
       </c>
       <c r="D73" t="s">
@@ -12886,7 +13167,7 @@
       <c r="B76" t="s">
         <v>318</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="73" t="s">
         <v>319</v>
       </c>
       <c r="D76" t="s">
@@ -12903,7 +13184,7 @@
       <c r="B77" t="s">
         <v>323</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="73" t="s">
         <v>324</v>
       </c>
       <c r="D77" t="s">
@@ -12932,7 +13213,7 @@
       <c r="B79" t="s">
         <v>331</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="73" t="s">
         <v>332</v>
       </c>
       <c r="D79" t="s">
@@ -13015,7 +13296,7 @@
       <c r="B85" t="s">
         <v>353</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="73" t="s">
         <v>354</v>
       </c>
       <c r="D85" t="s">
@@ -13032,7 +13313,7 @@
       <c r="B86" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="73" t="s">
         <v>359</v>
       </c>
       <c r="D86" t="s">
@@ -13049,7 +13330,7 @@
       <c r="B87" t="s">
         <v>363</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="73" t="s">
         <v>364</v>
       </c>
       <c r="D87" t="s">
@@ -13063,7 +13344,7 @@
       <c r="A88" t="s">
         <v>367</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="73" t="s">
         <v>368</v>
       </c>
       <c r="D88" t="s">
@@ -13095,7 +13376,7 @@
       <c r="B90" t="s">
         <v>376</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="73" t="s">
         <v>377</v>
       </c>
       <c r="D90" t="s">
@@ -13112,7 +13393,7 @@
       <c r="B91" t="s">
         <v>381</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="73" t="s">
         <v>382</v>
       </c>
       <c r="D91" t="s">
@@ -13129,7 +13410,7 @@
       <c r="B92" t="s">
         <v>386</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="73" t="s">
         <v>387</v>
       </c>
       <c r="D92" t="s">
@@ -13146,7 +13427,7 @@
       <c r="B93" t="s">
         <v>391</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="73" t="s">
         <v>392</v>
       </c>
       <c r="D93" t="s">
@@ -13172,7 +13453,7 @@
       <c r="B95" t="s">
         <v>398</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="73" t="s">
         <v>399</v>
       </c>
       <c r="D95" t="s">
@@ -13198,7 +13479,7 @@
       <c r="B97" t="s">
         <v>405</v>
       </c>
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="73" t="s">
         <v>406</v>
       </c>
       <c r="D97" t="s">
@@ -13212,7 +13493,7 @@
       <c r="B98" t="s">
         <v>409</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="73" t="s">
         <v>410</v>
       </c>
       <c r="D98" t="s">
@@ -13268,7 +13549,7 @@
       <c r="B102" t="s">
         <v>424</v>
       </c>
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="73" t="s">
         <v>425</v>
       </c>
       <c r="D102" t="s">
@@ -13285,7 +13566,7 @@
       <c r="B103" t="s">
         <v>429</v>
       </c>
-      <c r="C103" s="36" t="s">
+      <c r="C103" s="73" t="s">
         <v>430</v>
       </c>
       <c r="D103" t="s">
@@ -13302,7 +13583,7 @@
       <c r="B104" t="s">
         <v>434</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="75" t="s">
         <v>435</v>
       </c>
       <c r="D104" t="s">
@@ -13334,7 +13615,7 @@
       <c r="B106" t="s">
         <v>443</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="73" t="s">
         <v>444</v>
       </c>
       <c r="D106" t="s">
@@ -13360,7 +13641,7 @@
       <c r="B108" t="s">
         <v>450</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="73" t="s">
         <v>451</v>
       </c>
       <c r="D108" t="s">
@@ -13377,7 +13658,7 @@
       <c r="B109" t="s">
         <v>455</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="73" t="s">
         <v>456</v>
       </c>
       <c r="D109" t="s">
@@ -13418,7 +13699,7 @@
       <c r="B112" t="s">
         <v>466</v>
       </c>
-      <c r="C112" s="36" t="s">
+      <c r="C112" s="73" t="s">
         <v>467</v>
       </c>
       <c r="D112" t="s">
@@ -13447,7 +13728,7 @@
       <c r="B114" t="s">
         <v>474</v>
       </c>
-      <c r="C114" s="36" t="s">
+      <c r="C114" s="73" t="s">
         <v>475</v>
       </c>
       <c r="D114" t="s">
@@ -13464,7 +13745,7 @@
       <c r="B115" t="s">
         <v>479</v>
       </c>
-      <c r="C115" s="36" t="s">
+      <c r="C115" s="73" t="s">
         <v>480</v>
       </c>
       <c r="D115" t="s">
@@ -13526,7 +13807,7 @@
       <c r="B119" t="s">
         <v>496</v>
       </c>
-      <c r="C119" s="36" t="s">
+      <c r="C119" s="73" t="s">
         <v>497</v>
       </c>
       <c r="D119" t="s">
@@ -13570,7 +13851,7 @@
       <c r="B122" t="s">
         <v>508</v>
       </c>
-      <c r="C122" s="36" t="s">
+      <c r="C122" s="73" t="s">
         <v>509</v>
       </c>
       <c r="D122" t="s">
@@ -13584,7 +13865,7 @@
       <c r="B123" t="s">
         <v>512</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="C123" s="75" t="s">
         <v>513</v>
       </c>
       <c r="D123" t="s">
@@ -13601,7 +13882,7 @@
       <c r="B124" t="s">
         <v>517</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="73" t="s">
         <v>518</v>
       </c>
       <c r="D124" t="s">
@@ -13627,7 +13908,7 @@
       <c r="B126" t="s">
         <v>524</v>
       </c>
-      <c r="C126" s="36" t="s">
+      <c r="C126" s="73" t="s">
         <v>525</v>
       </c>
       <c r="D126" t="s">
@@ -13644,7 +13925,7 @@
       <c r="B127" t="s">
         <v>529</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="73" t="s">
         <v>530</v>
       </c>
       <c r="D127" t="s">
@@ -13670,7 +13951,7 @@
       <c r="B129" t="s">
         <v>536</v>
       </c>
-      <c r="C129" s="36" t="s">
+      <c r="C129" s="73" t="s">
         <v>537</v>
       </c>
       <c r="D129" t="s">
@@ -13687,7 +13968,7 @@
       <c r="B130" t="s">
         <v>541</v>
       </c>
-      <c r="C130" s="38" t="s">
+      <c r="C130" s="75" t="s">
         <v>542</v>
       </c>
       <c r="D130" t="s">
@@ -13719,7 +14000,7 @@
       <c r="B132" t="s">
         <v>550</v>
       </c>
-      <c r="C132" s="36" t="s">
+      <c r="C132" s="73" t="s">
         <v>551</v>
       </c>
       <c r="D132" t="s">
@@ -13751,7 +14032,7 @@
       <c r="B134" t="s">
         <v>559</v>
       </c>
-      <c r="C134" s="36" t="s">
+      <c r="C134" s="73" t="s">
         <v>560</v>
       </c>
       <c r="D134" t="s">
@@ -13765,7 +14046,7 @@
       <c r="B135" t="s">
         <v>563</v>
       </c>
-      <c r="C135" s="36" t="s">
+      <c r="C135" s="73" t="s">
         <v>564</v>
       </c>
       <c r="D135" t="s">
@@ -13791,7 +14072,7 @@
       <c r="B137" t="s">
         <v>570</v>
       </c>
-      <c r="C137" s="36" t="s">
+      <c r="C137" s="73" t="s">
         <v>571</v>
       </c>
       <c r="D137" t="s">
@@ -13808,7 +14089,7 @@
       <c r="B138" t="s">
         <v>575</v>
       </c>
-      <c r="C138" s="36" t="s">
+      <c r="C138" s="73" t="s">
         <v>576</v>
       </c>
       <c r="D138" t="s">
@@ -13825,7 +14106,7 @@
       <c r="B139" t="s">
         <v>580</v>
       </c>
-      <c r="C139" s="36" t="s">
+      <c r="C139" s="73" t="s">
         <v>581</v>
       </c>
       <c r="D139" t="s">
@@ -13854,7 +14135,7 @@
       <c r="B141" t="s">
         <v>588</v>
       </c>
-      <c r="C141" s="36" t="s">
+      <c r="C141" s="73" t="s">
         <v>589</v>
       </c>
       <c r="D141" t="s">
@@ -13940,7 +14221,7 @@
       <c r="B147" t="s">
         <v>611</v>
       </c>
-      <c r="C147" s="36" t="s">
+      <c r="C147" s="73" t="s">
         <v>612</v>
       </c>
       <c r="D147" t="s">
@@ -13957,7 +14238,7 @@
       <c r="B148" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="38" t="s">
+      <c r="C148" s="75" t="s">
         <v>617</v>
       </c>
       <c r="D148" t="s">
@@ -13986,7 +14267,7 @@
       <c r="B150" t="s">
         <v>624</v>
       </c>
-      <c r="C150" s="36" t="s">
+      <c r="C150" s="73" t="s">
         <v>625</v>
       </c>
       <c r="D150" t="s">
@@ -14003,7 +14284,7 @@
       <c r="B151" t="s">
         <v>629</v>
       </c>
-      <c r="C151" s="36" t="s">
+      <c r="C151" s="73" t="s">
         <v>630</v>
       </c>
       <c r="D151" t="s">
@@ -14017,7 +14298,7 @@
       <c r="B152" t="s">
         <v>633</v>
       </c>
-      <c r="C152" s="36" t="s">
+      <c r="C152" s="73" t="s">
         <v>634</v>
       </c>
       <c r="D152" t="s">
@@ -14034,7 +14315,7 @@
       <c r="B153" t="s">
         <v>638</v>
       </c>
-      <c r="C153" s="36" t="s">
+      <c r="C153" s="73" t="s">
         <v>639</v>
       </c>
       <c r="D153" t="s">
@@ -14120,7 +14401,7 @@
       <c r="B159" t="s">
         <v>661</v>
       </c>
-      <c r="C159" s="36" t="s">
+      <c r="C159" s="73" t="s">
         <v>662</v>
       </c>
       <c r="D159" t="s">
@@ -14137,7 +14418,7 @@
       <c r="B160" t="s">
         <v>666</v>
       </c>
-      <c r="C160" s="36" t="s">
+      <c r="C160" s="73" t="s">
         <v>667</v>
       </c>
       <c r="D160" t="s">
@@ -14169,7 +14450,7 @@
       <c r="B162" t="s">
         <v>675</v>
       </c>
-      <c r="C162" s="36" t="s">
+      <c r="C162" s="73" t="s">
         <v>676</v>
       </c>
       <c r="D162" t="s">
@@ -14198,7 +14479,7 @@
       <c r="B164" t="s">
         <v>683</v>
       </c>
-      <c r="C164" s="36" t="s">
+      <c r="C164" s="73" t="s">
         <v>684</v>
       </c>
       <c r="D164" t="s">
@@ -14215,7 +14496,7 @@
       <c r="B165" t="s">
         <v>688</v>
       </c>
-      <c r="C165" s="36" t="s">
+      <c r="C165" s="73" t="s">
         <v>689</v>
       </c>
       <c r="D165" t="s">
@@ -14259,7 +14540,7 @@
       <c r="B168" t="s">
         <v>700</v>
       </c>
-      <c r="C168" s="36" t="s">
+      <c r="C168" s="73" t="s">
         <v>701</v>
       </c>
       <c r="D168" t="s">
@@ -14288,7 +14569,7 @@
       <c r="B170" t="s">
         <v>708</v>
       </c>
-      <c r="C170" s="38" t="s">
+      <c r="C170" s="75" t="s">
         <v>709</v>
       </c>
       <c r="D170" t="s">
@@ -14305,7 +14586,7 @@
       <c r="B171" t="s">
         <v>713</v>
       </c>
-      <c r="C171" s="36" t="s">
+      <c r="C171" s="73" t="s">
         <v>714</v>
       </c>
       <c r="D171" t="s">
@@ -14358,7 +14639,7 @@
       <c r="B175" t="s">
         <v>727</v>
       </c>
-      <c r="C175" s="36" t="s">
+      <c r="C175" s="73" t="s">
         <v>728</v>
       </c>
       <c r="E175" t="s">
@@ -14372,7 +14653,7 @@
       <c r="B176" t="s">
         <v>731</v>
       </c>
-      <c r="C176" s="36" t="s">
+      <c r="C176" s="73" t="s">
         <v>732</v>
       </c>
       <c r="D176" t="s">
@@ -14389,7 +14670,7 @@
       <c r="B177" t="s">
         <v>736</v>
       </c>
-      <c r="C177" s="36" t="s">
+      <c r="C177" s="73" t="s">
         <v>737</v>
       </c>
       <c r="D177" t="s">
@@ -14421,7 +14702,7 @@
       <c r="B180" t="s">
         <v>744</v>
       </c>
-      <c r="C180" s="36" t="s">
+      <c r="C180" s="73" t="s">
         <v>745</v>
       </c>
       <c r="D180" t="s">
@@ -14438,7 +14719,7 @@
       <c r="B181" t="s">
         <v>749</v>
       </c>
-      <c r="C181" s="36" t="s">
+      <c r="C181" s="73" t="s">
         <v>750</v>
       </c>
       <c r="D181" t="s">
@@ -14467,7 +14748,7 @@
       <c r="B183" t="s">
         <v>757</v>
       </c>
-      <c r="C183" s="36" t="s">
+      <c r="C183" s="73" t="s">
         <v>758</v>
       </c>
       <c r="D183" t="s">
@@ -14499,7 +14780,7 @@
       <c r="B185" t="s">
         <v>766</v>
       </c>
-      <c r="C185" s="36" t="s">
+      <c r="C185" s="73" t="s">
         <v>767</v>
       </c>
       <c r="D185" t="s">
@@ -14531,7 +14812,7 @@
       <c r="B187" t="s">
         <v>775</v>
       </c>
-      <c r="C187" s="36" t="s">
+      <c r="C187" s="73" t="s">
         <v>776</v>
       </c>
       <c r="D187" t="s">
@@ -14548,7 +14829,7 @@
       <c r="B188" t="s">
         <v>780</v>
       </c>
-      <c r="C188" s="36" t="s">
+      <c r="C188" s="73" t="s">
         <v>781</v>
       </c>
       <c r="D188" t="s">
@@ -14586,7 +14867,7 @@
       <c r="B191" t="s">
         <v>790</v>
       </c>
-      <c r="C191" s="38" t="s">
+      <c r="C191" s="75" t="s">
         <v>791</v>
       </c>
       <c r="D191" t="s">
@@ -14654,7 +14935,7 @@
       <c r="B196" t="s">
         <v>808</v>
       </c>
-      <c r="C196" s="36" t="s">
+      <c r="C196" s="73" t="s">
         <v>809</v>
       </c>
       <c r="D196" t="s">
@@ -14707,7 +14988,7 @@
       <c r="B200" t="s">
         <v>822</v>
       </c>
-      <c r="C200" s="36" t="s">
+      <c r="C200" s="73" t="s">
         <v>823</v>
       </c>
       <c r="E200" t="s">
@@ -14721,7 +15002,7 @@
       <c r="B201" t="s">
         <v>826</v>
       </c>
-      <c r="C201" s="36" t="s">
+      <c r="C201" s="73" t="s">
         <v>827</v>
       </c>
       <c r="D201" t="s">
@@ -14738,7 +15019,7 @@
       <c r="B202" t="s">
         <v>831</v>
       </c>
-      <c r="C202" s="36" t="s">
+      <c r="C202" s="73" t="s">
         <v>832</v>
       </c>
       <c r="D202" t="s">
@@ -14752,7 +15033,7 @@
       <c r="B203" t="s">
         <v>835</v>
       </c>
-      <c r="C203" s="38" t="s">
+      <c r="C203" s="75" t="s">
         <v>836</v>
       </c>
       <c r="D203" t="s">
@@ -14793,7 +15074,7 @@
       <c r="B206" t="s">
         <v>846</v>
       </c>
-      <c r="C206" s="36" t="s">
+      <c r="C206" s="73" t="s">
         <v>847</v>
       </c>
       <c r="D206" t="s">
@@ -14840,7 +15121,7 @@
       <c r="B209" t="s">
         <v>859</v>
       </c>
-      <c r="C209" s="36" t="s">
+      <c r="C209" s="73" t="s">
         <v>860</v>
       </c>
       <c r="D209" t="s">
@@ -14857,7 +15138,7 @@
       <c r="B210" t="s">
         <v>864</v>
       </c>
-      <c r="C210" s="36" t="s">
+      <c r="C210" s="73" t="s">
         <v>865</v>
       </c>
       <c r="D210" t="s">
@@ -14874,7 +15155,7 @@
       <c r="B211" t="s">
         <v>869</v>
       </c>
-      <c r="C211" s="36" t="s">
+      <c r="C211" s="73" t="s">
         <v>870</v>
       </c>
       <c r="D211" t="s">
@@ -14891,7 +15172,7 @@
       <c r="B212" t="s">
         <v>874</v>
       </c>
-      <c r="C212" s="36" t="s">
+      <c r="C212" s="73" t="s">
         <v>875</v>
       </c>
       <c r="D212" t="s">
@@ -14956,7 +15237,7 @@
       <c r="B217" t="s">
         <v>891</v>
       </c>
-      <c r="C217" s="36" t="s">
+      <c r="C217" s="73" t="s">
         <v>892</v>
       </c>
       <c r="D217" t="s">
@@ -15012,7 +15293,7 @@
       <c r="B221" t="s">
         <v>906</v>
       </c>
-      <c r="C221" s="36" t="s">
+      <c r="C221" s="73" t="s">
         <v>907</v>
       </c>
       <c r="D221" t="s">
@@ -15065,7 +15346,7 @@
       <c r="B225" t="s">
         <v>920</v>
       </c>
-      <c r="C225" s="36" t="s">
+      <c r="C225" s="73" t="s">
         <v>921</v>
       </c>
       <c r="D225" t="s">
@@ -15082,7 +15363,7 @@
       <c r="B226" t="s">
         <v>925</v>
       </c>
-      <c r="C226" s="36" t="s">
+      <c r="C226" s="73" t="s">
         <v>926</v>
       </c>
       <c r="D226" t="s">
@@ -15111,7 +15392,7 @@
       <c r="B228" t="s">
         <v>933</v>
       </c>
-      <c r="C228" s="36" t="s">
+      <c r="C228" s="73" t="s">
         <v>934</v>
       </c>
       <c r="D228" t="s">
@@ -15173,7 +15454,7 @@
       <c r="B233" t="s">
         <v>949</v>
       </c>
-      <c r="C233" s="36" t="s">
+      <c r="C233" s="73" t="s">
         <v>950</v>
       </c>
       <c r="D233" t="s">
@@ -15202,7 +15483,7 @@
       <c r="B235" t="s">
         <v>957</v>
       </c>
-      <c r="C235" s="36" t="s">
+      <c r="C235" s="73" t="s">
         <v>958</v>
       </c>
       <c r="D235" t="s">
@@ -15219,7 +15500,7 @@
       <c r="B236" t="s">
         <v>962</v>
       </c>
-      <c r="C236" s="36" t="s">
+      <c r="C236" s="73" t="s">
         <v>963</v>
       </c>
       <c r="D236" t="s">
@@ -15263,7 +15544,7 @@
       <c r="B239" t="s">
         <v>974</v>
       </c>
-      <c r="C239" s="36" t="s">
+      <c r="C239" s="73" t="s">
         <v>975</v>
       </c>
       <c r="D239" t="s">
@@ -15295,7 +15576,7 @@
       <c r="B241" t="s">
         <v>983</v>
       </c>
-      <c r="C241" s="36" t="s">
+      <c r="C241" s="73" t="s">
         <v>984</v>
       </c>
       <c r="D241" t="s">
@@ -15312,7 +15593,7 @@
       <c r="B242" t="s">
         <v>988</v>
       </c>
-      <c r="C242" s="36" t="s">
+      <c r="C242" s="73" t="s">
         <v>989</v>
       </c>
       <c r="D242" t="s">
@@ -15359,7 +15640,7 @@
       <c r="B245" t="s">
         <v>1001</v>
       </c>
-      <c r="C245" s="36" t="s">
+      <c r="C245" s="73" t="s">
         <v>1002</v>
       </c>
       <c r="D245" t="s">
@@ -15376,7 +15657,7 @@
       <c r="B246" t="s">
         <v>1006</v>
       </c>
-      <c r="C246" s="36" t="s">
+      <c r="C246" s="73" t="s">
         <v>1007</v>
       </c>
       <c r="E246" t="s">
@@ -15390,7 +15671,7 @@
       <c r="B247" t="s">
         <v>1010</v>
       </c>
-      <c r="C247" s="36" t="s">
+      <c r="C247" s="73" t="s">
         <v>1011</v>
       </c>
       <c r="D247" t="s">
@@ -15407,7 +15688,7 @@
       <c r="B248" t="s">
         <v>1015</v>
       </c>
-      <c r="C248" s="36" t="s">
+      <c r="C248" s="73" t="s">
         <v>1016</v>
       </c>
       <c r="D248" t="s">
@@ -15424,7 +15705,7 @@
       <c r="B249" t="s">
         <v>1020</v>
       </c>
-      <c r="C249" s="36" t="s">
+      <c r="C249" s="73" t="s">
         <v>1021</v>
       </c>
       <c r="D249" t="s">
@@ -15462,7 +15743,7 @@
       <c r="B252" t="s">
         <v>1030</v>
       </c>
-      <c r="C252" s="36" t="s">
+      <c r="C252" s="73" t="s">
         <v>1031</v>
       </c>
       <c r="D252" t="s">
@@ -15479,7 +15760,7 @@
       <c r="B253" t="s">
         <v>1035</v>
       </c>
-      <c r="C253" s="36" t="s">
+      <c r="C253" s="73" t="s">
         <v>1036</v>
       </c>
       <c r="D253" t="s">
@@ -15496,7 +15777,7 @@
       <c r="B254" t="s">
         <v>1040</v>
       </c>
-      <c r="C254" s="36" t="s">
+      <c r="C254" s="73" t="s">
         <v>1041</v>
       </c>
       <c r="D254" t="s">
@@ -15513,7 +15794,7 @@
       <c r="B255" t="s">
         <v>1045</v>
       </c>
-      <c r="C255" s="36" t="s">
+      <c r="C255" s="73" t="s">
         <v>1046</v>
       </c>
       <c r="D255" t="s">
@@ -15530,7 +15811,7 @@
       <c r="B256" t="s">
         <v>1050</v>
       </c>
-      <c r="C256" s="36" t="s">
+      <c r="C256" s="73" t="s">
         <v>1051</v>
       </c>
       <c r="D256" t="s">
@@ -15547,7 +15828,7 @@
       <c r="B257" t="s">
         <v>1055</v>
       </c>
-      <c r="C257" s="36" t="s">
+      <c r="C257" s="73" t="s">
         <v>1056</v>
       </c>
       <c r="D257" t="s">
@@ -15588,7 +15869,7 @@
       <c r="B260" t="s">
         <v>1066</v>
       </c>
-      <c r="C260" s="36" t="s">
+      <c r="C260" s="73" t="s">
         <v>1067</v>
       </c>
       <c r="D260" t="s">
@@ -15617,7 +15898,7 @@
       <c r="B262" t="s">
         <v>1074</v>
       </c>
-      <c r="C262" s="36" t="s">
+      <c r="C262" s="73" t="s">
         <v>1075</v>
       </c>
       <c r="D262" t="s">
@@ -15631,7 +15912,7 @@
       <c r="B263" t="s">
         <v>1078</v>
       </c>
-      <c r="C263" s="36" t="s">
+      <c r="C263" s="73" t="s">
         <v>1079</v>
       </c>
       <c r="D263" t="s">
@@ -15645,7 +15926,7 @@
       <c r="B264" t="s">
         <v>1082</v>
       </c>
-      <c r="C264" s="36" t="s">
+      <c r="C264" s="73" t="s">
         <v>1083</v>
       </c>
       <c r="D264" t="s">
@@ -15662,7 +15943,7 @@
       <c r="B265" t="s">
         <v>1087</v>
       </c>
-      <c r="C265" s="36" t="s">
+      <c r="C265" s="73" t="s">
         <v>1088</v>
       </c>
       <c r="D265" t="s">
@@ -15703,7 +15984,7 @@
       <c r="B268" t="s">
         <v>1098</v>
       </c>
-      <c r="C268" s="36" t="s">
+      <c r="C268" s="73" t="s">
         <v>1099</v>
       </c>
       <c r="D268" t="s">
@@ -15735,7 +16016,7 @@
       <c r="B270" t="s">
         <v>1107</v>
       </c>
-      <c r="C270" s="36" t="s">
+      <c r="C270" s="73" t="s">
         <v>1108</v>
       </c>
       <c r="D270" t="s">
@@ -15749,7 +16030,7 @@
       <c r="B271" t="s">
         <v>1111</v>
       </c>
-      <c r="C271" s="36" t="s">
+      <c r="C271" s="73" t="s">
         <v>1112</v>
       </c>
       <c r="D271" t="s">
@@ -15766,7 +16047,7 @@
       <c r="B272" t="s">
         <v>1116</v>
       </c>
-      <c r="C272" s="36" t="s">
+      <c r="C272" s="73" t="s">
         <v>1117</v>
       </c>
       <c r="D272" t="s">
@@ -15783,7 +16064,7 @@
       <c r="B273" t="s">
         <v>1121</v>
       </c>
-      <c r="C273" s="36" t="s">
+      <c r="C273" s="73" t="s">
         <v>1122</v>
       </c>
       <c r="D273" t="s">
@@ -15800,7 +16081,7 @@
       <c r="B274" t="s">
         <v>1126</v>
       </c>
-      <c r="C274" s="36" t="s">
+      <c r="C274" s="73" t="s">
         <v>1127</v>
       </c>
       <c r="D274" t="s">
@@ -15832,7 +16113,7 @@
       <c r="B276" t="s">
         <v>1135</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="C276" s="73" t="s">
         <v>1136</v>
       </c>
       <c r="D276" t="s">
@@ -15858,7 +16139,7 @@
       <c r="B278" t="s">
         <v>1142</v>
       </c>
-      <c r="C278" s="36" t="s">
+      <c r="C278" s="73" t="s">
         <v>1143</v>
       </c>
       <c r="D278" t="s">
@@ -15887,7 +16168,7 @@
       <c r="B280" t="s">
         <v>1150</v>
       </c>
-      <c r="C280" s="36" t="s">
+      <c r="C280" s="73" t="s">
         <v>1151</v>
       </c>
       <c r="D280" t="s">
@@ -15919,7 +16200,7 @@
       <c r="B282" t="s">
         <v>1159</v>
       </c>
-      <c r="C282" s="36" t="s">
+      <c r="C282" s="73" t="s">
         <v>1160</v>
       </c>
       <c r="D282" t="s">
@@ -15945,7 +16226,7 @@
       <c r="B284" t="s">
         <v>1166</v>
       </c>
-      <c r="C284" s="36" t="s">
+      <c r="C284" s="73" t="s">
         <v>1167</v>
       </c>
       <c r="D284" t="s">
@@ -15962,7 +16243,7 @@
       <c r="B285" t="s">
         <v>1171</v>
       </c>
-      <c r="C285" s="36" t="s">
+      <c r="C285" s="73" t="s">
         <v>1172</v>
       </c>
       <c r="D285" t="s">
@@ -15979,7 +16260,7 @@
       <c r="B286" t="s">
         <v>1176</v>
       </c>
-      <c r="C286" s="36" t="s">
+      <c r="C286" s="73" t="s">
         <v>1177</v>
       </c>
       <c r="D286" t="s">
@@ -16020,7 +16301,7 @@
       <c r="B289" t="s">
         <v>1187</v>
       </c>
-      <c r="C289" s="36" t="s">
+      <c r="C289" s="73" t="s">
         <v>1188</v>
       </c>
       <c r="D289" t="s">
@@ -16037,7 +16318,7 @@
       <c r="B290" t="s">
         <v>1192</v>
       </c>
-      <c r="C290" s="36" t="s">
+      <c r="C290" s="73" t="s">
         <v>1193</v>
       </c>
       <c r="D290" t="s">
@@ -16054,7 +16335,7 @@
       <c r="B291" t="s">
         <v>1197</v>
       </c>
-      <c r="C291" s="36" t="s">
+      <c r="C291" s="73" t="s">
         <v>1198</v>
       </c>
       <c r="D291" t="s">
@@ -16071,7 +16352,7 @@
       <c r="B292" t="s">
         <v>1202</v>
       </c>
-      <c r="C292" s="36" t="s">
+      <c r="C292" s="73" t="s">
         <v>1203</v>
       </c>
       <c r="D292" t="s">
@@ -16088,7 +16369,7 @@
       <c r="B293" t="s">
         <v>1207</v>
       </c>
-      <c r="C293" s="36" t="s">
+      <c r="C293" s="73" t="s">
         <v>1208</v>
       </c>
       <c r="D293" t="s">
@@ -16114,7 +16395,7 @@
       <c r="B295" t="s">
         <v>1214</v>
       </c>
-      <c r="C295" s="36" t="s">
+      <c r="C295" s="73" t="s">
         <v>1215</v>
       </c>
       <c r="D295" t="s">
@@ -16128,7 +16409,7 @@
       <c r="B296" t="s">
         <v>1218</v>
       </c>
-      <c r="C296" s="36" t="s">
+      <c r="C296" s="73" t="s">
         <v>1219</v>
       </c>
       <c r="D296" t="s">
@@ -16145,7 +16426,7 @@
       <c r="B297" t="s">
         <v>1223</v>
       </c>
-      <c r="C297" s="36" t="s">
+      <c r="C297" s="73" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -16156,7 +16437,7 @@
       <c r="B298" t="s">
         <v>1226</v>
       </c>
-      <c r="C298" s="36" t="s">
+      <c r="C298" s="73" t="s">
         <v>1227</v>
       </c>
       <c r="D298" t="s">
@@ -16173,7 +16454,7 @@
       <c r="B299" t="s">
         <v>1231</v>
       </c>
-      <c r="C299" s="36" t="s">
+      <c r="C299" s="73" t="s">
         <v>1232</v>
       </c>
       <c r="D299" t="s">
@@ -16190,7 +16471,7 @@
       <c r="B300" t="s">
         <v>1236</v>
       </c>
-      <c r="C300" s="36" t="s">
+      <c r="C300" s="73" t="s">
         <v>1237</v>
       </c>
       <c r="D300" t="s">
@@ -16219,7 +16500,7 @@
       <c r="B302" t="s">
         <v>1244</v>
       </c>
-      <c r="C302" s="36" t="s">
+      <c r="C302" s="73" t="s">
         <v>1245</v>
       </c>
       <c r="D302" t="s">
@@ -16236,7 +16517,7 @@
       <c r="B303" t="s">
         <v>1249</v>
       </c>
-      <c r="C303" s="36" t="s">
+      <c r="C303" s="73" t="s">
         <v>1250</v>
       </c>
       <c r="D303" t="s">
@@ -16268,7 +16549,7 @@
       <c r="B305" t="s">
         <v>1258</v>
       </c>
-      <c r="C305" s="36" t="s">
+      <c r="C305" s="73" t="s">
         <v>1259</v>
       </c>
       <c r="D305" t="s">
@@ -16285,7 +16566,7 @@
       <c r="B306" t="s">
         <v>1263</v>
       </c>
-      <c r="C306" s="36" t="s">
+      <c r="C306" s="73" t="s">
         <v>1264</v>
       </c>
       <c r="D306" t="s">
@@ -16314,7 +16595,7 @@
       <c r="B308" t="s">
         <v>1271</v>
       </c>
-      <c r="C308" s="36" t="s">
+      <c r="C308" s="73" t="s">
         <v>1272</v>
       </c>
       <c r="D308" t="s">
@@ -16331,7 +16612,7 @@
       <c r="B309" t="s">
         <v>1276</v>
       </c>
-      <c r="C309" s="36" t="s">
+      <c r="C309" s="73" t="s">
         <v>1277</v>
       </c>
       <c r="D309" t="s">
@@ -16357,7 +16638,7 @@
       <c r="B311" t="s">
         <v>1283</v>
       </c>
-      <c r="C311" s="36" t="s">
+      <c r="C311" s="73" t="s">
         <v>1284</v>
       </c>
       <c r="D311" t="s">
@@ -16374,7 +16655,7 @@
       <c r="B312" t="s">
         <v>1288</v>
       </c>
-      <c r="C312" s="36" t="s">
+      <c r="C312" s="73" t="s">
         <v>1289</v>
       </c>
       <c r="D312" t="s">
@@ -16391,7 +16672,7 @@
       <c r="B313" t="s">
         <v>1293</v>
       </c>
-      <c r="C313" s="36" t="s">
+      <c r="C313" s="73" t="s">
         <v>1294</v>
       </c>
       <c r="D313" t="s">
@@ -16423,7 +16704,7 @@
       <c r="B315" t="s">
         <v>1302</v>
       </c>
-      <c r="C315" s="38" t="s">
+      <c r="C315" s="75" t="s">
         <v>1303</v>
       </c>
       <c r="D315" t="s">
@@ -16455,7 +16736,7 @@
       <c r="B317" t="s">
         <v>1311</v>
       </c>
-      <c r="C317" s="36" t="s">
+      <c r="C317" s="73" t="s">
         <v>1312</v>
       </c>
       <c r="E317" t="s">
@@ -16469,7 +16750,7 @@
       <c r="B318" t="s">
         <v>1315</v>
       </c>
-      <c r="C318" s="36" t="s">
+      <c r="C318" s="73" t="s">
         <v>1316</v>
       </c>
       <c r="D318" t="s">
@@ -16513,7 +16794,7 @@
       <c r="B321" t="s">
         <v>1327</v>
       </c>
-      <c r="C321" s="36" t="s">
+      <c r="C321" s="73" t="s">
         <v>1328</v>
       </c>
       <c r="D321" t="s">
@@ -16530,7 +16811,7 @@
       <c r="B322" t="s">
         <v>1332</v>
       </c>
-      <c r="C322" s="36" t="s">
+      <c r="C322" s="73" t="s">
         <v>1333</v>
       </c>
       <c r="D322" t="s">
@@ -16547,7 +16828,7 @@
       <c r="B323" t="s">
         <v>1337</v>
       </c>
-      <c r="C323" s="36" t="s">
+      <c r="C323" s="73" t="s">
         <v>1338</v>
       </c>
       <c r="D323" t="s">
@@ -16564,7 +16845,7 @@
       <c r="B324" t="s">
         <v>1342</v>
       </c>
-      <c r="C324" s="36" t="s">
+      <c r="C324" s="73" t="s">
         <v>1343</v>
       </c>
       <c r="D324" t="s">
@@ -16581,7 +16862,7 @@
       <c r="B325" t="s">
         <v>1347</v>
       </c>
-      <c r="C325" s="36" t="s">
+      <c r="C325" s="73" t="s">
         <v>1348</v>
       </c>
       <c r="D325" t="s">
@@ -16610,7 +16891,7 @@
       <c r="B327" t="s">
         <v>1355</v>
       </c>
-      <c r="C327" s="36" t="s">
+      <c r="C327" s="73" t="s">
         <v>1356</v>
       </c>
       <c r="D327" t="s">
@@ -16627,7 +16908,7 @@
       <c r="B328" t="s">
         <v>1360</v>
       </c>
-      <c r="C328" s="36" t="s">
+      <c r="C328" s="73" t="s">
         <v>1361</v>
       </c>
       <c r="D328" t="s">
@@ -16644,7 +16925,7 @@
       <c r="B329" t="s">
         <v>1365</v>
       </c>
-      <c r="C329" s="36" t="s">
+      <c r="C329" s="73" t="s">
         <v>1366</v>
       </c>
       <c r="D329" t="s">
@@ -16670,7 +16951,7 @@
       <c r="B331" t="s">
         <v>1372</v>
       </c>
-      <c r="C331" s="36" t="s">
+      <c r="C331" s="73" t="s">
         <v>1373</v>
       </c>
       <c r="D331" t="s">
@@ -16687,7 +16968,7 @@
       <c r="B332" t="s">
         <v>1377</v>
       </c>
-      <c r="C332" s="36" t="s">
+      <c r="C332" s="73" t="s">
         <v>1378</v>
       </c>
       <c r="D332" t="s">
@@ -16728,7 +17009,7 @@
       <c r="B335" t="s">
         <v>1388</v>
       </c>
-      <c r="C335" s="36" t="s">
+      <c r="C335" s="73" t="s">
         <v>1389</v>
       </c>
       <c r="D335" t="s">
@@ -16757,7 +17038,7 @@
       <c r="B337" t="s">
         <v>1396</v>
       </c>
-      <c r="C337" s="36" t="s">
+      <c r="C337" s="73" t="s">
         <v>1397</v>
       </c>
       <c r="D337" t="s">
@@ -16771,7 +17052,7 @@
       <c r="B338" t="s">
         <v>1400</v>
       </c>
-      <c r="C338" s="36" t="s">
+      <c r="C338" s="73" t="s">
         <v>1401</v>
       </c>
       <c r="D338" t="s">
@@ -16794,7 +17075,7 @@
       <c r="B340" t="s">
         <v>1406</v>
       </c>
-      <c r="C340" s="36" t="s">
+      <c r="C340" s="73" t="s">
         <v>1407</v>
       </c>
       <c r="D340" t="s">
@@ -16811,7 +17092,7 @@
       <c r="B341" t="s">
         <v>1411</v>
       </c>
-      <c r="C341" s="36" t="s">
+      <c r="C341" s="73" t="s">
         <v>1412</v>
       </c>
       <c r="D341" t="s">
@@ -16840,7 +17121,7 @@
       <c r="B343" t="s">
         <v>1419</v>
       </c>
-      <c r="C343" s="36" t="s">
+      <c r="C343" s="73" t="s">
         <v>1420</v>
       </c>
       <c r="D343" t="s">
@@ -16881,7 +17162,7 @@
       <c r="B346" t="s">
         <v>1430</v>
       </c>
-      <c r="C346" s="36" t="s">
+      <c r="C346" s="73" t="s">
         <v>1431</v>
       </c>
       <c r="D346" t="s">
@@ -16898,7 +17179,7 @@
       <c r="B347" t="s">
         <v>1435</v>
       </c>
-      <c r="C347" s="36" t="s">
+      <c r="C347" s="73" t="s">
         <v>1436</v>
       </c>
       <c r="D347" t="s">
@@ -16915,7 +17196,7 @@
       <c r="B348" t="s">
         <v>1440</v>
       </c>
-      <c r="C348" s="36" t="s">
+      <c r="C348" s="73" t="s">
         <v>1441</v>
       </c>
       <c r="D348" t="s">
@@ -16932,7 +17213,7 @@
       <c r="B349" t="s">
         <v>1445</v>
       </c>
-      <c r="C349" s="36" t="s">
+      <c r="C349" s="73" t="s">
         <v>1446</v>
       </c>
       <c r="D349" t="s">
@@ -16949,7 +17230,7 @@
       <c r="B350" t="s">
         <v>1450</v>
       </c>
-      <c r="C350" s="36" t="s">
+      <c r="C350" s="73" t="s">
         <v>1451</v>
       </c>
       <c r="D350" t="s">
@@ -16975,7 +17256,7 @@
       <c r="B352" t="s">
         <v>1457</v>
       </c>
-      <c r="C352" s="36" t="s">
+      <c r="C352" s="73" t="s">
         <v>1458</v>
       </c>
       <c r="D352" t="s">
@@ -16992,7 +17273,7 @@
       <c r="B353" t="s">
         <v>1462</v>
       </c>
-      <c r="C353" s="36" t="s">
+      <c r="C353" s="73" t="s">
         <v>1463</v>
       </c>
       <c r="D353" t="s">
@@ -17045,7 +17326,7 @@
       <c r="B357" t="s">
         <v>1476</v>
       </c>
-      <c r="C357" s="36" t="s">
+      <c r="C357" s="73" t="s">
         <v>1477</v>
       </c>
       <c r="E357" t="s">
@@ -17059,7 +17340,7 @@
       <c r="B358" t="s">
         <v>1480</v>
       </c>
-      <c r="C358" s="36" t="s">
+      <c r="C358" s="73" t="s">
         <v>1481</v>
       </c>
       <c r="D358" t="s">
@@ -17076,7 +17357,7 @@
       <c r="B359" t="s">
         <v>1485</v>
       </c>
-      <c r="C359" s="36" t="s">
+      <c r="C359" s="73" t="s">
         <v>1486</v>
       </c>
       <c r="D359" t="s">
@@ -17099,7 +17380,7 @@
       <c r="B361" t="s">
         <v>1491</v>
       </c>
-      <c r="C361" s="36" t="s">
+      <c r="C361" s="73" t="s">
         <v>1492</v>
       </c>
       <c r="D361" t="s">
@@ -17170,7 +17451,7 @@
       <c r="B366" t="s">
         <v>1510</v>
       </c>
-      <c r="C366" s="36" t="s">
+      <c r="C366" s="73" t="s">
         <v>1511</v>
       </c>
       <c r="D366" t="s">
@@ -17199,7 +17480,7 @@
       <c r="B368" t="s">
         <v>1518</v>
       </c>
-      <c r="C368" s="36" t="s">
+      <c r="C368" s="73" t="s">
         <v>1519</v>
       </c>
       <c r="D368" t="s">
@@ -17225,7 +17506,7 @@
       <c r="B370" t="s">
         <v>1524</v>
       </c>
-      <c r="C370" s="36" t="s">
+      <c r="C370" s="73" t="s">
         <v>1525</v>
       </c>
       <c r="D370" t="s">
@@ -17278,7 +17559,7 @@
       <c r="B374" t="s">
         <v>1538</v>
       </c>
-      <c r="C374" s="36" t="s">
+      <c r="C374" s="73" t="s">
         <v>1539</v>
       </c>
       <c r="E374" t="s">
@@ -17304,7 +17585,7 @@
       <c r="B376" t="s">
         <v>1545</v>
       </c>
-      <c r="C376" s="36" t="s">
+      <c r="C376" s="73" t="s">
         <v>1546</v>
       </c>
       <c r="D376" t="s">
@@ -17321,7 +17602,7 @@
       <c r="B377" t="s">
         <v>1550</v>
       </c>
-      <c r="C377" s="36" t="s">
+      <c r="C377" s="73" t="s">
         <v>1551</v>
       </c>
       <c r="D377" t="s">
@@ -17338,7 +17619,7 @@
       <c r="B378" t="s">
         <v>1555</v>
       </c>
-      <c r="C378" s="36" t="s">
+      <c r="C378" s="73" t="s">
         <v>1556</v>
       </c>
       <c r="D378" t="s">
@@ -17367,7 +17648,7 @@
       <c r="B380" t="s">
         <v>1563</v>
       </c>
-      <c r="C380" s="36" t="s">
+      <c r="C380" s="73" t="s">
         <v>1564</v>
       </c>
       <c r="D380" t="s">
@@ -17429,7 +17710,7 @@
       <c r="B385" t="s">
         <v>1579</v>
       </c>
-      <c r="C385" s="36" t="s">
+      <c r="C385" s="73" t="s">
         <v>1580</v>
       </c>
       <c r="D385" t="s">
@@ -17446,7 +17727,7 @@
       <c r="B386" t="s">
         <v>1584</v>
       </c>
-      <c r="C386" s="36" t="s">
+      <c r="C386" s="73" t="s">
         <v>1585</v>
       </c>
       <c r="E386" t="s">
@@ -17469,7 +17750,7 @@
       <c r="B388" t="s">
         <v>1590</v>
       </c>
-      <c r="C388" s="36" t="s">
+      <c r="C388" s="73" t="s">
         <v>1591</v>
       </c>
       <c r="D388" t="s">
@@ -17507,7 +17788,7 @@
       <c r="B391" t="s">
         <v>1600</v>
       </c>
-      <c r="C391" s="36" t="s">
+      <c r="C391" s="73" t="s">
         <v>1601</v>
       </c>
       <c r="D391" t="s">
@@ -17575,7 +17856,7 @@
       <c r="B396" t="s">
         <v>1618</v>
       </c>
-      <c r="C396" s="36" t="s">
+      <c r="C396" s="73" t="s">
         <v>1619</v>
       </c>
       <c r="D396" t="s">
@@ -17616,7 +17897,7 @@
       <c r="B399" t="s">
         <v>1629</v>
       </c>
-      <c r="C399" s="36" t="s">
+      <c r="C399" s="73" t="s">
         <v>1630</v>
       </c>
       <c r="E399" t="s">
@@ -17630,7 +17911,7 @@
       <c r="B400" t="s">
         <v>1633</v>
       </c>
-      <c r="C400" s="36" t="s">
+      <c r="C400" s="73" t="s">
         <v>1634</v>
       </c>
       <c r="D400" t="s">
@@ -17644,7 +17925,7 @@
       <c r="B401" t="s">
         <v>1637</v>
       </c>
-      <c r="C401" s="36" t="s">
+      <c r="C401" s="73" t="s">
         <v>1638</v>
       </c>
       <c r="D401" t="s">
@@ -17658,7 +17939,7 @@
       <c r="B402" t="s">
         <v>1641</v>
       </c>
-      <c r="C402" s="36" t="s">
+      <c r="C402" s="73" t="s">
         <v>1642</v>
       </c>
       <c r="D402" t="s">
@@ -17672,7 +17953,7 @@
       <c r="B403" t="s">
         <v>1645</v>
       </c>
-      <c r="C403" s="36" t="s">
+      <c r="C403" s="73" t="s">
         <v>1646</v>
       </c>
       <c r="D403" t="s">
@@ -17686,7 +17967,7 @@
       <c r="B404" t="s">
         <v>1649</v>
       </c>
-      <c r="C404" s="36" t="s">
+      <c r="C404" s="73" t="s">
         <v>1650</v>
       </c>
       <c r="D404" t="s">
@@ -17703,7 +17984,7 @@
       <c r="B405" t="s">
         <v>1654</v>
       </c>
-      <c r="C405" s="36" t="s">
+      <c r="C405" s="73" t="s">
         <v>1655</v>
       </c>
       <c r="D405" t="s">
@@ -17720,7 +18001,7 @@
       <c r="B406" t="s">
         <v>1659</v>
       </c>
-      <c r="C406" s="36" t="s">
+      <c r="C406" s="73" t="s">
         <v>1660</v>
       </c>
       <c r="D406" t="s">
@@ -17761,7 +18042,7 @@
       <c r="B409" t="s">
         <v>1670</v>
       </c>
-      <c r="C409" s="36" t="s">
+      <c r="C409" s="73" t="s">
         <v>1671</v>
       </c>
       <c r="D409" t="s">
@@ -17787,7 +18068,7 @@
       <c r="B411" t="s">
         <v>1677</v>
       </c>
-      <c r="C411" s="36" t="s">
+      <c r="C411" s="73" t="s">
         <v>1678</v>
       </c>
       <c r="D411" t="s">
@@ -17855,7 +18136,7 @@
       <c r="B416" t="s">
         <v>1695</v>
       </c>
-      <c r="C416" s="38" t="s">
+      <c r="C416" s="75" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -17866,7 +18147,7 @@
       <c r="B417" t="s">
         <v>1698</v>
       </c>
-      <c r="C417" s="36" t="s">
+      <c r="C417" s="73" t="s">
         <v>1699</v>
       </c>
       <c r="D417" t="s">
@@ -17883,7 +18164,7 @@
       <c r="B418" t="s">
         <v>1703</v>
       </c>
-      <c r="C418" s="36" t="s">
+      <c r="C418" s="73" t="s">
         <v>1704</v>
       </c>
       <c r="D418" t="s">
@@ -17909,7 +18190,7 @@
       <c r="B420" t="s">
         <v>1710</v>
       </c>
-      <c r="C420" s="36" t="s">
+      <c r="C420" s="73" t="s">
         <v>1711</v>
       </c>
       <c r="D420" t="s">
@@ -17926,7 +18207,7 @@
       <c r="B421" t="s">
         <v>1715</v>
       </c>
-      <c r="C421" s="36" t="s">
+      <c r="C421" s="73" t="s">
         <v>1716</v>
       </c>
       <c r="D421" t="s">
@@ -17943,7 +18224,7 @@
       <c r="B422" t="s">
         <v>1670</v>
       </c>
-      <c r="C422" s="36" t="s">
+      <c r="C422" s="73" t="s">
         <v>1720</v>
       </c>
       <c r="D422" t="s">
@@ -17960,7 +18241,7 @@
       <c r="B423" t="s">
         <v>1724</v>
       </c>
-      <c r="C423" s="36" t="s">
+      <c r="C423" s="73" t="s">
         <v>1725</v>
       </c>
       <c r="D423" t="s">
@@ -17977,7 +18258,7 @@
       <c r="B424" t="s">
         <v>1729</v>
       </c>
-      <c r="C424" s="36" t="s">
+      <c r="C424" s="73" t="s">
         <v>1730</v>
       </c>
       <c r="D424" t="s">
@@ -18006,7 +18287,7 @@
       <c r="B426" t="s">
         <v>1737</v>
       </c>
-      <c r="C426" s="36" t="s">
+      <c r="C426" s="73" t="s">
         <v>1738</v>
       </c>
       <c r="D426" t="s">
@@ -18023,7 +18304,7 @@
       <c r="B427" t="s">
         <v>1742</v>
       </c>
-      <c r="C427" s="36" t="s">
+      <c r="C427" s="73" t="s">
         <v>1743</v>
       </c>
       <c r="E427" t="s">
@@ -18049,7 +18330,7 @@
       <c r="B429" t="s">
         <v>1749</v>
       </c>
-      <c r="C429" s="36" t="s">
+      <c r="C429" s="73" t="s">
         <v>1750</v>
       </c>
       <c r="D429" t="s">
@@ -18075,7 +18356,7 @@
       <c r="B431" t="s">
         <v>1756</v>
       </c>
-      <c r="C431" s="36" t="s">
+      <c r="C431" s="73" t="s">
         <v>1757</v>
       </c>
       <c r="D431" t="s">
@@ -18089,7 +18370,7 @@
       <c r="B432" t="s">
         <v>1760</v>
       </c>
-      <c r="C432" s="36" t="s">
+      <c r="C432" s="73" t="s">
         <v>1761</v>
       </c>
       <c r="D432" t="s">
@@ -18136,7 +18417,7 @@
       <c r="A436" t="s">
         <v>1772</v>
       </c>
-      <c r="C436" s="36" t="s">
+      <c r="C436" s="73" t="s">
         <v>1773</v>
       </c>
       <c r="D436" t="s">
@@ -18243,7 +18524,7 @@
       <c r="B444" t="s">
         <v>1800</v>
       </c>
-      <c r="C444" s="36" t="s">
+      <c r="C444" s="73" t="s">
         <v>1801</v>
       </c>
       <c r="D444" t="s">
@@ -18293,7 +18574,7 @@
       <c r="B448" t="s">
         <v>1813</v>
       </c>
-      <c r="C448" s="36" t="s">
+      <c r="C448" s="73" t="s">
         <v>1814</v>
       </c>
       <c r="D448" t="s">
@@ -18307,7 +18588,7 @@
       <c r="B449" t="s">
         <v>1817</v>
       </c>
-      <c r="C449" s="36" t="s">
+      <c r="C449" s="73" t="s">
         <v>1818</v>
       </c>
     </row>
@@ -18318,7 +18599,7 @@
       <c r="B450" t="s">
         <v>1820</v>
       </c>
-      <c r="C450" s="36" t="s">
+      <c r="C450" s="73" t="s">
         <v>1821</v>
       </c>
       <c r="D450" t="s">
@@ -18335,7 +18616,7 @@
       <c r="B451" t="s">
         <v>1825</v>
       </c>
-      <c r="C451" s="36" t="s">
+      <c r="C451" s="73" t="s">
         <v>1826</v>
       </c>
       <c r="D451" t="s">
@@ -18349,7 +18630,7 @@
       <c r="B452" t="s">
         <v>1829</v>
       </c>
-      <c r="C452" s="36" t="s">
+      <c r="C452" s="73" t="s">
         <v>1830</v>
       </c>
       <c r="D452" t="s">
@@ -18414,7 +18695,7 @@
       <c r="B457" t="s">
         <v>1846</v>
       </c>
-      <c r="C457" s="36" t="s">
+      <c r="C457" s="73" t="s">
         <v>1847</v>
       </c>
       <c r="D457" t="s">
@@ -18446,7 +18727,7 @@
       <c r="B459" t="s">
         <v>1855</v>
       </c>
-      <c r="C459" s="38" t="s">
+      <c r="C459" s="75" t="s">
         <v>1856</v>
       </c>
       <c r="D459" t="s">
@@ -18460,7 +18741,7 @@
       <c r="B460" t="s">
         <v>1859</v>
       </c>
-      <c r="C460" s="36" t="s">
+      <c r="C460" s="73" t="s">
         <v>1860</v>
       </c>
       <c r="D460" t="s">
@@ -18477,7 +18758,7 @@
       <c r="B461" t="s">
         <v>1864</v>
       </c>
-      <c r="C461" s="38" t="s">
+      <c r="C461" s="75" t="s">
         <v>1865</v>
       </c>
       <c r="E461" t="s">
@@ -18503,7 +18784,7 @@
       <c r="B463" t="s">
         <v>1871</v>
       </c>
-      <c r="C463" s="36" t="s">
+      <c r="C463" s="73" t="s">
         <v>1872</v>
       </c>
       <c r="D463" t="s">
@@ -18532,7 +18813,7 @@
       <c r="B465" t="s">
         <v>1879</v>
       </c>
-      <c r="C465" s="36" t="s">
+      <c r="C465" s="73" t="s">
         <v>1880</v>
       </c>
       <c r="D465" t="s">
@@ -18549,7 +18830,7 @@
       <c r="B466" t="s">
         <v>1884</v>
       </c>
-      <c r="C466" s="38" t="s">
+      <c r="C466" s="75" t="s">
         <v>1885</v>
       </c>
       <c r="D466" t="s">
@@ -18566,7 +18847,7 @@
       <c r="B467" t="s">
         <v>1889</v>
       </c>
-      <c r="C467" s="36" t="s">
+      <c r="C467" s="73" t="s">
         <v>1890</v>
       </c>
       <c r="D467" t="s">
@@ -18619,7 +18900,7 @@
       <c r="B471" t="s">
         <v>1903</v>
       </c>
-      <c r="C471" s="36" t="s">
+      <c r="C471" s="73" t="s">
         <v>1904</v>
       </c>
       <c r="D471" t="s">
@@ -18633,7 +18914,7 @@
       <c r="B472" t="s">
         <v>1907</v>
       </c>
-      <c r="C472" s="36" t="s">
+      <c r="C472" s="73" t="s">
         <v>1908</v>
       </c>
       <c r="D472" t="s">
@@ -18671,7 +18952,7 @@
       <c r="B475" t="s">
         <v>1917</v>
       </c>
-      <c r="C475" s="36" t="s">
+      <c r="C475" s="73" t="s">
         <v>1918</v>
       </c>
       <c r="D475" t="s">
@@ -18685,7 +18966,7 @@
       <c r="B476" t="s">
         <v>1921</v>
       </c>
-      <c r="C476" s="36" t="s">
+      <c r="C476" s="73" t="s">
         <v>1922</v>
       </c>
       <c r="D476" t="s">
@@ -18729,7 +19010,7 @@
       <c r="B479" t="s">
         <v>1933</v>
       </c>
-      <c r="C479" s="36" t="s">
+      <c r="C479" s="73" t="s">
         <v>1934</v>
       </c>
       <c r="D479" t="s">
@@ -18755,7 +19036,7 @@
       <c r="B481" t="s">
         <v>1940</v>
       </c>
-      <c r="C481" s="36" t="s">
+      <c r="C481" s="73" t="s">
         <v>1941</v>
       </c>
       <c r="D481" t="s">
@@ -18787,7 +19068,7 @@
       <c r="B483" t="s">
         <v>1949</v>
       </c>
-      <c r="C483" s="36" t="s">
+      <c r="C483" s="73" t="s">
         <v>1950</v>
       </c>
       <c r="E483" t="s">
@@ -18801,7 +19082,7 @@
       <c r="B484" t="s">
         <v>1953</v>
       </c>
-      <c r="C484" s="36" t="s">
+      <c r="C484" s="73" t="s">
         <v>1954</v>
       </c>
       <c r="D484" t="s">
@@ -18818,7 +19099,7 @@
       <c r="B485" t="s">
         <v>1958</v>
       </c>
-      <c r="C485" s="36" t="s">
+      <c r="C485" s="73" t="s">
         <v>1959</v>
       </c>
       <c r="D485" t="s">
@@ -18856,7 +19137,7 @@
       <c r="B488" t="s">
         <v>1968</v>
       </c>
-      <c r="C488" s="36" t="s">
+      <c r="C488" s="73" t="s">
         <v>1969</v>
       </c>
       <c r="D488" t="s">
@@ -18885,7 +19166,7 @@
       <c r="B490" t="s">
         <v>1976</v>
       </c>
-      <c r="C490" s="36" t="s">
+      <c r="C490" s="73" t="s">
         <v>1977</v>
       </c>
       <c r="D490" t="s">
@@ -18914,7 +19195,7 @@
       <c r="B492" t="s">
         <v>1984</v>
       </c>
-      <c r="C492" s="36" t="s">
+      <c r="C492" s="73" t="s">
         <v>1985</v>
       </c>
       <c r="D492" t="s">
@@ -18931,7 +19212,7 @@
       <c r="B493" t="s">
         <v>1989</v>
       </c>
-      <c r="C493" s="36" t="s">
+      <c r="C493" s="73" t="s">
         <v>1990</v>
       </c>
       <c r="D493" t="s">
@@ -18948,7 +19229,7 @@
       <c r="B494" t="s">
         <v>1994</v>
       </c>
-      <c r="C494" s="36" t="s">
+      <c r="C494" s="73" t="s">
         <v>1995</v>
       </c>
       <c r="D494" t="s">
@@ -18965,7 +19246,7 @@
       <c r="B495" t="s">
         <v>1999</v>
       </c>
-      <c r="C495" s="36" t="s">
+      <c r="C495" s="73" t="s">
         <v>2000</v>
       </c>
       <c r="D495" t="s">
@@ -18994,7 +19275,7 @@
       <c r="B497" t="s">
         <v>2007</v>
       </c>
-      <c r="C497" s="36" t="s">
+      <c r="C497" s="73" t="s">
         <v>2008</v>
       </c>
       <c r="D497" t="s">
@@ -19011,7 +19292,7 @@
       <c r="B498" t="s">
         <v>2012</v>
       </c>
-      <c r="C498" s="36" t="s">
+      <c r="C498" s="73" t="s">
         <v>2013</v>
       </c>
       <c r="D498" t="s">
@@ -19028,7 +19309,7 @@
       <c r="B499" t="s">
         <v>2017</v>
       </c>
-      <c r="C499" s="36" t="s">
+      <c r="C499" s="73" t="s">
         <v>2018</v>
       </c>
       <c r="D499" t="s">
@@ -19045,7 +19326,7 @@
       <c r="B500" t="s">
         <v>2022</v>
       </c>
-      <c r="C500" s="36" t="s">
+      <c r="C500" s="73" t="s">
         <v>2023</v>
       </c>
       <c r="D500" t="s">
@@ -19071,7 +19352,7 @@
       <c r="B502" t="s">
         <v>2029</v>
       </c>
-      <c r="C502" s="36" t="s">
+      <c r="C502" s="73" t="s">
         <v>2030</v>
       </c>
       <c r="D502" t="s">
@@ -19088,7 +19369,7 @@
       <c r="B503" t="s">
         <v>2034</v>
       </c>
-      <c r="C503" s="36" t="s">
+      <c r="C503" s="73" t="s">
         <v>2035</v>
       </c>
       <c r="D503" t="s">
@@ -19105,7 +19386,7 @@
       <c r="B504" t="s">
         <v>2039</v>
       </c>
-      <c r="C504" s="36" t="s">
+      <c r="C504" s="73" t="s">
         <v>2040</v>
       </c>
       <c r="D504" t="s">
@@ -19155,7 +19436,7 @@
       <c r="B508" t="s">
         <v>2052</v>
       </c>
-      <c r="C508" s="38" t="s">
+      <c r="C508" s="75" t="s">
         <v>2053</v>
       </c>
       <c r="D508" t="s">
@@ -19172,7 +19453,7 @@
       <c r="B509" t="s">
         <v>2057</v>
       </c>
-      <c r="C509" s="36" t="s">
+      <c r="C509" s="73" t="s">
         <v>2058</v>
       </c>
       <c r="D509" t="s">
@@ -19186,7 +19467,7 @@
       <c r="B510" t="s">
         <v>2061</v>
       </c>
-      <c r="C510" s="36" t="s">
+      <c r="C510" s="73" t="s">
         <v>2062</v>
       </c>
       <c r="D510" t="s">
@@ -19200,7 +19481,7 @@
       <c r="B511" t="s">
         <v>2065</v>
       </c>
-      <c r="C511" s="36" t="s">
+      <c r="C511" s="73" t="s">
         <v>2066</v>
       </c>
       <c r="D511" t="s">
@@ -19217,7 +19498,7 @@
       <c r="B512" t="s">
         <v>2070</v>
       </c>
-      <c r="C512" s="36" t="s">
+      <c r="C512" s="73" t="s">
         <v>2071</v>
       </c>
       <c r="D512" t="s">
@@ -19234,7 +19515,7 @@
       <c r="B513" t="s">
         <v>2075</v>
       </c>
-      <c r="C513" s="36" t="s">
+      <c r="C513" s="73" t="s">
         <v>2076</v>
       </c>
       <c r="D513" t="s">
@@ -19251,7 +19532,7 @@
       <c r="B514" t="s">
         <v>2080</v>
       </c>
-      <c r="C514" s="36" t="s">
+      <c r="C514" s="73" t="s">
         <v>2081</v>
       </c>
       <c r="D514" t="s">
@@ -19277,7 +19558,7 @@
       <c r="B516" t="s">
         <v>2086</v>
       </c>
-      <c r="C516" s="36" t="s">
+      <c r="C516" s="73" t="s">
         <v>2087</v>
       </c>
       <c r="D516" t="s">
@@ -19348,7 +19629,7 @@
       <c r="B521" t="s">
         <v>2105</v>
       </c>
-      <c r="C521" s="36" t="s">
+      <c r="C521" s="73" t="s">
         <v>2106</v>
       </c>
       <c r="D521" t="s">
@@ -19365,7 +19646,7 @@
       <c r="B522" t="s">
         <v>2110</v>
       </c>
-      <c r="C522" s="36" t="s">
+      <c r="C522" s="73" t="s">
         <v>2111</v>
       </c>
       <c r="D522" t="s">
@@ -19379,7 +19660,7 @@
       <c r="B523" t="s">
         <v>2113</v>
       </c>
-      <c r="C523" s="36" t="s">
+      <c r="C523" s="73" t="s">
         <v>2114</v>
       </c>
       <c r="D523" t="s">
@@ -19396,7 +19677,7 @@
       <c r="B524" t="s">
         <v>2118</v>
       </c>
-      <c r="C524" s="36" t="s">
+      <c r="C524" s="73" t="s">
         <v>2119</v>
       </c>
       <c r="D524" t="s">
@@ -19425,7 +19706,7 @@
       <c r="B526" t="s">
         <v>2126</v>
       </c>
-      <c r="C526" s="36" t="s">
+      <c r="C526" s="73" t="s">
         <v>2127</v>
       </c>
       <c r="D526" t="s">
@@ -19451,7 +19732,7 @@
       <c r="B528" t="s">
         <v>2133</v>
       </c>
-      <c r="C528" s="36" t="s">
+      <c r="C528" s="73" t="s">
         <v>2134</v>
       </c>
       <c r="D528" t="s">
@@ -19468,7 +19749,7 @@
       <c r="B529" t="s">
         <v>2138</v>
       </c>
-      <c r="C529" s="36" t="s">
+      <c r="C529" s="73" t="s">
         <v>2139</v>
       </c>
       <c r="D529" t="s">
@@ -19485,7 +19766,7 @@
       <c r="B530" t="s">
         <v>2143</v>
       </c>
-      <c r="C530" s="36" t="s">
+      <c r="C530" s="73" t="s">
         <v>2144</v>
       </c>
       <c r="D530" t="s">
@@ -19502,7 +19783,7 @@
       <c r="B531" t="s">
         <v>2148</v>
       </c>
-      <c r="C531" s="36" t="s">
+      <c r="C531" s="73" t="s">
         <v>2149</v>
       </c>
       <c r="D531" t="s">
@@ -19519,7 +19800,7 @@
       <c r="B532" t="s">
         <v>2153</v>
       </c>
-      <c r="C532" s="36" t="s">
+      <c r="C532" s="73" t="s">
         <v>2154</v>
       </c>
       <c r="D532" t="s">
@@ -19545,7 +19826,7 @@
       <c r="B534" t="s">
         <v>2160</v>
       </c>
-      <c r="C534" s="36" t="s">
+      <c r="C534" s="73" t="s">
         <v>2161</v>
       </c>
       <c r="D534" t="s">
@@ -19562,7 +19843,7 @@
       <c r="B535" t="s">
         <v>2165</v>
       </c>
-      <c r="C535" s="36" t="s">
+      <c r="C535" s="73" t="s">
         <v>2166</v>
       </c>
       <c r="E535" t="s">
@@ -19576,7 +19857,7 @@
       <c r="B536" t="s">
         <v>2169</v>
       </c>
-      <c r="C536" s="36" t="s">
+      <c r="C536" s="73" t="s">
         <v>2170</v>
       </c>
       <c r="D536" t="s">
@@ -19602,7 +19883,7 @@
       <c r="B538" t="s">
         <v>2176</v>
       </c>
-      <c r="C538" s="36" t="s">
+      <c r="C538" s="73" t="s">
         <v>2177</v>
       </c>
       <c r="D538" t="s">
@@ -19697,7 +19978,7 @@
       <c r="B545" t="s">
         <v>2201</v>
       </c>
-      <c r="C545" s="36" t="s">
+      <c r="C545" s="73" t="s">
         <v>2202</v>
       </c>
       <c r="D545" t="s">
@@ -19714,7 +19995,7 @@
       <c r="B546" t="s">
         <v>2206</v>
       </c>
-      <c r="C546" s="36" t="s">
+      <c r="C546" s="73" t="s">
         <v>2207</v>
       </c>
       <c r="D546" t="s">
@@ -19728,7 +20009,7 @@
       <c r="B547" t="s">
         <v>2210</v>
       </c>
-      <c r="C547" s="36" t="s">
+      <c r="C547" s="73" t="s">
         <v>2211</v>
       </c>
       <c r="D547" t="s">
@@ -19745,7 +20026,7 @@
       <c r="B548" t="s">
         <v>2215</v>
       </c>
-      <c r="C548" s="38" t="s">
+      <c r="C548" s="75" t="s">
         <v>2216</v>
       </c>
       <c r="D548" t="s">
@@ -19762,7 +20043,7 @@
       <c r="B549" t="s">
         <v>2220</v>
       </c>
-      <c r="C549" s="36" t="s">
+      <c r="C549" s="73" t="s">
         <v>2221</v>
       </c>
       <c r="D549" t="s">
@@ -19788,7 +20069,7 @@
       <c r="B551" t="s">
         <v>2227</v>
       </c>
-      <c r="C551" s="36" t="s">
+      <c r="C551" s="73" t="s">
         <v>2228</v>
       </c>
       <c r="D551" t="s">
@@ -19802,7 +20083,7 @@
       <c r="B552" t="s">
         <v>2231</v>
       </c>
-      <c r="C552" s="36" t="s">
+      <c r="C552" s="73" t="s">
         <v>2232</v>
       </c>
       <c r="D552" t="s">
@@ -19843,7 +20124,7 @@
       <c r="B555" t="s">
         <v>2242</v>
       </c>
-      <c r="C555" s="36" t="s">
+      <c r="C555" s="73" t="s">
         <v>2243</v>
       </c>
       <c r="D555" t="s">
@@ -19857,7 +20138,7 @@
       <c r="B556" t="s">
         <v>2246</v>
       </c>
-      <c r="C556" s="36" t="s">
+      <c r="C556" s="73" t="s">
         <v>2247</v>
       </c>
       <c r="D556" t="s">
@@ -19886,7 +20167,7 @@
       <c r="B558" t="s">
         <v>2254</v>
       </c>
-      <c r="C558" s="36" t="s">
+      <c r="C558" s="73" t="s">
         <v>2255</v>
       </c>
       <c r="D558" t="s">
@@ -19903,7 +20184,7 @@
       <c r="B559" t="s">
         <v>2259</v>
       </c>
-      <c r="C559" s="36" t="s">
+      <c r="C559" s="73" t="s">
         <v>2260</v>
       </c>
       <c r="D559" t="s">
@@ -19995,7 +20276,7 @@
       <c r="B566" t="s">
         <v>2283</v>
       </c>
-      <c r="C566" s="36" t="s">
+      <c r="C566" s="73" t="s">
         <v>2284</v>
       </c>
       <c r="D566" t="s">
@@ -20009,7 +20290,7 @@
       <c r="B567" t="s">
         <v>2287</v>
       </c>
-      <c r="C567" s="36" t="s">
+      <c r="C567" s="73" t="s">
         <v>2288</v>
       </c>
       <c r="D567" t="s">
@@ -20023,7 +20304,7 @@
       <c r="B568" t="s">
         <v>2291</v>
       </c>
-      <c r="C568" s="36" t="s">
+      <c r="C568" s="73" t="s">
         <v>2292</v>
       </c>
       <c r="D568" t="s">
@@ -20040,7 +20321,7 @@
       <c r="B569" t="s">
         <v>2296</v>
       </c>
-      <c r="C569" s="36" t="s">
+      <c r="C569" s="73" t="s">
         <v>2297</v>
       </c>
       <c r="D569" t="s">
@@ -20057,7 +20338,7 @@
       <c r="B570" t="s">
         <v>2301</v>
       </c>
-      <c r="C570" s="36" t="s">
+      <c r="C570" s="73" t="s">
         <v>2302</v>
       </c>
       <c r="D570" t="s">
@@ -20083,7 +20364,7 @@
       <c r="B572" t="s">
         <v>2308</v>
       </c>
-      <c r="C572" s="36" t="s">
+      <c r="C572" s="73" t="s">
         <v>2309</v>
       </c>
       <c r="D572" t="s">
@@ -20115,7 +20396,7 @@
       <c r="B574" t="s">
         <v>2317</v>
       </c>
-      <c r="C574" s="36" t="s">
+      <c r="C574" s="73" t="s">
         <v>2318</v>
       </c>
       <c r="D574" t="s">
@@ -20147,7 +20428,7 @@
       <c r="B576" t="s">
         <v>2326</v>
       </c>
-      <c r="C576" s="36" t="s">
+      <c r="C576" s="73" t="s">
         <v>2327</v>
       </c>
       <c r="D576" t="s">
@@ -20164,7 +20445,7 @@
       <c r="B577" t="s">
         <v>2331</v>
       </c>
-      <c r="C577" s="36" t="s">
+      <c r="C577" s="73" t="s">
         <v>2332</v>
       </c>
       <c r="D577" t="s">
@@ -20181,7 +20462,7 @@
       <c r="B578" t="s">
         <v>2336</v>
       </c>
-      <c r="C578" s="36" t="s">
+      <c r="C578" s="73" t="s">
         <v>2337</v>
       </c>
       <c r="D578" t="s">
@@ -20195,7 +20476,7 @@
       <c r="B579" t="s">
         <v>2340</v>
       </c>
-      <c r="C579" s="36" t="s">
+      <c r="C579" s="73" t="s">
         <v>2341</v>
       </c>
       <c r="D579" t="s">
@@ -20212,7 +20493,7 @@
       <c r="B580" t="s">
         <v>2345</v>
       </c>
-      <c r="C580" s="36" t="s">
+      <c r="C580" s="73" t="s">
         <v>2346</v>
       </c>
       <c r="D580" t="s">
@@ -20229,7 +20510,7 @@
       <c r="B581" t="s">
         <v>2350</v>
       </c>
-      <c r="C581" s="36" t="s">
+      <c r="C581" s="73" t="s">
         <v>2351</v>
       </c>
       <c r="D581" t="s">
@@ -20285,7 +20566,7 @@
       <c r="B585" t="s">
         <v>2365</v>
       </c>
-      <c r="C585" s="36" t="s">
+      <c r="C585" s="73" t="s">
         <v>2366</v>
       </c>
       <c r="D585" t="s">
@@ -20308,7 +20589,7 @@
       <c r="B587" t="s">
         <v>2371</v>
       </c>
-      <c r="C587" s="36" t="s">
+      <c r="C587" s="73" t="s">
         <v>2372</v>
       </c>
       <c r="D587" t="s">
@@ -20343,7 +20624,7 @@
       <c r="B590" t="s">
         <v>2380</v>
       </c>
-      <c r="C590" s="38" t="s">
+      <c r="C590" s="75" t="s">
         <v>2381</v>
       </c>
       <c r="D590" t="s">
@@ -20369,7 +20650,7 @@
       <c r="B592" t="s">
         <v>2387</v>
       </c>
-      <c r="C592" s="36" t="s">
+      <c r="C592" s="73" t="s">
         <v>2388</v>
       </c>
       <c r="E592" t="s">
@@ -20395,7 +20676,7 @@
       <c r="B594" t="s">
         <v>2394</v>
       </c>
-      <c r="C594" s="36" t="s">
+      <c r="C594" s="73" t="s">
         <v>2395</v>
       </c>
       <c r="D594" t="s">
@@ -20448,7 +20729,7 @@
       <c r="B598" t="s">
         <v>2408</v>
       </c>
-      <c r="C598" s="36" t="s">
+      <c r="C598" s="73" t="s">
         <v>2409</v>
       </c>
       <c r="D598" t="s">
@@ -20552,7 +20833,7 @@
       <c r="B606" t="s">
         <v>2435</v>
       </c>
-      <c r="C606" s="36" t="s">
+      <c r="C606" s="73" t="s">
         <v>2436</v>
       </c>
       <c r="D606" t="s">
@@ -20578,7 +20859,7 @@
       <c r="B608" t="s">
         <v>2442</v>
       </c>
-      <c r="C608" s="36" t="s">
+      <c r="C608" s="73" t="s">
         <v>2443</v>
       </c>
       <c r="D608" t="s">
@@ -20607,7 +20888,7 @@
       <c r="B610" t="s">
         <v>2450</v>
       </c>
-      <c r="C610" s="36" t="s">
+      <c r="C610" s="73" t="s">
         <v>2451</v>
       </c>
       <c r="E610" t="s">
@@ -20660,7 +20941,7 @@
       <c r="B614" t="s">
         <v>2464</v>
       </c>
-      <c r="C614" s="36" t="s">
+      <c r="C614" s="73" t="s">
         <v>2465</v>
       </c>
       <c r="D614" t="s">
@@ -20686,7 +20967,7 @@
       <c r="B616" t="s">
         <v>2471</v>
       </c>
-      <c r="C616" s="36" t="s">
+      <c r="C616" s="73" t="s">
         <v>2472</v>
       </c>
       <c r="D616" t="s">
@@ -20718,7 +20999,7 @@
       <c r="B618" t="s">
         <v>2480</v>
       </c>
-      <c r="C618" s="36" t="s">
+      <c r="C618" s="73" t="s">
         <v>2481</v>
       </c>
       <c r="D618" t="s">
@@ -20762,7 +21043,7 @@
       <c r="B621" t="s">
         <v>2491</v>
       </c>
-      <c r="C621" s="36" t="s">
+      <c r="C621" s="73" t="s">
         <v>2492</v>
       </c>
       <c r="D621" t="s">
@@ -20779,7 +21060,7 @@
       <c r="B622" t="s">
         <v>2496</v>
       </c>
-      <c r="C622" s="36" t="s">
+      <c r="C622" s="73" t="s">
         <v>2497</v>
       </c>
       <c r="D622" t="s">
@@ -20796,7 +21077,7 @@
       <c r="B623" t="s">
         <v>2501</v>
       </c>
-      <c r="C623" s="36" t="s">
+      <c r="C623" s="73" t="s">
         <v>2502</v>
       </c>
       <c r="D623" t="s">
@@ -20813,7 +21094,7 @@
       <c r="B624" t="s">
         <v>2506</v>
       </c>
-      <c r="C624" s="36" t="s">
+      <c r="C624" s="73" t="s">
         <v>2507</v>
       </c>
       <c r="D624" t="s">
@@ -20830,7 +21111,7 @@
       <c r="B625" t="s">
         <v>2511</v>
       </c>
-      <c r="C625" s="36" t="s">
+      <c r="C625" s="73" t="s">
         <v>2512</v>
       </c>
       <c r="D625" t="s">
@@ -20874,7 +21155,7 @@
       <c r="B629" t="s">
         <v>2522</v>
       </c>
-      <c r="C629" s="36" t="s">
+      <c r="C629" s="73" t="s">
         <v>2523</v>
       </c>
       <c r="D629" t="s">
@@ -20891,7 +21172,7 @@
       <c r="B630" t="s">
         <v>2527</v>
       </c>
-      <c r="C630" s="36" t="s">
+      <c r="C630" s="73" t="s">
         <v>2528</v>
       </c>
       <c r="D630" t="s">
@@ -20905,7 +21186,7 @@
       <c r="B631" t="s">
         <v>2531</v>
       </c>
-      <c r="C631" s="36" t="s">
+      <c r="C631" s="73" t="s">
         <v>2532</v>
       </c>
       <c r="D631" t="s">
@@ -20952,7 +21233,7 @@
       <c r="B635" t="s">
         <v>2543</v>
       </c>
-      <c r="C635" s="36" t="s">
+      <c r="C635" s="73" t="s">
         <v>2544</v>
       </c>
       <c r="D635" t="s">
@@ -20978,7 +21259,7 @@
       <c r="B637" t="s">
         <v>2550</v>
       </c>
-      <c r="C637" s="36" t="s">
+      <c r="C637" s="73" t="s">
         <v>2551</v>
       </c>
       <c r="D637" t="s">
@@ -21004,7 +21285,7 @@
       <c r="B639" t="s">
         <v>2557</v>
       </c>
-      <c r="C639" s="36" t="s">
+      <c r="C639" s="73" t="s">
         <v>2558</v>
       </c>
       <c r="D639" t="s">
@@ -21021,7 +21302,7 @@
       <c r="B640" t="s">
         <v>2562</v>
       </c>
-      <c r="C640" s="36" t="s">
+      <c r="C640" s="73" t="s">
         <v>2563</v>
       </c>
       <c r="D640" t="s">
@@ -21038,7 +21319,7 @@
       <c r="B641" t="s">
         <v>2567</v>
       </c>
-      <c r="C641" s="36" t="s">
+      <c r="C641" s="73" t="s">
         <v>2568</v>
       </c>
       <c r="D641" t="s">
@@ -21055,7 +21336,7 @@
       <c r="B642" t="s">
         <v>2572</v>
       </c>
-      <c r="C642" s="36" t="s">
+      <c r="C642" s="73" t="s">
         <v>2573</v>
       </c>
       <c r="D642" t="s">
@@ -21072,7 +21353,7 @@
       <c r="B643" t="s">
         <v>2577</v>
       </c>
-      <c r="C643" s="36" t="s">
+      <c r="C643" s="73" t="s">
         <v>2578</v>
       </c>
       <c r="D643" t="s">
@@ -21116,7 +21397,7 @@
       <c r="B646" t="s">
         <v>2589</v>
       </c>
-      <c r="C646" s="36" t="s">
+      <c r="C646" s="73" t="s">
         <v>2590</v>
       </c>
       <c r="D646" t="s">
@@ -21154,7 +21435,7 @@
       <c r="B649" t="s">
         <v>2598</v>
       </c>
-      <c r="C649" s="36" t="s">
+      <c r="C649" s="73" t="s">
         <v>2599</v>
       </c>
       <c r="D649" t="s">
@@ -21171,7 +21452,7 @@
       <c r="B650" t="s">
         <v>2603</v>
       </c>
-      <c r="C650" s="36" t="s">
+      <c r="C650" s="73" t="s">
         <v>2604</v>
       </c>
       <c r="D650" t="s">
@@ -21200,7 +21481,7 @@
       <c r="B652" t="s">
         <v>2611</v>
       </c>
-      <c r="C652" s="36" t="s">
+      <c r="C652" s="73" t="s">
         <v>2612</v>
       </c>
       <c r="D652" t="s">
@@ -21250,7 +21531,7 @@
       <c r="B656" t="s">
         <v>2624</v>
       </c>
-      <c r="C656" s="36" t="s">
+      <c r="C656" s="73" t="s">
         <v>2625</v>
       </c>
       <c r="D656" t="s">
@@ -21267,7 +21548,7 @@
       <c r="B657" t="s">
         <v>2629</v>
       </c>
-      <c r="C657" s="36" t="s">
+      <c r="C657" s="73" t="s">
         <v>2630</v>
       </c>
       <c r="D657" t="s">
@@ -21344,7 +21625,7 @@
       <c r="B663" t="s">
         <v>2649</v>
       </c>
-      <c r="C663" s="36" t="s">
+      <c r="C663" s="73" t="s">
         <v>2650</v>
       </c>
       <c r="D663" t="s">
@@ -21370,7 +21651,7 @@
       <c r="B665" t="s">
         <v>2656</v>
       </c>
-      <c r="C665" s="36" t="s">
+      <c r="C665" s="73" t="s">
         <v>2657</v>
       </c>
       <c r="D665" t="s">
@@ -21396,7 +21677,7 @@
       <c r="B667" t="s">
         <v>2550</v>
       </c>
-      <c r="C667" s="36" t="s">
+      <c r="C667" s="73" t="s">
         <v>2551</v>
       </c>
       <c r="D667" t="s">
@@ -21425,7 +21706,7 @@
       <c r="B669" t="s">
         <v>2669</v>
       </c>
-      <c r="C669" s="36" t="s">
+      <c r="C669" s="73" t="s">
         <v>2670</v>
       </c>
       <c r="D669" t="s">
@@ -21457,7 +21738,7 @@
       <c r="B671" t="s">
         <v>2678</v>
       </c>
-      <c r="C671" s="36" t="s">
+      <c r="C671" s="73" t="s">
         <v>2679</v>
       </c>
       <c r="D671" t="s">
@@ -21498,7 +21779,7 @@
       <c r="B674" t="s">
         <v>2689</v>
       </c>
-      <c r="C674" s="36" t="s">
+      <c r="C674" s="73" t="s">
         <v>2690</v>
       </c>
       <c r="D674" t="s">
@@ -21515,7 +21796,7 @@
       <c r="B675" t="s">
         <v>2694</v>
       </c>
-      <c r="C675" s="36" t="s">
+      <c r="C675" s="73" t="s">
         <v>2695</v>
       </c>
       <c r="D675" t="s">
@@ -21532,7 +21813,7 @@
       <c r="B676" t="s">
         <v>2699</v>
       </c>
-      <c r="C676" s="36" t="s">
+      <c r="C676" s="73" t="s">
         <v>2700</v>
       </c>
       <c r="D676" t="s">
@@ -21591,7 +21872,7 @@
       <c r="B680" t="s">
         <v>2715</v>
       </c>
-      <c r="C680" s="38" t="s">
+      <c r="C680" s="75" t="s">
         <v>2716</v>
       </c>
       <c r="D680" t="s">
@@ -21608,7 +21889,7 @@
       <c r="B681" t="s">
         <v>2720</v>
       </c>
-      <c r="C681" s="36" t="s">
+      <c r="C681" s="73" t="s">
         <v>2721</v>
       </c>
       <c r="D681" t="s">
@@ -21640,7 +21921,7 @@
       <c r="B683" t="s">
         <v>2729</v>
       </c>
-      <c r="C683" s="36" t="s">
+      <c r="C683" s="73" t="s">
         <v>2730</v>
       </c>
       <c r="D683" t="s">
@@ -21666,7 +21947,7 @@
       <c r="B685" t="s">
         <v>2736</v>
       </c>
-      <c r="C685" s="36" t="s">
+      <c r="C685" s="73" t="s">
         <v>2737</v>
       </c>
       <c r="D685" t="s">
@@ -21683,7 +21964,7 @@
       <c r="B686" t="s">
         <v>2741</v>
       </c>
-      <c r="C686" s="36" t="s">
+      <c r="C686" s="73" t="s">
         <v>2742</v>
       </c>
       <c r="D686" t="s">
@@ -21709,7 +21990,7 @@
       <c r="B688" t="s">
         <v>2748</v>
       </c>
-      <c r="C688" s="36" t="s">
+      <c r="C688" s="73" t="s">
         <v>2749</v>
       </c>
       <c r="D688" t="s">
@@ -21780,7 +22061,7 @@
       <c r="B693" t="s">
         <v>2767</v>
       </c>
-      <c r="C693" s="36" t="s">
+      <c r="C693" s="73" t="s">
         <v>2768</v>
       </c>
       <c r="D693" t="s">
@@ -21794,7 +22075,7 @@
       <c r="B694" t="s">
         <v>2771</v>
       </c>
-      <c r="C694" s="36" t="s">
+      <c r="C694" s="73" t="s">
         <v>2772</v>
       </c>
       <c r="D694" t="s">
@@ -21844,7 +22125,7 @@
       <c r="B698" t="s">
         <v>2784</v>
       </c>
-      <c r="C698" s="36" t="s">
+      <c r="C698" s="73" t="s">
         <v>2785</v>
       </c>
       <c r="D698" t="s">
@@ -21873,7 +22154,7 @@
       <c r="B700" t="s">
         <v>2792</v>
       </c>
-      <c r="C700" s="36" t="s">
+      <c r="C700" s="73" t="s">
         <v>2793</v>
       </c>
       <c r="E700" t="s">
@@ -21887,7 +22168,7 @@
       <c r="B701" t="s">
         <v>2796</v>
       </c>
-      <c r="C701" s="36" t="s">
+      <c r="C701" s="73" t="s">
         <v>2797</v>
       </c>
       <c r="D701" t="s">
@@ -21919,7 +22200,7 @@
       <c r="B703" t="s">
         <v>2805</v>
       </c>
-      <c r="C703" s="36" t="s">
+      <c r="C703" s="73" t="s">
         <v>2806</v>
       </c>
       <c r="D703" t="s">
@@ -21945,7 +22226,7 @@
       <c r="B705" t="s">
         <v>2812</v>
       </c>
-      <c r="C705" s="38" t="s">
+      <c r="C705" s="75" t="s">
         <v>2813</v>
       </c>
       <c r="D705" t="s">
@@ -21986,7 +22267,7 @@
       <c r="B708" t="s">
         <v>2823</v>
       </c>
-      <c r="C708" s="36" t="s">
+      <c r="C708" s="73" t="s">
         <v>2824</v>
       </c>
       <c r="D708" t="s">
@@ -22003,7 +22284,7 @@
       <c r="B709" t="s">
         <v>2828</v>
       </c>
-      <c r="C709" s="38" t="s">
+      <c r="C709" s="75" t="s">
         <v>2829</v>
       </c>
       <c r="D709" t="s">
@@ -22032,7 +22313,7 @@
       <c r="B711" t="s">
         <v>2836</v>
       </c>
-      <c r="C711" s="36" t="s">
+      <c r="C711" s="73" t="s">
         <v>2837</v>
       </c>
       <c r="D711" t="s">
@@ -22049,7 +22330,7 @@
       <c r="B712" t="s">
         <v>2841</v>
       </c>
-      <c r="C712" s="36" t="s">
+      <c r="C712" s="73" t="s">
         <v>2842</v>
       </c>
       <c r="D712" t="s">
@@ -22072,7 +22353,7 @@
       <c r="B714" t="s">
         <v>2847</v>
       </c>
-      <c r="C714" s="36" t="s">
+      <c r="C714" s="73" t="s">
         <v>2848</v>
       </c>
       <c r="D714" t="s">
@@ -22119,7 +22400,7 @@
       <c r="B718" t="s">
         <v>2859</v>
       </c>
-      <c r="C718" s="36" t="s">
+      <c r="C718" s="73" t="s">
         <v>2860</v>
       </c>
       <c r="D718" t="s">
@@ -22148,7 +22429,7 @@
       <c r="B720" t="s">
         <v>2867</v>
       </c>
-      <c r="C720" s="36" t="s">
+      <c r="C720" s="73" t="s">
         <v>2868</v>
       </c>
       <c r="D720" t="s">
@@ -22165,7 +22446,7 @@
       <c r="B721" t="s">
         <v>2872</v>
       </c>
-      <c r="C721" s="36" t="s">
+      <c r="C721" s="73" t="s">
         <v>2873</v>
       </c>
       <c r="D721" t="s">
@@ -22179,7 +22460,7 @@
       <c r="B722" t="s">
         <v>2876</v>
       </c>
-      <c r="C722" s="36" t="s">
+      <c r="C722" s="73" t="s">
         <v>2877</v>
       </c>
       <c r="D722" t="s">
@@ -22196,7 +22477,7 @@
       <c r="B723" t="s">
         <v>2881</v>
       </c>
-      <c r="C723" s="36" t="s">
+      <c r="C723" s="73" t="s">
         <v>2882</v>
       </c>
       <c r="D723" t="s">
@@ -22270,7 +22551,7 @@
       <c r="B729" t="s">
         <v>2900</v>
       </c>
-      <c r="C729" s="36" t="s">
+      <c r="C729" s="73" t="s">
         <v>2901</v>
       </c>
       <c r="D729" t="s">
@@ -22293,7 +22574,7 @@
       <c r="B731" t="s">
         <v>2906</v>
       </c>
-      <c r="C731" s="36" t="s">
+      <c r="C731" s="73" t="s">
         <v>2907</v>
       </c>
       <c r="D731" t="s">
@@ -22334,7 +22615,7 @@
       <c r="B734" t="s">
         <v>2917</v>
       </c>
-      <c r="C734" s="36" t="s">
+      <c r="C734" s="73" t="s">
         <v>2918</v>
       </c>
       <c r="D734" t="s">
@@ -22351,7 +22632,7 @@
       <c r="B735" t="s">
         <v>2922</v>
       </c>
-      <c r="C735" s="36" t="s">
+      <c r="C735" s="73" t="s">
         <v>2923</v>
       </c>
       <c r="D735" t="s">
@@ -22368,7 +22649,7 @@
       <c r="B736" t="s">
         <v>2927</v>
       </c>
-      <c r="C736" s="36" t="s">
+      <c r="C736" s="73" t="s">
         <v>2928</v>
       </c>
       <c r="D736" t="s">
@@ -22382,7 +22663,7 @@
       <c r="B737" t="s">
         <v>2931</v>
       </c>
-      <c r="C737" s="36" t="s">
+      <c r="C737" s="73" t="s">
         <v>2932</v>
       </c>
       <c r="D737" t="s">
@@ -22399,7 +22680,7 @@
       <c r="B738" t="s">
         <v>2936</v>
       </c>
-      <c r="C738" s="36" t="s">
+      <c r="C738" s="73" t="s">
         <v>2937</v>
       </c>
       <c r="D738" t="s">
@@ -22416,7 +22697,7 @@
       <c r="B739" t="s">
         <v>2941</v>
       </c>
-      <c r="C739" s="36" t="s">
+      <c r="C739" s="73" t="s">
         <v>2942</v>
       </c>
       <c r="D739" t="s">
@@ -22433,7 +22714,7 @@
       <c r="B740" t="s">
         <v>2946</v>
       </c>
-      <c r="C740" s="36" t="s">
+      <c r="C740" s="73" t="s">
         <v>2947</v>
       </c>
       <c r="D740" t="s">
@@ -22450,7 +22731,7 @@
       <c r="B741" t="s">
         <v>2951</v>
       </c>
-      <c r="C741" s="38" t="s">
+      <c r="C741" s="75" t="s">
         <v>2952</v>
       </c>
       <c r="D741" t="s">
@@ -22467,7 +22748,7 @@
       <c r="B742" t="s">
         <v>2956</v>
       </c>
-      <c r="C742" s="38" t="s">
+      <c r="C742" s="75" t="s">
         <v>2957</v>
       </c>
       <c r="D742" t="s">
@@ -22481,7 +22762,7 @@
       <c r="B743" t="s">
         <v>2960</v>
       </c>
-      <c r="C743" s="36" t="s">
+      <c r="C743" s="73" t="s">
         <v>2961</v>
       </c>
       <c r="D743" t="s">
@@ -22498,7 +22779,7 @@
       <c r="B744" t="s">
         <v>2965</v>
       </c>
-      <c r="C744" s="36" t="s">
+      <c r="C744" s="73" t="s">
         <v>2966</v>
       </c>
       <c r="D744" t="s">
@@ -22620,7 +22901,7 @@
       <c r="B754" t="s">
         <v>2996</v>
       </c>
-      <c r="C754" s="36" t="s">
+      <c r="C754" s="73" t="s">
         <v>2997</v>
       </c>
       <c r="D754" t="s">
@@ -22637,7 +22918,7 @@
       <c r="B755" t="s">
         <v>3001</v>
       </c>
-      <c r="C755" s="36" t="s">
+      <c r="C755" s="73" t="s">
         <v>3002</v>
       </c>
       <c r="D755" t="s">
@@ -22654,7 +22935,7 @@
       <c r="B756" t="s">
         <v>3006</v>
       </c>
-      <c r="C756" s="36" t="s">
+      <c r="C756" s="73" t="s">
         <v>3007</v>
       </c>
       <c r="D756" t="s">
@@ -22671,7 +22952,7 @@
       <c r="B757" t="s">
         <v>3011</v>
       </c>
-      <c r="C757" s="36" t="s">
+      <c r="C757" s="73" t="s">
         <v>3012</v>
       </c>
       <c r="E757" t="s">
@@ -22685,7 +22966,7 @@
       <c r="B758" t="s">
         <v>3015</v>
       </c>
-      <c r="C758" s="36" t="s">
+      <c r="C758" s="73" t="s">
         <v>3016</v>
       </c>
       <c r="D758" t="s">
@@ -22723,7 +23004,7 @@
       <c r="B761" t="s">
         <v>3025</v>
       </c>
-      <c r="C761" s="36" t="s">
+      <c r="C761" s="73" t="s">
         <v>3026</v>
       </c>
       <c r="D761" t="s">
@@ -22809,7 +23090,7 @@
       <c r="B768" t="s">
         <v>3047</v>
       </c>
-      <c r="C768" s="36" t="s">
+      <c r="C768" s="73" t="s">
         <v>3048</v>
       </c>
       <c r="D768" t="s">
@@ -22823,7 +23104,7 @@
       <c r="B769" t="s">
         <v>3051</v>
       </c>
-      <c r="C769" s="36" t="s">
+      <c r="C769" s="73" t="s">
         <v>3052</v>
       </c>
       <c r="D769" t="s">
@@ -22864,7 +23145,7 @@
       <c r="B772" t="s">
         <v>3062</v>
       </c>
-      <c r="C772" s="36" t="s">
+      <c r="C772" s="73" t="s">
         <v>3063</v>
       </c>
       <c r="E772" t="s">
@@ -22905,7 +23186,7 @@
       <c r="B775" t="s">
         <v>3072</v>
       </c>
-      <c r="C775" s="36" t="s">
+      <c r="C775" s="73" t="s">
         <v>3073</v>
       </c>
       <c r="D775" t="s">
@@ -22922,7 +23203,7 @@
       <c r="B776" t="s">
         <v>3077</v>
       </c>
-      <c r="C776" s="36" t="s">
+      <c r="C776" s="73" t="s">
         <v>3078</v>
       </c>
       <c r="D776" t="s">
@@ -22939,7 +23220,7 @@
       <c r="B777" t="s">
         <v>3082</v>
       </c>
-      <c r="C777" s="36" t="s">
+      <c r="C777" s="73" t="s">
         <v>3083</v>
       </c>
       <c r="E777" t="s">
@@ -22977,7 +23258,7 @@
       <c r="B780" t="s">
         <v>3092</v>
       </c>
-      <c r="C780" s="36" t="s">
+      <c r="C780" s="73" t="s">
         <v>3093</v>
       </c>
       <c r="D780" t="s">
@@ -23018,7 +23299,7 @@
       <c r="B783" t="s">
         <v>3103</v>
       </c>
-      <c r="C783" s="36" t="s">
+      <c r="C783" s="73" t="s">
         <v>3104</v>
       </c>
       <c r="D783" t="s">
@@ -23032,7 +23313,7 @@
       <c r="B784" t="s">
         <v>3107</v>
       </c>
-      <c r="C784" s="36" t="s">
+      <c r="C784" s="73" t="s">
         <v>3108</v>
       </c>
       <c r="D784" t="s">
@@ -23073,7 +23354,7 @@
       <c r="B787" t="s">
         <v>3118</v>
       </c>
-      <c r="C787" s="36" t="s">
+      <c r="C787" s="73" t="s">
         <v>3119</v>
       </c>
       <c r="D787" t="s">
@@ -23099,7 +23380,7 @@
       <c r="B789" t="s">
         <v>3125</v>
       </c>
-      <c r="C789" s="36" t="s">
+      <c r="C789" s="73" t="s">
         <v>3126</v>
       </c>
       <c r="D789" t="s">
@@ -23116,7 +23397,7 @@
       <c r="B790" t="s">
         <v>3130</v>
       </c>
-      <c r="C790" s="36" t="s">
+      <c r="C790" s="73" t="s">
         <v>3131</v>
       </c>
       <c r="D790" t="s">
@@ -23133,7 +23414,7 @@
       <c r="B791" t="s">
         <v>3135</v>
       </c>
-      <c r="C791" s="36" t="s">
+      <c r="C791" s="73" t="s">
         <v>3136</v>
       </c>
       <c r="D791" t="s">
@@ -23159,7 +23440,7 @@
       <c r="B793" t="s">
         <v>3142</v>
       </c>
-      <c r="C793" s="36" t="s">
+      <c r="C793" s="73" t="s">
         <v>3143</v>
       </c>
       <c r="D793" t="s">
@@ -23176,7 +23457,7 @@
       <c r="B794" t="s">
         <v>3147</v>
       </c>
-      <c r="C794" s="36" t="s">
+      <c r="C794" s="73" t="s">
         <v>3148</v>
       </c>
       <c r="D794" t="s">
@@ -23190,7 +23471,7 @@
       <c r="B795" t="s">
         <v>3151</v>
       </c>
-      <c r="C795" s="36" t="s">
+      <c r="C795" s="73" t="s">
         <v>3152</v>
       </c>
       <c r="D795" t="s">
@@ -23207,7 +23488,7 @@
       <c r="B796" t="s">
         <v>3156</v>
       </c>
-      <c r="C796" s="38" t="s">
+      <c r="C796" s="75" t="s">
         <v>3157</v>
       </c>
       <c r="D796" t="s">
@@ -23227,7 +23508,7 @@
       <c r="B798" t="s">
         <v>3161</v>
       </c>
-      <c r="C798" s="36" t="s">
+      <c r="C798" s="73" t="s">
         <v>3162</v>
       </c>
       <c r="D798" t="s">
@@ -23244,7 +23525,7 @@
       <c r="B799" t="s">
         <v>3166</v>
       </c>
-      <c r="C799" s="36" t="s">
+      <c r="C799" s="73" t="s">
         <v>3167</v>
       </c>
       <c r="D799" t="s">
@@ -23297,7 +23578,7 @@
       <c r="B803" t="s">
         <v>3180</v>
       </c>
-      <c r="C803" s="36" t="s">
+      <c r="C803" s="73" t="s">
         <v>3181</v>
       </c>
       <c r="D803" t="s">
@@ -23659,645 +23940,748 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="42.9583333333333"/>
-    <col min="2" max="2" width="22.8166666666667"/>
-    <col min="3" max="3" width="45.525"/>
+    <col min="1" max="1" width="42.9583333333333" style="21"/>
+    <col min="2" max="2" width="22.8166666666667" style="22"/>
+    <col min="3" max="3" width="45.525" style="23"/>
     <col min="4" max="4" width="42.3083333333333"/>
-    <col min="5" max="5" width="8.675"/>
-    <col min="6" max="6" width="39.3083333333333"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="1025" width="8.575"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.6" customHeight="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="24" t="s">
         <v>3191</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="25" t="s">
         <v>3192</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="26" t="s">
         <v>3193</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3194</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="10" t="s">
+    <row r="2" ht="40.5" spans="2:5">
+      <c r="B2" s="27" t="s">
         <v>3195</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="28"/>
       <c r="D2" t="s">
         <v>3196</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="68">
         <v>42769</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="10" t="s">
+    <row r="3" s="18" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
         <v>3197</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="31" t="s">
         <v>3198</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="69">
         <v>42769</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="10" t="s">
+      <c r="F3" s="18" t="s">
         <v>3199</v>
       </c>
-      <c r="C4" s="10" t="s">
+    </row>
+    <row r="4" ht="27" spans="2:5">
+      <c r="B4" s="27" t="s">
         <v>3200</v>
       </c>
+      <c r="C4" s="28" t="s">
+        <v>3201</v>
+      </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="32">
+      <c r="E4" s="68">
         <v>42769</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="10" t="s">
-        <v>3201</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" ht="27" spans="2:5">
+      <c r="B5" s="27" t="s">
         <v>3202</v>
       </c>
+      <c r="C5" s="32" t="s">
+        <v>3203</v>
+      </c>
       <c r="D5" t="s">
-        <v>3203</v>
-      </c>
-      <c r="E5" s="32">
+        <v>3204</v>
+      </c>
+      <c r="E5" s="68">
         <v>42769</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="10" t="s">
-        <v>3204</v>
-      </c>
-      <c r="C6" s="10"/>
+    <row r="6" ht="27" spans="2:5">
+      <c r="B6" s="27" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C6" s="28"/>
       <c r="D6" s="12" t="s">
-        <v>3205</v>
-      </c>
-      <c r="E6" s="32">
+        <v>3206</v>
+      </c>
+      <c r="E6" s="68">
         <v>42769</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" spans="2:5">
-      <c r="B7" s="20" t="s">
-        <v>3206</v>
-      </c>
-      <c r="C7" s="20" t="s">
+    <row r="7" s="19" customFormat="1" ht="27" spans="1:5">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
         <v>3207</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="35" t="s">
         <v>3208</v>
       </c>
-      <c r="E7" s="33">
+      <c r="D7" s="19" t="s">
+        <v>3209</v>
+      </c>
+      <c r="E7" s="70">
         <v>42769</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" t="s">
-        <v>3209</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" ht="27" spans="2:5">
+      <c r="B8" s="22" t="s">
         <v>3210</v>
       </c>
-      <c r="E8" s="32">
+      <c r="C8" s="32" t="s">
+        <v>3211</v>
+      </c>
+      <c r="E8" s="68">
         <v>42770</v>
       </c>
     </row>
     <row r="9" ht="27" spans="2:5">
-      <c r="B9" s="10" t="s">
-        <v>3211</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="27" t="s">
         <v>3212</v>
       </c>
+      <c r="C9" s="36" t="s">
+        <v>3213</v>
+      </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="32">
+      <c r="E9" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="10" s="19" customFormat="1" ht="27" spans="1:6">
-      <c r="A10" s="19" t="s">
-        <v>3213</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    <row r="10" s="20" customFormat="1" ht="36" spans="1:6">
+      <c r="A10" s="37" t="s">
         <v>3214</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="38" t="s">
         <v>3215</v>
       </c>
-      <c r="E10" s="34">
+      <c r="C10" s="39"/>
+      <c r="D10" s="40" t="s">
+        <v>3216</v>
+      </c>
+      <c r="E10" s="71">
         <v>42770</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="10" t="s">
+      <c r="F10" s="20" t="s">
         <v>3217</v>
       </c>
-      <c r="C11" s="10"/>
+    </row>
+    <row r="11" ht="27" spans="2:5">
+      <c r="B11" s="27" t="s">
+        <v>3218</v>
+      </c>
+      <c r="C11" s="28"/>
       <c r="D11" t="s">
-        <v>3218</v>
-      </c>
-      <c r="E11" s="32">
+        <v>3219</v>
+      </c>
+      <c r="E11" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="12" s="19" customFormat="1" spans="2:6">
-      <c r="B12" s="21" t="s">
-        <v>3219</v>
-      </c>
-      <c r="C12" s="19" t="s">
+    <row r="12" s="20" customFormat="1" ht="27" spans="1:6">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38" t="s">
         <v>3220</v>
       </c>
-      <c r="E12" s="34">
+      <c r="C12" s="41" t="s">
+        <v>3221</v>
+      </c>
+      <c r="E12" s="71">
         <v>42770</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>3221</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="10" t="s">
+      <c r="F12" s="20" t="s">
         <v>3222</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="13" ht="27" spans="2:5">
+      <c r="B13" s="27" t="s">
         <v>3223</v>
       </c>
-      <c r="E13" s="32">
+      <c r="C13" s="32" t="s">
+        <v>3224</v>
+      </c>
+      <c r="E13" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
-      <c r="B14" t="s">
-        <v>3224</v>
-      </c>
-      <c r="C14" s="10" t="s">
+    <row r="14" ht="27" spans="2:5">
+      <c r="B14" s="22" t="s">
         <v>3225</v>
       </c>
+      <c r="C14" s="28" t="s">
+        <v>3226</v>
+      </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="32">
+      <c r="E14" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="10" t="s">
-        <v>3226</v>
-      </c>
-      <c r="C15" s="23" t="s">
+    <row r="15" ht="27" spans="2:5">
+      <c r="B15" s="27" t="s">
         <v>3227</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="32">
+      <c r="C15" s="28" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="10" t="s">
-        <v>3228</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="16" ht="27" spans="2:5">
+      <c r="B16" s="27" t="s">
         <v>3229</v>
       </c>
-      <c r="E16" s="32">
+      <c r="C16" s="32" t="s">
+        <v>3230</v>
+      </c>
+      <c r="E16" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" t="s">
-        <v>3230</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="17" ht="27" spans="2:5">
+      <c r="B17" s="22" t="s">
         <v>3231</v>
       </c>
-      <c r="E17" s="32">
+      <c r="C17" s="32" t="s">
+        <v>3232</v>
+      </c>
+      <c r="E17" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="10" t="s">
-        <v>3232</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="18" ht="27" spans="2:5">
+      <c r="B18" s="27" t="s">
         <v>3233</v>
       </c>
-      <c r="E18" s="32">
+      <c r="C18" s="32" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E18" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="19" s="18" customFormat="1" spans="2:5">
-      <c r="B19" s="20" t="s">
-        <v>3234</v>
-      </c>
-      <c r="C19" s="18" t="s">
+    <row r="19" s="19" customFormat="1" ht="27" spans="1:5">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34" t="s">
         <v>3235</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="43" t="s">
         <v>3236</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="19" t="s">
         <v>3237</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="10" t="s">
+      <c r="E19" s="19" t="s">
         <v>3238</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="20" ht="27" spans="2:5">
+      <c r="B20" s="27" t="s">
         <v>3239</v>
       </c>
-      <c r="E20" s="32">
+      <c r="C20" s="32" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E20" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="10" t="s">
-        <v>3240</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="21" ht="27" spans="2:5">
+      <c r="B21" s="27" t="s">
         <v>3241</v>
       </c>
-      <c r="E21" s="32">
+      <c r="C21" s="32" t="s">
+        <v>3242</v>
+      </c>
+      <c r="E21" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" t="s">
-        <v>3242</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="22" ht="27" spans="2:5">
+      <c r="B22" s="22" t="s">
         <v>3243</v>
       </c>
-      <c r="E22" s="32">
+      <c r="C22" s="32" t="s">
+        <v>3244</v>
+      </c>
+      <c r="E22" s="68">
         <v>42770</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="10" t="s">
-        <v>3244</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="23" ht="27" spans="1:5">
+      <c r="A23" s="44" t="s">
         <v>3245</v>
       </c>
+      <c r="B23" s="27" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>3247</v>
+      </c>
       <c r="D23" t="s">
-        <v>3246</v>
-      </c>
-      <c r="E23" s="32">
+        <v>3248</v>
+      </c>
+      <c r="E23" s="68">
         <v>42771</v>
       </c>
     </row>
-    <row r="24" s="18" customFormat="1" spans="2:5">
-      <c r="B24" s="20" t="s">
-        <v>3247</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>3248</v>
-      </c>
-      <c r="E24" s="33">
+    <row r="24" s="19" customFormat="1" ht="27" spans="1:5">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>3250</v>
+      </c>
+      <c r="E24" s="70">
         <v>42772</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
-      <c r="B25" t="s">
-        <v>3249</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>3250</v>
+    <row r="25" ht="27" spans="2:5">
+      <c r="B25" s="22" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>3252</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="32">
+      <c r="E25" s="68">
         <v>42772</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
-        <v>3251</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>3252</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="32">
+    <row r="26" ht="27" spans="2:5">
+      <c r="B26" s="22" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="68">
         <v>42772</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>3253</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3254</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="27" ht="27" spans="1:5">
+      <c r="A27" s="44" t="s">
         <v>3255</v>
       </c>
+      <c r="B27" s="22" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>3257</v>
+      </c>
       <c r="D27" t="s">
-        <v>3256</v>
-      </c>
-      <c r="E27" s="32">
+        <v>3258</v>
+      </c>
+      <c r="E27" s="68">
         <v>42772</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+    <row r="28" ht="27" spans="1:5">
+      <c r="A28" s="44" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3262</v>
+      </c>
+      <c r="E28" s="68">
+        <v>42772</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:5">
+      <c r="A29" s="47" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3265</v>
+      </c>
+      <c r="E29" s="68">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:5">
+      <c r="A30" s="44" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>3257</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>3258</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>3259</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3260</v>
-      </c>
-      <c r="E28" s="32">
-        <v>42772</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="25" t="s">
-        <v>3261</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>3262</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3263</v>
-      </c>
-      <c r="E29" s="32">
+      <c r="E30" s="68">
         <v>42773</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>3253</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>3264</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="31" ht="27" spans="1:5">
+      <c r="A31" s="50" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3270</v>
+      </c>
+      <c r="E31" s="68">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:5">
+      <c r="A32" s="44" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>3273</v>
+      </c>
+      <c r="E32" s="68">
+        <v>42773</v>
+      </c>
+    </row>
+    <row r="33" ht="36" spans="1:4">
+      <c r="A33" s="44" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:3">
+      <c r="A34" s="44" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:3">
+      <c r="A35" s="44" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:5">
+      <c r="A36" s="51" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>3285</v>
+      </c>
+      <c r="E36" s="72">
+        <v>42774</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:3">
+      <c r="A37" s="51" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="38" ht="36" spans="1:3">
+      <c r="A38" s="44" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:3">
+      <c r="A39" s="52" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="40" s="19" customFormat="1" ht="27" spans="1:3">
+      <c r="A40" s="54" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>3293</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:5">
+      <c r="A41" s="44" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>3296</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:3">
+      <c r="A42" s="44" t="s">
         <v>3255</v>
       </c>
-      <c r="E30" s="32">
-        <v>42773</v>
-      </c>
-    </row>
-    <row r="31" ht="21" spans="1:5">
-      <c r="A31" s="26" t="s">
-        <v>3265</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>3266</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3267</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3268</v>
-      </c>
-      <c r="E31" s="32">
-        <v>42773</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>3269</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>3270</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3271</v>
-      </c>
-      <c r="E32" s="32">
-        <v>42773</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>3272</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>3273</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3274</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3275</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:3">
-      <c r="A34" t="s">
-        <v>3276</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>3277</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>3278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>3279</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>3280</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="36" ht="27" spans="1:5">
-      <c r="A36" s="27" t="s">
-        <v>3269</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>3282</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>3283</v>
-      </c>
-      <c r="E36" s="35">
-        <v>42774</v>
-      </c>
-    </row>
-    <row r="37" ht="21.75" spans="1:3">
-      <c r="A37" s="27" t="s">
-        <v>3269</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>3284</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3285</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>3286</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>3287</v>
-      </c>
-      <c r="C38" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="9" t="s">
-        <v>3288</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>3289</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>3290</v>
-      </c>
-    </row>
-    <row r="40" s="18" customFormat="1" spans="1:3">
-      <c r="A40" s="18" t="s">
-        <v>3269</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>3291</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>3292</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>3269</v>
-      </c>
-      <c r="B41" t="s">
-        <v>3293</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3294</v>
-      </c>
-      <c r="E41" t="s">
-        <v>3295</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>3253</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3296</v>
-      </c>
-      <c r="C42" t="s">
-        <v>3297</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="B42" s="22" t="s">
         <v>3298</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C42" s="32" t="s">
         <v>3299</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="43" ht="27" spans="1:3">
+      <c r="A43" s="44" t="s">
         <v>3300</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="B43" s="22" t="s">
         <v>3301</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C43" s="32" t="s">
         <v>3302</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="44" s="18" customFormat="1" ht="27" spans="1:6">
+      <c r="A44" s="55" t="s">
         <v>3303</v>
       </c>
+      <c r="B44" s="56" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>3199</v>
+      </c>
     </row>
     <row r="45" ht="27" spans="1:3">
-      <c r="A45" t="s">
-        <v>3304</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3305</v>
-      </c>
-      <c r="C45" s="15" t="s">
+      <c r="A45" s="44" t="s">
         <v>3306</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>3253</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B45" s="22" t="s">
         <v>3307</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C45" s="36" t="s">
         <v>3308</v>
       </c>
+    </row>
+    <row r="46" ht="27" spans="1:4">
+      <c r="A46" s="44" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>3310</v>
+      </c>
       <c r="D46" t="s">
-        <v>3309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="28" t="s">
-        <v>3310</v>
-      </c>
-      <c r="B47" t="s">
         <v>3311</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="47" ht="36" spans="1:5">
+      <c r="A47" s="57" t="s">
         <v>3312</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>3313</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>3314</v>
       </c>
       <c r="E47">
         <v>17.02</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>3269</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3313</v>
-      </c>
-      <c r="C48" s="29" t="s">
+    <row r="48" ht="27" spans="1:4">
+      <c r="A48" s="44" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>3315</v>
+      </c>
+      <c r="C48" s="58" t="s">
         <v>2322</v>
       </c>
       <c r="D48" t="s">
-        <v>3314</v>
-      </c>
-    </row>
-    <row r="49" ht="15" spans="1:5">
-      <c r="A49" s="30" t="s">
-        <v>3315</v>
-      </c>
-      <c r="B49" s="31" t="s">
         <v>3316</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="49" ht="27" spans="1:5">
+      <c r="A49" s="59" t="s">
         <v>3317</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>3319</v>
       </c>
       <c r="E49">
         <v>20.02</v>
+      </c>
+    </row>
+    <row r="50" ht="33" spans="1:5">
+      <c r="A50" s="44" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C50" s="61" t="s">
+        <v>3322</v>
+      </c>
+      <c r="E50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="1:4">
+      <c r="A51" s="62" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="52" ht="36" spans="1:3">
+      <c r="A52" s="63" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>3327</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="53" ht="27" spans="1:4">
+      <c r="A53" s="62" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="54" ht="27" spans="1:4">
+      <c r="A54" s="62" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>3333</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="55" ht="27" spans="1:3">
+      <c r="A55" s="44" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="56" ht="27" spans="1:3">
+      <c r="A56" s="44" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>3339</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>3340</v>
       </c>
     </row>
   </sheetData>
@@ -24354,6 +24738,14 @@
     <hyperlink ref="C48" r:id="rId49" display="www.grossum.com" tooltip="http://www.grossum.com/"/>
     <hyperlink ref="B49" r:id="rId50" display="https://www.work.ua/jobs/1821889/"/>
     <hyperlink ref="A49" r:id="rId50" display="Вакансия «Тестировщик»" tooltip="https://www.work.ua/jobs/1821889/"/>
+    <hyperlink ref="C50" r:id="rId51" display="Компьютерные технологии, ООО Торговая компания"/>
+    <hyperlink ref="B51" r:id="rId52" display="https://rabota.ua/company782154/vacancy6436180"/>
+    <hyperlink ref="B53" r:id="rId53" display="https://rabota.ua/company4953171/vacancy6556387"/>
+    <hyperlink ref="C54" r:id="rId54" display="Космонова, ООО "/>
+    <hyperlink ref="B54" r:id="rId55" display="https://rabota.ua/company2901014/vacancy6600579"/>
+    <hyperlink ref="C55" r:id="rId56" display="Twin Win Games   " tooltip="https://www.work.ua/jobs/by-company/480105/"/>
+    <hyperlink ref="B55" r:id="rId57" display="https://www.work.ua/jobs/2555694/"/>
+    <hyperlink ref="C56" r:id="rId58" display="Miritec   " tooltip="https://www.work.ua/jobs/by-company/123011/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -24394,32 +24786,32 @@
         <v>3194</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3318</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>3319</v>
+        <v>3342</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3320</v>
+        <v>3343</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3321</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>3322</v>
+        <v>3345</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3323</v>
+        <v>3346</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>654</v>
@@ -24427,300 +24819,300 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>3324</v>
+        <v>3347</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3325</v>
+        <v>3348</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>3326</v>
+        <v>3349</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3327</v>
+        <v>3350</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>3300</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>3328</v>
+        <v>3351</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3329</v>
+        <v>3352</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3330</v>
+        <v>3353</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>3331</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>3332</v>
+        <v>3355</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>3301</v>
+        <v>3303</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3333</v>
+        <v>3356</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>3303</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>3334</v>
+        <v>3357</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3335</v>
+        <v>3358</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3336</v>
+        <v>3359</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>3337</v>
+        <v>3360</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3338</v>
+        <v>3361</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>3339</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>3340</v>
+        <v>3363</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>3341</v>
+        <v>3364</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3342</v>
+        <v>3365</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>3343</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>3344</v>
+        <v>3367</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>3345</v>
+        <v>3368</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3346</v>
+        <v>3369</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>3347</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>3348</v>
+        <v>3371</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>3349</v>
+        <v>3372</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3350</v>
+        <v>3373</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>3263</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>3351</v>
+        <v>3374</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>3352</v>
+        <v>3375</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>3353</v>
+        <v>3376</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>3354</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>3355</v>
+        <v>3378</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>3335</v>
+        <v>3358</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3356</v>
+        <v>3379</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>3357</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>3358</v>
+        <v>3381</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3359</v>
+        <v>3382</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>3360</v>
+        <v>3383</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>3361</v>
+        <v>3384</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>3362</v>
+        <v>3385</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>3363</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>3364</v>
+        <v>3387</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>3365</v>
+        <v>3388</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>3366</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>3367</v>
+        <v>3390</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>3368</v>
+        <v>3391</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>3369</v>
+        <v>3392</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>3370</v>
+        <v>3393</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>3352</v>
+        <v>3375</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>3371</v>
+        <v>3394</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>3372</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>3373</v>
+        <v>3396</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>3374</v>
+        <v>3397</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>3268</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>3375</v>
+        <v>3398</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>3376</v>
+        <v>3399</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>3377</v>
+        <v>3400</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>3378</v>
+        <v>3401</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>3379</v>
+        <v>3402</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>3380</v>
+        <v>3403</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>3381</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>3382</v>
+        <v>3405</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>3383</v>
+        <v>3406</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>3384</v>
+        <v>3407</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>3385</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>3386</v>
+        <v>3409</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>3387</v>
+        <v>3410</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>3388</v>
+        <v>3411</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>3389</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>3390</v>
+        <v>3413</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>3391</v>
+        <v>3414</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>3392</v>
+        <v>3415</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>3393</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -24728,160 +25120,160 @@
         <v>2021</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>3394</v>
+        <v>3417</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>3395</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>3396</v>
+        <v>3419</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>3397</v>
+        <v>3420</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>3398</v>
+        <v>3421</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>3399</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>3400</v>
+        <v>3423</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>3401</v>
+        <v>3424</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>3402</v>
+        <v>3425</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>3403</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>3404</v>
+        <v>3427</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>3405</v>
+        <v>3428</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>3406</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>3407</v>
+        <v>3430</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>3408</v>
+        <v>3431</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>3409</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>3410</v>
+        <v>3433</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>3411</v>
+        <v>3434</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>3412</v>
+        <v>3435</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>3413</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>3414</v>
+        <v>3437</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>3415</v>
+        <v>3438</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>3416</v>
+        <v>3439</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>3417</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>3418</v>
+        <v>3441</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>3419</v>
+        <v>3442</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>3420</v>
+        <v>3443</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>3421</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:4">
       <c r="A34" s="15" t="s">
-        <v>3422</v>
+        <v>3445</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>3423</v>
+        <v>3446</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>3424</v>
+        <v>3447</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" ht="27" spans="1:4">
       <c r="A35" s="13" t="s">
-        <v>3425</v>
+        <v>3448</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>3426</v>
+        <v>3449</v>
       </c>
       <c r="C35" t="s">
-        <v>3427</v>
+        <v>3450</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>3428</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>3429</v>
+        <v>3452</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>3430</v>
+        <v>3453</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13" t="s">
-        <v>3431</v>
+        <v>3454</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>3432</v>
+        <v>3455</v>
       </c>
       <c r="D37" s="12"/>
     </row>
@@ -24890,174 +25282,174 @@
         <v>95</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="13" t="s">
-        <v>3433</v>
+        <v>3456</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>3434</v>
+        <v>3457</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>3435</v>
+        <v>3458</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="13" t="s">
-        <v>3436</v>
+        <v>3459</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>3437</v>
+        <v>3460</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="13" t="s">
-        <v>3438</v>
+        <v>3461</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>3276</v>
+        <v>3278</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>3277</v>
+        <v>3279</v>
       </c>
       <c r="D41" s="12"/>
     </row>
     <row r="42" ht="27" spans="1:4">
       <c r="A42" s="15" t="s">
-        <v>3439</v>
+        <v>3462</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>3440</v>
+        <v>3463</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="13" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>3290</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>3288</v>
-      </c>
       <c r="C43" s="10" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>3441</v>
+        <v>3464</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>3442</v>
+        <v>3465</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>3443</v>
+        <v>3466</v>
       </c>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="10" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>3281</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>3279</v>
-      </c>
       <c r="C45" s="10" t="s">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>3444</v>
+        <v>3467</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>3445</v>
+        <v>3468</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>3446</v>
+        <v>3469</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3447</v>
+        <v>3470</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>3291</v>
+        <v>3293</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>3448</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="17" t="s">
-        <v>3449</v>
+        <v>3472</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>3450</v>
+        <v>3473</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>3451</v>
+        <v>3474</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>3452</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>3453</v>
+        <v>3476</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>3387</v>
+        <v>3410</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>3454</v>
+        <v>3477</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>3455</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>3456</v>
+        <v>3479</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>3457</v>
+        <v>3480</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>3458</v>
+        <v>3481</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>3459</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>3460</v>
+        <v>3483</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>3461</v>
+        <v>3484</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>3462</v>
+        <v>3485</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -25150,10 +25542,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3463</v>
+        <v>3486</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3464</v>
+        <v>3487</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -25163,7 +25555,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>3465</v>
+        <v>3488</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -25176,7 +25568,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>3466</v>
+        <v>3489</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -25189,7 +25581,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>3467</v>
+        <v>3490</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
@@ -25202,7 +25594,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>3468</v>
+        <v>3491</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -25215,7 +25607,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>3469</v>
+        <v>3492</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -25228,7 +25620,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>3470</v>
+        <v>3493</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -25241,7 +25633,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3471</v>
+        <v>3494</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -25249,7 +25641,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3472</v>
+        <v>3495</v>
       </c>
       <c r="B9">
         <v>3</v>

--- a/base work.xlsx
+++ b/base work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514">
   <si>
     <t>nane</t>
   </si>
@@ -10041,6 +10041,9 @@
     <t>together</t>
   </si>
   <si>
+    <t>24.02</t>
+  </si>
+  <si>
     <t>https://rabota.ua/company4953171/vacancy6556387</t>
   </si>
   <si>
@@ -10048,6 +10051,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF777777"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
       <t>Контакт:</t>
     </r>
     <r>
@@ -10080,6 +10089,9 @@
     <t>Twin Win Games   </t>
   </si>
   <si>
+    <t>27.02</t>
+  </si>
+  <si>
     <t>Middle QA Engineer (Manual)</t>
   </si>
   <si>
@@ -10089,6 +10101,62 @@
     <t>Miritec   </t>
   </si>
   <si>
+    <t>Junior-Middle QA Engineer</t>
+  </si>
+  <si>
+    <t>http://jobik.net/vacancy/3129504/?subscr_id=3612244</t>
+  </si>
+  <si>
+    <t>E-mail: 
+Lishchenko.Maryna@apeironhr.com.ua
+Телефон: 8068-117-98-14 или 227-44-63
+Сайт компании: http://www.apeironHR.com.ua</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>Мануальный тестировщик (Junior QA)</t>
+  </si>
+  <si>
+    <t>https://hh.ua/vacancy/19782657</t>
+  </si>
+  <si>
+    <t>ООО TIW </t>
+  </si>
+  <si>
+    <t>Вакансия «Тестировщик (QA)», 15000 грн. Tiec Тex. Киев</t>
+  </si>
+  <si>
+    <t>https://www.work.ua/jobs/2464160</t>
+  </si>
+  <si>
+    <t>Tiec Тex   </t>
+  </si>
+  <si>
+    <t>Тестировщик ПО</t>
+  </si>
+  <si>
+    <t>https://hh.ua/vacancy/19531927</t>
+  </si>
+  <si>
+    <t>ООО ЛІГА ЗАКОН </t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company908/vacancy6606374</t>
+  </si>
+  <si>
+    <t>Контакт:Анастасия Коваленко
+Телефон: (044) 594 88 38
+Сайт:ukraine.levi9.jobs/</t>
+  </si>
+  <si>
+    <t>Junior QA engineer</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company1665686/vacancy6403940</t>
+  </si>
+  <si>
     <t>История общения</t>
   </si>
   <si>
@@ -10189,9 +10257,6 @@
   </si>
   <si>
     <t xml:space="preserve">PrioCom </t>
-  </si>
-  <si>
-    <t>Тестировщик ПО</t>
   </si>
   <si>
     <t>http://rabota.ua/company321196/vacancy6540887</t>
@@ -10569,7 +10634,7 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="dd/mmm"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -10747,6 +10812,55 @@
     </font>
     <font>
       <b/>
+      <sz val="13.5"/>
+      <color rgb="FF005C25"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24.75"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13.5"/>
+      <color rgb="FF0099FF"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.75"/>
+      <color rgb="FF008ED5"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12.75"/>
+      <color rgb="FF008ED5"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="22.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -10762,7 +10876,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10776,9 +10898,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10786,6 +10972,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10800,95 +10994,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10945,7 +11051,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10957,25 +11165,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10987,61 +11195,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11053,72 +11219,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -11155,6 +11261,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -11172,6 +11287,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -11179,13 +11305,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11214,21 +11359,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -11237,165 +11367,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="47" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="47" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="47" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="47" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26">
       <alignment vertical="top"/>
     </xf>
@@ -11504,9 +11619,6 @@
     <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -11526,9 +11638,6 @@
       <alignment vertical="top" indent="7"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -11558,16 +11667,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -11599,6 +11699,30 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
       <alignment vertical="top"/>
@@ -12018,7 +12142,7 @@
   <cols>
     <col min="1" max="1" width="20.1416666666667"/>
     <col min="2" max="2" width="29.35"/>
-    <col min="3" max="3" width="34.2833333333333" style="73"/>
+    <col min="3" max="3" width="34.2833333333333" style="76"/>
     <col min="4" max="4" width="24.85"/>
     <col min="5" max="5" width="71.6666666666667"/>
     <col min="6" max="1025" width="8.575"/>
@@ -12034,7 +12158,7 @@
       <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="77" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -12051,7 +12175,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="78" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -12068,7 +12192,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="76" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -12085,7 +12209,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -12102,7 +12226,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="76" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
@@ -12119,7 +12243,7 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="76" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
@@ -12136,7 +12260,7 @@
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="76" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
@@ -12165,7 +12289,7 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="76" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
@@ -12182,7 +12306,7 @@
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="76" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
@@ -12199,7 +12323,7 @@
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="76" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
@@ -12231,7 +12355,7 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="76" t="s">
         <v>59</v>
       </c>
       <c r="D14" t="s">
@@ -12248,7 +12372,7 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="76" t="s">
         <v>64</v>
       </c>
       <c r="D15" t="s">
@@ -12265,7 +12389,7 @@
       <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="76" t="s">
         <v>69</v>
       </c>
       <c r="D16" t="s">
@@ -12282,7 +12406,7 @@
       <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="76" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
@@ -12299,7 +12423,7 @@
       <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="76" t="s">
         <v>79</v>
       </c>
       <c r="E18" t="s">
@@ -12313,7 +12437,7 @@
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="76" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
@@ -12330,7 +12454,7 @@
       <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="76" t="s">
         <v>88</v>
       </c>
       <c r="E20" t="s">
@@ -12344,7 +12468,7 @@
       <c r="B21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="76" t="s">
         <v>92</v>
       </c>
       <c r="D21" t="s">
@@ -12361,7 +12485,7 @@
       <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="76" t="s">
         <v>97</v>
       </c>
       <c r="D22" t="s">
@@ -12378,7 +12502,7 @@
       <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="76" t="s">
         <v>102</v>
       </c>
       <c r="D23" t="s">
@@ -12395,7 +12519,7 @@
       <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="76" t="s">
         <v>107</v>
       </c>
       <c r="D24" t="s">
@@ -12424,7 +12548,7 @@
       <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="76" t="s">
         <v>115</v>
       </c>
       <c r="D26" t="s">
@@ -12441,7 +12565,7 @@
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="76" t="s">
         <v>120</v>
       </c>
       <c r="D27" t="s">
@@ -12533,7 +12657,7 @@
       <c r="B34" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="76" t="s">
         <v>143</v>
       </c>
       <c r="D34" t="s">
@@ -12574,7 +12698,7 @@
       <c r="B37" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="76" t="s">
         <v>154</v>
       </c>
       <c r="D37" t="s">
@@ -12591,7 +12715,7 @@
       <c r="B38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="76" t="s">
         <v>159</v>
       </c>
       <c r="D38" t="s">
@@ -12608,7 +12732,7 @@
       <c r="B39" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="76" t="s">
         <v>164</v>
       </c>
       <c r="D39" t="s">
@@ -12655,7 +12779,7 @@
       <c r="B42" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="76" t="s">
         <v>177</v>
       </c>
       <c r="D42" t="s">
@@ -12687,7 +12811,7 @@
       <c r="B44" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="73" t="s">
+      <c r="C44" s="76" t="s">
         <v>186</v>
       </c>
       <c r="D44" t="s">
@@ -12701,7 +12825,7 @@
       <c r="B45" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="78" t="s">
         <v>190</v>
       </c>
       <c r="D45" t="s">
@@ -12742,7 +12866,7 @@
       <c r="B48" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="76" t="s">
         <v>201</v>
       </c>
       <c r="D48" t="s">
@@ -12774,7 +12898,7 @@
       <c r="B50" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="73" t="s">
+      <c r="C50" s="76" t="s">
         <v>210</v>
       </c>
       <c r="D50" t="s">
@@ -12833,7 +12957,7 @@
       <c r="B54" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="73" t="s">
+      <c r="C54" s="76" t="s">
         <v>226</v>
       </c>
       <c r="D54" t="s">
@@ -12850,7 +12974,7 @@
       <c r="B55" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="76" t="s">
         <v>231</v>
       </c>
       <c r="D55" t="s">
@@ -12867,7 +12991,7 @@
       <c r="B56" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="73" t="s">
+      <c r="C56" s="76" t="s">
         <v>236</v>
       </c>
       <c r="D56" t="s">
@@ -12884,7 +13008,7 @@
       <c r="B57" t="s">
         <v>240</v>
       </c>
-      <c r="C57" s="73" t="s">
+      <c r="C57" s="76" t="s">
         <v>241</v>
       </c>
       <c r="D57" t="s">
@@ -12913,7 +13037,7 @@
       <c r="B59" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="73" t="s">
+      <c r="C59" s="76" t="s">
         <v>249</v>
       </c>
       <c r="D59" t="s">
@@ -12930,7 +13054,7 @@
       <c r="B60" t="s">
         <v>253</v>
       </c>
-      <c r="C60" s="73" t="s">
+      <c r="C60" s="76" t="s">
         <v>254</v>
       </c>
       <c r="D60" t="s">
@@ -12944,7 +13068,7 @@
       <c r="B61" t="s">
         <v>257</v>
       </c>
-      <c r="C61" s="73" t="s">
+      <c r="C61" s="76" t="s">
         <v>258</v>
       </c>
       <c r="D61" t="s">
@@ -12973,7 +13097,7 @@
       <c r="B63" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="73" t="s">
+      <c r="C63" s="76" t="s">
         <v>266</v>
       </c>
       <c r="D63" t="s">
@@ -13002,7 +13126,7 @@
       <c r="B65" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="73" t="s">
+      <c r="C65" s="76" t="s">
         <v>274</v>
       </c>
       <c r="D65" t="s">
@@ -13019,7 +13143,7 @@
       <c r="B66" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="73" t="s">
+      <c r="C66" s="76" t="s">
         <v>279</v>
       </c>
       <c r="E66" t="s">
@@ -13033,7 +13157,7 @@
       <c r="B67" t="s">
         <v>282</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="76" t="s">
         <v>283</v>
       </c>
       <c r="D67" t="s">
@@ -13062,7 +13186,7 @@
       <c r="B69" t="s">
         <v>290</v>
       </c>
-      <c r="C69" s="73" t="s">
+      <c r="C69" s="76" t="s">
         <v>291</v>
       </c>
       <c r="D69" t="s">
@@ -13094,7 +13218,7 @@
       <c r="B71" t="s">
         <v>299</v>
       </c>
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="76" t="s">
         <v>300</v>
       </c>
       <c r="D71" t="s">
@@ -13120,7 +13244,7 @@
       <c r="B73" t="s">
         <v>305</v>
       </c>
-      <c r="C73" s="73" t="s">
+      <c r="C73" s="76" t="s">
         <v>306</v>
       </c>
       <c r="D73" t="s">
@@ -13167,7 +13291,7 @@
       <c r="B76" t="s">
         <v>318</v>
       </c>
-      <c r="C76" s="73" t="s">
+      <c r="C76" s="76" t="s">
         <v>319</v>
       </c>
       <c r="D76" t="s">
@@ -13184,7 +13308,7 @@
       <c r="B77" t="s">
         <v>323</v>
       </c>
-      <c r="C77" s="73" t="s">
+      <c r="C77" s="76" t="s">
         <v>324</v>
       </c>
       <c r="D77" t="s">
@@ -13213,7 +13337,7 @@
       <c r="B79" t="s">
         <v>331</v>
       </c>
-      <c r="C79" s="73" t="s">
+      <c r="C79" s="76" t="s">
         <v>332</v>
       </c>
       <c r="D79" t="s">
@@ -13296,7 +13420,7 @@
       <c r="B85" t="s">
         <v>353</v>
       </c>
-      <c r="C85" s="73" t="s">
+      <c r="C85" s="76" t="s">
         <v>354</v>
       </c>
       <c r="D85" t="s">
@@ -13313,7 +13437,7 @@
       <c r="B86" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="73" t="s">
+      <c r="C86" s="76" t="s">
         <v>359</v>
       </c>
       <c r="D86" t="s">
@@ -13330,7 +13454,7 @@
       <c r="B87" t="s">
         <v>363</v>
       </c>
-      <c r="C87" s="73" t="s">
+      <c r="C87" s="76" t="s">
         <v>364</v>
       </c>
       <c r="D87" t="s">
@@ -13344,7 +13468,7 @@
       <c r="A88" t="s">
         <v>367</v>
       </c>
-      <c r="C88" s="73" t="s">
+      <c r="C88" s="76" t="s">
         <v>368</v>
       </c>
       <c r="D88" t="s">
@@ -13376,7 +13500,7 @@
       <c r="B90" t="s">
         <v>376</v>
       </c>
-      <c r="C90" s="73" t="s">
+      <c r="C90" s="76" t="s">
         <v>377</v>
       </c>
       <c r="D90" t="s">
@@ -13393,7 +13517,7 @@
       <c r="B91" t="s">
         <v>381</v>
       </c>
-      <c r="C91" s="73" t="s">
+      <c r="C91" s="76" t="s">
         <v>382</v>
       </c>
       <c r="D91" t="s">
@@ -13410,7 +13534,7 @@
       <c r="B92" t="s">
         <v>386</v>
       </c>
-      <c r="C92" s="73" t="s">
+      <c r="C92" s="76" t="s">
         <v>387</v>
       </c>
       <c r="D92" t="s">
@@ -13427,7 +13551,7 @@
       <c r="B93" t="s">
         <v>391</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C93" s="76" t="s">
         <v>392</v>
       </c>
       <c r="D93" t="s">
@@ -13453,7 +13577,7 @@
       <c r="B95" t="s">
         <v>398</v>
       </c>
-      <c r="C95" s="73" t="s">
+      <c r="C95" s="76" t="s">
         <v>399</v>
       </c>
       <c r="D95" t="s">
@@ -13479,7 +13603,7 @@
       <c r="B97" t="s">
         <v>405</v>
       </c>
-      <c r="C97" s="73" t="s">
+      <c r="C97" s="76" t="s">
         <v>406</v>
       </c>
       <c r="D97" t="s">
@@ -13493,7 +13617,7 @@
       <c r="B98" t="s">
         <v>409</v>
       </c>
-      <c r="C98" s="73" t="s">
+      <c r="C98" s="76" t="s">
         <v>410</v>
       </c>
       <c r="D98" t="s">
@@ -13549,7 +13673,7 @@
       <c r="B102" t="s">
         <v>424</v>
       </c>
-      <c r="C102" s="73" t="s">
+      <c r="C102" s="76" t="s">
         <v>425</v>
       </c>
       <c r="D102" t="s">
@@ -13566,7 +13690,7 @@
       <c r="B103" t="s">
         <v>429</v>
       </c>
-      <c r="C103" s="73" t="s">
+      <c r="C103" s="76" t="s">
         <v>430</v>
       </c>
       <c r="D103" t="s">
@@ -13583,7 +13707,7 @@
       <c r="B104" t="s">
         <v>434</v>
       </c>
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="78" t="s">
         <v>435</v>
       </c>
       <c r="D104" t="s">
@@ -13615,7 +13739,7 @@
       <c r="B106" t="s">
         <v>443</v>
       </c>
-      <c r="C106" s="73" t="s">
+      <c r="C106" s="76" t="s">
         <v>444</v>
       </c>
       <c r="D106" t="s">
@@ -13641,7 +13765,7 @@
       <c r="B108" t="s">
         <v>450</v>
       </c>
-      <c r="C108" s="73" t="s">
+      <c r="C108" s="76" t="s">
         <v>451</v>
       </c>
       <c r="D108" t="s">
@@ -13658,7 +13782,7 @@
       <c r="B109" t="s">
         <v>455</v>
       </c>
-      <c r="C109" s="73" t="s">
+      <c r="C109" s="76" t="s">
         <v>456</v>
       </c>
       <c r="D109" t="s">
@@ -13699,7 +13823,7 @@
       <c r="B112" t="s">
         <v>466</v>
       </c>
-      <c r="C112" s="73" t="s">
+      <c r="C112" s="76" t="s">
         <v>467</v>
       </c>
       <c r="D112" t="s">
@@ -13728,7 +13852,7 @@
       <c r="B114" t="s">
         <v>474</v>
       </c>
-      <c r="C114" s="73" t="s">
+      <c r="C114" s="76" t="s">
         <v>475</v>
       </c>
       <c r="D114" t="s">
@@ -13745,7 +13869,7 @@
       <c r="B115" t="s">
         <v>479</v>
       </c>
-      <c r="C115" s="73" t="s">
+      <c r="C115" s="76" t="s">
         <v>480</v>
       </c>
       <c r="D115" t="s">
@@ -13807,7 +13931,7 @@
       <c r="B119" t="s">
         <v>496</v>
       </c>
-      <c r="C119" s="73" t="s">
+      <c r="C119" s="76" t="s">
         <v>497</v>
       </c>
       <c r="D119" t="s">
@@ -13851,7 +13975,7 @@
       <c r="B122" t="s">
         <v>508</v>
       </c>
-      <c r="C122" s="73" t="s">
+      <c r="C122" s="76" t="s">
         <v>509</v>
       </c>
       <c r="D122" t="s">
@@ -13865,7 +13989,7 @@
       <c r="B123" t="s">
         <v>512</v>
       </c>
-      <c r="C123" s="75" t="s">
+      <c r="C123" s="78" t="s">
         <v>513</v>
       </c>
       <c r="D123" t="s">
@@ -13882,7 +14006,7 @@
       <c r="B124" t="s">
         <v>517</v>
       </c>
-      <c r="C124" s="73" t="s">
+      <c r="C124" s="76" t="s">
         <v>518</v>
       </c>
       <c r="D124" t="s">
@@ -13908,7 +14032,7 @@
       <c r="B126" t="s">
         <v>524</v>
       </c>
-      <c r="C126" s="73" t="s">
+      <c r="C126" s="76" t="s">
         <v>525</v>
       </c>
       <c r="D126" t="s">
@@ -13925,7 +14049,7 @@
       <c r="B127" t="s">
         <v>529</v>
       </c>
-      <c r="C127" s="73" t="s">
+      <c r="C127" s="76" t="s">
         <v>530</v>
       </c>
       <c r="D127" t="s">
@@ -13951,7 +14075,7 @@
       <c r="B129" t="s">
         <v>536</v>
       </c>
-      <c r="C129" s="73" t="s">
+      <c r="C129" s="76" t="s">
         <v>537</v>
       </c>
       <c r="D129" t="s">
@@ -13968,7 +14092,7 @@
       <c r="B130" t="s">
         <v>541</v>
       </c>
-      <c r="C130" s="75" t="s">
+      <c r="C130" s="78" t="s">
         <v>542</v>
       </c>
       <c r="D130" t="s">
@@ -14000,7 +14124,7 @@
       <c r="B132" t="s">
         <v>550</v>
       </c>
-      <c r="C132" s="73" t="s">
+      <c r="C132" s="76" t="s">
         <v>551</v>
       </c>
       <c r="D132" t="s">
@@ -14032,7 +14156,7 @@
       <c r="B134" t="s">
         <v>559</v>
       </c>
-      <c r="C134" s="73" t="s">
+      <c r="C134" s="76" t="s">
         <v>560</v>
       </c>
       <c r="D134" t="s">
@@ -14046,7 +14170,7 @@
       <c r="B135" t="s">
         <v>563</v>
       </c>
-      <c r="C135" s="73" t="s">
+      <c r="C135" s="76" t="s">
         <v>564</v>
       </c>
       <c r="D135" t="s">
@@ -14072,7 +14196,7 @@
       <c r="B137" t="s">
         <v>570</v>
       </c>
-      <c r="C137" s="73" t="s">
+      <c r="C137" s="76" t="s">
         <v>571</v>
       </c>
       <c r="D137" t="s">
@@ -14089,7 +14213,7 @@
       <c r="B138" t="s">
         <v>575</v>
       </c>
-      <c r="C138" s="73" t="s">
+      <c r="C138" s="76" t="s">
         <v>576</v>
       </c>
       <c r="D138" t="s">
@@ -14106,7 +14230,7 @@
       <c r="B139" t="s">
         <v>580</v>
       </c>
-      <c r="C139" s="73" t="s">
+      <c r="C139" s="76" t="s">
         <v>581</v>
       </c>
       <c r="D139" t="s">
@@ -14135,7 +14259,7 @@
       <c r="B141" t="s">
         <v>588</v>
       </c>
-      <c r="C141" s="73" t="s">
+      <c r="C141" s="76" t="s">
         <v>589</v>
       </c>
       <c r="D141" t="s">
@@ -14221,7 +14345,7 @@
       <c r="B147" t="s">
         <v>611</v>
       </c>
-      <c r="C147" s="73" t="s">
+      <c r="C147" s="76" t="s">
         <v>612</v>
       </c>
       <c r="D147" t="s">
@@ -14238,7 +14362,7 @@
       <c r="B148" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="75" t="s">
+      <c r="C148" s="78" t="s">
         <v>617</v>
       </c>
       <c r="D148" t="s">
@@ -14267,7 +14391,7 @@
       <c r="B150" t="s">
         <v>624</v>
       </c>
-      <c r="C150" s="73" t="s">
+      <c r="C150" s="76" t="s">
         <v>625</v>
       </c>
       <c r="D150" t="s">
@@ -14284,7 +14408,7 @@
       <c r="B151" t="s">
         <v>629</v>
       </c>
-      <c r="C151" s="73" t="s">
+      <c r="C151" s="76" t="s">
         <v>630</v>
       </c>
       <c r="D151" t="s">
@@ -14298,7 +14422,7 @@
       <c r="B152" t="s">
         <v>633</v>
       </c>
-      <c r="C152" s="73" t="s">
+      <c r="C152" s="76" t="s">
         <v>634</v>
       </c>
       <c r="D152" t="s">
@@ -14315,7 +14439,7 @@
       <c r="B153" t="s">
         <v>638</v>
       </c>
-      <c r="C153" s="73" t="s">
+      <c r="C153" s="76" t="s">
         <v>639</v>
       </c>
       <c r="D153" t="s">
@@ -14401,7 +14525,7 @@
       <c r="B159" t="s">
         <v>661</v>
       </c>
-      <c r="C159" s="73" t="s">
+      <c r="C159" s="76" t="s">
         <v>662</v>
       </c>
       <c r="D159" t="s">
@@ -14418,7 +14542,7 @@
       <c r="B160" t="s">
         <v>666</v>
       </c>
-      <c r="C160" s="73" t="s">
+      <c r="C160" s="76" t="s">
         <v>667</v>
       </c>
       <c r="D160" t="s">
@@ -14450,7 +14574,7 @@
       <c r="B162" t="s">
         <v>675</v>
       </c>
-      <c r="C162" s="73" t="s">
+      <c r="C162" s="76" t="s">
         <v>676</v>
       </c>
       <c r="D162" t="s">
@@ -14479,7 +14603,7 @@
       <c r="B164" t="s">
         <v>683</v>
       </c>
-      <c r="C164" s="73" t="s">
+      <c r="C164" s="76" t="s">
         <v>684</v>
       </c>
       <c r="D164" t="s">
@@ -14496,7 +14620,7 @@
       <c r="B165" t="s">
         <v>688</v>
       </c>
-      <c r="C165" s="73" t="s">
+      <c r="C165" s="76" t="s">
         <v>689</v>
       </c>
       <c r="D165" t="s">
@@ -14540,7 +14664,7 @@
       <c r="B168" t="s">
         <v>700</v>
       </c>
-      <c r="C168" s="73" t="s">
+      <c r="C168" s="76" t="s">
         <v>701</v>
       </c>
       <c r="D168" t="s">
@@ -14569,7 +14693,7 @@
       <c r="B170" t="s">
         <v>708</v>
       </c>
-      <c r="C170" s="75" t="s">
+      <c r="C170" s="78" t="s">
         <v>709</v>
       </c>
       <c r="D170" t="s">
@@ -14586,7 +14710,7 @@
       <c r="B171" t="s">
         <v>713</v>
       </c>
-      <c r="C171" s="73" t="s">
+      <c r="C171" s="76" t="s">
         <v>714</v>
       </c>
       <c r="D171" t="s">
@@ -14639,7 +14763,7 @@
       <c r="B175" t="s">
         <v>727</v>
       </c>
-      <c r="C175" s="73" t="s">
+      <c r="C175" s="76" t="s">
         <v>728</v>
       </c>
       <c r="E175" t="s">
@@ -14653,7 +14777,7 @@
       <c r="B176" t="s">
         <v>731</v>
       </c>
-      <c r="C176" s="73" t="s">
+      <c r="C176" s="76" t="s">
         <v>732</v>
       </c>
       <c r="D176" t="s">
@@ -14670,7 +14794,7 @@
       <c r="B177" t="s">
         <v>736</v>
       </c>
-      <c r="C177" s="73" t="s">
+      <c r="C177" s="76" t="s">
         <v>737</v>
       </c>
       <c r="D177" t="s">
@@ -14702,7 +14826,7 @@
       <c r="B180" t="s">
         <v>744</v>
       </c>
-      <c r="C180" s="73" t="s">
+      <c r="C180" s="76" t="s">
         <v>745</v>
       </c>
       <c r="D180" t="s">
@@ -14719,7 +14843,7 @@
       <c r="B181" t="s">
         <v>749</v>
       </c>
-      <c r="C181" s="73" t="s">
+      <c r="C181" s="76" t="s">
         <v>750</v>
       </c>
       <c r="D181" t="s">
@@ -14748,7 +14872,7 @@
       <c r="B183" t="s">
         <v>757</v>
       </c>
-      <c r="C183" s="73" t="s">
+      <c r="C183" s="76" t="s">
         <v>758</v>
       </c>
       <c r="D183" t="s">
@@ -14780,7 +14904,7 @@
       <c r="B185" t="s">
         <v>766</v>
       </c>
-      <c r="C185" s="73" t="s">
+      <c r="C185" s="76" t="s">
         <v>767</v>
       </c>
       <c r="D185" t="s">
@@ -14812,7 +14936,7 @@
       <c r="B187" t="s">
         <v>775</v>
       </c>
-      <c r="C187" s="73" t="s">
+      <c r="C187" s="76" t="s">
         <v>776</v>
       </c>
       <c r="D187" t="s">
@@ -14829,7 +14953,7 @@
       <c r="B188" t="s">
         <v>780</v>
       </c>
-      <c r="C188" s="73" t="s">
+      <c r="C188" s="76" t="s">
         <v>781</v>
       </c>
       <c r="D188" t="s">
@@ -14867,7 +14991,7 @@
       <c r="B191" t="s">
         <v>790</v>
       </c>
-      <c r="C191" s="75" t="s">
+      <c r="C191" s="78" t="s">
         <v>791</v>
       </c>
       <c r="D191" t="s">
@@ -14935,7 +15059,7 @@
       <c r="B196" t="s">
         <v>808</v>
       </c>
-      <c r="C196" s="73" t="s">
+      <c r="C196" s="76" t="s">
         <v>809</v>
       </c>
       <c r="D196" t="s">
@@ -14988,7 +15112,7 @@
       <c r="B200" t="s">
         <v>822</v>
       </c>
-      <c r="C200" s="73" t="s">
+      <c r="C200" s="76" t="s">
         <v>823</v>
       </c>
       <c r="E200" t="s">
@@ -15002,7 +15126,7 @@
       <c r="B201" t="s">
         <v>826</v>
       </c>
-      <c r="C201" s="73" t="s">
+      <c r="C201" s="76" t="s">
         <v>827</v>
       </c>
       <c r="D201" t="s">
@@ -15019,7 +15143,7 @@
       <c r="B202" t="s">
         <v>831</v>
       </c>
-      <c r="C202" s="73" t="s">
+      <c r="C202" s="76" t="s">
         <v>832</v>
       </c>
       <c r="D202" t="s">
@@ -15033,7 +15157,7 @@
       <c r="B203" t="s">
         <v>835</v>
       </c>
-      <c r="C203" s="75" t="s">
+      <c r="C203" s="78" t="s">
         <v>836</v>
       </c>
       <c r="D203" t="s">
@@ -15074,7 +15198,7 @@
       <c r="B206" t="s">
         <v>846</v>
       </c>
-      <c r="C206" s="73" t="s">
+      <c r="C206" s="76" t="s">
         <v>847</v>
       </c>
       <c r="D206" t="s">
@@ -15121,7 +15245,7 @@
       <c r="B209" t="s">
         <v>859</v>
       </c>
-      <c r="C209" s="73" t="s">
+      <c r="C209" s="76" t="s">
         <v>860</v>
       </c>
       <c r="D209" t="s">
@@ -15138,7 +15262,7 @@
       <c r="B210" t="s">
         <v>864</v>
       </c>
-      <c r="C210" s="73" t="s">
+      <c r="C210" s="76" t="s">
         <v>865</v>
       </c>
       <c r="D210" t="s">
@@ -15155,7 +15279,7 @@
       <c r="B211" t="s">
         <v>869</v>
       </c>
-      <c r="C211" s="73" t="s">
+      <c r="C211" s="76" t="s">
         <v>870</v>
       </c>
       <c r="D211" t="s">
@@ -15172,7 +15296,7 @@
       <c r="B212" t="s">
         <v>874</v>
       </c>
-      <c r="C212" s="73" t="s">
+      <c r="C212" s="76" t="s">
         <v>875</v>
       </c>
       <c r="D212" t="s">
@@ -15237,7 +15361,7 @@
       <c r="B217" t="s">
         <v>891</v>
       </c>
-      <c r="C217" s="73" t="s">
+      <c r="C217" s="76" t="s">
         <v>892</v>
       </c>
       <c r="D217" t="s">
@@ -15293,7 +15417,7 @@
       <c r="B221" t="s">
         <v>906</v>
       </c>
-      <c r="C221" s="73" t="s">
+      <c r="C221" s="76" t="s">
         <v>907</v>
       </c>
       <c r="D221" t="s">
@@ -15346,7 +15470,7 @@
       <c r="B225" t="s">
         <v>920</v>
       </c>
-      <c r="C225" s="73" t="s">
+      <c r="C225" s="76" t="s">
         <v>921</v>
       </c>
       <c r="D225" t="s">
@@ -15363,7 +15487,7 @@
       <c r="B226" t="s">
         <v>925</v>
       </c>
-      <c r="C226" s="73" t="s">
+      <c r="C226" s="76" t="s">
         <v>926</v>
       </c>
       <c r="D226" t="s">
@@ -15392,7 +15516,7 @@
       <c r="B228" t="s">
         <v>933</v>
       </c>
-      <c r="C228" s="73" t="s">
+      <c r="C228" s="76" t="s">
         <v>934</v>
       </c>
       <c r="D228" t="s">
@@ -15454,7 +15578,7 @@
       <c r="B233" t="s">
         <v>949</v>
       </c>
-      <c r="C233" s="73" t="s">
+      <c r="C233" s="76" t="s">
         <v>950</v>
       </c>
       <c r="D233" t="s">
@@ -15483,7 +15607,7 @@
       <c r="B235" t="s">
         <v>957</v>
       </c>
-      <c r="C235" s="73" t="s">
+      <c r="C235" s="76" t="s">
         <v>958</v>
       </c>
       <c r="D235" t="s">
@@ -15500,7 +15624,7 @@
       <c r="B236" t="s">
         <v>962</v>
       </c>
-      <c r="C236" s="73" t="s">
+      <c r="C236" s="76" t="s">
         <v>963</v>
       </c>
       <c r="D236" t="s">
@@ -15544,7 +15668,7 @@
       <c r="B239" t="s">
         <v>974</v>
       </c>
-      <c r="C239" s="73" t="s">
+      <c r="C239" s="76" t="s">
         <v>975</v>
       </c>
       <c r="D239" t="s">
@@ -15576,7 +15700,7 @@
       <c r="B241" t="s">
         <v>983</v>
       </c>
-      <c r="C241" s="73" t="s">
+      <c r="C241" s="76" t="s">
         <v>984</v>
       </c>
       <c r="D241" t="s">
@@ -15593,7 +15717,7 @@
       <c r="B242" t="s">
         <v>988</v>
       </c>
-      <c r="C242" s="73" t="s">
+      <c r="C242" s="76" t="s">
         <v>989</v>
       </c>
       <c r="D242" t="s">
@@ -15640,7 +15764,7 @@
       <c r="B245" t="s">
         <v>1001</v>
       </c>
-      <c r="C245" s="73" t="s">
+      <c r="C245" s="76" t="s">
         <v>1002</v>
       </c>
       <c r="D245" t="s">
@@ -15657,7 +15781,7 @@
       <c r="B246" t="s">
         <v>1006</v>
       </c>
-      <c r="C246" s="73" t="s">
+      <c r="C246" s="76" t="s">
         <v>1007</v>
       </c>
       <c r="E246" t="s">
@@ -15671,7 +15795,7 @@
       <c r="B247" t="s">
         <v>1010</v>
       </c>
-      <c r="C247" s="73" t="s">
+      <c r="C247" s="76" t="s">
         <v>1011</v>
       </c>
       <c r="D247" t="s">
@@ -15688,7 +15812,7 @@
       <c r="B248" t="s">
         <v>1015</v>
       </c>
-      <c r="C248" s="73" t="s">
+      <c r="C248" s="76" t="s">
         <v>1016</v>
       </c>
       <c r="D248" t="s">
@@ -15705,7 +15829,7 @@
       <c r="B249" t="s">
         <v>1020</v>
       </c>
-      <c r="C249" s="73" t="s">
+      <c r="C249" s="76" t="s">
         <v>1021</v>
       </c>
       <c r="D249" t="s">
@@ -15743,7 +15867,7 @@
       <c r="B252" t="s">
         <v>1030</v>
       </c>
-      <c r="C252" s="73" t="s">
+      <c r="C252" s="76" t="s">
         <v>1031</v>
       </c>
       <c r="D252" t="s">
@@ -15760,7 +15884,7 @@
       <c r="B253" t="s">
         <v>1035</v>
       </c>
-      <c r="C253" s="73" t="s">
+      <c r="C253" s="76" t="s">
         <v>1036</v>
       </c>
       <c r="D253" t="s">
@@ -15777,7 +15901,7 @@
       <c r="B254" t="s">
         <v>1040</v>
       </c>
-      <c r="C254" s="73" t="s">
+      <c r="C254" s="76" t="s">
         <v>1041</v>
       </c>
       <c r="D254" t="s">
@@ -15794,7 +15918,7 @@
       <c r="B255" t="s">
         <v>1045</v>
       </c>
-      <c r="C255" s="73" t="s">
+      <c r="C255" s="76" t="s">
         <v>1046</v>
       </c>
       <c r="D255" t="s">
@@ -15811,7 +15935,7 @@
       <c r="B256" t="s">
         <v>1050</v>
       </c>
-      <c r="C256" s="73" t="s">
+      <c r="C256" s="76" t="s">
         <v>1051</v>
       </c>
       <c r="D256" t="s">
@@ -15828,7 +15952,7 @@
       <c r="B257" t="s">
         <v>1055</v>
       </c>
-      <c r="C257" s="73" t="s">
+      <c r="C257" s="76" t="s">
         <v>1056</v>
       </c>
       <c r="D257" t="s">
@@ -15869,7 +15993,7 @@
       <c r="B260" t="s">
         <v>1066</v>
       </c>
-      <c r="C260" s="73" t="s">
+      <c r="C260" s="76" t="s">
         <v>1067</v>
       </c>
       <c r="D260" t="s">
@@ -15898,7 +16022,7 @@
       <c r="B262" t="s">
         <v>1074</v>
       </c>
-      <c r="C262" s="73" t="s">
+      <c r="C262" s="76" t="s">
         <v>1075</v>
       </c>
       <c r="D262" t="s">
@@ -15912,7 +16036,7 @@
       <c r="B263" t="s">
         <v>1078</v>
       </c>
-      <c r="C263" s="73" t="s">
+      <c r="C263" s="76" t="s">
         <v>1079</v>
       </c>
       <c r="D263" t="s">
@@ -15926,7 +16050,7 @@
       <c r="B264" t="s">
         <v>1082</v>
       </c>
-      <c r="C264" s="73" t="s">
+      <c r="C264" s="76" t="s">
         <v>1083</v>
       </c>
       <c r="D264" t="s">
@@ -15943,7 +16067,7 @@
       <c r="B265" t="s">
         <v>1087</v>
       </c>
-      <c r="C265" s="73" t="s">
+      <c r="C265" s="76" t="s">
         <v>1088</v>
       </c>
       <c r="D265" t="s">
@@ -15984,7 +16108,7 @@
       <c r="B268" t="s">
         <v>1098</v>
       </c>
-      <c r="C268" s="73" t="s">
+      <c r="C268" s="76" t="s">
         <v>1099</v>
       </c>
       <c r="D268" t="s">
@@ -16016,7 +16140,7 @@
       <c r="B270" t="s">
         <v>1107</v>
       </c>
-      <c r="C270" s="73" t="s">
+      <c r="C270" s="76" t="s">
         <v>1108</v>
       </c>
       <c r="D270" t="s">
@@ -16030,7 +16154,7 @@
       <c r="B271" t="s">
         <v>1111</v>
       </c>
-      <c r="C271" s="73" t="s">
+      <c r="C271" s="76" t="s">
         <v>1112</v>
       </c>
       <c r="D271" t="s">
@@ -16047,7 +16171,7 @@
       <c r="B272" t="s">
         <v>1116</v>
       </c>
-      <c r="C272" s="73" t="s">
+      <c r="C272" s="76" t="s">
         <v>1117</v>
       </c>
       <c r="D272" t="s">
@@ -16064,7 +16188,7 @@
       <c r="B273" t="s">
         <v>1121</v>
       </c>
-      <c r="C273" s="73" t="s">
+      <c r="C273" s="76" t="s">
         <v>1122</v>
       </c>
       <c r="D273" t="s">
@@ -16081,7 +16205,7 @@
       <c r="B274" t="s">
         <v>1126</v>
       </c>
-      <c r="C274" s="73" t="s">
+      <c r="C274" s="76" t="s">
         <v>1127</v>
       </c>
       <c r="D274" t="s">
@@ -16113,7 +16237,7 @@
       <c r="B276" t="s">
         <v>1135</v>
       </c>
-      <c r="C276" s="73" t="s">
+      <c r="C276" s="76" t="s">
         <v>1136</v>
       </c>
       <c r="D276" t="s">
@@ -16139,7 +16263,7 @@
       <c r="B278" t="s">
         <v>1142</v>
       </c>
-      <c r="C278" s="73" t="s">
+      <c r="C278" s="76" t="s">
         <v>1143</v>
       </c>
       <c r="D278" t="s">
@@ -16168,7 +16292,7 @@
       <c r="B280" t="s">
         <v>1150</v>
       </c>
-      <c r="C280" s="73" t="s">
+      <c r="C280" s="76" t="s">
         <v>1151</v>
       </c>
       <c r="D280" t="s">
@@ -16200,7 +16324,7 @@
       <c r="B282" t="s">
         <v>1159</v>
       </c>
-      <c r="C282" s="73" t="s">
+      <c r="C282" s="76" t="s">
         <v>1160</v>
       </c>
       <c r="D282" t="s">
@@ -16226,7 +16350,7 @@
       <c r="B284" t="s">
         <v>1166</v>
       </c>
-      <c r="C284" s="73" t="s">
+      <c r="C284" s="76" t="s">
         <v>1167</v>
       </c>
       <c r="D284" t="s">
@@ -16243,7 +16367,7 @@
       <c r="B285" t="s">
         <v>1171</v>
       </c>
-      <c r="C285" s="73" t="s">
+      <c r="C285" s="76" t="s">
         <v>1172</v>
       </c>
       <c r="D285" t="s">
@@ -16260,7 +16384,7 @@
       <c r="B286" t="s">
         <v>1176</v>
       </c>
-      <c r="C286" s="73" t="s">
+      <c r="C286" s="76" t="s">
         <v>1177</v>
       </c>
       <c r="D286" t="s">
@@ -16301,7 +16425,7 @@
       <c r="B289" t="s">
         <v>1187</v>
       </c>
-      <c r="C289" s="73" t="s">
+      <c r="C289" s="76" t="s">
         <v>1188</v>
       </c>
       <c r="D289" t="s">
@@ -16318,7 +16442,7 @@
       <c r="B290" t="s">
         <v>1192</v>
       </c>
-      <c r="C290" s="73" t="s">
+      <c r="C290" s="76" t="s">
         <v>1193</v>
       </c>
       <c r="D290" t="s">
@@ -16335,7 +16459,7 @@
       <c r="B291" t="s">
         <v>1197</v>
       </c>
-      <c r="C291" s="73" t="s">
+      <c r="C291" s="76" t="s">
         <v>1198</v>
       </c>
       <c r="D291" t="s">
@@ -16352,7 +16476,7 @@
       <c r="B292" t="s">
         <v>1202</v>
       </c>
-      <c r="C292" s="73" t="s">
+      <c r="C292" s="76" t="s">
         <v>1203</v>
       </c>
       <c r="D292" t="s">
@@ -16369,7 +16493,7 @@
       <c r="B293" t="s">
         <v>1207</v>
       </c>
-      <c r="C293" s="73" t="s">
+      <c r="C293" s="76" t="s">
         <v>1208</v>
       </c>
       <c r="D293" t="s">
@@ -16395,7 +16519,7 @@
       <c r="B295" t="s">
         <v>1214</v>
       </c>
-      <c r="C295" s="73" t="s">
+      <c r="C295" s="76" t="s">
         <v>1215</v>
       </c>
       <c r="D295" t="s">
@@ -16409,7 +16533,7 @@
       <c r="B296" t="s">
         <v>1218</v>
       </c>
-      <c r="C296" s="73" t="s">
+      <c r="C296" s="76" t="s">
         <v>1219</v>
       </c>
       <c r="D296" t="s">
@@ -16426,7 +16550,7 @@
       <c r="B297" t="s">
         <v>1223</v>
       </c>
-      <c r="C297" s="73" t="s">
+      <c r="C297" s="76" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -16437,7 +16561,7 @@
       <c r="B298" t="s">
         <v>1226</v>
       </c>
-      <c r="C298" s="73" t="s">
+      <c r="C298" s="76" t="s">
         <v>1227</v>
       </c>
       <c r="D298" t="s">
@@ -16454,7 +16578,7 @@
       <c r="B299" t="s">
         <v>1231</v>
       </c>
-      <c r="C299" s="73" t="s">
+      <c r="C299" s="76" t="s">
         <v>1232</v>
       </c>
       <c r="D299" t="s">
@@ -16471,7 +16595,7 @@
       <c r="B300" t="s">
         <v>1236</v>
       </c>
-      <c r="C300" s="73" t="s">
+      <c r="C300" s="76" t="s">
         <v>1237</v>
       </c>
       <c r="D300" t="s">
@@ -16500,7 +16624,7 @@
       <c r="B302" t="s">
         <v>1244</v>
       </c>
-      <c r="C302" s="73" t="s">
+      <c r="C302" s="76" t="s">
         <v>1245</v>
       </c>
       <c r="D302" t="s">
@@ -16517,7 +16641,7 @@
       <c r="B303" t="s">
         <v>1249</v>
       </c>
-      <c r="C303" s="73" t="s">
+      <c r="C303" s="76" t="s">
         <v>1250</v>
       </c>
       <c r="D303" t="s">
@@ -16549,7 +16673,7 @@
       <c r="B305" t="s">
         <v>1258</v>
       </c>
-      <c r="C305" s="73" t="s">
+      <c r="C305" s="76" t="s">
         <v>1259</v>
       </c>
       <c r="D305" t="s">
@@ -16566,7 +16690,7 @@
       <c r="B306" t="s">
         <v>1263</v>
       </c>
-      <c r="C306" s="73" t="s">
+      <c r="C306" s="76" t="s">
         <v>1264</v>
       </c>
       <c r="D306" t="s">
@@ -16595,7 +16719,7 @@
       <c r="B308" t="s">
         <v>1271</v>
       </c>
-      <c r="C308" s="73" t="s">
+      <c r="C308" s="76" t="s">
         <v>1272</v>
       </c>
       <c r="D308" t="s">
@@ -16612,7 +16736,7 @@
       <c r="B309" t="s">
         <v>1276</v>
       </c>
-      <c r="C309" s="73" t="s">
+      <c r="C309" s="76" t="s">
         <v>1277</v>
       </c>
       <c r="D309" t="s">
@@ -16638,7 +16762,7 @@
       <c r="B311" t="s">
         <v>1283</v>
       </c>
-      <c r="C311" s="73" t="s">
+      <c r="C311" s="76" t="s">
         <v>1284</v>
       </c>
       <c r="D311" t="s">
@@ -16655,7 +16779,7 @@
       <c r="B312" t="s">
         <v>1288</v>
       </c>
-      <c r="C312" s="73" t="s">
+      <c r="C312" s="76" t="s">
         <v>1289</v>
       </c>
       <c r="D312" t="s">
@@ -16672,7 +16796,7 @@
       <c r="B313" t="s">
         <v>1293</v>
       </c>
-      <c r="C313" s="73" t="s">
+      <c r="C313" s="76" t="s">
         <v>1294</v>
       </c>
       <c r="D313" t="s">
@@ -16704,7 +16828,7 @@
       <c r="B315" t="s">
         <v>1302</v>
       </c>
-      <c r="C315" s="75" t="s">
+      <c r="C315" s="78" t="s">
         <v>1303</v>
       </c>
       <c r="D315" t="s">
@@ -16736,7 +16860,7 @@
       <c r="B317" t="s">
         <v>1311</v>
       </c>
-      <c r="C317" s="73" t="s">
+      <c r="C317" s="76" t="s">
         <v>1312</v>
       </c>
       <c r="E317" t="s">
@@ -16750,7 +16874,7 @@
       <c r="B318" t="s">
         <v>1315</v>
       </c>
-      <c r="C318" s="73" t="s">
+      <c r="C318" s="76" t="s">
         <v>1316</v>
       </c>
       <c r="D318" t="s">
@@ -16794,7 +16918,7 @@
       <c r="B321" t="s">
         <v>1327</v>
       </c>
-      <c r="C321" s="73" t="s">
+      <c r="C321" s="76" t="s">
         <v>1328</v>
       </c>
       <c r="D321" t="s">
@@ -16811,7 +16935,7 @@
       <c r="B322" t="s">
         <v>1332</v>
       </c>
-      <c r="C322" s="73" t="s">
+      <c r="C322" s="76" t="s">
         <v>1333</v>
       </c>
       <c r="D322" t="s">
@@ -16828,7 +16952,7 @@
       <c r="B323" t="s">
         <v>1337</v>
       </c>
-      <c r="C323" s="73" t="s">
+      <c r="C323" s="76" t="s">
         <v>1338</v>
       </c>
       <c r="D323" t="s">
@@ -16845,7 +16969,7 @@
       <c r="B324" t="s">
         <v>1342</v>
       </c>
-      <c r="C324" s="73" t="s">
+      <c r="C324" s="76" t="s">
         <v>1343</v>
       </c>
       <c r="D324" t="s">
@@ -16862,7 +16986,7 @@
       <c r="B325" t="s">
         <v>1347</v>
       </c>
-      <c r="C325" s="73" t="s">
+      <c r="C325" s="76" t="s">
         <v>1348</v>
       </c>
       <c r="D325" t="s">
@@ -16891,7 +17015,7 @@
       <c r="B327" t="s">
         <v>1355</v>
       </c>
-      <c r="C327" s="73" t="s">
+      <c r="C327" s="76" t="s">
         <v>1356</v>
       </c>
       <c r="D327" t="s">
@@ -16908,7 +17032,7 @@
       <c r="B328" t="s">
         <v>1360</v>
       </c>
-      <c r="C328" s="73" t="s">
+      <c r="C328" s="76" t="s">
         <v>1361</v>
       </c>
       <c r="D328" t="s">
@@ -16925,7 +17049,7 @@
       <c r="B329" t="s">
         <v>1365</v>
       </c>
-      <c r="C329" s="73" t="s">
+      <c r="C329" s="76" t="s">
         <v>1366</v>
       </c>
       <c r="D329" t="s">
@@ -16951,7 +17075,7 @@
       <c r="B331" t="s">
         <v>1372</v>
       </c>
-      <c r="C331" s="73" t="s">
+      <c r="C331" s="76" t="s">
         <v>1373</v>
       </c>
       <c r="D331" t="s">
@@ -16968,7 +17092,7 @@
       <c r="B332" t="s">
         <v>1377</v>
       </c>
-      <c r="C332" s="73" t="s">
+      <c r="C332" s="76" t="s">
         <v>1378</v>
       </c>
       <c r="D332" t="s">
@@ -17009,7 +17133,7 @@
       <c r="B335" t="s">
         <v>1388</v>
       </c>
-      <c r="C335" s="73" t="s">
+      <c r="C335" s="76" t="s">
         <v>1389</v>
       </c>
       <c r="D335" t="s">
@@ -17038,7 +17162,7 @@
       <c r="B337" t="s">
         <v>1396</v>
       </c>
-      <c r="C337" s="73" t="s">
+      <c r="C337" s="76" t="s">
         <v>1397</v>
       </c>
       <c r="D337" t="s">
@@ -17052,7 +17176,7 @@
       <c r="B338" t="s">
         <v>1400</v>
       </c>
-      <c r="C338" s="73" t="s">
+      <c r="C338" s="76" t="s">
         <v>1401</v>
       </c>
       <c r="D338" t="s">
@@ -17075,7 +17199,7 @@
       <c r="B340" t="s">
         <v>1406</v>
       </c>
-      <c r="C340" s="73" t="s">
+      <c r="C340" s="76" t="s">
         <v>1407</v>
       </c>
       <c r="D340" t="s">
@@ -17092,7 +17216,7 @@
       <c r="B341" t="s">
         <v>1411</v>
       </c>
-      <c r="C341" s="73" t="s">
+      <c r="C341" s="76" t="s">
         <v>1412</v>
       </c>
       <c r="D341" t="s">
@@ -17121,7 +17245,7 @@
       <c r="B343" t="s">
         <v>1419</v>
       </c>
-      <c r="C343" s="73" t="s">
+      <c r="C343" s="76" t="s">
         <v>1420</v>
       </c>
       <c r="D343" t="s">
@@ -17162,7 +17286,7 @@
       <c r="B346" t="s">
         <v>1430</v>
       </c>
-      <c r="C346" s="73" t="s">
+      <c r="C346" s="76" t="s">
         <v>1431</v>
       </c>
       <c r="D346" t="s">
@@ -17179,7 +17303,7 @@
       <c r="B347" t="s">
         <v>1435</v>
       </c>
-      <c r="C347" s="73" t="s">
+      <c r="C347" s="76" t="s">
         <v>1436</v>
       </c>
       <c r="D347" t="s">
@@ -17196,7 +17320,7 @@
       <c r="B348" t="s">
         <v>1440</v>
       </c>
-      <c r="C348" s="73" t="s">
+      <c r="C348" s="76" t="s">
         <v>1441</v>
       </c>
       <c r="D348" t="s">
@@ -17213,7 +17337,7 @@
       <c r="B349" t="s">
         <v>1445</v>
       </c>
-      <c r="C349" s="73" t="s">
+      <c r="C349" s="76" t="s">
         <v>1446</v>
       </c>
       <c r="D349" t="s">
@@ -17230,7 +17354,7 @@
       <c r="B350" t="s">
         <v>1450</v>
       </c>
-      <c r="C350" s="73" t="s">
+      <c r="C350" s="76" t="s">
         <v>1451</v>
       </c>
       <c r="D350" t="s">
@@ -17256,7 +17380,7 @@
       <c r="B352" t="s">
         <v>1457</v>
       </c>
-      <c r="C352" s="73" t="s">
+      <c r="C352" s="76" t="s">
         <v>1458</v>
       </c>
       <c r="D352" t="s">
@@ -17273,7 +17397,7 @@
       <c r="B353" t="s">
         <v>1462</v>
       </c>
-      <c r="C353" s="73" t="s">
+      <c r="C353" s="76" t="s">
         <v>1463</v>
       </c>
       <c r="D353" t="s">
@@ -17326,7 +17450,7 @@
       <c r="B357" t="s">
         <v>1476</v>
       </c>
-      <c r="C357" s="73" t="s">
+      <c r="C357" s="76" t="s">
         <v>1477</v>
       </c>
       <c r="E357" t="s">
@@ -17340,7 +17464,7 @@
       <c r="B358" t="s">
         <v>1480</v>
       </c>
-      <c r="C358" s="73" t="s">
+      <c r="C358" s="76" t="s">
         <v>1481</v>
       </c>
       <c r="D358" t="s">
@@ -17357,7 +17481,7 @@
       <c r="B359" t="s">
         <v>1485</v>
       </c>
-      <c r="C359" s="73" t="s">
+      <c r="C359" s="76" t="s">
         <v>1486</v>
       </c>
       <c r="D359" t="s">
@@ -17380,7 +17504,7 @@
       <c r="B361" t="s">
         <v>1491</v>
       </c>
-      <c r="C361" s="73" t="s">
+      <c r="C361" s="76" t="s">
         <v>1492</v>
       </c>
       <c r="D361" t="s">
@@ -17451,7 +17575,7 @@
       <c r="B366" t="s">
         <v>1510</v>
       </c>
-      <c r="C366" s="73" t="s">
+      <c r="C366" s="76" t="s">
         <v>1511</v>
       </c>
       <c r="D366" t="s">
@@ -17480,7 +17604,7 @@
       <c r="B368" t="s">
         <v>1518</v>
       </c>
-      <c r="C368" s="73" t="s">
+      <c r="C368" s="76" t="s">
         <v>1519</v>
       </c>
       <c r="D368" t="s">
@@ -17506,7 +17630,7 @@
       <c r="B370" t="s">
         <v>1524</v>
       </c>
-      <c r="C370" s="73" t="s">
+      <c r="C370" s="76" t="s">
         <v>1525</v>
       </c>
       <c r="D370" t="s">
@@ -17559,7 +17683,7 @@
       <c r="B374" t="s">
         <v>1538</v>
       </c>
-      <c r="C374" s="73" t="s">
+      <c r="C374" s="76" t="s">
         <v>1539</v>
       </c>
       <c r="E374" t="s">
@@ -17585,7 +17709,7 @@
       <c r="B376" t="s">
         <v>1545</v>
       </c>
-      <c r="C376" s="73" t="s">
+      <c r="C376" s="76" t="s">
         <v>1546</v>
       </c>
       <c r="D376" t="s">
@@ -17602,7 +17726,7 @@
       <c r="B377" t="s">
         <v>1550</v>
       </c>
-      <c r="C377" s="73" t="s">
+      <c r="C377" s="76" t="s">
         <v>1551</v>
       </c>
       <c r="D377" t="s">
@@ -17619,7 +17743,7 @@
       <c r="B378" t="s">
         <v>1555</v>
       </c>
-      <c r="C378" s="73" t="s">
+      <c r="C378" s="76" t="s">
         <v>1556</v>
       </c>
       <c r="D378" t="s">
@@ -17648,7 +17772,7 @@
       <c r="B380" t="s">
         <v>1563</v>
       </c>
-      <c r="C380" s="73" t="s">
+      <c r="C380" s="76" t="s">
         <v>1564</v>
       </c>
       <c r="D380" t="s">
@@ -17710,7 +17834,7 @@
       <c r="B385" t="s">
         <v>1579</v>
       </c>
-      <c r="C385" s="73" t="s">
+      <c r="C385" s="76" t="s">
         <v>1580</v>
       </c>
       <c r="D385" t="s">
@@ -17727,7 +17851,7 @@
       <c r="B386" t="s">
         <v>1584</v>
       </c>
-      <c r="C386" s="73" t="s">
+      <c r="C386" s="76" t="s">
         <v>1585</v>
       </c>
       <c r="E386" t="s">
@@ -17750,7 +17874,7 @@
       <c r="B388" t="s">
         <v>1590</v>
       </c>
-      <c r="C388" s="73" t="s">
+      <c r="C388" s="76" t="s">
         <v>1591</v>
       </c>
       <c r="D388" t="s">
@@ -17788,7 +17912,7 @@
       <c r="B391" t="s">
         <v>1600</v>
       </c>
-      <c r="C391" s="73" t="s">
+      <c r="C391" s="76" t="s">
         <v>1601</v>
       </c>
       <c r="D391" t="s">
@@ -17856,7 +17980,7 @@
       <c r="B396" t="s">
         <v>1618</v>
       </c>
-      <c r="C396" s="73" t="s">
+      <c r="C396" s="76" t="s">
         <v>1619</v>
       </c>
       <c r="D396" t="s">
@@ -17897,7 +18021,7 @@
       <c r="B399" t="s">
         <v>1629</v>
       </c>
-      <c r="C399" s="73" t="s">
+      <c r="C399" s="76" t="s">
         <v>1630</v>
       </c>
       <c r="E399" t="s">
@@ -17911,7 +18035,7 @@
       <c r="B400" t="s">
         <v>1633</v>
       </c>
-      <c r="C400" s="73" t="s">
+      <c r="C400" s="76" t="s">
         <v>1634</v>
       </c>
       <c r="D400" t="s">
@@ -17925,7 +18049,7 @@
       <c r="B401" t="s">
         <v>1637</v>
       </c>
-      <c r="C401" s="73" t="s">
+      <c r="C401" s="76" t="s">
         <v>1638</v>
       </c>
       <c r="D401" t="s">
@@ -17939,7 +18063,7 @@
       <c r="B402" t="s">
         <v>1641</v>
       </c>
-      <c r="C402" s="73" t="s">
+      <c r="C402" s="76" t="s">
         <v>1642</v>
       </c>
       <c r="D402" t="s">
@@ -17953,7 +18077,7 @@
       <c r="B403" t="s">
         <v>1645</v>
       </c>
-      <c r="C403" s="73" t="s">
+      <c r="C403" s="76" t="s">
         <v>1646</v>
       </c>
       <c r="D403" t="s">
@@ -17967,7 +18091,7 @@
       <c r="B404" t="s">
         <v>1649</v>
       </c>
-      <c r="C404" s="73" t="s">
+      <c r="C404" s="76" t="s">
         <v>1650</v>
       </c>
       <c r="D404" t="s">
@@ -17984,7 +18108,7 @@
       <c r="B405" t="s">
         <v>1654</v>
       </c>
-      <c r="C405" s="73" t="s">
+      <c r="C405" s="76" t="s">
         <v>1655</v>
       </c>
       <c r="D405" t="s">
@@ -18001,7 +18125,7 @@
       <c r="B406" t="s">
         <v>1659</v>
       </c>
-      <c r="C406" s="73" t="s">
+      <c r="C406" s="76" t="s">
         <v>1660</v>
       </c>
       <c r="D406" t="s">
@@ -18042,7 +18166,7 @@
       <c r="B409" t="s">
         <v>1670</v>
       </c>
-      <c r="C409" s="73" t="s">
+      <c r="C409" s="76" t="s">
         <v>1671</v>
       </c>
       <c r="D409" t="s">
@@ -18068,7 +18192,7 @@
       <c r="B411" t="s">
         <v>1677</v>
       </c>
-      <c r="C411" s="73" t="s">
+      <c r="C411" s="76" t="s">
         <v>1678</v>
       </c>
       <c r="D411" t="s">
@@ -18136,7 +18260,7 @@
       <c r="B416" t="s">
         <v>1695</v>
       </c>
-      <c r="C416" s="75" t="s">
+      <c r="C416" s="78" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -18147,7 +18271,7 @@
       <c r="B417" t="s">
         <v>1698</v>
       </c>
-      <c r="C417" s="73" t="s">
+      <c r="C417" s="76" t="s">
         <v>1699</v>
       </c>
       <c r="D417" t="s">
@@ -18164,7 +18288,7 @@
       <c r="B418" t="s">
         <v>1703</v>
       </c>
-      <c r="C418" s="73" t="s">
+      <c r="C418" s="76" t="s">
         <v>1704</v>
       </c>
       <c r="D418" t="s">
@@ -18190,7 +18314,7 @@
       <c r="B420" t="s">
         <v>1710</v>
       </c>
-      <c r="C420" s="73" t="s">
+      <c r="C420" s="76" t="s">
         <v>1711</v>
       </c>
       <c r="D420" t="s">
@@ -18207,7 +18331,7 @@
       <c r="B421" t="s">
         <v>1715</v>
       </c>
-      <c r="C421" s="73" t="s">
+      <c r="C421" s="76" t="s">
         <v>1716</v>
       </c>
       <c r="D421" t="s">
@@ -18224,7 +18348,7 @@
       <c r="B422" t="s">
         <v>1670</v>
       </c>
-      <c r="C422" s="73" t="s">
+      <c r="C422" s="76" t="s">
         <v>1720</v>
       </c>
       <c r="D422" t="s">
@@ -18241,7 +18365,7 @@
       <c r="B423" t="s">
         <v>1724</v>
       </c>
-      <c r="C423" s="73" t="s">
+      <c r="C423" s="76" t="s">
         <v>1725</v>
       </c>
       <c r="D423" t="s">
@@ -18258,7 +18382,7 @@
       <c r="B424" t="s">
         <v>1729</v>
       </c>
-      <c r="C424" s="73" t="s">
+      <c r="C424" s="76" t="s">
         <v>1730</v>
       </c>
       <c r="D424" t="s">
@@ -18287,7 +18411,7 @@
       <c r="B426" t="s">
         <v>1737</v>
       </c>
-      <c r="C426" s="73" t="s">
+      <c r="C426" s="76" t="s">
         <v>1738</v>
       </c>
       <c r="D426" t="s">
@@ -18304,7 +18428,7 @@
       <c r="B427" t="s">
         <v>1742</v>
       </c>
-      <c r="C427" s="73" t="s">
+      <c r="C427" s="76" t="s">
         <v>1743</v>
       </c>
       <c r="E427" t="s">
@@ -18330,7 +18454,7 @@
       <c r="B429" t="s">
         <v>1749</v>
       </c>
-      <c r="C429" s="73" t="s">
+      <c r="C429" s="76" t="s">
         <v>1750</v>
       </c>
       <c r="D429" t="s">
@@ -18356,7 +18480,7 @@
       <c r="B431" t="s">
         <v>1756</v>
       </c>
-      <c r="C431" s="73" t="s">
+      <c r="C431" s="76" t="s">
         <v>1757</v>
       </c>
       <c r="D431" t="s">
@@ -18370,7 +18494,7 @@
       <c r="B432" t="s">
         <v>1760</v>
       </c>
-      <c r="C432" s="73" t="s">
+      <c r="C432" s="76" t="s">
         <v>1761</v>
       </c>
       <c r="D432" t="s">
@@ -18417,7 +18541,7 @@
       <c r="A436" t="s">
         <v>1772</v>
       </c>
-      <c r="C436" s="73" t="s">
+      <c r="C436" s="76" t="s">
         <v>1773</v>
       </c>
       <c r="D436" t="s">
@@ -18524,7 +18648,7 @@
       <c r="B444" t="s">
         <v>1800</v>
       </c>
-      <c r="C444" s="73" t="s">
+      <c r="C444" s="76" t="s">
         <v>1801</v>
       </c>
       <c r="D444" t="s">
@@ -18574,7 +18698,7 @@
       <c r="B448" t="s">
         <v>1813</v>
       </c>
-      <c r="C448" s="73" t="s">
+      <c r="C448" s="76" t="s">
         <v>1814</v>
       </c>
       <c r="D448" t="s">
@@ -18588,7 +18712,7 @@
       <c r="B449" t="s">
         <v>1817</v>
       </c>
-      <c r="C449" s="73" t="s">
+      <c r="C449" s="76" t="s">
         <v>1818</v>
       </c>
     </row>
@@ -18599,7 +18723,7 @@
       <c r="B450" t="s">
         <v>1820</v>
       </c>
-      <c r="C450" s="73" t="s">
+      <c r="C450" s="76" t="s">
         <v>1821</v>
       </c>
       <c r="D450" t="s">
@@ -18616,7 +18740,7 @@
       <c r="B451" t="s">
         <v>1825</v>
       </c>
-      <c r="C451" s="73" t="s">
+      <c r="C451" s="76" t="s">
         <v>1826</v>
       </c>
       <c r="D451" t="s">
@@ -18630,7 +18754,7 @@
       <c r="B452" t="s">
         <v>1829</v>
       </c>
-      <c r="C452" s="73" t="s">
+      <c r="C452" s="76" t="s">
         <v>1830</v>
       </c>
       <c r="D452" t="s">
@@ -18695,7 +18819,7 @@
       <c r="B457" t="s">
         <v>1846</v>
       </c>
-      <c r="C457" s="73" t="s">
+      <c r="C457" s="76" t="s">
         <v>1847</v>
       </c>
       <c r="D457" t="s">
@@ -18727,7 +18851,7 @@
       <c r="B459" t="s">
         <v>1855</v>
       </c>
-      <c r="C459" s="75" t="s">
+      <c r="C459" s="78" t="s">
         <v>1856</v>
       </c>
       <c r="D459" t="s">
@@ -18741,7 +18865,7 @@
       <c r="B460" t="s">
         <v>1859</v>
       </c>
-      <c r="C460" s="73" t="s">
+      <c r="C460" s="76" t="s">
         <v>1860</v>
       </c>
       <c r="D460" t="s">
@@ -18758,7 +18882,7 @@
       <c r="B461" t="s">
         <v>1864</v>
       </c>
-      <c r="C461" s="75" t="s">
+      <c r="C461" s="78" t="s">
         <v>1865</v>
       </c>
       <c r="E461" t="s">
@@ -18784,7 +18908,7 @@
       <c r="B463" t="s">
         <v>1871</v>
       </c>
-      <c r="C463" s="73" t="s">
+      <c r="C463" s="76" t="s">
         <v>1872</v>
       </c>
       <c r="D463" t="s">
@@ -18813,7 +18937,7 @@
       <c r="B465" t="s">
         <v>1879</v>
       </c>
-      <c r="C465" s="73" t="s">
+      <c r="C465" s="76" t="s">
         <v>1880</v>
       </c>
       <c r="D465" t="s">
@@ -18830,7 +18954,7 @@
       <c r="B466" t="s">
         <v>1884</v>
       </c>
-      <c r="C466" s="75" t="s">
+      <c r="C466" s="78" t="s">
         <v>1885</v>
       </c>
       <c r="D466" t="s">
@@ -18847,7 +18971,7 @@
       <c r="B467" t="s">
         <v>1889</v>
       </c>
-      <c r="C467" s="73" t="s">
+      <c r="C467" s="76" t="s">
         <v>1890</v>
       </c>
       <c r="D467" t="s">
@@ -18900,7 +19024,7 @@
       <c r="B471" t="s">
         <v>1903</v>
       </c>
-      <c r="C471" s="73" t="s">
+      <c r="C471" s="76" t="s">
         <v>1904</v>
       </c>
       <c r="D471" t="s">
@@ -18914,7 +19038,7 @@
       <c r="B472" t="s">
         <v>1907</v>
       </c>
-      <c r="C472" s="73" t="s">
+      <c r="C472" s="76" t="s">
         <v>1908</v>
       </c>
       <c r="D472" t="s">
@@ -18952,7 +19076,7 @@
       <c r="B475" t="s">
         <v>1917</v>
       </c>
-      <c r="C475" s="73" t="s">
+      <c r="C475" s="76" t="s">
         <v>1918</v>
       </c>
       <c r="D475" t="s">
@@ -18966,7 +19090,7 @@
       <c r="B476" t="s">
         <v>1921</v>
       </c>
-      <c r="C476" s="73" t="s">
+      <c r="C476" s="76" t="s">
         <v>1922</v>
       </c>
       <c r="D476" t="s">
@@ -19010,7 +19134,7 @@
       <c r="B479" t="s">
         <v>1933</v>
       </c>
-      <c r="C479" s="73" t="s">
+      <c r="C479" s="76" t="s">
         <v>1934</v>
       </c>
       <c r="D479" t="s">
@@ -19036,7 +19160,7 @@
       <c r="B481" t="s">
         <v>1940</v>
       </c>
-      <c r="C481" s="73" t="s">
+      <c r="C481" s="76" t="s">
         <v>1941</v>
       </c>
       <c r="D481" t="s">
@@ -19068,7 +19192,7 @@
       <c r="B483" t="s">
         <v>1949</v>
       </c>
-      <c r="C483" s="73" t="s">
+      <c r="C483" s="76" t="s">
         <v>1950</v>
       </c>
       <c r="E483" t="s">
@@ -19082,7 +19206,7 @@
       <c r="B484" t="s">
         <v>1953</v>
       </c>
-      <c r="C484" s="73" t="s">
+      <c r="C484" s="76" t="s">
         <v>1954</v>
       </c>
       <c r="D484" t="s">
@@ -19099,7 +19223,7 @@
       <c r="B485" t="s">
         <v>1958</v>
       </c>
-      <c r="C485" s="73" t="s">
+      <c r="C485" s="76" t="s">
         <v>1959</v>
       </c>
       <c r="D485" t="s">
@@ -19137,7 +19261,7 @@
       <c r="B488" t="s">
         <v>1968</v>
       </c>
-      <c r="C488" s="73" t="s">
+      <c r="C488" s="76" t="s">
         <v>1969</v>
       </c>
       <c r="D488" t="s">
@@ -19166,7 +19290,7 @@
       <c r="B490" t="s">
         <v>1976</v>
       </c>
-      <c r="C490" s="73" t="s">
+      <c r="C490" s="76" t="s">
         <v>1977</v>
       </c>
       <c r="D490" t="s">
@@ -19195,7 +19319,7 @@
       <c r="B492" t="s">
         <v>1984</v>
       </c>
-      <c r="C492" s="73" t="s">
+      <c r="C492" s="76" t="s">
         <v>1985</v>
       </c>
       <c r="D492" t="s">
@@ -19212,7 +19336,7 @@
       <c r="B493" t="s">
         <v>1989</v>
       </c>
-      <c r="C493" s="73" t="s">
+      <c r="C493" s="76" t="s">
         <v>1990</v>
       </c>
       <c r="D493" t="s">
@@ -19229,7 +19353,7 @@
       <c r="B494" t="s">
         <v>1994</v>
       </c>
-      <c r="C494" s="73" t="s">
+      <c r="C494" s="76" t="s">
         <v>1995</v>
       </c>
       <c r="D494" t="s">
@@ -19246,7 +19370,7 @@
       <c r="B495" t="s">
         <v>1999</v>
       </c>
-      <c r="C495" s="73" t="s">
+      <c r="C495" s="76" t="s">
         <v>2000</v>
       </c>
       <c r="D495" t="s">
@@ -19275,7 +19399,7 @@
       <c r="B497" t="s">
         <v>2007</v>
       </c>
-      <c r="C497" s="73" t="s">
+      <c r="C497" s="76" t="s">
         <v>2008</v>
       </c>
       <c r="D497" t="s">
@@ -19292,7 +19416,7 @@
       <c r="B498" t="s">
         <v>2012</v>
       </c>
-      <c r="C498" s="73" t="s">
+      <c r="C498" s="76" t="s">
         <v>2013</v>
       </c>
       <c r="D498" t="s">
@@ -19309,7 +19433,7 @@
       <c r="B499" t="s">
         <v>2017</v>
       </c>
-      <c r="C499" s="73" t="s">
+      <c r="C499" s="76" t="s">
         <v>2018</v>
       </c>
       <c r="D499" t="s">
@@ -19326,7 +19450,7 @@
       <c r="B500" t="s">
         <v>2022</v>
       </c>
-      <c r="C500" s="73" t="s">
+      <c r="C500" s="76" t="s">
         <v>2023</v>
       </c>
       <c r="D500" t="s">
@@ -19352,7 +19476,7 @@
       <c r="B502" t="s">
         <v>2029</v>
       </c>
-      <c r="C502" s="73" t="s">
+      <c r="C502" s="76" t="s">
         <v>2030</v>
       </c>
       <c r="D502" t="s">
@@ -19369,7 +19493,7 @@
       <c r="B503" t="s">
         <v>2034</v>
       </c>
-      <c r="C503" s="73" t="s">
+      <c r="C503" s="76" t="s">
         <v>2035</v>
       </c>
       <c r="D503" t="s">
@@ -19386,7 +19510,7 @@
       <c r="B504" t="s">
         <v>2039</v>
       </c>
-      <c r="C504" s="73" t="s">
+      <c r="C504" s="76" t="s">
         <v>2040</v>
       </c>
       <c r="D504" t="s">
@@ -19436,7 +19560,7 @@
       <c r="B508" t="s">
         <v>2052</v>
       </c>
-      <c r="C508" s="75" t="s">
+      <c r="C508" s="78" t="s">
         <v>2053</v>
       </c>
       <c r="D508" t="s">
@@ -19453,7 +19577,7 @@
       <c r="B509" t="s">
         <v>2057</v>
       </c>
-      <c r="C509" s="73" t="s">
+      <c r="C509" s="76" t="s">
         <v>2058</v>
       </c>
       <c r="D509" t="s">
@@ -19467,7 +19591,7 @@
       <c r="B510" t="s">
         <v>2061</v>
       </c>
-      <c r="C510" s="73" t="s">
+      <c r="C510" s="76" t="s">
         <v>2062</v>
       </c>
       <c r="D510" t="s">
@@ -19481,7 +19605,7 @@
       <c r="B511" t="s">
         <v>2065</v>
       </c>
-      <c r="C511" s="73" t="s">
+      <c r="C511" s="76" t="s">
         <v>2066</v>
       </c>
       <c r="D511" t="s">
@@ -19498,7 +19622,7 @@
       <c r="B512" t="s">
         <v>2070</v>
       </c>
-      <c r="C512" s="73" t="s">
+      <c r="C512" s="76" t="s">
         <v>2071</v>
       </c>
       <c r="D512" t="s">
@@ -19515,7 +19639,7 @@
       <c r="B513" t="s">
         <v>2075</v>
       </c>
-      <c r="C513" s="73" t="s">
+      <c r="C513" s="76" t="s">
         <v>2076</v>
       </c>
       <c r="D513" t="s">
@@ -19532,7 +19656,7 @@
       <c r="B514" t="s">
         <v>2080</v>
       </c>
-      <c r="C514" s="73" t="s">
+      <c r="C514" s="76" t="s">
         <v>2081</v>
       </c>
       <c r="D514" t="s">
@@ -19558,7 +19682,7 @@
       <c r="B516" t="s">
         <v>2086</v>
       </c>
-      <c r="C516" s="73" t="s">
+      <c r="C516" s="76" t="s">
         <v>2087</v>
       </c>
       <c r="D516" t="s">
@@ -19629,7 +19753,7 @@
       <c r="B521" t="s">
         <v>2105</v>
       </c>
-      <c r="C521" s="73" t="s">
+      <c r="C521" s="76" t="s">
         <v>2106</v>
       </c>
       <c r="D521" t="s">
@@ -19646,7 +19770,7 @@
       <c r="B522" t="s">
         <v>2110</v>
       </c>
-      <c r="C522" s="73" t="s">
+      <c r="C522" s="76" t="s">
         <v>2111</v>
       </c>
       <c r="D522" t="s">
@@ -19660,7 +19784,7 @@
       <c r="B523" t="s">
         <v>2113</v>
       </c>
-      <c r="C523" s="73" t="s">
+      <c r="C523" s="76" t="s">
         <v>2114</v>
       </c>
       <c r="D523" t="s">
@@ -19677,7 +19801,7 @@
       <c r="B524" t="s">
         <v>2118</v>
       </c>
-      <c r="C524" s="73" t="s">
+      <c r="C524" s="76" t="s">
         <v>2119</v>
       </c>
       <c r="D524" t="s">
@@ -19706,7 +19830,7 @@
       <c r="B526" t="s">
         <v>2126</v>
       </c>
-      <c r="C526" s="73" t="s">
+      <c r="C526" s="76" t="s">
         <v>2127</v>
       </c>
       <c r="D526" t="s">
@@ -19732,7 +19856,7 @@
       <c r="B528" t="s">
         <v>2133</v>
       </c>
-      <c r="C528" s="73" t="s">
+      <c r="C528" s="76" t="s">
         <v>2134</v>
       </c>
       <c r="D528" t="s">
@@ -19749,7 +19873,7 @@
       <c r="B529" t="s">
         <v>2138</v>
       </c>
-      <c r="C529" s="73" t="s">
+      <c r="C529" s="76" t="s">
         <v>2139</v>
       </c>
       <c r="D529" t="s">
@@ -19766,7 +19890,7 @@
       <c r="B530" t="s">
         <v>2143</v>
       </c>
-      <c r="C530" s="73" t="s">
+      <c r="C530" s="76" t="s">
         <v>2144</v>
       </c>
       <c r="D530" t="s">
@@ -19783,7 +19907,7 @@
       <c r="B531" t="s">
         <v>2148</v>
       </c>
-      <c r="C531" s="73" t="s">
+      <c r="C531" s="76" t="s">
         <v>2149</v>
       </c>
       <c r="D531" t="s">
@@ -19800,7 +19924,7 @@
       <c r="B532" t="s">
         <v>2153</v>
       </c>
-      <c r="C532" s="73" t="s">
+      <c r="C532" s="76" t="s">
         <v>2154</v>
       </c>
       <c r="D532" t="s">
@@ -19826,7 +19950,7 @@
       <c r="B534" t="s">
         <v>2160</v>
       </c>
-      <c r="C534" s="73" t="s">
+      <c r="C534" s="76" t="s">
         <v>2161</v>
       </c>
       <c r="D534" t="s">
@@ -19843,7 +19967,7 @@
       <c r="B535" t="s">
         <v>2165</v>
       </c>
-      <c r="C535" s="73" t="s">
+      <c r="C535" s="76" t="s">
         <v>2166</v>
       </c>
       <c r="E535" t="s">
@@ -19857,7 +19981,7 @@
       <c r="B536" t="s">
         <v>2169</v>
       </c>
-      <c r="C536" s="73" t="s">
+      <c r="C536" s="76" t="s">
         <v>2170</v>
       </c>
       <c r="D536" t="s">
@@ -19883,7 +20007,7 @@
       <c r="B538" t="s">
         <v>2176</v>
       </c>
-      <c r="C538" s="73" t="s">
+      <c r="C538" s="76" t="s">
         <v>2177</v>
       </c>
       <c r="D538" t="s">
@@ -19978,7 +20102,7 @@
       <c r="B545" t="s">
         <v>2201</v>
       </c>
-      <c r="C545" s="73" t="s">
+      <c r="C545" s="76" t="s">
         <v>2202</v>
       </c>
       <c r="D545" t="s">
@@ -19995,7 +20119,7 @@
       <c r="B546" t="s">
         <v>2206</v>
       </c>
-      <c r="C546" s="73" t="s">
+      <c r="C546" s="76" t="s">
         <v>2207</v>
       </c>
       <c r="D546" t="s">
@@ -20009,7 +20133,7 @@
       <c r="B547" t="s">
         <v>2210</v>
       </c>
-      <c r="C547" s="73" t="s">
+      <c r="C547" s="76" t="s">
         <v>2211</v>
       </c>
       <c r="D547" t="s">
@@ -20026,7 +20150,7 @@
       <c r="B548" t="s">
         <v>2215</v>
       </c>
-      <c r="C548" s="75" t="s">
+      <c r="C548" s="78" t="s">
         <v>2216</v>
       </c>
       <c r="D548" t="s">
@@ -20043,7 +20167,7 @@
       <c r="B549" t="s">
         <v>2220</v>
       </c>
-      <c r="C549" s="73" t="s">
+      <c r="C549" s="76" t="s">
         <v>2221</v>
       </c>
       <c r="D549" t="s">
@@ -20069,7 +20193,7 @@
       <c r="B551" t="s">
         <v>2227</v>
       </c>
-      <c r="C551" s="73" t="s">
+      <c r="C551" s="76" t="s">
         <v>2228</v>
       </c>
       <c r="D551" t="s">
@@ -20083,7 +20207,7 @@
       <c r="B552" t="s">
         <v>2231</v>
       </c>
-      <c r="C552" s="73" t="s">
+      <c r="C552" s="76" t="s">
         <v>2232</v>
       </c>
       <c r="D552" t="s">
@@ -20124,7 +20248,7 @@
       <c r="B555" t="s">
         <v>2242</v>
       </c>
-      <c r="C555" s="73" t="s">
+      <c r="C555" s="76" t="s">
         <v>2243</v>
       </c>
       <c r="D555" t="s">
@@ -20138,7 +20262,7 @@
       <c r="B556" t="s">
         <v>2246</v>
       </c>
-      <c r="C556" s="73" t="s">
+      <c r="C556" s="76" t="s">
         <v>2247</v>
       </c>
       <c r="D556" t="s">
@@ -20167,7 +20291,7 @@
       <c r="B558" t="s">
         <v>2254</v>
       </c>
-      <c r="C558" s="73" t="s">
+      <c r="C558" s="76" t="s">
         <v>2255</v>
       </c>
       <c r="D558" t="s">
@@ -20184,7 +20308,7 @@
       <c r="B559" t="s">
         <v>2259</v>
       </c>
-      <c r="C559" s="73" t="s">
+      <c r="C559" s="76" t="s">
         <v>2260</v>
       </c>
       <c r="D559" t="s">
@@ -20276,7 +20400,7 @@
       <c r="B566" t="s">
         <v>2283</v>
       </c>
-      <c r="C566" s="73" t="s">
+      <c r="C566" s="76" t="s">
         <v>2284</v>
       </c>
       <c r="D566" t="s">
@@ -20290,7 +20414,7 @@
       <c r="B567" t="s">
         <v>2287</v>
       </c>
-      <c r="C567" s="73" t="s">
+      <c r="C567" s="76" t="s">
         <v>2288</v>
       </c>
       <c r="D567" t="s">
@@ -20304,7 +20428,7 @@
       <c r="B568" t="s">
         <v>2291</v>
       </c>
-      <c r="C568" s="73" t="s">
+      <c r="C568" s="76" t="s">
         <v>2292</v>
       </c>
       <c r="D568" t="s">
@@ -20321,7 +20445,7 @@
       <c r="B569" t="s">
         <v>2296</v>
       </c>
-      <c r="C569" s="73" t="s">
+      <c r="C569" s="76" t="s">
         <v>2297</v>
       </c>
       <c r="D569" t="s">
@@ -20338,7 +20462,7 @@
       <c r="B570" t="s">
         <v>2301</v>
       </c>
-      <c r="C570" s="73" t="s">
+      <c r="C570" s="76" t="s">
         <v>2302</v>
       </c>
       <c r="D570" t="s">
@@ -20364,7 +20488,7 @@
       <c r="B572" t="s">
         <v>2308</v>
       </c>
-      <c r="C572" s="73" t="s">
+      <c r="C572" s="76" t="s">
         <v>2309</v>
       </c>
       <c r="D572" t="s">
@@ -20396,7 +20520,7 @@
       <c r="B574" t="s">
         <v>2317</v>
       </c>
-      <c r="C574" s="73" t="s">
+      <c r="C574" s="76" t="s">
         <v>2318</v>
       </c>
       <c r="D574" t="s">
@@ -20428,7 +20552,7 @@
       <c r="B576" t="s">
         <v>2326</v>
       </c>
-      <c r="C576" s="73" t="s">
+      <c r="C576" s="76" t="s">
         <v>2327</v>
       </c>
       <c r="D576" t="s">
@@ -20445,7 +20569,7 @@
       <c r="B577" t="s">
         <v>2331</v>
       </c>
-      <c r="C577" s="73" t="s">
+      <c r="C577" s="76" t="s">
         <v>2332</v>
       </c>
       <c r="D577" t="s">
@@ -20462,7 +20586,7 @@
       <c r="B578" t="s">
         <v>2336</v>
       </c>
-      <c r="C578" s="73" t="s">
+      <c r="C578" s="76" t="s">
         <v>2337</v>
       </c>
       <c r="D578" t="s">
@@ -20476,7 +20600,7 @@
       <c r="B579" t="s">
         <v>2340</v>
       </c>
-      <c r="C579" s="73" t="s">
+      <c r="C579" s="76" t="s">
         <v>2341</v>
       </c>
       <c r="D579" t="s">
@@ -20493,7 +20617,7 @@
       <c r="B580" t="s">
         <v>2345</v>
       </c>
-      <c r="C580" s="73" t="s">
+      <c r="C580" s="76" t="s">
         <v>2346</v>
       </c>
       <c r="D580" t="s">
@@ -20510,7 +20634,7 @@
       <c r="B581" t="s">
         <v>2350</v>
       </c>
-      <c r="C581" s="73" t="s">
+      <c r="C581" s="76" t="s">
         <v>2351</v>
       </c>
       <c r="D581" t="s">
@@ -20566,7 +20690,7 @@
       <c r="B585" t="s">
         <v>2365</v>
       </c>
-      <c r="C585" s="73" t="s">
+      <c r="C585" s="76" t="s">
         <v>2366</v>
       </c>
       <c r="D585" t="s">
@@ -20589,7 +20713,7 @@
       <c r="B587" t="s">
         <v>2371</v>
       </c>
-      <c r="C587" s="73" t="s">
+      <c r="C587" s="76" t="s">
         <v>2372</v>
       </c>
       <c r="D587" t="s">
@@ -20624,7 +20748,7 @@
       <c r="B590" t="s">
         <v>2380</v>
       </c>
-      <c r="C590" s="75" t="s">
+      <c r="C590" s="78" t="s">
         <v>2381</v>
       </c>
       <c r="D590" t="s">
@@ -20650,7 +20774,7 @@
       <c r="B592" t="s">
         <v>2387</v>
       </c>
-      <c r="C592" s="73" t="s">
+      <c r="C592" s="76" t="s">
         <v>2388</v>
       </c>
       <c r="E592" t="s">
@@ -20676,7 +20800,7 @@
       <c r="B594" t="s">
         <v>2394</v>
       </c>
-      <c r="C594" s="73" t="s">
+      <c r="C594" s="76" t="s">
         <v>2395</v>
       </c>
       <c r="D594" t="s">
@@ -20729,7 +20853,7 @@
       <c r="B598" t="s">
         <v>2408</v>
       </c>
-      <c r="C598" s="73" t="s">
+      <c r="C598" s="76" t="s">
         <v>2409</v>
       </c>
       <c r="D598" t="s">
@@ -20833,7 +20957,7 @@
       <c r="B606" t="s">
         <v>2435</v>
       </c>
-      <c r="C606" s="73" t="s">
+      <c r="C606" s="76" t="s">
         <v>2436</v>
       </c>
       <c r="D606" t="s">
@@ -20859,7 +20983,7 @@
       <c r="B608" t="s">
         <v>2442</v>
       </c>
-      <c r="C608" s="73" t="s">
+      <c r="C608" s="76" t="s">
         <v>2443</v>
       </c>
       <c r="D608" t="s">
@@ -20888,7 +21012,7 @@
       <c r="B610" t="s">
         <v>2450</v>
       </c>
-      <c r="C610" s="73" t="s">
+      <c r="C610" s="76" t="s">
         <v>2451</v>
       </c>
       <c r="E610" t="s">
@@ -20941,7 +21065,7 @@
       <c r="B614" t="s">
         <v>2464</v>
       </c>
-      <c r="C614" s="73" t="s">
+      <c r="C614" s="76" t="s">
         <v>2465</v>
       </c>
       <c r="D614" t="s">
@@ -20967,7 +21091,7 @@
       <c r="B616" t="s">
         <v>2471</v>
       </c>
-      <c r="C616" s="73" t="s">
+      <c r="C616" s="76" t="s">
         <v>2472</v>
       </c>
       <c r="D616" t="s">
@@ -20999,7 +21123,7 @@
       <c r="B618" t="s">
         <v>2480</v>
       </c>
-      <c r="C618" s="73" t="s">
+      <c r="C618" s="76" t="s">
         <v>2481</v>
       </c>
       <c r="D618" t="s">
@@ -21043,7 +21167,7 @@
       <c r="B621" t="s">
         <v>2491</v>
       </c>
-      <c r="C621" s="73" t="s">
+      <c r="C621" s="76" t="s">
         <v>2492</v>
       </c>
       <c r="D621" t="s">
@@ -21060,7 +21184,7 @@
       <c r="B622" t="s">
         <v>2496</v>
       </c>
-      <c r="C622" s="73" t="s">
+      <c r="C622" s="76" t="s">
         <v>2497</v>
       </c>
       <c r="D622" t="s">
@@ -21077,7 +21201,7 @@
       <c r="B623" t="s">
         <v>2501</v>
       </c>
-      <c r="C623" s="73" t="s">
+      <c r="C623" s="76" t="s">
         <v>2502</v>
       </c>
       <c r="D623" t="s">
@@ -21094,7 +21218,7 @@
       <c r="B624" t="s">
         <v>2506</v>
       </c>
-      <c r="C624" s="73" t="s">
+      <c r="C624" s="76" t="s">
         <v>2507</v>
       </c>
       <c r="D624" t="s">
@@ -21111,7 +21235,7 @@
       <c r="B625" t="s">
         <v>2511</v>
       </c>
-      <c r="C625" s="73" t="s">
+      <c r="C625" s="76" t="s">
         <v>2512</v>
       </c>
       <c r="D625" t="s">
@@ -21155,7 +21279,7 @@
       <c r="B629" t="s">
         <v>2522</v>
       </c>
-      <c r="C629" s="73" t="s">
+      <c r="C629" s="76" t="s">
         <v>2523</v>
       </c>
       <c r="D629" t="s">
@@ -21172,7 +21296,7 @@
       <c r="B630" t="s">
         <v>2527</v>
       </c>
-      <c r="C630" s="73" t="s">
+      <c r="C630" s="76" t="s">
         <v>2528</v>
       </c>
       <c r="D630" t="s">
@@ -21186,7 +21310,7 @@
       <c r="B631" t="s">
         <v>2531</v>
       </c>
-      <c r="C631" s="73" t="s">
+      <c r="C631" s="76" t="s">
         <v>2532</v>
       </c>
       <c r="D631" t="s">
@@ -21233,7 +21357,7 @@
       <c r="B635" t="s">
         <v>2543</v>
       </c>
-      <c r="C635" s="73" t="s">
+      <c r="C635" s="76" t="s">
         <v>2544</v>
       </c>
       <c r="D635" t="s">
@@ -21259,7 +21383,7 @@
       <c r="B637" t="s">
         <v>2550</v>
       </c>
-      <c r="C637" s="73" t="s">
+      <c r="C637" s="76" t="s">
         <v>2551</v>
       </c>
       <c r="D637" t="s">
@@ -21285,7 +21409,7 @@
       <c r="B639" t="s">
         <v>2557</v>
       </c>
-      <c r="C639" s="73" t="s">
+      <c r="C639" s="76" t="s">
         <v>2558</v>
       </c>
       <c r="D639" t="s">
@@ -21302,7 +21426,7 @@
       <c r="B640" t="s">
         <v>2562</v>
       </c>
-      <c r="C640" s="73" t="s">
+      <c r="C640" s="76" t="s">
         <v>2563</v>
       </c>
       <c r="D640" t="s">
@@ -21319,7 +21443,7 @@
       <c r="B641" t="s">
         <v>2567</v>
       </c>
-      <c r="C641" s="73" t="s">
+      <c r="C641" s="76" t="s">
         <v>2568</v>
       </c>
       <c r="D641" t="s">
@@ -21336,7 +21460,7 @@
       <c r="B642" t="s">
         <v>2572</v>
       </c>
-      <c r="C642" s="73" t="s">
+      <c r="C642" s="76" t="s">
         <v>2573</v>
       </c>
       <c r="D642" t="s">
@@ -21353,7 +21477,7 @@
       <c r="B643" t="s">
         <v>2577</v>
       </c>
-      <c r="C643" s="73" t="s">
+      <c r="C643" s="76" t="s">
         <v>2578</v>
       </c>
       <c r="D643" t="s">
@@ -21397,7 +21521,7 @@
       <c r="B646" t="s">
         <v>2589</v>
       </c>
-      <c r="C646" s="73" t="s">
+      <c r="C646" s="76" t="s">
         <v>2590</v>
       </c>
       <c r="D646" t="s">
@@ -21435,7 +21559,7 @@
       <c r="B649" t="s">
         <v>2598</v>
       </c>
-      <c r="C649" s="73" t="s">
+      <c r="C649" s="76" t="s">
         <v>2599</v>
       </c>
       <c r="D649" t="s">
@@ -21452,7 +21576,7 @@
       <c r="B650" t="s">
         <v>2603</v>
       </c>
-      <c r="C650" s="73" t="s">
+      <c r="C650" s="76" t="s">
         <v>2604</v>
       </c>
       <c r="D650" t="s">
@@ -21481,7 +21605,7 @@
       <c r="B652" t="s">
         <v>2611</v>
       </c>
-      <c r="C652" s="73" t="s">
+      <c r="C652" s="76" t="s">
         <v>2612</v>
       </c>
       <c r="D652" t="s">
@@ -21531,7 +21655,7 @@
       <c r="B656" t="s">
         <v>2624</v>
       </c>
-      <c r="C656" s="73" t="s">
+      <c r="C656" s="76" t="s">
         <v>2625</v>
       </c>
       <c r="D656" t="s">
@@ -21548,7 +21672,7 @@
       <c r="B657" t="s">
         <v>2629</v>
       </c>
-      <c r="C657" s="73" t="s">
+      <c r="C657" s="76" t="s">
         <v>2630</v>
       </c>
       <c r="D657" t="s">
@@ -21625,7 +21749,7 @@
       <c r="B663" t="s">
         <v>2649</v>
       </c>
-      <c r="C663" s="73" t="s">
+      <c r="C663" s="76" t="s">
         <v>2650</v>
       </c>
       <c r="D663" t="s">
@@ -21651,7 +21775,7 @@
       <c r="B665" t="s">
         <v>2656</v>
       </c>
-      <c r="C665" s="73" t="s">
+      <c r="C665" s="76" t="s">
         <v>2657</v>
       </c>
       <c r="D665" t="s">
@@ -21677,7 +21801,7 @@
       <c r="B667" t="s">
         <v>2550</v>
       </c>
-      <c r="C667" s="73" t="s">
+      <c r="C667" s="76" t="s">
         <v>2551</v>
       </c>
       <c r="D667" t="s">
@@ -21706,7 +21830,7 @@
       <c r="B669" t="s">
         <v>2669</v>
       </c>
-      <c r="C669" s="73" t="s">
+      <c r="C669" s="76" t="s">
         <v>2670</v>
       </c>
       <c r="D669" t="s">
@@ -21738,7 +21862,7 @@
       <c r="B671" t="s">
         <v>2678</v>
       </c>
-      <c r="C671" s="73" t="s">
+      <c r="C671" s="76" t="s">
         <v>2679</v>
       </c>
       <c r="D671" t="s">
@@ -21779,7 +21903,7 @@
       <c r="B674" t="s">
         <v>2689</v>
       </c>
-      <c r="C674" s="73" t="s">
+      <c r="C674" s="76" t="s">
         <v>2690</v>
       </c>
       <c r="D674" t="s">
@@ -21796,7 +21920,7 @@
       <c r="B675" t="s">
         <v>2694</v>
       </c>
-      <c r="C675" s="73" t="s">
+      <c r="C675" s="76" t="s">
         <v>2695</v>
       </c>
       <c r="D675" t="s">
@@ -21813,7 +21937,7 @@
       <c r="B676" t="s">
         <v>2699</v>
       </c>
-      <c r="C676" s="73" t="s">
+      <c r="C676" s="76" t="s">
         <v>2700</v>
       </c>
       <c r="D676" t="s">
@@ -21872,7 +21996,7 @@
       <c r="B680" t="s">
         <v>2715</v>
       </c>
-      <c r="C680" s="75" t="s">
+      <c r="C680" s="78" t="s">
         <v>2716</v>
       </c>
       <c r="D680" t="s">
@@ -21889,7 +22013,7 @@
       <c r="B681" t="s">
         <v>2720</v>
       </c>
-      <c r="C681" s="73" t="s">
+      <c r="C681" s="76" t="s">
         <v>2721</v>
       </c>
       <c r="D681" t="s">
@@ -21921,7 +22045,7 @@
       <c r="B683" t="s">
         <v>2729</v>
       </c>
-      <c r="C683" s="73" t="s">
+      <c r="C683" s="76" t="s">
         <v>2730</v>
       </c>
       <c r="D683" t="s">
@@ -21947,7 +22071,7 @@
       <c r="B685" t="s">
         <v>2736</v>
       </c>
-      <c r="C685" s="73" t="s">
+      <c r="C685" s="76" t="s">
         <v>2737</v>
       </c>
       <c r="D685" t="s">
@@ -21964,7 +22088,7 @@
       <c r="B686" t="s">
         <v>2741</v>
       </c>
-      <c r="C686" s="73" t="s">
+      <c r="C686" s="76" t="s">
         <v>2742</v>
       </c>
       <c r="D686" t="s">
@@ -21990,7 +22114,7 @@
       <c r="B688" t="s">
         <v>2748</v>
       </c>
-      <c r="C688" s="73" t="s">
+      <c r="C688" s="76" t="s">
         <v>2749</v>
       </c>
       <c r="D688" t="s">
@@ -22061,7 +22185,7 @@
       <c r="B693" t="s">
         <v>2767</v>
       </c>
-      <c r="C693" s="73" t="s">
+      <c r="C693" s="76" t="s">
         <v>2768</v>
       </c>
       <c r="D693" t="s">
@@ -22075,7 +22199,7 @@
       <c r="B694" t="s">
         <v>2771</v>
       </c>
-      <c r="C694" s="73" t="s">
+      <c r="C694" s="76" t="s">
         <v>2772</v>
       </c>
       <c r="D694" t="s">
@@ -22125,7 +22249,7 @@
       <c r="B698" t="s">
         <v>2784</v>
       </c>
-      <c r="C698" s="73" t="s">
+      <c r="C698" s="76" t="s">
         <v>2785</v>
       </c>
       <c r="D698" t="s">
@@ -22154,7 +22278,7 @@
       <c r="B700" t="s">
         <v>2792</v>
       </c>
-      <c r="C700" s="73" t="s">
+      <c r="C700" s="76" t="s">
         <v>2793</v>
       </c>
       <c r="E700" t="s">
@@ -22168,7 +22292,7 @@
       <c r="B701" t="s">
         <v>2796</v>
       </c>
-      <c r="C701" s="73" t="s">
+      <c r="C701" s="76" t="s">
         <v>2797</v>
       </c>
       <c r="D701" t="s">
@@ -22200,7 +22324,7 @@
       <c r="B703" t="s">
         <v>2805</v>
       </c>
-      <c r="C703" s="73" t="s">
+      <c r="C703" s="76" t="s">
         <v>2806</v>
       </c>
       <c r="D703" t="s">
@@ -22226,7 +22350,7 @@
       <c r="B705" t="s">
         <v>2812</v>
       </c>
-      <c r="C705" s="75" t="s">
+      <c r="C705" s="78" t="s">
         <v>2813</v>
       </c>
       <c r="D705" t="s">
@@ -22267,7 +22391,7 @@
       <c r="B708" t="s">
         <v>2823</v>
       </c>
-      <c r="C708" s="73" t="s">
+      <c r="C708" s="76" t="s">
         <v>2824</v>
       </c>
       <c r="D708" t="s">
@@ -22284,7 +22408,7 @@
       <c r="B709" t="s">
         <v>2828</v>
       </c>
-      <c r="C709" s="75" t="s">
+      <c r="C709" s="78" t="s">
         <v>2829</v>
       </c>
       <c r="D709" t="s">
@@ -22313,7 +22437,7 @@
       <c r="B711" t="s">
         <v>2836</v>
       </c>
-      <c r="C711" s="73" t="s">
+      <c r="C711" s="76" t="s">
         <v>2837</v>
       </c>
       <c r="D711" t="s">
@@ -22330,7 +22454,7 @@
       <c r="B712" t="s">
         <v>2841</v>
       </c>
-      <c r="C712" s="73" t="s">
+      <c r="C712" s="76" t="s">
         <v>2842</v>
       </c>
       <c r="D712" t="s">
@@ -22353,7 +22477,7 @@
       <c r="B714" t="s">
         <v>2847</v>
       </c>
-      <c r="C714" s="73" t="s">
+      <c r="C714" s="76" t="s">
         <v>2848</v>
       </c>
       <c r="D714" t="s">
@@ -22400,7 +22524,7 @@
       <c r="B718" t="s">
         <v>2859</v>
       </c>
-      <c r="C718" s="73" t="s">
+      <c r="C718" s="76" t="s">
         <v>2860</v>
       </c>
       <c r="D718" t="s">
@@ -22429,7 +22553,7 @@
       <c r="B720" t="s">
         <v>2867</v>
       </c>
-      <c r="C720" s="73" t="s">
+      <c r="C720" s="76" t="s">
         <v>2868</v>
       </c>
       <c r="D720" t="s">
@@ -22446,7 +22570,7 @@
       <c r="B721" t="s">
         <v>2872</v>
       </c>
-      <c r="C721" s="73" t="s">
+      <c r="C721" s="76" t="s">
         <v>2873</v>
       </c>
       <c r="D721" t="s">
@@ -22460,7 +22584,7 @@
       <c r="B722" t="s">
         <v>2876</v>
       </c>
-      <c r="C722" s="73" t="s">
+      <c r="C722" s="76" t="s">
         <v>2877</v>
       </c>
       <c r="D722" t="s">
@@ -22477,7 +22601,7 @@
       <c r="B723" t="s">
         <v>2881</v>
       </c>
-      <c r="C723" s="73" t="s">
+      <c r="C723" s="76" t="s">
         <v>2882</v>
       </c>
       <c r="D723" t="s">
@@ -22551,7 +22675,7 @@
       <c r="B729" t="s">
         <v>2900</v>
       </c>
-      <c r="C729" s="73" t="s">
+      <c r="C729" s="76" t="s">
         <v>2901</v>
       </c>
       <c r="D729" t="s">
@@ -22574,7 +22698,7 @@
       <c r="B731" t="s">
         <v>2906</v>
       </c>
-      <c r="C731" s="73" t="s">
+      <c r="C731" s="76" t="s">
         <v>2907</v>
       </c>
       <c r="D731" t="s">
@@ -22615,7 +22739,7 @@
       <c r="B734" t="s">
         <v>2917</v>
       </c>
-      <c r="C734" s="73" t="s">
+      <c r="C734" s="76" t="s">
         <v>2918</v>
       </c>
       <c r="D734" t="s">
@@ -22632,7 +22756,7 @@
       <c r="B735" t="s">
         <v>2922</v>
       </c>
-      <c r="C735" s="73" t="s">
+      <c r="C735" s="76" t="s">
         <v>2923</v>
       </c>
       <c r="D735" t="s">
@@ -22649,7 +22773,7 @@
       <c r="B736" t="s">
         <v>2927</v>
       </c>
-      <c r="C736" s="73" t="s">
+      <c r="C736" s="76" t="s">
         <v>2928</v>
       </c>
       <c r="D736" t="s">
@@ -22663,7 +22787,7 @@
       <c r="B737" t="s">
         <v>2931</v>
       </c>
-      <c r="C737" s="73" t="s">
+      <c r="C737" s="76" t="s">
         <v>2932</v>
       </c>
       <c r="D737" t="s">
@@ -22680,7 +22804,7 @@
       <c r="B738" t="s">
         <v>2936</v>
       </c>
-      <c r="C738" s="73" t="s">
+      <c r="C738" s="76" t="s">
         <v>2937</v>
       </c>
       <c r="D738" t="s">
@@ -22697,7 +22821,7 @@
       <c r="B739" t="s">
         <v>2941</v>
       </c>
-      <c r="C739" s="73" t="s">
+      <c r="C739" s="76" t="s">
         <v>2942</v>
       </c>
       <c r="D739" t="s">
@@ -22714,7 +22838,7 @@
       <c r="B740" t="s">
         <v>2946</v>
       </c>
-      <c r="C740" s="73" t="s">
+      <c r="C740" s="76" t="s">
         <v>2947</v>
       </c>
       <c r="D740" t="s">
@@ -22731,7 +22855,7 @@
       <c r="B741" t="s">
         <v>2951</v>
       </c>
-      <c r="C741" s="75" t="s">
+      <c r="C741" s="78" t="s">
         <v>2952</v>
       </c>
       <c r="D741" t="s">
@@ -22748,7 +22872,7 @@
       <c r="B742" t="s">
         <v>2956</v>
       </c>
-      <c r="C742" s="75" t="s">
+      <c r="C742" s="78" t="s">
         <v>2957</v>
       </c>
       <c r="D742" t="s">
@@ -22762,7 +22886,7 @@
       <c r="B743" t="s">
         <v>2960</v>
       </c>
-      <c r="C743" s="73" t="s">
+      <c r="C743" s="76" t="s">
         <v>2961</v>
       </c>
       <c r="D743" t="s">
@@ -22779,7 +22903,7 @@
       <c r="B744" t="s">
         <v>2965</v>
       </c>
-      <c r="C744" s="73" t="s">
+      <c r="C744" s="76" t="s">
         <v>2966</v>
       </c>
       <c r="D744" t="s">
@@ -22901,7 +23025,7 @@
       <c r="B754" t="s">
         <v>2996</v>
       </c>
-      <c r="C754" s="73" t="s">
+      <c r="C754" s="76" t="s">
         <v>2997</v>
       </c>
       <c r="D754" t="s">
@@ -22918,7 +23042,7 @@
       <c r="B755" t="s">
         <v>3001</v>
       </c>
-      <c r="C755" s="73" t="s">
+      <c r="C755" s="76" t="s">
         <v>3002</v>
       </c>
       <c r="D755" t="s">
@@ -22935,7 +23059,7 @@
       <c r="B756" t="s">
         <v>3006</v>
       </c>
-      <c r="C756" s="73" t="s">
+      <c r="C756" s="76" t="s">
         <v>3007</v>
       </c>
       <c r="D756" t="s">
@@ -22952,7 +23076,7 @@
       <c r="B757" t="s">
         <v>3011</v>
       </c>
-      <c r="C757" s="73" t="s">
+      <c r="C757" s="76" t="s">
         <v>3012</v>
       </c>
       <c r="E757" t="s">
@@ -22966,7 +23090,7 @@
       <c r="B758" t="s">
         <v>3015</v>
       </c>
-      <c r="C758" s="73" t="s">
+      <c r="C758" s="76" t="s">
         <v>3016</v>
       </c>
       <c r="D758" t="s">
@@ -23004,7 +23128,7 @@
       <c r="B761" t="s">
         <v>3025</v>
       </c>
-      <c r="C761" s="73" t="s">
+      <c r="C761" s="76" t="s">
         <v>3026</v>
       </c>
       <c r="D761" t="s">
@@ -23090,7 +23214,7 @@
       <c r="B768" t="s">
         <v>3047</v>
       </c>
-      <c r="C768" s="73" t="s">
+      <c r="C768" s="76" t="s">
         <v>3048</v>
       </c>
       <c r="D768" t="s">
@@ -23104,7 +23228,7 @@
       <c r="B769" t="s">
         <v>3051</v>
       </c>
-      <c r="C769" s="73" t="s">
+      <c r="C769" s="76" t="s">
         <v>3052</v>
       </c>
       <c r="D769" t="s">
@@ -23145,7 +23269,7 @@
       <c r="B772" t="s">
         <v>3062</v>
       </c>
-      <c r="C772" s="73" t="s">
+      <c r="C772" s="76" t="s">
         <v>3063</v>
       </c>
       <c r="E772" t="s">
@@ -23186,7 +23310,7 @@
       <c r="B775" t="s">
         <v>3072</v>
       </c>
-      <c r="C775" s="73" t="s">
+      <c r="C775" s="76" t="s">
         <v>3073</v>
       </c>
       <c r="D775" t="s">
@@ -23203,7 +23327,7 @@
       <c r="B776" t="s">
         <v>3077</v>
       </c>
-      <c r="C776" s="73" t="s">
+      <c r="C776" s="76" t="s">
         <v>3078</v>
       </c>
       <c r="D776" t="s">
@@ -23220,7 +23344,7 @@
       <c r="B777" t="s">
         <v>3082</v>
       </c>
-      <c r="C777" s="73" t="s">
+      <c r="C777" s="76" t="s">
         <v>3083</v>
       </c>
       <c r="E777" t="s">
@@ -23258,7 +23382,7 @@
       <c r="B780" t="s">
         <v>3092</v>
       </c>
-      <c r="C780" s="73" t="s">
+      <c r="C780" s="76" t="s">
         <v>3093</v>
       </c>
       <c r="D780" t="s">
@@ -23299,7 +23423,7 @@
       <c r="B783" t="s">
         <v>3103</v>
       </c>
-      <c r="C783" s="73" t="s">
+      <c r="C783" s="76" t="s">
         <v>3104</v>
       </c>
       <c r="D783" t="s">
@@ -23313,7 +23437,7 @@
       <c r="B784" t="s">
         <v>3107</v>
       </c>
-      <c r="C784" s="73" t="s">
+      <c r="C784" s="76" t="s">
         <v>3108</v>
       </c>
       <c r="D784" t="s">
@@ -23354,7 +23478,7 @@
       <c r="B787" t="s">
         <v>3118</v>
       </c>
-      <c r="C787" s="73" t="s">
+      <c r="C787" s="76" t="s">
         <v>3119</v>
       </c>
       <c r="D787" t="s">
@@ -23380,7 +23504,7 @@
       <c r="B789" t="s">
         <v>3125</v>
       </c>
-      <c r="C789" s="73" t="s">
+      <c r="C789" s="76" t="s">
         <v>3126</v>
       </c>
       <c r="D789" t="s">
@@ -23397,7 +23521,7 @@
       <c r="B790" t="s">
         <v>3130</v>
       </c>
-      <c r="C790" s="73" t="s">
+      <c r="C790" s="76" t="s">
         <v>3131</v>
       </c>
       <c r="D790" t="s">
@@ -23414,7 +23538,7 @@
       <c r="B791" t="s">
         <v>3135</v>
       </c>
-      <c r="C791" s="73" t="s">
+      <c r="C791" s="76" t="s">
         <v>3136</v>
       </c>
       <c r="D791" t="s">
@@ -23440,7 +23564,7 @@
       <c r="B793" t="s">
         <v>3142</v>
       </c>
-      <c r="C793" s="73" t="s">
+      <c r="C793" s="76" t="s">
         <v>3143</v>
       </c>
       <c r="D793" t="s">
@@ -23457,7 +23581,7 @@
       <c r="B794" t="s">
         <v>3147</v>
       </c>
-      <c r="C794" s="73" t="s">
+      <c r="C794" s="76" t="s">
         <v>3148</v>
       </c>
       <c r="D794" t="s">
@@ -23471,7 +23595,7 @@
       <c r="B795" t="s">
         <v>3151</v>
       </c>
-      <c r="C795" s="73" t="s">
+      <c r="C795" s="76" t="s">
         <v>3152</v>
       </c>
       <c r="D795" t="s">
@@ -23488,7 +23612,7 @@
       <c r="B796" t="s">
         <v>3156</v>
       </c>
-      <c r="C796" s="75" t="s">
+      <c r="C796" s="78" t="s">
         <v>3157</v>
       </c>
       <c r="D796" t="s">
@@ -23508,7 +23632,7 @@
       <c r="B798" t="s">
         <v>3161</v>
       </c>
-      <c r="C798" s="73" t="s">
+      <c r="C798" s="76" t="s">
         <v>3162</v>
       </c>
       <c r="D798" t="s">
@@ -23525,7 +23649,7 @@
       <c r="B799" t="s">
         <v>3166</v>
       </c>
-      <c r="C799" s="73" t="s">
+      <c r="C799" s="76" t="s">
         <v>3167</v>
       </c>
       <c r="D799" t="s">
@@ -23578,7 +23702,7 @@
       <c r="B803" t="s">
         <v>3180</v>
       </c>
-      <c r="C803" s="73" t="s">
+      <c r="C803" s="76" t="s">
         <v>3181</v>
       </c>
       <c r="D803" t="s">
@@ -23940,10 +24064,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
@@ -23979,7 +24103,7 @@
       <c r="D2" t="s">
         <v>3196</v>
       </c>
-      <c r="E2" s="68">
+      <c r="E2" s="71">
         <v>42769</v>
       </c>
     </row>
@@ -23991,7 +24115,7 @@
       <c r="C3" s="31" t="s">
         <v>3198</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="72">
         <v>42769</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -24006,7 +24130,7 @@
         <v>3201</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="68">
+      <c r="E4" s="71">
         <v>42769</v>
       </c>
     </row>
@@ -24020,7 +24144,7 @@
       <c r="D5" t="s">
         <v>3204</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="71">
         <v>42769</v>
       </c>
     </row>
@@ -24032,7 +24156,7 @@
       <c r="D6" s="12" t="s">
         <v>3206</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="71">
         <v>42769</v>
       </c>
     </row>
@@ -24047,7 +24171,7 @@
       <c r="D7" s="19" t="s">
         <v>3209</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="73">
         <v>42769</v>
       </c>
     </row>
@@ -24058,7 +24182,7 @@
       <c r="C8" s="32" t="s">
         <v>3211</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="71">
         <v>42770</v>
       </c>
     </row>
@@ -24066,26 +24190,26 @@
       <c r="B9" s="27" t="s">
         <v>3212</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="32" t="s">
         <v>3213</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="68">
+      <c r="E9" s="71">
         <v>42770</v>
       </c>
     </row>
     <row r="10" s="20" customFormat="1" ht="36" spans="1:6">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>3214</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>3215</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="39" t="s">
         <v>3216</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="74">
         <v>42770</v>
       </c>
       <c r="F10" s="20" t="s">
@@ -24100,19 +24224,19 @@
       <c r="D11" t="s">
         <v>3219</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="71">
         <v>42770</v>
       </c>
     </row>
     <row r="12" s="20" customFormat="1" ht="27" spans="1:6">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
         <v>3220</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>3221</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="74">
         <v>42770</v>
       </c>
       <c r="F12" s="20" t="s">
@@ -24126,7 +24250,7 @@
       <c r="C13" s="32" t="s">
         <v>3224</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="71">
         <v>42770</v>
       </c>
     </row>
@@ -24138,7 +24262,7 @@
         <v>3226</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="68">
+      <c r="E14" s="71">
         <v>42770</v>
       </c>
     </row>
@@ -24149,8 +24273,8 @@
       <c r="C15" s="28" t="s">
         <v>3228</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="68">
+      <c r="D15" s="41"/>
+      <c r="E15" s="71">
         <v>42770</v>
       </c>
     </row>
@@ -24161,7 +24285,7 @@
       <c r="C16" s="32" t="s">
         <v>3230</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="71">
         <v>42770</v>
       </c>
     </row>
@@ -24172,7 +24296,7 @@
       <c r="C17" s="32" t="s">
         <v>3232</v>
       </c>
-      <c r="E17" s="68">
+      <c r="E17" s="71">
         <v>42770</v>
       </c>
     </row>
@@ -24183,7 +24307,7 @@
       <c r="C18" s="32" t="s">
         <v>3234</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="71">
         <v>42770</v>
       </c>
     </row>
@@ -24192,7 +24316,7 @@
       <c r="B19" s="34" t="s">
         <v>3235</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>3236</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -24209,7 +24333,7 @@
       <c r="C20" s="32" t="s">
         <v>3240</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="71">
         <v>42770</v>
       </c>
     </row>
@@ -24220,7 +24344,7 @@
       <c r="C21" s="32" t="s">
         <v>3242</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="71">
         <v>42770</v>
       </c>
     </row>
@@ -24231,12 +24355,12 @@
       <c r="C22" s="32" t="s">
         <v>3244</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="71">
         <v>42770</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="21" t="s">
         <v>3245</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -24248,7 +24372,7 @@
       <c r="D23" t="s">
         <v>3248</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="71">
         <v>42771</v>
       </c>
     </row>
@@ -24257,10 +24381,10 @@
       <c r="B24" s="34" t="s">
         <v>3249</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="42" t="s">
         <v>3250</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="73">
         <v>42772</v>
       </c>
     </row>
@@ -24272,7 +24396,7 @@
         <v>3252</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="68">
+      <c r="E25" s="71">
         <v>42772</v>
       </c>
     </row>
@@ -24280,16 +24404,16 @@
       <c r="B26" s="22" t="s">
         <v>3253</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="43" t="s">
         <v>3254</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="68">
+      <c r="D26" s="44"/>
+      <c r="E26" s="71">
         <v>42772</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:5">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="21" t="s">
         <v>3255</v>
       </c>
       <c r="B27" s="22" t="s">
@@ -24301,12 +24425,12 @@
       <c r="D27" t="s">
         <v>3258</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="71">
         <v>42772</v>
       </c>
     </row>
     <row r="28" ht="27" spans="1:5">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="21" t="s">
         <v>3259</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -24318,29 +24442,29 @@
       <c r="D28" t="s">
         <v>3262</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="71">
         <v>42772</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:5">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="45" t="s">
         <v>3263</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>3264</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="47" t="s">
         <v>138</v>
       </c>
       <c r="D29" t="s">
         <v>3265</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="71">
         <v>42773</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:5">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="21" t="s">
         <v>3255</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -24349,12 +24473,12 @@
       <c r="C30" s="32" t="s">
         <v>3257</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="71">
         <v>42773</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:5">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="48" t="s">
         <v>3267</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -24366,12 +24490,12 @@
       <c r="D31" t="s">
         <v>3270</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="71">
         <v>42773</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:5">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="21" t="s">
         <v>3271</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -24380,12 +24504,12 @@
       <c r="C32" s="32" t="s">
         <v>3273</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="71">
         <v>42773</v>
       </c>
     </row>
     <row r="33" ht="36" spans="1:4">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="21" t="s">
         <v>3274</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -24399,43 +24523,43 @@
       </c>
     </row>
     <row r="34" ht="27" spans="1:3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="21" t="s">
         <v>3278</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>3279</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="32" t="s">
         <v>3280</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:3">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="21" t="s">
         <v>3281</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>3282</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="43" t="s">
         <v>3283</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:5">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="49" t="s">
         <v>3271</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>3284</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="32" t="s">
         <v>3285</v>
       </c>
-      <c r="E36" s="72">
+      <c r="E36" s="75">
         <v>42774</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:3">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="49" t="s">
         <v>3271</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -24446,7 +24570,7 @@
       </c>
     </row>
     <row r="38" ht="36" spans="1:3">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="21" t="s">
         <v>3288</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -24457,29 +24581,29 @@
       </c>
     </row>
     <row r="39" ht="27" spans="1:3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="50" t="s">
         <v>3290</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>3291</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="51" t="s">
         <v>3292</v>
       </c>
     </row>
     <row r="40" s="19" customFormat="1" ht="27" spans="1:3">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="33" t="s">
         <v>3271</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>3293</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="42" t="s">
         <v>3294</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:5">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="21" t="s">
         <v>3271</v>
       </c>
       <c r="B41" s="22" t="s">
@@ -24493,7 +24617,7 @@
       </c>
     </row>
     <row r="42" ht="27" spans="1:3">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="21" t="s">
         <v>3255</v>
       </c>
       <c r="B42" s="22" t="s">
@@ -24504,7 +24628,7 @@
       </c>
     </row>
     <row r="43" ht="27" spans="1:3">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="21" t="s">
         <v>3300</v>
       </c>
       <c r="B43" s="22" t="s">
@@ -24515,10 +24639,10 @@
       </c>
     </row>
     <row r="44" s="18" customFormat="1" ht="27" spans="1:6">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="29" t="s">
         <v>3303</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="52" t="s">
         <v>3304</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -24529,18 +24653,18 @@
       </c>
     </row>
     <row r="45" ht="27" spans="1:3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="21" t="s">
         <v>3306</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>3307</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="32" t="s">
         <v>3308</v>
       </c>
     </row>
     <row r="46" ht="27" spans="1:4">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="21" t="s">
         <v>3255</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -24554,7 +24678,7 @@
       </c>
     </row>
     <row r="47" ht="36" spans="1:5">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="49" t="s">
         <v>3312</v>
       </c>
       <c r="B47" s="22" t="s">
@@ -24568,13 +24692,13 @@
       </c>
     </row>
     <row r="48" ht="27" spans="1:4">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="21" t="s">
         <v>3271</v>
       </c>
       <c r="B48" s="22" t="s">
         <v>3315</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="53" t="s">
         <v>2322</v>
       </c>
       <c r="D48" t="s">
@@ -24582,10 +24706,10 @@
       </c>
     </row>
     <row r="49" ht="27" spans="1:5">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="54" t="s">
         <v>3317</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="55" t="s">
         <v>3318</v>
       </c>
       <c r="C49" s="32" t="s">
@@ -24596,13 +24720,13 @@
       </c>
     </row>
     <row r="50" ht="33" spans="1:5">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="21" t="s">
         <v>3320</v>
       </c>
       <c r="B50" s="22" t="s">
         <v>3321</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="56" t="s">
         <v>3322</v>
       </c>
       <c r="E50">
@@ -24610,10 +24734,10 @@
       </c>
     </row>
     <row r="51" ht="27" spans="1:4">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="57" t="s">
         <v>3323</v>
       </c>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="55" t="s">
         <v>3324</v>
       </c>
       <c r="C51" s="23" t="s">
@@ -24623,8 +24747,8 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="52" ht="36" spans="1:3">
-      <c r="A52" s="63" t="s">
+    <row r="52" ht="36" spans="1:5">
+      <c r="A52" s="58" t="s">
         <v>3326</v>
       </c>
       <c r="B52" s="22" t="s">
@@ -24633,55 +24757,150 @@
       <c r="C52" s="23" t="s">
         <v>3328</v>
       </c>
-    </row>
-    <row r="53" ht="27" spans="1:4">
-      <c r="A53" s="62" t="s">
+      <c r="E52" t="s">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="53" ht="27" spans="1:5">
+      <c r="A53" s="57" t="s">
         <v>3271</v>
       </c>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="55" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>3331</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>3332</v>
+      </c>
+      <c r="E53" t="s">
         <v>3329</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>3330</v>
-      </c>
-      <c r="D53" s="64" t="s">
-        <v>3331</v>
-      </c>
     </row>
     <row r="54" ht="27" spans="1:4">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="57" t="s">
         <v>3271</v>
       </c>
-      <c r="B54" s="60" t="s">
-        <v>3332</v>
-      </c>
-      <c r="C54" s="65" t="s">
+      <c r="B54" s="55" t="s">
         <v>3333</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="C54" s="60" t="s">
         <v>3334</v>
       </c>
-    </row>
-    <row r="55" ht="27" spans="1:3">
-      <c r="A55" s="44" t="s">
+      <c r="D54" s="59" t="s">
         <v>3335</v>
       </c>
-      <c r="B55" s="66" t="s">
+    </row>
+    <row r="55" ht="27" spans="1:5">
+      <c r="A55" s="21" t="s">
         <v>3336</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="B55" s="61" t="s">
         <v>3337</v>
       </c>
+      <c r="C55" s="62" t="s">
+        <v>3338</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3339</v>
+      </c>
     </row>
     <row r="56" ht="27" spans="1:3">
-      <c r="A56" s="44" t="s">
-        <v>3338</v>
+      <c r="A56" s="21" t="s">
+        <v>3340</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>3339</v>
-      </c>
-      <c r="C56" s="67" t="s">
-        <v>3340</v>
+        <v>3341</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="57" ht="54" spans="1:5">
+      <c r="A57" s="63" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D57" s="64" t="s">
+        <v>3345</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="58" ht="86.25" spans="1:5">
+      <c r="A58" s="65" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="60" ht="27" spans="1:5">
+      <c r="A60" s="67" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>3352</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="61" ht="29.25" spans="1:5">
+      <c r="A61" s="65" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>3355</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="62" ht="40.5" spans="1:5">
+      <c r="A62" s="69" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>3356</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>3357</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="63" ht="27" spans="1:5">
+      <c r="A63" s="70" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>3359</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3346</v>
       </c>
     </row>
   </sheetData>
@@ -24746,6 +24965,10 @@
     <hyperlink ref="C55" r:id="rId56" display="Twin Win Games   " tooltip="https://www.work.ua/jobs/by-company/480105/"/>
     <hyperlink ref="B55" r:id="rId57" display="https://www.work.ua/jobs/2555694/"/>
     <hyperlink ref="C56" r:id="rId58" display="Miritec   " tooltip="https://www.work.ua/jobs/by-company/123011/"/>
+    <hyperlink ref="C58" r:id="rId59" display="ООО TIW " tooltip="https://hh.ua/employer/2452379"/>
+    <hyperlink ref="A60" r:id="rId60" display="Вакансия «Тестировщик (QA)», 15000 грн. Tiec Тex. Киев" tooltip="https://www.work.ua/jobs/2464160/"/>
+    <hyperlink ref="C60" r:id="rId61" display="Tiec Тex   " tooltip="https://www.work.ua/jobs/by-company/997923/"/>
+    <hyperlink ref="C61" r:id="rId62" display="ООО ЛІГА ЗАКОН " tooltip="https://hh.ua/employer/2635831"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -24786,32 +25009,32 @@
         <v>3194</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3341</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>3342</v>
+        <v>3361</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3343</v>
+        <v>3362</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3344</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>3345</v>
+        <v>3364</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3346</v>
+        <v>3365</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>654</v>
@@ -24819,25 +25042,25 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>3347</v>
+        <v>3366</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3348</v>
+        <v>3367</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>3349</v>
+        <v>3368</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3350</v>
+        <v>3369</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>3302</v>
@@ -24845,27 +25068,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>3351</v>
+        <v>3370</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3352</v>
+        <v>3371</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3353</v>
+        <v>3372</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>3354</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>3355</v>
+        <v>3374</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3303</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3356</v>
+        <v>3375</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3305</v>
@@ -24873,67 +25096,67 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>3357</v>
+        <v>3376</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3358</v>
+        <v>3377</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3359</v>
+        <v>3378</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>3360</v>
+        <v>3379</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3361</v>
+        <v>3380</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>3362</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>3363</v>
+        <v>3382</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>3364</v>
+        <v>3383</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3365</v>
+        <v>3384</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>3366</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>3367</v>
+        <v>3386</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>3368</v>
+        <v>3387</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3369</v>
+        <v>3388</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>3370</v>
+        <v>3389</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>3371</v>
+        <v>3390</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>3372</v>
+        <v>3391</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3373</v>
+        <v>3392</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>3265</v>
@@ -24941,107 +25164,107 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>3374</v>
+        <v>3393</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>3375</v>
+        <v>3353</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>3376</v>
+        <v>3394</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>3377</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>3378</v>
+        <v>3396</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>3358</v>
+        <v>3377</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3379</v>
+        <v>3397</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>3380</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>3381</v>
+        <v>3399</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3382</v>
+        <v>3400</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>3383</v>
+        <v>3401</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>3384</v>
+        <v>3402</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>3385</v>
+        <v>3403</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>3386</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>3387</v>
+        <v>3405</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>3388</v>
+        <v>3406</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>3389</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>3390</v>
+        <v>3408</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>3391</v>
+        <v>3409</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>3392</v>
+        <v>3410</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>3393</v>
+        <v>3411</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>3375</v>
+        <v>3353</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>3394</v>
+        <v>3412</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>3395</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>3396</v>
+        <v>3414</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>3267</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>3397</v>
+        <v>3415</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>3270</v>
@@ -25049,70 +25272,70 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>3398</v>
+        <v>3416</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>3399</v>
+        <v>3417</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>3400</v>
+        <v>3418</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>3401</v>
+        <v>3419</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>3402</v>
+        <v>3420</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>3403</v>
+        <v>3421</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>3404</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>3405</v>
+        <v>3423</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>3406</v>
+        <v>3424</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>3407</v>
+        <v>3425</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>3408</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>3409</v>
+        <v>3427</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>3410</v>
+        <v>3428</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>3411</v>
+        <v>3429</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>3412</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>3413</v>
+        <v>3431</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>3414</v>
+        <v>3432</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>3415</v>
+        <v>3433</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>3416</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -25123,157 +25346,157 @@
         <v>3271</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>3417</v>
+        <v>3435</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>3418</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>3419</v>
+        <v>3437</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>3420</v>
+        <v>3438</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>3421</v>
+        <v>3439</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>3422</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>3423</v>
+        <v>3441</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>3424</v>
+        <v>3442</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>3425</v>
+        <v>3443</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>3426</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>3427</v>
+        <v>3445</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>3428</v>
+        <v>3446</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>3429</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>3430</v>
+        <v>3448</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>3431</v>
+        <v>3449</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>3432</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>3433</v>
+        <v>3451</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>3434</v>
+        <v>3452</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>3435</v>
+        <v>3453</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>3436</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>3437</v>
+        <v>3455</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>3438</v>
+        <v>3456</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>3439</v>
+        <v>3457</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>3440</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>3441</v>
+        <v>3459</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>3442</v>
+        <v>3460</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>3443</v>
+        <v>3461</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>3444</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:4">
       <c r="A34" s="15" t="s">
-        <v>3445</v>
+        <v>3463</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>3446</v>
+        <v>3464</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>3447</v>
+        <v>3465</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" ht="27" spans="1:4">
       <c r="A35" s="13" t="s">
-        <v>3448</v>
+        <v>3466</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>3449</v>
+        <v>3467</v>
       </c>
       <c r="C35" t="s">
-        <v>3450</v>
+        <v>3468</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>3451</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>3452</v>
+        <v>3470</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>3453</v>
+        <v>3471</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13" t="s">
-        <v>3454</v>
+        <v>3472</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>3455</v>
+        <v>3473</v>
       </c>
       <c r="D37" s="12"/>
     </row>
@@ -25291,31 +25514,31 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="13" t="s">
-        <v>3456</v>
+        <v>3474</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>3457</v>
+        <v>3475</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>3458</v>
+        <v>3476</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="13" t="s">
-        <v>3459</v>
+        <v>3477</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>3460</v>
+        <v>3478</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="13" t="s">
-        <v>3461</v>
+        <v>3479</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>3278</v>
@@ -25327,13 +25550,13 @@
     </row>
     <row r="42" ht="27" spans="1:4">
       <c r="A42" s="15" t="s">
-        <v>3462</v>
+        <v>3480</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>3463</v>
+        <v>3481</v>
       </c>
       <c r="D42" s="12"/>
     </row>
@@ -25351,13 +25574,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>3464</v>
+        <v>3482</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>3465</v>
+        <v>3483</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>3466</v>
+        <v>3484</v>
       </c>
       <c r="D44" s="12"/>
     </row>
@@ -25375,19 +25598,19 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>3467</v>
+        <v>3485</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>3468</v>
+        <v>3486</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>3469</v>
+        <v>3487</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3470</v>
+        <v>3488</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>3271</v>
@@ -25396,60 +25619,60 @@
         <v>3293</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>3471</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="17" t="s">
-        <v>3472</v>
+        <v>3490</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>3473</v>
+        <v>3491</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>3474</v>
+        <v>3492</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>3475</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>3476</v>
+        <v>3494</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>3410</v>
+        <v>3428</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>3477</v>
+        <v>3495</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>3478</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>3479</v>
+        <v>3497</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>3480</v>
+        <v>3498</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>3481</v>
+        <v>3499</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>3482</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>3483</v>
+        <v>3501</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>3484</v>
+        <v>3502</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>3485</v>
+        <v>3503</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -25542,10 +25765,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3486</v>
+        <v>3504</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3487</v>
+        <v>3505</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -25555,7 +25778,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>3488</v>
+        <v>3506</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -25568,7 +25791,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>3489</v>
+        <v>3507</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -25581,7 +25804,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>3490</v>
+        <v>3508</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
@@ -25594,7 +25817,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>3491</v>
+        <v>3509</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -25607,7 +25830,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>3492</v>
+        <v>3510</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -25620,7 +25843,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>3493</v>
+        <v>3511</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -25633,7 +25856,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3494</v>
+        <v>3512</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -25641,7 +25864,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3495</v>
+        <v>3513</v>
       </c>
       <c r="B9">
         <v>3</v>

--- a/base work.xlsx
+++ b/base work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523">
   <si>
     <t>nane</t>
   </si>
@@ -10157,6 +10157,67 @@
     <t>https://rabota.ua/company1665686/vacancy6403940</t>
   </si>
   <si>
+    <t>Junior Manual QA Engineer</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company2867616/vacancy6518353</t>
+  </si>
+  <si>
+    <t>Регион:Киев
+Контакт:Евгений
+Сайт:www.sparkledesign.com/</t>
+  </si>
+  <si>
+    <r>
+      <t>Junior/Middle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t> тестировщик </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(веб-сайты, мобильные приложения)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.work.ua/jobs/2300014</t>
+  </si>
+  <si>
+    <t>Компания:
+NetFix   
+Город:
+Киев
+Вид занятости:
+полная занятос</t>
+  </si>
+  <si>
+    <t>Junior/Middle QA Engineer</t>
+  </si>
+  <si>
+    <t>https://www.work.ua/jobs/2566382</t>
+  </si>
+  <si>
+    <t>Контактное лицо:
+Ruslan Perekalskyi
+Телефон:
+0504407007
+Город:
+Киев</t>
+  </si>
+  <si>
     <t>История общения</t>
   </si>
   <si>
@@ -10628,13 +10689,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="dd/mmm"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd/mmm"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="56">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -10861,15 +10922,15 @@
     </font>
     <font>
       <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10882,7 +10943,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -10898,6 +10992,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -10907,22 +11009,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10936,28 +11032,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10971,30 +11062,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11045,13 +11113,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11063,91 +11257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11159,31 +11269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11195,25 +11281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11296,11 +11364,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11335,30 +11427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -11372,73 +11440,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="47" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="47" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11447,70 +11515,70 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="47" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="47" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26">
       <alignment vertical="top"/>
     </xf>
@@ -11703,9 +11771,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -11724,20 +11789,29 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -12142,7 +12216,7 @@
   <cols>
     <col min="1" max="1" width="20.1416666666667"/>
     <col min="2" max="2" width="29.35"/>
-    <col min="3" max="3" width="34.2833333333333" style="76"/>
+    <col min="3" max="3" width="34.2833333333333" style="78"/>
     <col min="4" max="4" width="24.85"/>
     <col min="5" max="5" width="71.6666666666667"/>
     <col min="6" max="1025" width="8.575"/>
@@ -12158,7 +12232,7 @@
       <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="79" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -12175,7 +12249,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="80" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -12192,7 +12266,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="78" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -12209,7 +12283,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="80" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -12226,7 +12300,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
@@ -12243,7 +12317,7 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="78" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
@@ -12260,7 +12334,7 @@
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="78" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
@@ -12289,7 +12363,7 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="78" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
@@ -12306,7 +12380,7 @@
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="78" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
@@ -12323,7 +12397,7 @@
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="78" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
@@ -12355,7 +12429,7 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="78" t="s">
         <v>59</v>
       </c>
       <c r="D14" t="s">
@@ -12372,7 +12446,7 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="78" t="s">
         <v>64</v>
       </c>
       <c r="D15" t="s">
@@ -12389,7 +12463,7 @@
       <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="78" t="s">
         <v>69</v>
       </c>
       <c r="D16" t="s">
@@ -12406,7 +12480,7 @@
       <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="78" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
@@ -12423,7 +12497,7 @@
       <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="78" t="s">
         <v>79</v>
       </c>
       <c r="E18" t="s">
@@ -12437,7 +12511,7 @@
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="78" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
@@ -12454,7 +12528,7 @@
       <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="78" t="s">
         <v>88</v>
       </c>
       <c r="E20" t="s">
@@ -12468,7 +12542,7 @@
       <c r="B21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="78" t="s">
         <v>92</v>
       </c>
       <c r="D21" t="s">
@@ -12485,7 +12559,7 @@
       <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="78" t="s">
         <v>97</v>
       </c>
       <c r="D22" t="s">
@@ -12502,7 +12576,7 @@
       <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="78" t="s">
         <v>102</v>
       </c>
       <c r="D23" t="s">
@@ -12519,7 +12593,7 @@
       <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="78" t="s">
         <v>107</v>
       </c>
       <c r="D24" t="s">
@@ -12548,7 +12622,7 @@
       <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="78" t="s">
         <v>115</v>
       </c>
       <c r="D26" t="s">
@@ -12565,7 +12639,7 @@
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="78" t="s">
         <v>120</v>
       </c>
       <c r="D27" t="s">
@@ -12657,7 +12731,7 @@
       <c r="B34" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="78" t="s">
         <v>143</v>
       </c>
       <c r="D34" t="s">
@@ -12698,7 +12772,7 @@
       <c r="B37" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="78" t="s">
         <v>154</v>
       </c>
       <c r="D37" t="s">
@@ -12715,7 +12789,7 @@
       <c r="B38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="76" t="s">
+      <c r="C38" s="78" t="s">
         <v>159</v>
       </c>
       <c r="D38" t="s">
@@ -12732,7 +12806,7 @@
       <c r="B39" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="76" t="s">
+      <c r="C39" s="78" t="s">
         <v>164</v>
       </c>
       <c r="D39" t="s">
@@ -12779,7 +12853,7 @@
       <c r="B42" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="78" t="s">
         <v>177</v>
       </c>
       <c r="D42" t="s">
@@ -12811,7 +12885,7 @@
       <c r="B44" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="78" t="s">
         <v>186</v>
       </c>
       <c r="D44" t="s">
@@ -12825,7 +12899,7 @@
       <c r="B45" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="80" t="s">
         <v>190</v>
       </c>
       <c r="D45" t="s">
@@ -12866,7 +12940,7 @@
       <c r="B48" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="78" t="s">
         <v>201</v>
       </c>
       <c r="D48" t="s">
@@ -12898,7 +12972,7 @@
       <c r="B50" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="76" t="s">
+      <c r="C50" s="78" t="s">
         <v>210</v>
       </c>
       <c r="D50" t="s">
@@ -12957,7 +13031,7 @@
       <c r="B54" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="76" t="s">
+      <c r="C54" s="78" t="s">
         <v>226</v>
       </c>
       <c r="D54" t="s">
@@ -12974,7 +13048,7 @@
       <c r="B55" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="76" t="s">
+      <c r="C55" s="78" t="s">
         <v>231</v>
       </c>
       <c r="D55" t="s">
@@ -12991,7 +13065,7 @@
       <c r="B56" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="76" t="s">
+      <c r="C56" s="78" t="s">
         <v>236</v>
       </c>
       <c r="D56" t="s">
@@ -13008,7 +13082,7 @@
       <c r="B57" t="s">
         <v>240</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="78" t="s">
         <v>241</v>
       </c>
       <c r="D57" t="s">
@@ -13037,7 +13111,7 @@
       <c r="B59" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="78" t="s">
         <v>249</v>
       </c>
       <c r="D59" t="s">
@@ -13054,7 +13128,7 @@
       <c r="B60" t="s">
         <v>253</v>
       </c>
-      <c r="C60" s="76" t="s">
+      <c r="C60" s="78" t="s">
         <v>254</v>
       </c>
       <c r="D60" t="s">
@@ -13068,7 +13142,7 @@
       <c r="B61" t="s">
         <v>257</v>
       </c>
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="78" t="s">
         <v>258</v>
       </c>
       <c r="D61" t="s">
@@ -13097,7 +13171,7 @@
       <c r="B63" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="76" t="s">
+      <c r="C63" s="78" t="s">
         <v>266</v>
       </c>
       <c r="D63" t="s">
@@ -13126,7 +13200,7 @@
       <c r="B65" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="78" t="s">
         <v>274</v>
       </c>
       <c r="D65" t="s">
@@ -13143,7 +13217,7 @@
       <c r="B66" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="76" t="s">
+      <c r="C66" s="78" t="s">
         <v>279</v>
       </c>
       <c r="E66" t="s">
@@ -13157,7 +13231,7 @@
       <c r="B67" t="s">
         <v>282</v>
       </c>
-      <c r="C67" s="76" t="s">
+      <c r="C67" s="78" t="s">
         <v>283</v>
       </c>
       <c r="D67" t="s">
@@ -13186,7 +13260,7 @@
       <c r="B69" t="s">
         <v>290</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="78" t="s">
         <v>291</v>
       </c>
       <c r="D69" t="s">
@@ -13218,7 +13292,7 @@
       <c r="B71" t="s">
         <v>299</v>
       </c>
-      <c r="C71" s="76" t="s">
+      <c r="C71" s="78" t="s">
         <v>300</v>
       </c>
       <c r="D71" t="s">
@@ -13244,7 +13318,7 @@
       <c r="B73" t="s">
         <v>305</v>
       </c>
-      <c r="C73" s="76" t="s">
+      <c r="C73" s="78" t="s">
         <v>306</v>
       </c>
       <c r="D73" t="s">
@@ -13291,7 +13365,7 @@
       <c r="B76" t="s">
         <v>318</v>
       </c>
-      <c r="C76" s="76" t="s">
+      <c r="C76" s="78" t="s">
         <v>319</v>
       </c>
       <c r="D76" t="s">
@@ -13308,7 +13382,7 @@
       <c r="B77" t="s">
         <v>323</v>
       </c>
-      <c r="C77" s="76" t="s">
+      <c r="C77" s="78" t="s">
         <v>324</v>
       </c>
       <c r="D77" t="s">
@@ -13337,7 +13411,7 @@
       <c r="B79" t="s">
         <v>331</v>
       </c>
-      <c r="C79" s="76" t="s">
+      <c r="C79" s="78" t="s">
         <v>332</v>
       </c>
       <c r="D79" t="s">
@@ -13420,7 +13494,7 @@
       <c r="B85" t="s">
         <v>353</v>
       </c>
-      <c r="C85" s="76" t="s">
+      <c r="C85" s="78" t="s">
         <v>354</v>
       </c>
       <c r="D85" t="s">
@@ -13437,7 +13511,7 @@
       <c r="B86" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="76" t="s">
+      <c r="C86" s="78" t="s">
         <v>359</v>
       </c>
       <c r="D86" t="s">
@@ -13454,7 +13528,7 @@
       <c r="B87" t="s">
         <v>363</v>
       </c>
-      <c r="C87" s="76" t="s">
+      <c r="C87" s="78" t="s">
         <v>364</v>
       </c>
       <c r="D87" t="s">
@@ -13468,7 +13542,7 @@
       <c r="A88" t="s">
         <v>367</v>
       </c>
-      <c r="C88" s="76" t="s">
+      <c r="C88" s="78" t="s">
         <v>368</v>
       </c>
       <c r="D88" t="s">
@@ -13500,7 +13574,7 @@
       <c r="B90" t="s">
         <v>376</v>
       </c>
-      <c r="C90" s="76" t="s">
+      <c r="C90" s="78" t="s">
         <v>377</v>
       </c>
       <c r="D90" t="s">
@@ -13517,7 +13591,7 @@
       <c r="B91" t="s">
         <v>381</v>
       </c>
-      <c r="C91" s="76" t="s">
+      <c r="C91" s="78" t="s">
         <v>382</v>
       </c>
       <c r="D91" t="s">
@@ -13534,7 +13608,7 @@
       <c r="B92" t="s">
         <v>386</v>
       </c>
-      <c r="C92" s="76" t="s">
+      <c r="C92" s="78" t="s">
         <v>387</v>
       </c>
       <c r="D92" t="s">
@@ -13551,7 +13625,7 @@
       <c r="B93" t="s">
         <v>391</v>
       </c>
-      <c r="C93" s="76" t="s">
+      <c r="C93" s="78" t="s">
         <v>392</v>
       </c>
       <c r="D93" t="s">
@@ -13577,7 +13651,7 @@
       <c r="B95" t="s">
         <v>398</v>
       </c>
-      <c r="C95" s="76" t="s">
+      <c r="C95" s="78" t="s">
         <v>399</v>
       </c>
       <c r="D95" t="s">
@@ -13603,7 +13677,7 @@
       <c r="B97" t="s">
         <v>405</v>
       </c>
-      <c r="C97" s="76" t="s">
+      <c r="C97" s="78" t="s">
         <v>406</v>
       </c>
       <c r="D97" t="s">
@@ -13617,7 +13691,7 @@
       <c r="B98" t="s">
         <v>409</v>
       </c>
-      <c r="C98" s="76" t="s">
+      <c r="C98" s="78" t="s">
         <v>410</v>
       </c>
       <c r="D98" t="s">
@@ -13673,7 +13747,7 @@
       <c r="B102" t="s">
         <v>424</v>
       </c>
-      <c r="C102" s="76" t="s">
+      <c r="C102" s="78" t="s">
         <v>425</v>
       </c>
       <c r="D102" t="s">
@@ -13690,7 +13764,7 @@
       <c r="B103" t="s">
         <v>429</v>
       </c>
-      <c r="C103" s="76" t="s">
+      <c r="C103" s="78" t="s">
         <v>430</v>
       </c>
       <c r="D103" t="s">
@@ -13707,7 +13781,7 @@
       <c r="B104" t="s">
         <v>434</v>
       </c>
-      <c r="C104" s="78" t="s">
+      <c r="C104" s="80" t="s">
         <v>435</v>
       </c>
       <c r="D104" t="s">
@@ -13739,7 +13813,7 @@
       <c r="B106" t="s">
         <v>443</v>
       </c>
-      <c r="C106" s="76" t="s">
+      <c r="C106" s="78" t="s">
         <v>444</v>
       </c>
       <c r="D106" t="s">
@@ -13765,7 +13839,7 @@
       <c r="B108" t="s">
         <v>450</v>
       </c>
-      <c r="C108" s="76" t="s">
+      <c r="C108" s="78" t="s">
         <v>451</v>
       </c>
       <c r="D108" t="s">
@@ -13782,7 +13856,7 @@
       <c r="B109" t="s">
         <v>455</v>
       </c>
-      <c r="C109" s="76" t="s">
+      <c r="C109" s="78" t="s">
         <v>456</v>
       </c>
       <c r="D109" t="s">
@@ -13823,7 +13897,7 @@
       <c r="B112" t="s">
         <v>466</v>
       </c>
-      <c r="C112" s="76" t="s">
+      <c r="C112" s="78" t="s">
         <v>467</v>
       </c>
       <c r="D112" t="s">
@@ -13852,7 +13926,7 @@
       <c r="B114" t="s">
         <v>474</v>
       </c>
-      <c r="C114" s="76" t="s">
+      <c r="C114" s="78" t="s">
         <v>475</v>
       </c>
       <c r="D114" t="s">
@@ -13869,7 +13943,7 @@
       <c r="B115" t="s">
         <v>479</v>
       </c>
-      <c r="C115" s="76" t="s">
+      <c r="C115" s="78" t="s">
         <v>480</v>
       </c>
       <c r="D115" t="s">
@@ -13931,7 +14005,7 @@
       <c r="B119" t="s">
         <v>496</v>
       </c>
-      <c r="C119" s="76" t="s">
+      <c r="C119" s="78" t="s">
         <v>497</v>
       </c>
       <c r="D119" t="s">
@@ -13975,7 +14049,7 @@
       <c r="B122" t="s">
         <v>508</v>
       </c>
-      <c r="C122" s="76" t="s">
+      <c r="C122" s="78" t="s">
         <v>509</v>
       </c>
       <c r="D122" t="s">
@@ -13989,7 +14063,7 @@
       <c r="B123" t="s">
         <v>512</v>
       </c>
-      <c r="C123" s="78" t="s">
+      <c r="C123" s="80" t="s">
         <v>513</v>
       </c>
       <c r="D123" t="s">
@@ -14006,7 +14080,7 @@
       <c r="B124" t="s">
         <v>517</v>
       </c>
-      <c r="C124" s="76" t="s">
+      <c r="C124" s="78" t="s">
         <v>518</v>
       </c>
       <c r="D124" t="s">
@@ -14032,7 +14106,7 @@
       <c r="B126" t="s">
         <v>524</v>
       </c>
-      <c r="C126" s="76" t="s">
+      <c r="C126" s="78" t="s">
         <v>525</v>
       </c>
       <c r="D126" t="s">
@@ -14049,7 +14123,7 @@
       <c r="B127" t="s">
         <v>529</v>
       </c>
-      <c r="C127" s="76" t="s">
+      <c r="C127" s="78" t="s">
         <v>530</v>
       </c>
       <c r="D127" t="s">
@@ -14075,7 +14149,7 @@
       <c r="B129" t="s">
         <v>536</v>
       </c>
-      <c r="C129" s="76" t="s">
+      <c r="C129" s="78" t="s">
         <v>537</v>
       </c>
       <c r="D129" t="s">
@@ -14092,7 +14166,7 @@
       <c r="B130" t="s">
         <v>541</v>
       </c>
-      <c r="C130" s="78" t="s">
+      <c r="C130" s="80" t="s">
         <v>542</v>
       </c>
       <c r="D130" t="s">
@@ -14124,7 +14198,7 @@
       <c r="B132" t="s">
         <v>550</v>
       </c>
-      <c r="C132" s="76" t="s">
+      <c r="C132" s="78" t="s">
         <v>551</v>
       </c>
       <c r="D132" t="s">
@@ -14156,7 +14230,7 @@
       <c r="B134" t="s">
         <v>559</v>
       </c>
-      <c r="C134" s="76" t="s">
+      <c r="C134" s="78" t="s">
         <v>560</v>
       </c>
       <c r="D134" t="s">
@@ -14170,7 +14244,7 @@
       <c r="B135" t="s">
         <v>563</v>
       </c>
-      <c r="C135" s="76" t="s">
+      <c r="C135" s="78" t="s">
         <v>564</v>
       </c>
       <c r="D135" t="s">
@@ -14196,7 +14270,7 @@
       <c r="B137" t="s">
         <v>570</v>
       </c>
-      <c r="C137" s="76" t="s">
+      <c r="C137" s="78" t="s">
         <v>571</v>
       </c>
       <c r="D137" t="s">
@@ -14213,7 +14287,7 @@
       <c r="B138" t="s">
         <v>575</v>
       </c>
-      <c r="C138" s="76" t="s">
+      <c r="C138" s="78" t="s">
         <v>576</v>
       </c>
       <c r="D138" t="s">
@@ -14230,7 +14304,7 @@
       <c r="B139" t="s">
         <v>580</v>
       </c>
-      <c r="C139" s="76" t="s">
+      <c r="C139" s="78" t="s">
         <v>581</v>
       </c>
       <c r="D139" t="s">
@@ -14259,7 +14333,7 @@
       <c r="B141" t="s">
         <v>588</v>
       </c>
-      <c r="C141" s="76" t="s">
+      <c r="C141" s="78" t="s">
         <v>589</v>
       </c>
       <c r="D141" t="s">
@@ -14345,7 +14419,7 @@
       <c r="B147" t="s">
         <v>611</v>
       </c>
-      <c r="C147" s="76" t="s">
+      <c r="C147" s="78" t="s">
         <v>612</v>
       </c>
       <c r="D147" t="s">
@@ -14362,7 +14436,7 @@
       <c r="B148" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="78" t="s">
+      <c r="C148" s="80" t="s">
         <v>617</v>
       </c>
       <c r="D148" t="s">
@@ -14391,7 +14465,7 @@
       <c r="B150" t="s">
         <v>624</v>
       </c>
-      <c r="C150" s="76" t="s">
+      <c r="C150" s="78" t="s">
         <v>625</v>
       </c>
       <c r="D150" t="s">
@@ -14408,7 +14482,7 @@
       <c r="B151" t="s">
         <v>629</v>
       </c>
-      <c r="C151" s="76" t="s">
+      <c r="C151" s="78" t="s">
         <v>630</v>
       </c>
       <c r="D151" t="s">
@@ -14422,7 +14496,7 @@
       <c r="B152" t="s">
         <v>633</v>
       </c>
-      <c r="C152" s="76" t="s">
+      <c r="C152" s="78" t="s">
         <v>634</v>
       </c>
       <c r="D152" t="s">
@@ -14439,7 +14513,7 @@
       <c r="B153" t="s">
         <v>638</v>
       </c>
-      <c r="C153" s="76" t="s">
+      <c r="C153" s="78" t="s">
         <v>639</v>
       </c>
       <c r="D153" t="s">
@@ -14525,7 +14599,7 @@
       <c r="B159" t="s">
         <v>661</v>
       </c>
-      <c r="C159" s="76" t="s">
+      <c r="C159" s="78" t="s">
         <v>662</v>
       </c>
       <c r="D159" t="s">
@@ -14542,7 +14616,7 @@
       <c r="B160" t="s">
         <v>666</v>
       </c>
-      <c r="C160" s="76" t="s">
+      <c r="C160" s="78" t="s">
         <v>667</v>
       </c>
       <c r="D160" t="s">
@@ -14574,7 +14648,7 @@
       <c r="B162" t="s">
         <v>675</v>
       </c>
-      <c r="C162" s="76" t="s">
+      <c r="C162" s="78" t="s">
         <v>676</v>
       </c>
       <c r="D162" t="s">
@@ -14603,7 +14677,7 @@
       <c r="B164" t="s">
         <v>683</v>
       </c>
-      <c r="C164" s="76" t="s">
+      <c r="C164" s="78" t="s">
         <v>684</v>
       </c>
       <c r="D164" t="s">
@@ -14620,7 +14694,7 @@
       <c r="B165" t="s">
         <v>688</v>
       </c>
-      <c r="C165" s="76" t="s">
+      <c r="C165" s="78" t="s">
         <v>689</v>
       </c>
       <c r="D165" t="s">
@@ -14664,7 +14738,7 @@
       <c r="B168" t="s">
         <v>700</v>
       </c>
-      <c r="C168" s="76" t="s">
+      <c r="C168" s="78" t="s">
         <v>701</v>
       </c>
       <c r="D168" t="s">
@@ -14693,7 +14767,7 @@
       <c r="B170" t="s">
         <v>708</v>
       </c>
-      <c r="C170" s="78" t="s">
+      <c r="C170" s="80" t="s">
         <v>709</v>
       </c>
       <c r="D170" t="s">
@@ -14710,7 +14784,7 @@
       <c r="B171" t="s">
         <v>713</v>
       </c>
-      <c r="C171" s="76" t="s">
+      <c r="C171" s="78" t="s">
         <v>714</v>
       </c>
       <c r="D171" t="s">
@@ -14763,7 +14837,7 @@
       <c r="B175" t="s">
         <v>727</v>
       </c>
-      <c r="C175" s="76" t="s">
+      <c r="C175" s="78" t="s">
         <v>728</v>
       </c>
       <c r="E175" t="s">
@@ -14777,7 +14851,7 @@
       <c r="B176" t="s">
         <v>731</v>
       </c>
-      <c r="C176" s="76" t="s">
+      <c r="C176" s="78" t="s">
         <v>732</v>
       </c>
       <c r="D176" t="s">
@@ -14794,7 +14868,7 @@
       <c r="B177" t="s">
         <v>736</v>
       </c>
-      <c r="C177" s="76" t="s">
+      <c r="C177" s="78" t="s">
         <v>737</v>
       </c>
       <c r="D177" t="s">
@@ -14826,7 +14900,7 @@
       <c r="B180" t="s">
         <v>744</v>
       </c>
-      <c r="C180" s="76" t="s">
+      <c r="C180" s="78" t="s">
         <v>745</v>
       </c>
       <c r="D180" t="s">
@@ -14843,7 +14917,7 @@
       <c r="B181" t="s">
         <v>749</v>
       </c>
-      <c r="C181" s="76" t="s">
+      <c r="C181" s="78" t="s">
         <v>750</v>
       </c>
       <c r="D181" t="s">
@@ -14872,7 +14946,7 @@
       <c r="B183" t="s">
         <v>757</v>
       </c>
-      <c r="C183" s="76" t="s">
+      <c r="C183" s="78" t="s">
         <v>758</v>
       </c>
       <c r="D183" t="s">
@@ -14904,7 +14978,7 @@
       <c r="B185" t="s">
         <v>766</v>
       </c>
-      <c r="C185" s="76" t="s">
+      <c r="C185" s="78" t="s">
         <v>767</v>
       </c>
       <c r="D185" t="s">
@@ -14936,7 +15010,7 @@
       <c r="B187" t="s">
         <v>775</v>
       </c>
-      <c r="C187" s="76" t="s">
+      <c r="C187" s="78" t="s">
         <v>776</v>
       </c>
       <c r="D187" t="s">
@@ -14953,7 +15027,7 @@
       <c r="B188" t="s">
         <v>780</v>
       </c>
-      <c r="C188" s="76" t="s">
+      <c r="C188" s="78" t="s">
         <v>781</v>
       </c>
       <c r="D188" t="s">
@@ -14991,7 +15065,7 @@
       <c r="B191" t="s">
         <v>790</v>
       </c>
-      <c r="C191" s="78" t="s">
+      <c r="C191" s="80" t="s">
         <v>791</v>
       </c>
       <c r="D191" t="s">
@@ -15059,7 +15133,7 @@
       <c r="B196" t="s">
         <v>808</v>
       </c>
-      <c r="C196" s="76" t="s">
+      <c r="C196" s="78" t="s">
         <v>809</v>
       </c>
       <c r="D196" t="s">
@@ -15112,7 +15186,7 @@
       <c r="B200" t="s">
         <v>822</v>
       </c>
-      <c r="C200" s="76" t="s">
+      <c r="C200" s="78" t="s">
         <v>823</v>
       </c>
       <c r="E200" t="s">
@@ -15126,7 +15200,7 @@
       <c r="B201" t="s">
         <v>826</v>
       </c>
-      <c r="C201" s="76" t="s">
+      <c r="C201" s="78" t="s">
         <v>827</v>
       </c>
       <c r="D201" t="s">
@@ -15143,7 +15217,7 @@
       <c r="B202" t="s">
         <v>831</v>
       </c>
-      <c r="C202" s="76" t="s">
+      <c r="C202" s="78" t="s">
         <v>832</v>
       </c>
       <c r="D202" t="s">
@@ -15157,7 +15231,7 @@
       <c r="B203" t="s">
         <v>835</v>
       </c>
-      <c r="C203" s="78" t="s">
+      <c r="C203" s="80" t="s">
         <v>836</v>
       </c>
       <c r="D203" t="s">
@@ -15198,7 +15272,7 @@
       <c r="B206" t="s">
         <v>846</v>
       </c>
-      <c r="C206" s="76" t="s">
+      <c r="C206" s="78" t="s">
         <v>847</v>
       </c>
       <c r="D206" t="s">
@@ -15245,7 +15319,7 @@
       <c r="B209" t="s">
         <v>859</v>
       </c>
-      <c r="C209" s="76" t="s">
+      <c r="C209" s="78" t="s">
         <v>860</v>
       </c>
       <c r="D209" t="s">
@@ -15262,7 +15336,7 @@
       <c r="B210" t="s">
         <v>864</v>
       </c>
-      <c r="C210" s="76" t="s">
+      <c r="C210" s="78" t="s">
         <v>865</v>
       </c>
       <c r="D210" t="s">
@@ -15279,7 +15353,7 @@
       <c r="B211" t="s">
         <v>869</v>
       </c>
-      <c r="C211" s="76" t="s">
+      <c r="C211" s="78" t="s">
         <v>870</v>
       </c>
       <c r="D211" t="s">
@@ -15296,7 +15370,7 @@
       <c r="B212" t="s">
         <v>874</v>
       </c>
-      <c r="C212" s="76" t="s">
+      <c r="C212" s="78" t="s">
         <v>875</v>
       </c>
       <c r="D212" t="s">
@@ -15361,7 +15435,7 @@
       <c r="B217" t="s">
         <v>891</v>
       </c>
-      <c r="C217" s="76" t="s">
+      <c r="C217" s="78" t="s">
         <v>892</v>
       </c>
       <c r="D217" t="s">
@@ -15417,7 +15491,7 @@
       <c r="B221" t="s">
         <v>906</v>
       </c>
-      <c r="C221" s="76" t="s">
+      <c r="C221" s="78" t="s">
         <v>907</v>
       </c>
       <c r="D221" t="s">
@@ -15470,7 +15544,7 @@
       <c r="B225" t="s">
         <v>920</v>
       </c>
-      <c r="C225" s="76" t="s">
+      <c r="C225" s="78" t="s">
         <v>921</v>
       </c>
       <c r="D225" t="s">
@@ -15487,7 +15561,7 @@
       <c r="B226" t="s">
         <v>925</v>
       </c>
-      <c r="C226" s="76" t="s">
+      <c r="C226" s="78" t="s">
         <v>926</v>
       </c>
       <c r="D226" t="s">
@@ -15516,7 +15590,7 @@
       <c r="B228" t="s">
         <v>933</v>
       </c>
-      <c r="C228" s="76" t="s">
+      <c r="C228" s="78" t="s">
         <v>934</v>
       </c>
       <c r="D228" t="s">
@@ -15578,7 +15652,7 @@
       <c r="B233" t="s">
         <v>949</v>
       </c>
-      <c r="C233" s="76" t="s">
+      <c r="C233" s="78" t="s">
         <v>950</v>
       </c>
       <c r="D233" t="s">
@@ -15607,7 +15681,7 @@
       <c r="B235" t="s">
         <v>957</v>
       </c>
-      <c r="C235" s="76" t="s">
+      <c r="C235" s="78" t="s">
         <v>958</v>
       </c>
       <c r="D235" t="s">
@@ -15624,7 +15698,7 @@
       <c r="B236" t="s">
         <v>962</v>
       </c>
-      <c r="C236" s="76" t="s">
+      <c r="C236" s="78" t="s">
         <v>963</v>
       </c>
       <c r="D236" t="s">
@@ -15668,7 +15742,7 @@
       <c r="B239" t="s">
         <v>974</v>
       </c>
-      <c r="C239" s="76" t="s">
+      <c r="C239" s="78" t="s">
         <v>975</v>
       </c>
       <c r="D239" t="s">
@@ -15700,7 +15774,7 @@
       <c r="B241" t="s">
         <v>983</v>
       </c>
-      <c r="C241" s="76" t="s">
+      <c r="C241" s="78" t="s">
         <v>984</v>
       </c>
       <c r="D241" t="s">
@@ -15717,7 +15791,7 @@
       <c r="B242" t="s">
         <v>988</v>
       </c>
-      <c r="C242" s="76" t="s">
+      <c r="C242" s="78" t="s">
         <v>989</v>
       </c>
       <c r="D242" t="s">
@@ -15764,7 +15838,7 @@
       <c r="B245" t="s">
         <v>1001</v>
       </c>
-      <c r="C245" s="76" t="s">
+      <c r="C245" s="78" t="s">
         <v>1002</v>
       </c>
       <c r="D245" t="s">
@@ -15781,7 +15855,7 @@
       <c r="B246" t="s">
         <v>1006</v>
       </c>
-      <c r="C246" s="76" t="s">
+      <c r="C246" s="78" t="s">
         <v>1007</v>
       </c>
       <c r="E246" t="s">
@@ -15795,7 +15869,7 @@
       <c r="B247" t="s">
         <v>1010</v>
       </c>
-      <c r="C247" s="76" t="s">
+      <c r="C247" s="78" t="s">
         <v>1011</v>
       </c>
       <c r="D247" t="s">
@@ -15812,7 +15886,7 @@
       <c r="B248" t="s">
         <v>1015</v>
       </c>
-      <c r="C248" s="76" t="s">
+      <c r="C248" s="78" t="s">
         <v>1016</v>
       </c>
       <c r="D248" t="s">
@@ -15829,7 +15903,7 @@
       <c r="B249" t="s">
         <v>1020</v>
       </c>
-      <c r="C249" s="76" t="s">
+      <c r="C249" s="78" t="s">
         <v>1021</v>
       </c>
       <c r="D249" t="s">
@@ -15867,7 +15941,7 @@
       <c r="B252" t="s">
         <v>1030</v>
       </c>
-      <c r="C252" s="76" t="s">
+      <c r="C252" s="78" t="s">
         <v>1031</v>
       </c>
       <c r="D252" t="s">
@@ -15884,7 +15958,7 @@
       <c r="B253" t="s">
         <v>1035</v>
       </c>
-      <c r="C253" s="76" t="s">
+      <c r="C253" s="78" t="s">
         <v>1036</v>
       </c>
       <c r="D253" t="s">
@@ -15901,7 +15975,7 @@
       <c r="B254" t="s">
         <v>1040</v>
       </c>
-      <c r="C254" s="76" t="s">
+      <c r="C254" s="78" t="s">
         <v>1041</v>
       </c>
       <c r="D254" t="s">
@@ -15918,7 +15992,7 @@
       <c r="B255" t="s">
         <v>1045</v>
       </c>
-      <c r="C255" s="76" t="s">
+      <c r="C255" s="78" t="s">
         <v>1046</v>
       </c>
       <c r="D255" t="s">
@@ -15935,7 +16009,7 @@
       <c r="B256" t="s">
         <v>1050</v>
       </c>
-      <c r="C256" s="76" t="s">
+      <c r="C256" s="78" t="s">
         <v>1051</v>
       </c>
       <c r="D256" t="s">
@@ -15952,7 +16026,7 @@
       <c r="B257" t="s">
         <v>1055</v>
       </c>
-      <c r="C257" s="76" t="s">
+      <c r="C257" s="78" t="s">
         <v>1056</v>
       </c>
       <c r="D257" t="s">
@@ -15993,7 +16067,7 @@
       <c r="B260" t="s">
         <v>1066</v>
       </c>
-      <c r="C260" s="76" t="s">
+      <c r="C260" s="78" t="s">
         <v>1067</v>
       </c>
       <c r="D260" t="s">
@@ -16022,7 +16096,7 @@
       <c r="B262" t="s">
         <v>1074</v>
       </c>
-      <c r="C262" s="76" t="s">
+      <c r="C262" s="78" t="s">
         <v>1075</v>
       </c>
       <c r="D262" t="s">
@@ -16036,7 +16110,7 @@
       <c r="B263" t="s">
         <v>1078</v>
       </c>
-      <c r="C263" s="76" t="s">
+      <c r="C263" s="78" t="s">
         <v>1079</v>
       </c>
       <c r="D263" t="s">
@@ -16050,7 +16124,7 @@
       <c r="B264" t="s">
         <v>1082</v>
       </c>
-      <c r="C264" s="76" t="s">
+      <c r="C264" s="78" t="s">
         <v>1083</v>
       </c>
       <c r="D264" t="s">
@@ -16067,7 +16141,7 @@
       <c r="B265" t="s">
         <v>1087</v>
       </c>
-      <c r="C265" s="76" t="s">
+      <c r="C265" s="78" t="s">
         <v>1088</v>
       </c>
       <c r="D265" t="s">
@@ -16108,7 +16182,7 @@
       <c r="B268" t="s">
         <v>1098</v>
       </c>
-      <c r="C268" s="76" t="s">
+      <c r="C268" s="78" t="s">
         <v>1099</v>
       </c>
       <c r="D268" t="s">
@@ -16140,7 +16214,7 @@
       <c r="B270" t="s">
         <v>1107</v>
       </c>
-      <c r="C270" s="76" t="s">
+      <c r="C270" s="78" t="s">
         <v>1108</v>
       </c>
       <c r="D270" t="s">
@@ -16154,7 +16228,7 @@
       <c r="B271" t="s">
         <v>1111</v>
       </c>
-      <c r="C271" s="76" t="s">
+      <c r="C271" s="78" t="s">
         <v>1112</v>
       </c>
       <c r="D271" t="s">
@@ -16171,7 +16245,7 @@
       <c r="B272" t="s">
         <v>1116</v>
       </c>
-      <c r="C272" s="76" t="s">
+      <c r="C272" s="78" t="s">
         <v>1117</v>
       </c>
       <c r="D272" t="s">
@@ -16188,7 +16262,7 @@
       <c r="B273" t="s">
         <v>1121</v>
       </c>
-      <c r="C273" s="76" t="s">
+      <c r="C273" s="78" t="s">
         <v>1122</v>
       </c>
       <c r="D273" t="s">
@@ -16205,7 +16279,7 @@
       <c r="B274" t="s">
         <v>1126</v>
       </c>
-      <c r="C274" s="76" t="s">
+      <c r="C274" s="78" t="s">
         <v>1127</v>
       </c>
       <c r="D274" t="s">
@@ -16237,7 +16311,7 @@
       <c r="B276" t="s">
         <v>1135</v>
       </c>
-      <c r="C276" s="76" t="s">
+      <c r="C276" s="78" t="s">
         <v>1136</v>
       </c>
       <c r="D276" t="s">
@@ -16263,7 +16337,7 @@
       <c r="B278" t="s">
         <v>1142</v>
       </c>
-      <c r="C278" s="76" t="s">
+      <c r="C278" s="78" t="s">
         <v>1143</v>
       </c>
       <c r="D278" t="s">
@@ -16292,7 +16366,7 @@
       <c r="B280" t="s">
         <v>1150</v>
       </c>
-      <c r="C280" s="76" t="s">
+      <c r="C280" s="78" t="s">
         <v>1151</v>
       </c>
       <c r="D280" t="s">
@@ -16324,7 +16398,7 @@
       <c r="B282" t="s">
         <v>1159</v>
       </c>
-      <c r="C282" s="76" t="s">
+      <c r="C282" s="78" t="s">
         <v>1160</v>
       </c>
       <c r="D282" t="s">
@@ -16350,7 +16424,7 @@
       <c r="B284" t="s">
         <v>1166</v>
       </c>
-      <c r="C284" s="76" t="s">
+      <c r="C284" s="78" t="s">
         <v>1167</v>
       </c>
       <c r="D284" t="s">
@@ -16367,7 +16441,7 @@
       <c r="B285" t="s">
         <v>1171</v>
       </c>
-      <c r="C285" s="76" t="s">
+      <c r="C285" s="78" t="s">
         <v>1172</v>
       </c>
       <c r="D285" t="s">
@@ -16384,7 +16458,7 @@
       <c r="B286" t="s">
         <v>1176</v>
       </c>
-      <c r="C286" s="76" t="s">
+      <c r="C286" s="78" t="s">
         <v>1177</v>
       </c>
       <c r="D286" t="s">
@@ -16425,7 +16499,7 @@
       <c r="B289" t="s">
         <v>1187</v>
       </c>
-      <c r="C289" s="76" t="s">
+      <c r="C289" s="78" t="s">
         <v>1188</v>
       </c>
       <c r="D289" t="s">
@@ -16442,7 +16516,7 @@
       <c r="B290" t="s">
         <v>1192</v>
       </c>
-      <c r="C290" s="76" t="s">
+      <c r="C290" s="78" t="s">
         <v>1193</v>
       </c>
       <c r="D290" t="s">
@@ -16459,7 +16533,7 @@
       <c r="B291" t="s">
         <v>1197</v>
       </c>
-      <c r="C291" s="76" t="s">
+      <c r="C291" s="78" t="s">
         <v>1198</v>
       </c>
       <c r="D291" t="s">
@@ -16476,7 +16550,7 @@
       <c r="B292" t="s">
         <v>1202</v>
       </c>
-      <c r="C292" s="76" t="s">
+      <c r="C292" s="78" t="s">
         <v>1203</v>
       </c>
       <c r="D292" t="s">
@@ -16493,7 +16567,7 @@
       <c r="B293" t="s">
         <v>1207</v>
       </c>
-      <c r="C293" s="76" t="s">
+      <c r="C293" s="78" t="s">
         <v>1208</v>
       </c>
       <c r="D293" t="s">
@@ -16519,7 +16593,7 @@
       <c r="B295" t="s">
         <v>1214</v>
       </c>
-      <c r="C295" s="76" t="s">
+      <c r="C295" s="78" t="s">
         <v>1215</v>
       </c>
       <c r="D295" t="s">
@@ -16533,7 +16607,7 @@
       <c r="B296" t="s">
         <v>1218</v>
       </c>
-      <c r="C296" s="76" t="s">
+      <c r="C296" s="78" t="s">
         <v>1219</v>
       </c>
       <c r="D296" t="s">
@@ -16550,7 +16624,7 @@
       <c r="B297" t="s">
         <v>1223</v>
       </c>
-      <c r="C297" s="76" t="s">
+      <c r="C297" s="78" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -16561,7 +16635,7 @@
       <c r="B298" t="s">
         <v>1226</v>
       </c>
-      <c r="C298" s="76" t="s">
+      <c r="C298" s="78" t="s">
         <v>1227</v>
       </c>
       <c r="D298" t="s">
@@ -16578,7 +16652,7 @@
       <c r="B299" t="s">
         <v>1231</v>
       </c>
-      <c r="C299" s="76" t="s">
+      <c r="C299" s="78" t="s">
         <v>1232</v>
       </c>
       <c r="D299" t="s">
@@ -16595,7 +16669,7 @@
       <c r="B300" t="s">
         <v>1236</v>
       </c>
-      <c r="C300" s="76" t="s">
+      <c r="C300" s="78" t="s">
         <v>1237</v>
       </c>
       <c r="D300" t="s">
@@ -16624,7 +16698,7 @@
       <c r="B302" t="s">
         <v>1244</v>
       </c>
-      <c r="C302" s="76" t="s">
+      <c r="C302" s="78" t="s">
         <v>1245</v>
       </c>
       <c r="D302" t="s">
@@ -16641,7 +16715,7 @@
       <c r="B303" t="s">
         <v>1249</v>
       </c>
-      <c r="C303" s="76" t="s">
+      <c r="C303" s="78" t="s">
         <v>1250</v>
       </c>
       <c r="D303" t="s">
@@ -16673,7 +16747,7 @@
       <c r="B305" t="s">
         <v>1258</v>
       </c>
-      <c r="C305" s="76" t="s">
+      <c r="C305" s="78" t="s">
         <v>1259</v>
       </c>
       <c r="D305" t="s">
@@ -16690,7 +16764,7 @@
       <c r="B306" t="s">
         <v>1263</v>
       </c>
-      <c r="C306" s="76" t="s">
+      <c r="C306" s="78" t="s">
         <v>1264</v>
       </c>
       <c r="D306" t="s">
@@ -16719,7 +16793,7 @@
       <c r="B308" t="s">
         <v>1271</v>
       </c>
-      <c r="C308" s="76" t="s">
+      <c r="C308" s="78" t="s">
         <v>1272</v>
       </c>
       <c r="D308" t="s">
@@ -16736,7 +16810,7 @@
       <c r="B309" t="s">
         <v>1276</v>
       </c>
-      <c r="C309" s="76" t="s">
+      <c r="C309" s="78" t="s">
         <v>1277</v>
       </c>
       <c r="D309" t="s">
@@ -16762,7 +16836,7 @@
       <c r="B311" t="s">
         <v>1283</v>
       </c>
-      <c r="C311" s="76" t="s">
+      <c r="C311" s="78" t="s">
         <v>1284</v>
       </c>
       <c r="D311" t="s">
@@ -16779,7 +16853,7 @@
       <c r="B312" t="s">
         <v>1288</v>
       </c>
-      <c r="C312" s="76" t="s">
+      <c r="C312" s="78" t="s">
         <v>1289</v>
       </c>
       <c r="D312" t="s">
@@ -16796,7 +16870,7 @@
       <c r="B313" t="s">
         <v>1293</v>
       </c>
-      <c r="C313" s="76" t="s">
+      <c r="C313" s="78" t="s">
         <v>1294</v>
       </c>
       <c r="D313" t="s">
@@ -16828,7 +16902,7 @@
       <c r="B315" t="s">
         <v>1302</v>
       </c>
-      <c r="C315" s="78" t="s">
+      <c r="C315" s="80" t="s">
         <v>1303</v>
       </c>
       <c r="D315" t="s">
@@ -16860,7 +16934,7 @@
       <c r="B317" t="s">
         <v>1311</v>
       </c>
-      <c r="C317" s="76" t="s">
+      <c r="C317" s="78" t="s">
         <v>1312</v>
       </c>
       <c r="E317" t="s">
@@ -16874,7 +16948,7 @@
       <c r="B318" t="s">
         <v>1315</v>
       </c>
-      <c r="C318" s="76" t="s">
+      <c r="C318" s="78" t="s">
         <v>1316</v>
       </c>
       <c r="D318" t="s">
@@ -16918,7 +16992,7 @@
       <c r="B321" t="s">
         <v>1327</v>
       </c>
-      <c r="C321" s="76" t="s">
+      <c r="C321" s="78" t="s">
         <v>1328</v>
       </c>
       <c r="D321" t="s">
@@ -16935,7 +17009,7 @@
       <c r="B322" t="s">
         <v>1332</v>
       </c>
-      <c r="C322" s="76" t="s">
+      <c r="C322" s="78" t="s">
         <v>1333</v>
       </c>
       <c r="D322" t="s">
@@ -16952,7 +17026,7 @@
       <c r="B323" t="s">
         <v>1337</v>
       </c>
-      <c r="C323" s="76" t="s">
+      <c r="C323" s="78" t="s">
         <v>1338</v>
       </c>
       <c r="D323" t="s">
@@ -16969,7 +17043,7 @@
       <c r="B324" t="s">
         <v>1342</v>
       </c>
-      <c r="C324" s="76" t="s">
+      <c r="C324" s="78" t="s">
         <v>1343</v>
       </c>
       <c r="D324" t="s">
@@ -16986,7 +17060,7 @@
       <c r="B325" t="s">
         <v>1347</v>
       </c>
-      <c r="C325" s="76" t="s">
+      <c r="C325" s="78" t="s">
         <v>1348</v>
       </c>
       <c r="D325" t="s">
@@ -17015,7 +17089,7 @@
       <c r="B327" t="s">
         <v>1355</v>
       </c>
-      <c r="C327" s="76" t="s">
+      <c r="C327" s="78" t="s">
         <v>1356</v>
       </c>
       <c r="D327" t="s">
@@ -17032,7 +17106,7 @@
       <c r="B328" t="s">
         <v>1360</v>
       </c>
-      <c r="C328" s="76" t="s">
+      <c r="C328" s="78" t="s">
         <v>1361</v>
       </c>
       <c r="D328" t="s">
@@ -17049,7 +17123,7 @@
       <c r="B329" t="s">
         <v>1365</v>
       </c>
-      <c r="C329" s="76" t="s">
+      <c r="C329" s="78" t="s">
         <v>1366</v>
       </c>
       <c r="D329" t="s">
@@ -17075,7 +17149,7 @@
       <c r="B331" t="s">
         <v>1372</v>
       </c>
-      <c r="C331" s="76" t="s">
+      <c r="C331" s="78" t="s">
         <v>1373</v>
       </c>
       <c r="D331" t="s">
@@ -17092,7 +17166,7 @@
       <c r="B332" t="s">
         <v>1377</v>
       </c>
-      <c r="C332" s="76" t="s">
+      <c r="C332" s="78" t="s">
         <v>1378</v>
       </c>
       <c r="D332" t="s">
@@ -17133,7 +17207,7 @@
       <c r="B335" t="s">
         <v>1388</v>
       </c>
-      <c r="C335" s="76" t="s">
+      <c r="C335" s="78" t="s">
         <v>1389</v>
       </c>
       <c r="D335" t="s">
@@ -17162,7 +17236,7 @@
       <c r="B337" t="s">
         <v>1396</v>
       </c>
-      <c r="C337" s="76" t="s">
+      <c r="C337" s="78" t="s">
         <v>1397</v>
       </c>
       <c r="D337" t="s">
@@ -17176,7 +17250,7 @@
       <c r="B338" t="s">
         <v>1400</v>
       </c>
-      <c r="C338" s="76" t="s">
+      <c r="C338" s="78" t="s">
         <v>1401</v>
       </c>
       <c r="D338" t="s">
@@ -17199,7 +17273,7 @@
       <c r="B340" t="s">
         <v>1406</v>
       </c>
-      <c r="C340" s="76" t="s">
+      <c r="C340" s="78" t="s">
         <v>1407</v>
       </c>
       <c r="D340" t="s">
@@ -17216,7 +17290,7 @@
       <c r="B341" t="s">
         <v>1411</v>
       </c>
-      <c r="C341" s="76" t="s">
+      <c r="C341" s="78" t="s">
         <v>1412</v>
       </c>
       <c r="D341" t="s">
@@ -17245,7 +17319,7 @@
       <c r="B343" t="s">
         <v>1419</v>
       </c>
-      <c r="C343" s="76" t="s">
+      <c r="C343" s="78" t="s">
         <v>1420</v>
       </c>
       <c r="D343" t="s">
@@ -17286,7 +17360,7 @@
       <c r="B346" t="s">
         <v>1430</v>
       </c>
-      <c r="C346" s="76" t="s">
+      <c r="C346" s="78" t="s">
         <v>1431</v>
       </c>
       <c r="D346" t="s">
@@ -17303,7 +17377,7 @@
       <c r="B347" t="s">
         <v>1435</v>
       </c>
-      <c r="C347" s="76" t="s">
+      <c r="C347" s="78" t="s">
         <v>1436</v>
       </c>
       <c r="D347" t="s">
@@ -17320,7 +17394,7 @@
       <c r="B348" t="s">
         <v>1440</v>
       </c>
-      <c r="C348" s="76" t="s">
+      <c r="C348" s="78" t="s">
         <v>1441</v>
       </c>
       <c r="D348" t="s">
@@ -17337,7 +17411,7 @@
       <c r="B349" t="s">
         <v>1445</v>
       </c>
-      <c r="C349" s="76" t="s">
+      <c r="C349" s="78" t="s">
         <v>1446</v>
       </c>
       <c r="D349" t="s">
@@ -17354,7 +17428,7 @@
       <c r="B350" t="s">
         <v>1450</v>
       </c>
-      <c r="C350" s="76" t="s">
+      <c r="C350" s="78" t="s">
         <v>1451</v>
       </c>
       <c r="D350" t="s">
@@ -17380,7 +17454,7 @@
       <c r="B352" t="s">
         <v>1457</v>
       </c>
-      <c r="C352" s="76" t="s">
+      <c r="C352" s="78" t="s">
         <v>1458</v>
       </c>
       <c r="D352" t="s">
@@ -17397,7 +17471,7 @@
       <c r="B353" t="s">
         <v>1462</v>
       </c>
-      <c r="C353" s="76" t="s">
+      <c r="C353" s="78" t="s">
         <v>1463</v>
       </c>
       <c r="D353" t="s">
@@ -17450,7 +17524,7 @@
       <c r="B357" t="s">
         <v>1476</v>
       </c>
-      <c r="C357" s="76" t="s">
+      <c r="C357" s="78" t="s">
         <v>1477</v>
       </c>
       <c r="E357" t="s">
@@ -17464,7 +17538,7 @@
       <c r="B358" t="s">
         <v>1480</v>
       </c>
-      <c r="C358" s="76" t="s">
+      <c r="C358" s="78" t="s">
         <v>1481</v>
       </c>
       <c r="D358" t="s">
@@ -17481,7 +17555,7 @@
       <c r="B359" t="s">
         <v>1485</v>
       </c>
-      <c r="C359" s="76" t="s">
+      <c r="C359" s="78" t="s">
         <v>1486</v>
       </c>
       <c r="D359" t="s">
@@ -17504,7 +17578,7 @@
       <c r="B361" t="s">
         <v>1491</v>
       </c>
-      <c r="C361" s="76" t="s">
+      <c r="C361" s="78" t="s">
         <v>1492</v>
       </c>
       <c r="D361" t="s">
@@ -17575,7 +17649,7 @@
       <c r="B366" t="s">
         <v>1510</v>
       </c>
-      <c r="C366" s="76" t="s">
+      <c r="C366" s="78" t="s">
         <v>1511</v>
       </c>
       <c r="D366" t="s">
@@ -17604,7 +17678,7 @@
       <c r="B368" t="s">
         <v>1518</v>
       </c>
-      <c r="C368" s="76" t="s">
+      <c r="C368" s="78" t="s">
         <v>1519</v>
       </c>
       <c r="D368" t="s">
@@ -17630,7 +17704,7 @@
       <c r="B370" t="s">
         <v>1524</v>
       </c>
-      <c r="C370" s="76" t="s">
+      <c r="C370" s="78" t="s">
         <v>1525</v>
       </c>
       <c r="D370" t="s">
@@ -17683,7 +17757,7 @@
       <c r="B374" t="s">
         <v>1538</v>
       </c>
-      <c r="C374" s="76" t="s">
+      <c r="C374" s="78" t="s">
         <v>1539</v>
       </c>
       <c r="E374" t="s">
@@ -17709,7 +17783,7 @@
       <c r="B376" t="s">
         <v>1545</v>
       </c>
-      <c r="C376" s="76" t="s">
+      <c r="C376" s="78" t="s">
         <v>1546</v>
       </c>
       <c r="D376" t="s">
@@ -17726,7 +17800,7 @@
       <c r="B377" t="s">
         <v>1550</v>
       </c>
-      <c r="C377" s="76" t="s">
+      <c r="C377" s="78" t="s">
         <v>1551</v>
       </c>
       <c r="D377" t="s">
@@ -17743,7 +17817,7 @@
       <c r="B378" t="s">
         <v>1555</v>
       </c>
-      <c r="C378" s="76" t="s">
+      <c r="C378" s="78" t="s">
         <v>1556</v>
       </c>
       <c r="D378" t="s">
@@ -17772,7 +17846,7 @@
       <c r="B380" t="s">
         <v>1563</v>
       </c>
-      <c r="C380" s="76" t="s">
+      <c r="C380" s="78" t="s">
         <v>1564</v>
       </c>
       <c r="D380" t="s">
@@ -17834,7 +17908,7 @@
       <c r="B385" t="s">
         <v>1579</v>
       </c>
-      <c r="C385" s="76" t="s">
+      <c r="C385" s="78" t="s">
         <v>1580</v>
       </c>
       <c r="D385" t="s">
@@ -17851,7 +17925,7 @@
       <c r="B386" t="s">
         <v>1584</v>
       </c>
-      <c r="C386" s="76" t="s">
+      <c r="C386" s="78" t="s">
         <v>1585</v>
       </c>
       <c r="E386" t="s">
@@ -17874,7 +17948,7 @@
       <c r="B388" t="s">
         <v>1590</v>
       </c>
-      <c r="C388" s="76" t="s">
+      <c r="C388" s="78" t="s">
         <v>1591</v>
       </c>
       <c r="D388" t="s">
@@ -17912,7 +17986,7 @@
       <c r="B391" t="s">
         <v>1600</v>
       </c>
-      <c r="C391" s="76" t="s">
+      <c r="C391" s="78" t="s">
         <v>1601</v>
       </c>
       <c r="D391" t="s">
@@ -17980,7 +18054,7 @@
       <c r="B396" t="s">
         <v>1618</v>
       </c>
-      <c r="C396" s="76" t="s">
+      <c r="C396" s="78" t="s">
         <v>1619</v>
       </c>
       <c r="D396" t="s">
@@ -18021,7 +18095,7 @@
       <c r="B399" t="s">
         <v>1629</v>
       </c>
-      <c r="C399" s="76" t="s">
+      <c r="C399" s="78" t="s">
         <v>1630</v>
       </c>
       <c r="E399" t="s">
@@ -18035,7 +18109,7 @@
       <c r="B400" t="s">
         <v>1633</v>
       </c>
-      <c r="C400" s="76" t="s">
+      <c r="C400" s="78" t="s">
         <v>1634</v>
       </c>
       <c r="D400" t="s">
@@ -18049,7 +18123,7 @@
       <c r="B401" t="s">
         <v>1637</v>
       </c>
-      <c r="C401" s="76" t="s">
+      <c r="C401" s="78" t="s">
         <v>1638</v>
       </c>
       <c r="D401" t="s">
@@ -18063,7 +18137,7 @@
       <c r="B402" t="s">
         <v>1641</v>
       </c>
-      <c r="C402" s="76" t="s">
+      <c r="C402" s="78" t="s">
         <v>1642</v>
       </c>
       <c r="D402" t="s">
@@ -18077,7 +18151,7 @@
       <c r="B403" t="s">
         <v>1645</v>
       </c>
-      <c r="C403" s="76" t="s">
+      <c r="C403" s="78" t="s">
         <v>1646</v>
       </c>
       <c r="D403" t="s">
@@ -18091,7 +18165,7 @@
       <c r="B404" t="s">
         <v>1649</v>
       </c>
-      <c r="C404" s="76" t="s">
+      <c r="C404" s="78" t="s">
         <v>1650</v>
       </c>
       <c r="D404" t="s">
@@ -18108,7 +18182,7 @@
       <c r="B405" t="s">
         <v>1654</v>
       </c>
-      <c r="C405" s="76" t="s">
+      <c r="C405" s="78" t="s">
         <v>1655</v>
       </c>
       <c r="D405" t="s">
@@ -18125,7 +18199,7 @@
       <c r="B406" t="s">
         <v>1659</v>
       </c>
-      <c r="C406" s="76" t="s">
+      <c r="C406" s="78" t="s">
         <v>1660</v>
       </c>
       <c r="D406" t="s">
@@ -18166,7 +18240,7 @@
       <c r="B409" t="s">
         <v>1670</v>
       </c>
-      <c r="C409" s="76" t="s">
+      <c r="C409" s="78" t="s">
         <v>1671</v>
       </c>
       <c r="D409" t="s">
@@ -18192,7 +18266,7 @@
       <c r="B411" t="s">
         <v>1677</v>
       </c>
-      <c r="C411" s="76" t="s">
+      <c r="C411" s="78" t="s">
         <v>1678</v>
       </c>
       <c r="D411" t="s">
@@ -18260,7 +18334,7 @@
       <c r="B416" t="s">
         <v>1695</v>
       </c>
-      <c r="C416" s="78" t="s">
+      <c r="C416" s="80" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -18271,7 +18345,7 @@
       <c r="B417" t="s">
         <v>1698</v>
       </c>
-      <c r="C417" s="76" t="s">
+      <c r="C417" s="78" t="s">
         <v>1699</v>
       </c>
       <c r="D417" t="s">
@@ -18288,7 +18362,7 @@
       <c r="B418" t="s">
         <v>1703</v>
       </c>
-      <c r="C418" s="76" t="s">
+      <c r="C418" s="78" t="s">
         <v>1704</v>
       </c>
       <c r="D418" t="s">
@@ -18314,7 +18388,7 @@
       <c r="B420" t="s">
         <v>1710</v>
       </c>
-      <c r="C420" s="76" t="s">
+      <c r="C420" s="78" t="s">
         <v>1711</v>
       </c>
       <c r="D420" t="s">
@@ -18331,7 +18405,7 @@
       <c r="B421" t="s">
         <v>1715</v>
       </c>
-      <c r="C421" s="76" t="s">
+      <c r="C421" s="78" t="s">
         <v>1716</v>
       </c>
       <c r="D421" t="s">
@@ -18348,7 +18422,7 @@
       <c r="B422" t="s">
         <v>1670</v>
       </c>
-      <c r="C422" s="76" t="s">
+      <c r="C422" s="78" t="s">
         <v>1720</v>
       </c>
       <c r="D422" t="s">
@@ -18365,7 +18439,7 @@
       <c r="B423" t="s">
         <v>1724</v>
       </c>
-      <c r="C423" s="76" t="s">
+      <c r="C423" s="78" t="s">
         <v>1725</v>
       </c>
       <c r="D423" t="s">
@@ -18382,7 +18456,7 @@
       <c r="B424" t="s">
         <v>1729</v>
       </c>
-      <c r="C424" s="76" t="s">
+      <c r="C424" s="78" t="s">
         <v>1730</v>
       </c>
       <c r="D424" t="s">
@@ -18411,7 +18485,7 @@
       <c r="B426" t="s">
         <v>1737</v>
       </c>
-      <c r="C426" s="76" t="s">
+      <c r="C426" s="78" t="s">
         <v>1738</v>
       </c>
       <c r="D426" t="s">
@@ -18428,7 +18502,7 @@
       <c r="B427" t="s">
         <v>1742</v>
       </c>
-      <c r="C427" s="76" t="s">
+      <c r="C427" s="78" t="s">
         <v>1743</v>
       </c>
       <c r="E427" t="s">
@@ -18454,7 +18528,7 @@
       <c r="B429" t="s">
         <v>1749</v>
       </c>
-      <c r="C429" s="76" t="s">
+      <c r="C429" s="78" t="s">
         <v>1750</v>
       </c>
       <c r="D429" t="s">
@@ -18480,7 +18554,7 @@
       <c r="B431" t="s">
         <v>1756</v>
       </c>
-      <c r="C431" s="76" t="s">
+      <c r="C431" s="78" t="s">
         <v>1757</v>
       </c>
       <c r="D431" t="s">
@@ -18494,7 +18568,7 @@
       <c r="B432" t="s">
         <v>1760</v>
       </c>
-      <c r="C432" s="76" t="s">
+      <c r="C432" s="78" t="s">
         <v>1761</v>
       </c>
       <c r="D432" t="s">
@@ -18541,7 +18615,7 @@
       <c r="A436" t="s">
         <v>1772</v>
       </c>
-      <c r="C436" s="76" t="s">
+      <c r="C436" s="78" t="s">
         <v>1773</v>
       </c>
       <c r="D436" t="s">
@@ -18648,7 +18722,7 @@
       <c r="B444" t="s">
         <v>1800</v>
       </c>
-      <c r="C444" s="76" t="s">
+      <c r="C444" s="78" t="s">
         <v>1801</v>
       </c>
       <c r="D444" t="s">
@@ -18698,7 +18772,7 @@
       <c r="B448" t="s">
         <v>1813</v>
       </c>
-      <c r="C448" s="76" t="s">
+      <c r="C448" s="78" t="s">
         <v>1814</v>
       </c>
       <c r="D448" t="s">
@@ -18712,7 +18786,7 @@
       <c r="B449" t="s">
         <v>1817</v>
       </c>
-      <c r="C449" s="76" t="s">
+      <c r="C449" s="78" t="s">
         <v>1818</v>
       </c>
     </row>
@@ -18723,7 +18797,7 @@
       <c r="B450" t="s">
         <v>1820</v>
       </c>
-      <c r="C450" s="76" t="s">
+      <c r="C450" s="78" t="s">
         <v>1821</v>
       </c>
       <c r="D450" t="s">
@@ -18740,7 +18814,7 @@
       <c r="B451" t="s">
         <v>1825</v>
       </c>
-      <c r="C451" s="76" t="s">
+      <c r="C451" s="78" t="s">
         <v>1826</v>
       </c>
       <c r="D451" t="s">
@@ -18754,7 +18828,7 @@
       <c r="B452" t="s">
         <v>1829</v>
       </c>
-      <c r="C452" s="76" t="s">
+      <c r="C452" s="78" t="s">
         <v>1830</v>
       </c>
       <c r="D452" t="s">
@@ -18819,7 +18893,7 @@
       <c r="B457" t="s">
         <v>1846</v>
       </c>
-      <c r="C457" s="76" t="s">
+      <c r="C457" s="78" t="s">
         <v>1847</v>
       </c>
       <c r="D457" t="s">
@@ -18851,7 +18925,7 @@
       <c r="B459" t="s">
         <v>1855</v>
       </c>
-      <c r="C459" s="78" t="s">
+      <c r="C459" s="80" t="s">
         <v>1856</v>
       </c>
       <c r="D459" t="s">
@@ -18865,7 +18939,7 @@
       <c r="B460" t="s">
         <v>1859</v>
       </c>
-      <c r="C460" s="76" t="s">
+      <c r="C460" s="78" t="s">
         <v>1860</v>
       </c>
       <c r="D460" t="s">
@@ -18882,7 +18956,7 @@
       <c r="B461" t="s">
         <v>1864</v>
       </c>
-      <c r="C461" s="78" t="s">
+      <c r="C461" s="80" t="s">
         <v>1865</v>
       </c>
       <c r="E461" t="s">
@@ -18908,7 +18982,7 @@
       <c r="B463" t="s">
         <v>1871</v>
       </c>
-      <c r="C463" s="76" t="s">
+      <c r="C463" s="78" t="s">
         <v>1872</v>
       </c>
       <c r="D463" t="s">
@@ -18937,7 +19011,7 @@
       <c r="B465" t="s">
         <v>1879</v>
       </c>
-      <c r="C465" s="76" t="s">
+      <c r="C465" s="78" t="s">
         <v>1880</v>
       </c>
       <c r="D465" t="s">
@@ -18954,7 +19028,7 @@
       <c r="B466" t="s">
         <v>1884</v>
       </c>
-      <c r="C466" s="78" t="s">
+      <c r="C466" s="80" t="s">
         <v>1885</v>
       </c>
       <c r="D466" t="s">
@@ -18971,7 +19045,7 @@
       <c r="B467" t="s">
         <v>1889</v>
       </c>
-      <c r="C467" s="76" t="s">
+      <c r="C467" s="78" t="s">
         <v>1890</v>
       </c>
       <c r="D467" t="s">
@@ -19024,7 +19098,7 @@
       <c r="B471" t="s">
         <v>1903</v>
       </c>
-      <c r="C471" s="76" t="s">
+      <c r="C471" s="78" t="s">
         <v>1904</v>
       </c>
       <c r="D471" t="s">
@@ -19038,7 +19112,7 @@
       <c r="B472" t="s">
         <v>1907</v>
       </c>
-      <c r="C472" s="76" t="s">
+      <c r="C472" s="78" t="s">
         <v>1908</v>
       </c>
       <c r="D472" t="s">
@@ -19076,7 +19150,7 @@
       <c r="B475" t="s">
         <v>1917</v>
       </c>
-      <c r="C475" s="76" t="s">
+      <c r="C475" s="78" t="s">
         <v>1918</v>
       </c>
       <c r="D475" t="s">
@@ -19090,7 +19164,7 @@
       <c r="B476" t="s">
         <v>1921</v>
       </c>
-      <c r="C476" s="76" t="s">
+      <c r="C476" s="78" t="s">
         <v>1922</v>
       </c>
       <c r="D476" t="s">
@@ -19134,7 +19208,7 @@
       <c r="B479" t="s">
         <v>1933</v>
       </c>
-      <c r="C479" s="76" t="s">
+      <c r="C479" s="78" t="s">
         <v>1934</v>
       </c>
       <c r="D479" t="s">
@@ -19160,7 +19234,7 @@
       <c r="B481" t="s">
         <v>1940</v>
       </c>
-      <c r="C481" s="76" t="s">
+      <c r="C481" s="78" t="s">
         <v>1941</v>
       </c>
       <c r="D481" t="s">
@@ -19192,7 +19266,7 @@
       <c r="B483" t="s">
         <v>1949</v>
       </c>
-      <c r="C483" s="76" t="s">
+      <c r="C483" s="78" t="s">
         <v>1950</v>
       </c>
       <c r="E483" t="s">
@@ -19206,7 +19280,7 @@
       <c r="B484" t="s">
         <v>1953</v>
       </c>
-      <c r="C484" s="76" t="s">
+      <c r="C484" s="78" t="s">
         <v>1954</v>
       </c>
       <c r="D484" t="s">
@@ -19223,7 +19297,7 @@
       <c r="B485" t="s">
         <v>1958</v>
       </c>
-      <c r="C485" s="76" t="s">
+      <c r="C485" s="78" t="s">
         <v>1959</v>
       </c>
       <c r="D485" t="s">
@@ -19261,7 +19335,7 @@
       <c r="B488" t="s">
         <v>1968</v>
       </c>
-      <c r="C488" s="76" t="s">
+      <c r="C488" s="78" t="s">
         <v>1969</v>
       </c>
       <c r="D488" t="s">
@@ -19290,7 +19364,7 @@
       <c r="B490" t="s">
         <v>1976</v>
       </c>
-      <c r="C490" s="76" t="s">
+      <c r="C490" s="78" t="s">
         <v>1977</v>
       </c>
       <c r="D490" t="s">
@@ -19319,7 +19393,7 @@
       <c r="B492" t="s">
         <v>1984</v>
       </c>
-      <c r="C492" s="76" t="s">
+      <c r="C492" s="78" t="s">
         <v>1985</v>
       </c>
       <c r="D492" t="s">
@@ -19336,7 +19410,7 @@
       <c r="B493" t="s">
         <v>1989</v>
       </c>
-      <c r="C493" s="76" t="s">
+      <c r="C493" s="78" t="s">
         <v>1990</v>
       </c>
       <c r="D493" t="s">
@@ -19353,7 +19427,7 @@
       <c r="B494" t="s">
         <v>1994</v>
       </c>
-      <c r="C494" s="76" t="s">
+      <c r="C494" s="78" t="s">
         <v>1995</v>
       </c>
       <c r="D494" t="s">
@@ -19370,7 +19444,7 @@
       <c r="B495" t="s">
         <v>1999</v>
       </c>
-      <c r="C495" s="76" t="s">
+      <c r="C495" s="78" t="s">
         <v>2000</v>
       </c>
       <c r="D495" t="s">
@@ -19399,7 +19473,7 @@
       <c r="B497" t="s">
         <v>2007</v>
       </c>
-      <c r="C497" s="76" t="s">
+      <c r="C497" s="78" t="s">
         <v>2008</v>
       </c>
       <c r="D497" t="s">
@@ -19416,7 +19490,7 @@
       <c r="B498" t="s">
         <v>2012</v>
       </c>
-      <c r="C498" s="76" t="s">
+      <c r="C498" s="78" t="s">
         <v>2013</v>
       </c>
       <c r="D498" t="s">
@@ -19433,7 +19507,7 @@
       <c r="B499" t="s">
         <v>2017</v>
       </c>
-      <c r="C499" s="76" t="s">
+      <c r="C499" s="78" t="s">
         <v>2018</v>
       </c>
       <c r="D499" t="s">
@@ -19450,7 +19524,7 @@
       <c r="B500" t="s">
         <v>2022</v>
       </c>
-      <c r="C500" s="76" t="s">
+      <c r="C500" s="78" t="s">
         <v>2023</v>
       </c>
       <c r="D500" t="s">
@@ -19476,7 +19550,7 @@
       <c r="B502" t="s">
         <v>2029</v>
       </c>
-      <c r="C502" s="76" t="s">
+      <c r="C502" s="78" t="s">
         <v>2030</v>
       </c>
       <c r="D502" t="s">
@@ -19493,7 +19567,7 @@
       <c r="B503" t="s">
         <v>2034</v>
       </c>
-      <c r="C503" s="76" t="s">
+      <c r="C503" s="78" t="s">
         <v>2035</v>
       </c>
       <c r="D503" t="s">
@@ -19510,7 +19584,7 @@
       <c r="B504" t="s">
         <v>2039</v>
       </c>
-      <c r="C504" s="76" t="s">
+      <c r="C504" s="78" t="s">
         <v>2040</v>
       </c>
       <c r="D504" t="s">
@@ -19560,7 +19634,7 @@
       <c r="B508" t="s">
         <v>2052</v>
       </c>
-      <c r="C508" s="78" t="s">
+      <c r="C508" s="80" t="s">
         <v>2053</v>
       </c>
       <c r="D508" t="s">
@@ -19577,7 +19651,7 @@
       <c r="B509" t="s">
         <v>2057</v>
       </c>
-      <c r="C509" s="76" t="s">
+      <c r="C509" s="78" t="s">
         <v>2058</v>
       </c>
       <c r="D509" t="s">
@@ -19591,7 +19665,7 @@
       <c r="B510" t="s">
         <v>2061</v>
       </c>
-      <c r="C510" s="76" t="s">
+      <c r="C510" s="78" t="s">
         <v>2062</v>
       </c>
       <c r="D510" t="s">
@@ -19605,7 +19679,7 @@
       <c r="B511" t="s">
         <v>2065</v>
       </c>
-      <c r="C511" s="76" t="s">
+      <c r="C511" s="78" t="s">
         <v>2066</v>
       </c>
       <c r="D511" t="s">
@@ -19622,7 +19696,7 @@
       <c r="B512" t="s">
         <v>2070</v>
       </c>
-      <c r="C512" s="76" t="s">
+      <c r="C512" s="78" t="s">
         <v>2071</v>
       </c>
       <c r="D512" t="s">
@@ -19639,7 +19713,7 @@
       <c r="B513" t="s">
         <v>2075</v>
       </c>
-      <c r="C513" s="76" t="s">
+      <c r="C513" s="78" t="s">
         <v>2076</v>
       </c>
       <c r="D513" t="s">
@@ -19656,7 +19730,7 @@
       <c r="B514" t="s">
         <v>2080</v>
       </c>
-      <c r="C514" s="76" t="s">
+      <c r="C514" s="78" t="s">
         <v>2081</v>
       </c>
       <c r="D514" t="s">
@@ -19682,7 +19756,7 @@
       <c r="B516" t="s">
         <v>2086</v>
       </c>
-      <c r="C516" s="76" t="s">
+      <c r="C516" s="78" t="s">
         <v>2087</v>
       </c>
       <c r="D516" t="s">
@@ -19753,7 +19827,7 @@
       <c r="B521" t="s">
         <v>2105</v>
       </c>
-      <c r="C521" s="76" t="s">
+      <c r="C521" s="78" t="s">
         <v>2106</v>
       </c>
       <c r="D521" t="s">
@@ -19770,7 +19844,7 @@
       <c r="B522" t="s">
         <v>2110</v>
       </c>
-      <c r="C522" s="76" t="s">
+      <c r="C522" s="78" t="s">
         <v>2111</v>
       </c>
       <c r="D522" t="s">
@@ -19784,7 +19858,7 @@
       <c r="B523" t="s">
         <v>2113</v>
       </c>
-      <c r="C523" s="76" t="s">
+      <c r="C523" s="78" t="s">
         <v>2114</v>
       </c>
       <c r="D523" t="s">
@@ -19801,7 +19875,7 @@
       <c r="B524" t="s">
         <v>2118</v>
       </c>
-      <c r="C524" s="76" t="s">
+      <c r="C524" s="78" t="s">
         <v>2119</v>
       </c>
       <c r="D524" t="s">
@@ -19830,7 +19904,7 @@
       <c r="B526" t="s">
         <v>2126</v>
       </c>
-      <c r="C526" s="76" t="s">
+      <c r="C526" s="78" t="s">
         <v>2127</v>
       </c>
       <c r="D526" t="s">
@@ -19856,7 +19930,7 @@
       <c r="B528" t="s">
         <v>2133</v>
       </c>
-      <c r="C528" s="76" t="s">
+      <c r="C528" s="78" t="s">
         <v>2134</v>
       </c>
       <c r="D528" t="s">
@@ -19873,7 +19947,7 @@
       <c r="B529" t="s">
         <v>2138</v>
       </c>
-      <c r="C529" s="76" t="s">
+      <c r="C529" s="78" t="s">
         <v>2139</v>
       </c>
       <c r="D529" t="s">
@@ -19890,7 +19964,7 @@
       <c r="B530" t="s">
         <v>2143</v>
       </c>
-      <c r="C530" s="76" t="s">
+      <c r="C530" s="78" t="s">
         <v>2144</v>
       </c>
       <c r="D530" t="s">
@@ -19907,7 +19981,7 @@
       <c r="B531" t="s">
         <v>2148</v>
       </c>
-      <c r="C531" s="76" t="s">
+      <c r="C531" s="78" t="s">
         <v>2149</v>
       </c>
       <c r="D531" t="s">
@@ -19924,7 +19998,7 @@
       <c r="B532" t="s">
         <v>2153</v>
       </c>
-      <c r="C532" s="76" t="s">
+      <c r="C532" s="78" t="s">
         <v>2154</v>
       </c>
       <c r="D532" t="s">
@@ -19950,7 +20024,7 @@
       <c r="B534" t="s">
         <v>2160</v>
       </c>
-      <c r="C534" s="76" t="s">
+      <c r="C534" s="78" t="s">
         <v>2161</v>
       </c>
       <c r="D534" t="s">
@@ -19967,7 +20041,7 @@
       <c r="B535" t="s">
         <v>2165</v>
       </c>
-      <c r="C535" s="76" t="s">
+      <c r="C535" s="78" t="s">
         <v>2166</v>
       </c>
       <c r="E535" t="s">
@@ -19981,7 +20055,7 @@
       <c r="B536" t="s">
         <v>2169</v>
       </c>
-      <c r="C536" s="76" t="s">
+      <c r="C536" s="78" t="s">
         <v>2170</v>
       </c>
       <c r="D536" t="s">
@@ -20007,7 +20081,7 @@
       <c r="B538" t="s">
         <v>2176</v>
       </c>
-      <c r="C538" s="76" t="s">
+      <c r="C538" s="78" t="s">
         <v>2177</v>
       </c>
       <c r="D538" t="s">
@@ -20102,7 +20176,7 @@
       <c r="B545" t="s">
         <v>2201</v>
       </c>
-      <c r="C545" s="76" t="s">
+      <c r="C545" s="78" t="s">
         <v>2202</v>
       </c>
       <c r="D545" t="s">
@@ -20119,7 +20193,7 @@
       <c r="B546" t="s">
         <v>2206</v>
       </c>
-      <c r="C546" s="76" t="s">
+      <c r="C546" s="78" t="s">
         <v>2207</v>
       </c>
       <c r="D546" t="s">
@@ -20133,7 +20207,7 @@
       <c r="B547" t="s">
         <v>2210</v>
       </c>
-      <c r="C547" s="76" t="s">
+      <c r="C547" s="78" t="s">
         <v>2211</v>
       </c>
       <c r="D547" t="s">
@@ -20150,7 +20224,7 @@
       <c r="B548" t="s">
         <v>2215</v>
       </c>
-      <c r="C548" s="78" t="s">
+      <c r="C548" s="80" t="s">
         <v>2216</v>
       </c>
       <c r="D548" t="s">
@@ -20167,7 +20241,7 @@
       <c r="B549" t="s">
         <v>2220</v>
       </c>
-      <c r="C549" s="76" t="s">
+      <c r="C549" s="78" t="s">
         <v>2221</v>
       </c>
       <c r="D549" t="s">
@@ -20193,7 +20267,7 @@
       <c r="B551" t="s">
         <v>2227</v>
       </c>
-      <c r="C551" s="76" t="s">
+      <c r="C551" s="78" t="s">
         <v>2228</v>
       </c>
       <c r="D551" t="s">
@@ -20207,7 +20281,7 @@
       <c r="B552" t="s">
         <v>2231</v>
       </c>
-      <c r="C552" s="76" t="s">
+      <c r="C552" s="78" t="s">
         <v>2232</v>
       </c>
       <c r="D552" t="s">
@@ -20248,7 +20322,7 @@
       <c r="B555" t="s">
         <v>2242</v>
       </c>
-      <c r="C555" s="76" t="s">
+      <c r="C555" s="78" t="s">
         <v>2243</v>
       </c>
       <c r="D555" t="s">
@@ -20262,7 +20336,7 @@
       <c r="B556" t="s">
         <v>2246</v>
       </c>
-      <c r="C556" s="76" t="s">
+      <c r="C556" s="78" t="s">
         <v>2247</v>
       </c>
       <c r="D556" t="s">
@@ -20291,7 +20365,7 @@
       <c r="B558" t="s">
         <v>2254</v>
       </c>
-      <c r="C558" s="76" t="s">
+      <c r="C558" s="78" t="s">
         <v>2255</v>
       </c>
       <c r="D558" t="s">
@@ -20308,7 +20382,7 @@
       <c r="B559" t="s">
         <v>2259</v>
       </c>
-      <c r="C559" s="76" t="s">
+      <c r="C559" s="78" t="s">
         <v>2260</v>
       </c>
       <c r="D559" t="s">
@@ -20400,7 +20474,7 @@
       <c r="B566" t="s">
         <v>2283</v>
       </c>
-      <c r="C566" s="76" t="s">
+      <c r="C566" s="78" t="s">
         <v>2284</v>
       </c>
       <c r="D566" t="s">
@@ -20414,7 +20488,7 @@
       <c r="B567" t="s">
         <v>2287</v>
       </c>
-      <c r="C567" s="76" t="s">
+      <c r="C567" s="78" t="s">
         <v>2288</v>
       </c>
       <c r="D567" t="s">
@@ -20428,7 +20502,7 @@
       <c r="B568" t="s">
         <v>2291</v>
       </c>
-      <c r="C568" s="76" t="s">
+      <c r="C568" s="78" t="s">
         <v>2292</v>
       </c>
       <c r="D568" t="s">
@@ -20445,7 +20519,7 @@
       <c r="B569" t="s">
         <v>2296</v>
       </c>
-      <c r="C569" s="76" t="s">
+      <c r="C569" s="78" t="s">
         <v>2297</v>
       </c>
       <c r="D569" t="s">
@@ -20462,7 +20536,7 @@
       <c r="B570" t="s">
         <v>2301</v>
       </c>
-      <c r="C570" s="76" t="s">
+      <c r="C570" s="78" t="s">
         <v>2302</v>
       </c>
       <c r="D570" t="s">
@@ -20488,7 +20562,7 @@
       <c r="B572" t="s">
         <v>2308</v>
       </c>
-      <c r="C572" s="76" t="s">
+      <c r="C572" s="78" t="s">
         <v>2309</v>
       </c>
       <c r="D572" t="s">
@@ -20520,7 +20594,7 @@
       <c r="B574" t="s">
         <v>2317</v>
       </c>
-      <c r="C574" s="76" t="s">
+      <c r="C574" s="78" t="s">
         <v>2318</v>
       </c>
       <c r="D574" t="s">
@@ -20552,7 +20626,7 @@
       <c r="B576" t="s">
         <v>2326</v>
       </c>
-      <c r="C576" s="76" t="s">
+      <c r="C576" s="78" t="s">
         <v>2327</v>
       </c>
       <c r="D576" t="s">
@@ -20569,7 +20643,7 @@
       <c r="B577" t="s">
         <v>2331</v>
       </c>
-      <c r="C577" s="76" t="s">
+      <c r="C577" s="78" t="s">
         <v>2332</v>
       </c>
       <c r="D577" t="s">
@@ -20586,7 +20660,7 @@
       <c r="B578" t="s">
         <v>2336</v>
       </c>
-      <c r="C578" s="76" t="s">
+      <c r="C578" s="78" t="s">
         <v>2337</v>
       </c>
       <c r="D578" t="s">
@@ -20600,7 +20674,7 @@
       <c r="B579" t="s">
         <v>2340</v>
       </c>
-      <c r="C579" s="76" t="s">
+      <c r="C579" s="78" t="s">
         <v>2341</v>
       </c>
       <c r="D579" t="s">
@@ -20617,7 +20691,7 @@
       <c r="B580" t="s">
         <v>2345</v>
       </c>
-      <c r="C580" s="76" t="s">
+      <c r="C580" s="78" t="s">
         <v>2346</v>
       </c>
       <c r="D580" t="s">
@@ -20634,7 +20708,7 @@
       <c r="B581" t="s">
         <v>2350</v>
       </c>
-      <c r="C581" s="76" t="s">
+      <c r="C581" s="78" t="s">
         <v>2351</v>
       </c>
       <c r="D581" t="s">
@@ -20690,7 +20764,7 @@
       <c r="B585" t="s">
         <v>2365</v>
       </c>
-      <c r="C585" s="76" t="s">
+      <c r="C585" s="78" t="s">
         <v>2366</v>
       </c>
       <c r="D585" t="s">
@@ -20713,7 +20787,7 @@
       <c r="B587" t="s">
         <v>2371</v>
       </c>
-      <c r="C587" s="76" t="s">
+      <c r="C587" s="78" t="s">
         <v>2372</v>
       </c>
       <c r="D587" t="s">
@@ -20748,7 +20822,7 @@
       <c r="B590" t="s">
         <v>2380</v>
       </c>
-      <c r="C590" s="78" t="s">
+      <c r="C590" s="80" t="s">
         <v>2381</v>
       </c>
       <c r="D590" t="s">
@@ -20774,7 +20848,7 @@
       <c r="B592" t="s">
         <v>2387</v>
       </c>
-      <c r="C592" s="76" t="s">
+      <c r="C592" s="78" t="s">
         <v>2388</v>
       </c>
       <c r="E592" t="s">
@@ -20800,7 +20874,7 @@
       <c r="B594" t="s">
         <v>2394</v>
       </c>
-      <c r="C594" s="76" t="s">
+      <c r="C594" s="78" t="s">
         <v>2395</v>
       </c>
       <c r="D594" t="s">
@@ -20853,7 +20927,7 @@
       <c r="B598" t="s">
         <v>2408</v>
       </c>
-      <c r="C598" s="76" t="s">
+      <c r="C598" s="78" t="s">
         <v>2409</v>
       </c>
       <c r="D598" t="s">
@@ -20957,7 +21031,7 @@
       <c r="B606" t="s">
         <v>2435</v>
       </c>
-      <c r="C606" s="76" t="s">
+      <c r="C606" s="78" t="s">
         <v>2436</v>
       </c>
       <c r="D606" t="s">
@@ -20983,7 +21057,7 @@
       <c r="B608" t="s">
         <v>2442</v>
       </c>
-      <c r="C608" s="76" t="s">
+      <c r="C608" s="78" t="s">
         <v>2443</v>
       </c>
       <c r="D608" t="s">
@@ -21012,7 +21086,7 @@
       <c r="B610" t="s">
         <v>2450</v>
       </c>
-      <c r="C610" s="76" t="s">
+      <c r="C610" s="78" t="s">
         <v>2451</v>
       </c>
       <c r="E610" t="s">
@@ -21065,7 +21139,7 @@
       <c r="B614" t="s">
         <v>2464</v>
       </c>
-      <c r="C614" s="76" t="s">
+      <c r="C614" s="78" t="s">
         <v>2465</v>
       </c>
       <c r="D614" t="s">
@@ -21091,7 +21165,7 @@
       <c r="B616" t="s">
         <v>2471</v>
       </c>
-      <c r="C616" s="76" t="s">
+      <c r="C616" s="78" t="s">
         <v>2472</v>
       </c>
       <c r="D616" t="s">
@@ -21123,7 +21197,7 @@
       <c r="B618" t="s">
         <v>2480</v>
       </c>
-      <c r="C618" s="76" t="s">
+      <c r="C618" s="78" t="s">
         <v>2481</v>
       </c>
       <c r="D618" t="s">
@@ -21167,7 +21241,7 @@
       <c r="B621" t="s">
         <v>2491</v>
       </c>
-      <c r="C621" s="76" t="s">
+      <c r="C621" s="78" t="s">
         <v>2492</v>
       </c>
       <c r="D621" t="s">
@@ -21184,7 +21258,7 @@
       <c r="B622" t="s">
         <v>2496</v>
       </c>
-      <c r="C622" s="76" t="s">
+      <c r="C622" s="78" t="s">
         <v>2497</v>
       </c>
       <c r="D622" t="s">
@@ -21201,7 +21275,7 @@
       <c r="B623" t="s">
         <v>2501</v>
       </c>
-      <c r="C623" s="76" t="s">
+      <c r="C623" s="78" t="s">
         <v>2502</v>
       </c>
       <c r="D623" t="s">
@@ -21218,7 +21292,7 @@
       <c r="B624" t="s">
         <v>2506</v>
       </c>
-      <c r="C624" s="76" t="s">
+      <c r="C624" s="78" t="s">
         <v>2507</v>
       </c>
       <c r="D624" t="s">
@@ -21235,7 +21309,7 @@
       <c r="B625" t="s">
         <v>2511</v>
       </c>
-      <c r="C625" s="76" t="s">
+      <c r="C625" s="78" t="s">
         <v>2512</v>
       </c>
       <c r="D625" t="s">
@@ -21279,7 +21353,7 @@
       <c r="B629" t="s">
         <v>2522</v>
       </c>
-      <c r="C629" s="76" t="s">
+      <c r="C629" s="78" t="s">
         <v>2523</v>
       </c>
       <c r="D629" t="s">
@@ -21296,7 +21370,7 @@
       <c r="B630" t="s">
         <v>2527</v>
       </c>
-      <c r="C630" s="76" t="s">
+      <c r="C630" s="78" t="s">
         <v>2528</v>
       </c>
       <c r="D630" t="s">
@@ -21310,7 +21384,7 @@
       <c r="B631" t="s">
         <v>2531</v>
       </c>
-      <c r="C631" s="76" t="s">
+      <c r="C631" s="78" t="s">
         <v>2532</v>
       </c>
       <c r="D631" t="s">
@@ -21357,7 +21431,7 @@
       <c r="B635" t="s">
         <v>2543</v>
       </c>
-      <c r="C635" s="76" t="s">
+      <c r="C635" s="78" t="s">
         <v>2544</v>
       </c>
       <c r="D635" t="s">
@@ -21383,7 +21457,7 @@
       <c r="B637" t="s">
         <v>2550</v>
       </c>
-      <c r="C637" s="76" t="s">
+      <c r="C637" s="78" t="s">
         <v>2551</v>
       </c>
       <c r="D637" t="s">
@@ -21409,7 +21483,7 @@
       <c r="B639" t="s">
         <v>2557</v>
       </c>
-      <c r="C639" s="76" t="s">
+      <c r="C639" s="78" t="s">
         <v>2558</v>
       </c>
       <c r="D639" t="s">
@@ -21426,7 +21500,7 @@
       <c r="B640" t="s">
         <v>2562</v>
       </c>
-      <c r="C640" s="76" t="s">
+      <c r="C640" s="78" t="s">
         <v>2563</v>
       </c>
       <c r="D640" t="s">
@@ -21443,7 +21517,7 @@
       <c r="B641" t="s">
         <v>2567</v>
       </c>
-      <c r="C641" s="76" t="s">
+      <c r="C641" s="78" t="s">
         <v>2568</v>
       </c>
       <c r="D641" t="s">
@@ -21460,7 +21534,7 @@
       <c r="B642" t="s">
         <v>2572</v>
       </c>
-      <c r="C642" s="76" t="s">
+      <c r="C642" s="78" t="s">
         <v>2573</v>
       </c>
       <c r="D642" t="s">
@@ -21477,7 +21551,7 @@
       <c r="B643" t="s">
         <v>2577</v>
       </c>
-      <c r="C643" s="76" t="s">
+      <c r="C643" s="78" t="s">
         <v>2578</v>
       </c>
       <c r="D643" t="s">
@@ -21521,7 +21595,7 @@
       <c r="B646" t="s">
         <v>2589</v>
       </c>
-      <c r="C646" s="76" t="s">
+      <c r="C646" s="78" t="s">
         <v>2590</v>
       </c>
       <c r="D646" t="s">
@@ -21559,7 +21633,7 @@
       <c r="B649" t="s">
         <v>2598</v>
       </c>
-      <c r="C649" s="76" t="s">
+      <c r="C649" s="78" t="s">
         <v>2599</v>
       </c>
       <c r="D649" t="s">
@@ -21576,7 +21650,7 @@
       <c r="B650" t="s">
         <v>2603</v>
       </c>
-      <c r="C650" s="76" t="s">
+      <c r="C650" s="78" t="s">
         <v>2604</v>
       </c>
       <c r="D650" t="s">
@@ -21605,7 +21679,7 @@
       <c r="B652" t="s">
         <v>2611</v>
       </c>
-      <c r="C652" s="76" t="s">
+      <c r="C652" s="78" t="s">
         <v>2612</v>
       </c>
       <c r="D652" t="s">
@@ -21655,7 +21729,7 @@
       <c r="B656" t="s">
         <v>2624</v>
       </c>
-      <c r="C656" s="76" t="s">
+      <c r="C656" s="78" t="s">
         <v>2625</v>
       </c>
       <c r="D656" t="s">
@@ -21672,7 +21746,7 @@
       <c r="B657" t="s">
         <v>2629</v>
       </c>
-      <c r="C657" s="76" t="s">
+      <c r="C657" s="78" t="s">
         <v>2630</v>
       </c>
       <c r="D657" t="s">
@@ -21749,7 +21823,7 @@
       <c r="B663" t="s">
         <v>2649</v>
       </c>
-      <c r="C663" s="76" t="s">
+      <c r="C663" s="78" t="s">
         <v>2650</v>
       </c>
       <c r="D663" t="s">
@@ -21775,7 +21849,7 @@
       <c r="B665" t="s">
         <v>2656</v>
       </c>
-      <c r="C665" s="76" t="s">
+      <c r="C665" s="78" t="s">
         <v>2657</v>
       </c>
       <c r="D665" t="s">
@@ -21801,7 +21875,7 @@
       <c r="B667" t="s">
         <v>2550</v>
       </c>
-      <c r="C667" s="76" t="s">
+      <c r="C667" s="78" t="s">
         <v>2551</v>
       </c>
       <c r="D667" t="s">
@@ -21830,7 +21904,7 @@
       <c r="B669" t="s">
         <v>2669</v>
       </c>
-      <c r="C669" s="76" t="s">
+      <c r="C669" s="78" t="s">
         <v>2670</v>
       </c>
       <c r="D669" t="s">
@@ -21862,7 +21936,7 @@
       <c r="B671" t="s">
         <v>2678</v>
       </c>
-      <c r="C671" s="76" t="s">
+      <c r="C671" s="78" t="s">
         <v>2679</v>
       </c>
       <c r="D671" t="s">
@@ -21903,7 +21977,7 @@
       <c r="B674" t="s">
         <v>2689</v>
       </c>
-      <c r="C674" s="76" t="s">
+      <c r="C674" s="78" t="s">
         <v>2690</v>
       </c>
       <c r="D674" t="s">
@@ -21920,7 +21994,7 @@
       <c r="B675" t="s">
         <v>2694</v>
       </c>
-      <c r="C675" s="76" t="s">
+      <c r="C675" s="78" t="s">
         <v>2695</v>
       </c>
       <c r="D675" t="s">
@@ -21937,7 +22011,7 @@
       <c r="B676" t="s">
         <v>2699</v>
       </c>
-      <c r="C676" s="76" t="s">
+      <c r="C676" s="78" t="s">
         <v>2700</v>
       </c>
       <c r="D676" t="s">
@@ -21996,7 +22070,7 @@
       <c r="B680" t="s">
         <v>2715</v>
       </c>
-      <c r="C680" s="78" t="s">
+      <c r="C680" s="80" t="s">
         <v>2716</v>
       </c>
       <c r="D680" t="s">
@@ -22013,7 +22087,7 @@
       <c r="B681" t="s">
         <v>2720</v>
       </c>
-      <c r="C681" s="76" t="s">
+      <c r="C681" s="78" t="s">
         <v>2721</v>
       </c>
       <c r="D681" t="s">
@@ -22045,7 +22119,7 @@
       <c r="B683" t="s">
         <v>2729</v>
       </c>
-      <c r="C683" s="76" t="s">
+      <c r="C683" s="78" t="s">
         <v>2730</v>
       </c>
       <c r="D683" t="s">
@@ -22071,7 +22145,7 @@
       <c r="B685" t="s">
         <v>2736</v>
       </c>
-      <c r="C685" s="76" t="s">
+      <c r="C685" s="78" t="s">
         <v>2737</v>
       </c>
       <c r="D685" t="s">
@@ -22088,7 +22162,7 @@
       <c r="B686" t="s">
         <v>2741</v>
       </c>
-      <c r="C686" s="76" t="s">
+      <c r="C686" s="78" t="s">
         <v>2742</v>
       </c>
       <c r="D686" t="s">
@@ -22114,7 +22188,7 @@
       <c r="B688" t="s">
         <v>2748</v>
       </c>
-      <c r="C688" s="76" t="s">
+      <c r="C688" s="78" t="s">
         <v>2749</v>
       </c>
       <c r="D688" t="s">
@@ -22185,7 +22259,7 @@
       <c r="B693" t="s">
         <v>2767</v>
       </c>
-      <c r="C693" s="76" t="s">
+      <c r="C693" s="78" t="s">
         <v>2768</v>
       </c>
       <c r="D693" t="s">
@@ -22199,7 +22273,7 @@
       <c r="B694" t="s">
         <v>2771</v>
       </c>
-      <c r="C694" s="76" t="s">
+      <c r="C694" s="78" t="s">
         <v>2772</v>
       </c>
       <c r="D694" t="s">
@@ -22249,7 +22323,7 @@
       <c r="B698" t="s">
         <v>2784</v>
       </c>
-      <c r="C698" s="76" t="s">
+      <c r="C698" s="78" t="s">
         <v>2785</v>
       </c>
       <c r="D698" t="s">
@@ -22278,7 +22352,7 @@
       <c r="B700" t="s">
         <v>2792</v>
       </c>
-      <c r="C700" s="76" t="s">
+      <c r="C700" s="78" t="s">
         <v>2793</v>
       </c>
       <c r="E700" t="s">
@@ -22292,7 +22366,7 @@
       <c r="B701" t="s">
         <v>2796</v>
       </c>
-      <c r="C701" s="76" t="s">
+      <c r="C701" s="78" t="s">
         <v>2797</v>
       </c>
       <c r="D701" t="s">
@@ -22324,7 +22398,7 @@
       <c r="B703" t="s">
         <v>2805</v>
       </c>
-      <c r="C703" s="76" t="s">
+      <c r="C703" s="78" t="s">
         <v>2806</v>
       </c>
       <c r="D703" t="s">
@@ -22350,7 +22424,7 @@
       <c r="B705" t="s">
         <v>2812</v>
       </c>
-      <c r="C705" s="78" t="s">
+      <c r="C705" s="80" t="s">
         <v>2813</v>
       </c>
       <c r="D705" t="s">
@@ -22391,7 +22465,7 @@
       <c r="B708" t="s">
         <v>2823</v>
       </c>
-      <c r="C708" s="76" t="s">
+      <c r="C708" s="78" t="s">
         <v>2824</v>
       </c>
       <c r="D708" t="s">
@@ -22408,7 +22482,7 @@
       <c r="B709" t="s">
         <v>2828</v>
       </c>
-      <c r="C709" s="78" t="s">
+      <c r="C709" s="80" t="s">
         <v>2829</v>
       </c>
       <c r="D709" t="s">
@@ -22437,7 +22511,7 @@
       <c r="B711" t="s">
         <v>2836</v>
       </c>
-      <c r="C711" s="76" t="s">
+      <c r="C711" s="78" t="s">
         <v>2837</v>
       </c>
       <c r="D711" t="s">
@@ -22454,7 +22528,7 @@
       <c r="B712" t="s">
         <v>2841</v>
       </c>
-      <c r="C712" s="76" t="s">
+      <c r="C712" s="78" t="s">
         <v>2842</v>
       </c>
       <c r="D712" t="s">
@@ -22477,7 +22551,7 @@
       <c r="B714" t="s">
         <v>2847</v>
       </c>
-      <c r="C714" s="76" t="s">
+      <c r="C714" s="78" t="s">
         <v>2848</v>
       </c>
       <c r="D714" t="s">
@@ -22524,7 +22598,7 @@
       <c r="B718" t="s">
         <v>2859</v>
       </c>
-      <c r="C718" s="76" t="s">
+      <c r="C718" s="78" t="s">
         <v>2860</v>
       </c>
       <c r="D718" t="s">
@@ -22553,7 +22627,7 @@
       <c r="B720" t="s">
         <v>2867</v>
       </c>
-      <c r="C720" s="76" t="s">
+      <c r="C720" s="78" t="s">
         <v>2868</v>
       </c>
       <c r="D720" t="s">
@@ -22570,7 +22644,7 @@
       <c r="B721" t="s">
         <v>2872</v>
       </c>
-      <c r="C721" s="76" t="s">
+      <c r="C721" s="78" t="s">
         <v>2873</v>
       </c>
       <c r="D721" t="s">
@@ -22584,7 +22658,7 @@
       <c r="B722" t="s">
         <v>2876</v>
       </c>
-      <c r="C722" s="76" t="s">
+      <c r="C722" s="78" t="s">
         <v>2877</v>
       </c>
       <c r="D722" t="s">
@@ -22601,7 +22675,7 @@
       <c r="B723" t="s">
         <v>2881</v>
       </c>
-      <c r="C723" s="76" t="s">
+      <c r="C723" s="78" t="s">
         <v>2882</v>
       </c>
       <c r="D723" t="s">
@@ -22675,7 +22749,7 @@
       <c r="B729" t="s">
         <v>2900</v>
       </c>
-      <c r="C729" s="76" t="s">
+      <c r="C729" s="78" t="s">
         <v>2901</v>
       </c>
       <c r="D729" t="s">
@@ -22698,7 +22772,7 @@
       <c r="B731" t="s">
         <v>2906</v>
       </c>
-      <c r="C731" s="76" t="s">
+      <c r="C731" s="78" t="s">
         <v>2907</v>
       </c>
       <c r="D731" t="s">
@@ -22739,7 +22813,7 @@
       <c r="B734" t="s">
         <v>2917</v>
       </c>
-      <c r="C734" s="76" t="s">
+      <c r="C734" s="78" t="s">
         <v>2918</v>
       </c>
       <c r="D734" t="s">
@@ -22756,7 +22830,7 @@
       <c r="B735" t="s">
         <v>2922</v>
       </c>
-      <c r="C735" s="76" t="s">
+      <c r="C735" s="78" t="s">
         <v>2923</v>
       </c>
       <c r="D735" t="s">
@@ -22773,7 +22847,7 @@
       <c r="B736" t="s">
         <v>2927</v>
       </c>
-      <c r="C736" s="76" t="s">
+      <c r="C736" s="78" t="s">
         <v>2928</v>
       </c>
       <c r="D736" t="s">
@@ -22787,7 +22861,7 @@
       <c r="B737" t="s">
         <v>2931</v>
       </c>
-      <c r="C737" s="76" t="s">
+      <c r="C737" s="78" t="s">
         <v>2932</v>
       </c>
       <c r="D737" t="s">
@@ -22804,7 +22878,7 @@
       <c r="B738" t="s">
         <v>2936</v>
       </c>
-      <c r="C738" s="76" t="s">
+      <c r="C738" s="78" t="s">
         <v>2937</v>
       </c>
       <c r="D738" t="s">
@@ -22821,7 +22895,7 @@
       <c r="B739" t="s">
         <v>2941</v>
       </c>
-      <c r="C739" s="76" t="s">
+      <c r="C739" s="78" t="s">
         <v>2942</v>
       </c>
       <c r="D739" t="s">
@@ -22838,7 +22912,7 @@
       <c r="B740" t="s">
         <v>2946</v>
       </c>
-      <c r="C740" s="76" t="s">
+      <c r="C740" s="78" t="s">
         <v>2947</v>
       </c>
       <c r="D740" t="s">
@@ -22855,7 +22929,7 @@
       <c r="B741" t="s">
         <v>2951</v>
       </c>
-      <c r="C741" s="78" t="s">
+      <c r="C741" s="80" t="s">
         <v>2952</v>
       </c>
       <c r="D741" t="s">
@@ -22872,7 +22946,7 @@
       <c r="B742" t="s">
         <v>2956</v>
       </c>
-      <c r="C742" s="78" t="s">
+      <c r="C742" s="80" t="s">
         <v>2957</v>
       </c>
       <c r="D742" t="s">
@@ -22886,7 +22960,7 @@
       <c r="B743" t="s">
         <v>2960</v>
       </c>
-      <c r="C743" s="76" t="s">
+      <c r="C743" s="78" t="s">
         <v>2961</v>
       </c>
       <c r="D743" t="s">
@@ -22903,7 +22977,7 @@
       <c r="B744" t="s">
         <v>2965</v>
       </c>
-      <c r="C744" s="76" t="s">
+      <c r="C744" s="78" t="s">
         <v>2966</v>
       </c>
       <c r="D744" t="s">
@@ -23025,7 +23099,7 @@
       <c r="B754" t="s">
         <v>2996</v>
       </c>
-      <c r="C754" s="76" t="s">
+      <c r="C754" s="78" t="s">
         <v>2997</v>
       </c>
       <c r="D754" t="s">
@@ -23042,7 +23116,7 @@
       <c r="B755" t="s">
         <v>3001</v>
       </c>
-      <c r="C755" s="76" t="s">
+      <c r="C755" s="78" t="s">
         <v>3002</v>
       </c>
       <c r="D755" t="s">
@@ -23059,7 +23133,7 @@
       <c r="B756" t="s">
         <v>3006</v>
       </c>
-      <c r="C756" s="76" t="s">
+      <c r="C756" s="78" t="s">
         <v>3007</v>
       </c>
       <c r="D756" t="s">
@@ -23076,7 +23150,7 @@
       <c r="B757" t="s">
         <v>3011</v>
       </c>
-      <c r="C757" s="76" t="s">
+      <c r="C757" s="78" t="s">
         <v>3012</v>
       </c>
       <c r="E757" t="s">
@@ -23090,7 +23164,7 @@
       <c r="B758" t="s">
         <v>3015</v>
       </c>
-      <c r="C758" s="76" t="s">
+      <c r="C758" s="78" t="s">
         <v>3016</v>
       </c>
       <c r="D758" t="s">
@@ -23128,7 +23202,7 @@
       <c r="B761" t="s">
         <v>3025</v>
       </c>
-      <c r="C761" s="76" t="s">
+      <c r="C761" s="78" t="s">
         <v>3026</v>
       </c>
       <c r="D761" t="s">
@@ -23214,7 +23288,7 @@
       <c r="B768" t="s">
         <v>3047</v>
       </c>
-      <c r="C768" s="76" t="s">
+      <c r="C768" s="78" t="s">
         <v>3048</v>
       </c>
       <c r="D768" t="s">
@@ -23228,7 +23302,7 @@
       <c r="B769" t="s">
         <v>3051</v>
       </c>
-      <c r="C769" s="76" t="s">
+      <c r="C769" s="78" t="s">
         <v>3052</v>
       </c>
       <c r="D769" t="s">
@@ -23269,7 +23343,7 @@
       <c r="B772" t="s">
         <v>3062</v>
       </c>
-      <c r="C772" s="76" t="s">
+      <c r="C772" s="78" t="s">
         <v>3063</v>
       </c>
       <c r="E772" t="s">
@@ -23310,7 +23384,7 @@
       <c r="B775" t="s">
         <v>3072</v>
       </c>
-      <c r="C775" s="76" t="s">
+      <c r="C775" s="78" t="s">
         <v>3073</v>
       </c>
       <c r="D775" t="s">
@@ -23327,7 +23401,7 @@
       <c r="B776" t="s">
         <v>3077</v>
       </c>
-      <c r="C776" s="76" t="s">
+      <c r="C776" s="78" t="s">
         <v>3078</v>
       </c>
       <c r="D776" t="s">
@@ -23344,7 +23418,7 @@
       <c r="B777" t="s">
         <v>3082</v>
       </c>
-      <c r="C777" s="76" t="s">
+      <c r="C777" s="78" t="s">
         <v>3083</v>
       </c>
       <c r="E777" t="s">
@@ -23382,7 +23456,7 @@
       <c r="B780" t="s">
         <v>3092</v>
       </c>
-      <c r="C780" s="76" t="s">
+      <c r="C780" s="78" t="s">
         <v>3093</v>
       </c>
       <c r="D780" t="s">
@@ -23423,7 +23497,7 @@
       <c r="B783" t="s">
         <v>3103</v>
       </c>
-      <c r="C783" s="76" t="s">
+      <c r="C783" s="78" t="s">
         <v>3104</v>
       </c>
       <c r="D783" t="s">
@@ -23437,7 +23511,7 @@
       <c r="B784" t="s">
         <v>3107</v>
       </c>
-      <c r="C784" s="76" t="s">
+      <c r="C784" s="78" t="s">
         <v>3108</v>
       </c>
       <c r="D784" t="s">
@@ -23478,7 +23552,7 @@
       <c r="B787" t="s">
         <v>3118</v>
       </c>
-      <c r="C787" s="76" t="s">
+      <c r="C787" s="78" t="s">
         <v>3119</v>
       </c>
       <c r="D787" t="s">
@@ -23504,7 +23578,7 @@
       <c r="B789" t="s">
         <v>3125</v>
       </c>
-      <c r="C789" s="76" t="s">
+      <c r="C789" s="78" t="s">
         <v>3126</v>
       </c>
       <c r="D789" t="s">
@@ -23521,7 +23595,7 @@
       <c r="B790" t="s">
         <v>3130</v>
       </c>
-      <c r="C790" s="76" t="s">
+      <c r="C790" s="78" t="s">
         <v>3131</v>
       </c>
       <c r="D790" t="s">
@@ -23538,7 +23612,7 @@
       <c r="B791" t="s">
         <v>3135</v>
       </c>
-      <c r="C791" s="76" t="s">
+      <c r="C791" s="78" t="s">
         <v>3136</v>
       </c>
       <c r="D791" t="s">
@@ -23564,7 +23638,7 @@
       <c r="B793" t="s">
         <v>3142</v>
       </c>
-      <c r="C793" s="76" t="s">
+      <c r="C793" s="78" t="s">
         <v>3143</v>
       </c>
       <c r="D793" t="s">
@@ -23581,7 +23655,7 @@
       <c r="B794" t="s">
         <v>3147</v>
       </c>
-      <c r="C794" s="76" t="s">
+      <c r="C794" s="78" t="s">
         <v>3148</v>
       </c>
       <c r="D794" t="s">
@@ -23595,7 +23669,7 @@
       <c r="B795" t="s">
         <v>3151</v>
       </c>
-      <c r="C795" s="76" t="s">
+      <c r="C795" s="78" t="s">
         <v>3152</v>
       </c>
       <c r="D795" t="s">
@@ -23612,7 +23686,7 @@
       <c r="B796" t="s">
         <v>3156</v>
       </c>
-      <c r="C796" s="78" t="s">
+      <c r="C796" s="80" t="s">
         <v>3157</v>
       </c>
       <c r="D796" t="s">
@@ -23632,7 +23706,7 @@
       <c r="B798" t="s">
         <v>3161</v>
       </c>
-      <c r="C798" s="76" t="s">
+      <c r="C798" s="78" t="s">
         <v>3162</v>
       </c>
       <c r="D798" t="s">
@@ -23649,7 +23723,7 @@
       <c r="B799" t="s">
         <v>3166</v>
       </c>
-      <c r="C799" s="76" t="s">
+      <c r="C799" s="78" t="s">
         <v>3167</v>
       </c>
       <c r="D799" t="s">
@@ -23702,7 +23776,7 @@
       <c r="B803" t="s">
         <v>3180</v>
       </c>
-      <c r="C803" s="76" t="s">
+      <c r="C803" s="78" t="s">
         <v>3181</v>
       </c>
       <c r="D803" t="s">
@@ -24064,10 +24138,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
@@ -24103,7 +24177,7 @@
       <c r="D2" t="s">
         <v>3196</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="72">
         <v>42769</v>
       </c>
     </row>
@@ -24115,7 +24189,7 @@
       <c r="C3" s="31" t="s">
         <v>3198</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="73">
         <v>42769</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -24130,7 +24204,7 @@
         <v>3201</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="71">
+      <c r="E4" s="72">
         <v>42769</v>
       </c>
     </row>
@@ -24144,7 +24218,7 @@
       <c r="D5" t="s">
         <v>3204</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="72">
         <v>42769</v>
       </c>
     </row>
@@ -24156,7 +24230,7 @@
       <c r="D6" s="12" t="s">
         <v>3206</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="72">
         <v>42769</v>
       </c>
     </row>
@@ -24171,7 +24245,7 @@
       <c r="D7" s="19" t="s">
         <v>3209</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="74">
         <v>42769</v>
       </c>
     </row>
@@ -24182,7 +24256,7 @@
       <c r="C8" s="32" t="s">
         <v>3211</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24194,7 +24268,7 @@
         <v>3213</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="71">
+      <c r="E9" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24209,7 +24283,7 @@
       <c r="D10" s="39" t="s">
         <v>3216</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="75">
         <v>42770</v>
       </c>
       <c r="F10" s="20" t="s">
@@ -24224,7 +24298,7 @@
       <c r="D11" t="s">
         <v>3219</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24236,7 +24310,7 @@
       <c r="C12" s="40" t="s">
         <v>3221</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="75">
         <v>42770</v>
       </c>
       <c r="F12" s="20" t="s">
@@ -24250,7 +24324,7 @@
       <c r="C13" s="32" t="s">
         <v>3224</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24262,7 +24336,7 @@
         <v>3226</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="71">
+      <c r="E14" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24274,7 +24348,7 @@
         <v>3228</v>
       </c>
       <c r="D15" s="41"/>
-      <c r="E15" s="71">
+      <c r="E15" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24285,7 +24359,7 @@
       <c r="C16" s="32" t="s">
         <v>3230</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24296,7 +24370,7 @@
       <c r="C17" s="32" t="s">
         <v>3232</v>
       </c>
-      <c r="E17" s="71">
+      <c r="E17" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24307,7 +24381,7 @@
       <c r="C18" s="32" t="s">
         <v>3234</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24333,7 +24407,7 @@
       <c r="C20" s="32" t="s">
         <v>3240</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24344,7 +24418,7 @@
       <c r="C21" s="32" t="s">
         <v>3242</v>
       </c>
-      <c r="E21" s="71">
+      <c r="E21" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24355,7 +24429,7 @@
       <c r="C22" s="32" t="s">
         <v>3244</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="72">
         <v>42770</v>
       </c>
     </row>
@@ -24372,7 +24446,7 @@
       <c r="D23" t="s">
         <v>3248</v>
       </c>
-      <c r="E23" s="71">
+      <c r="E23" s="72">
         <v>42771</v>
       </c>
     </row>
@@ -24384,7 +24458,7 @@
       <c r="C24" s="42" t="s">
         <v>3250</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="74">
         <v>42772</v>
       </c>
     </row>
@@ -24396,7 +24470,7 @@
         <v>3252</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="71">
+      <c r="E25" s="72">
         <v>42772</v>
       </c>
     </row>
@@ -24408,7 +24482,7 @@
         <v>3254</v>
       </c>
       <c r="D26" s="44"/>
-      <c r="E26" s="71">
+      <c r="E26" s="72">
         <v>42772</v>
       </c>
     </row>
@@ -24425,7 +24499,7 @@
       <c r="D27" t="s">
         <v>3258</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="72">
         <v>42772</v>
       </c>
     </row>
@@ -24442,7 +24516,7 @@
       <c r="D28" t="s">
         <v>3262</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="72">
         <v>42772</v>
       </c>
     </row>
@@ -24459,7 +24533,7 @@
       <c r="D29" t="s">
         <v>3265</v>
       </c>
-      <c r="E29" s="71">
+      <c r="E29" s="72">
         <v>42773</v>
       </c>
     </row>
@@ -24473,7 +24547,7 @@
       <c r="C30" s="32" t="s">
         <v>3257</v>
       </c>
-      <c r="E30" s="71">
+      <c r="E30" s="72">
         <v>42773</v>
       </c>
     </row>
@@ -24490,7 +24564,7 @@
       <c r="D31" t="s">
         <v>3270</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E31" s="72">
         <v>42773</v>
       </c>
     </row>
@@ -24504,7 +24578,7 @@
       <c r="C32" s="32" t="s">
         <v>3273</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E32" s="72">
         <v>42773</v>
       </c>
     </row>
@@ -24554,7 +24628,7 @@
       <c r="C36" s="32" t="s">
         <v>3285</v>
       </c>
-      <c r="E36" s="75">
+      <c r="E36" s="76">
         <v>42774</v>
       </c>
     </row>
@@ -24824,7 +24898,7 @@
       <c r="B57" s="22" t="s">
         <v>3344</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="23" t="s">
         <v>3345</v>
       </c>
       <c r="E57" t="s">
@@ -24832,13 +24906,13 @@
       </c>
     </row>
     <row r="58" ht="86.25" spans="1:5">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="64" t="s">
         <v>3347</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>3348</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="65" t="s">
         <v>3349</v>
       </c>
       <c r="E58" t="s">
@@ -24851,13 +24925,13 @@
       </c>
     </row>
     <row r="60" ht="27" spans="1:5">
-      <c r="A60" s="67" t="s">
+      <c r="A60" s="66" t="s">
         <v>3350</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>3351</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="67" t="s">
         <v>3352</v>
       </c>
       <c r="E60" t="s">
@@ -24865,13 +24939,13 @@
       </c>
     </row>
     <row r="61" ht="29.25" spans="1:5">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="64" t="s">
         <v>3353</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>3354</v>
       </c>
-      <c r="C61" s="66" t="s">
+      <c r="C61" s="65" t="s">
         <v>3355</v>
       </c>
       <c r="E61" t="s">
@@ -24879,13 +24953,13 @@
       </c>
     </row>
     <row r="62" ht="40.5" spans="1:5">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="68" t="s">
         <v>3255</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>3356</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="D62" s="23" t="s">
         <v>3357</v>
       </c>
       <c r="E62" t="s">
@@ -24893,7 +24967,7 @@
       </c>
     </row>
     <row r="63" ht="27" spans="1:5">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="69" t="s">
         <v>3358</v>
       </c>
       <c r="B63" s="22" t="s">
@@ -24901,6 +24975,48 @@
       </c>
       <c r="E63" t="s">
         <v>3346</v>
+      </c>
+    </row>
+    <row r="64" ht="55.5" spans="1:5">
+      <c r="A64" s="70" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B64" s="55" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D64" s="71" t="s">
+        <v>3362</v>
+      </c>
+      <c r="E64">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="65" ht="111" spans="1:5">
+      <c r="A65" s="77" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D65" s="71" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E65">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="66" ht="81" spans="1:5">
+      <c r="A66" s="21" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B66" s="55" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D66" s="71" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E66">
+        <v>3.03</v>
       </c>
     </row>
   </sheetData>
@@ -24969,6 +25085,8 @@
     <hyperlink ref="A60" r:id="rId60" display="Вакансия «Тестировщик (QA)», 15000 грн. Tiec Тex. Киев" tooltip="https://www.work.ua/jobs/2464160/"/>
     <hyperlink ref="C60" r:id="rId61" display="Tiec Тex   " tooltip="https://www.work.ua/jobs/by-company/997923/"/>
     <hyperlink ref="C61" r:id="rId62" display="ООО ЛІГА ЗАКОН " tooltip="https://hh.ua/employer/2635831"/>
+    <hyperlink ref="B64" r:id="rId63" display="https://rabota.ua/company2867616/vacancy6518353"/>
+    <hyperlink ref="B66" r:id="rId64" display="https://www.work.ua/jobs/2566382"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -25009,32 +25127,32 @@
         <v>3194</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3360</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>3361</v>
+        <v>3370</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3362</v>
+        <v>3371</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3363</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>3364</v>
+        <v>3373</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3365</v>
+        <v>3374</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>654</v>
@@ -25042,25 +25160,25 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>3366</v>
+        <v>3375</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3367</v>
+        <v>3376</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>3368</v>
+        <v>3377</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3369</v>
+        <v>3378</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>3302</v>
@@ -25068,27 +25186,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>3370</v>
+        <v>3379</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3371</v>
+        <v>3380</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3372</v>
+        <v>3381</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>3373</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>3374</v>
+        <v>3383</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3303</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3375</v>
+        <v>3384</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3305</v>
@@ -25096,67 +25214,67 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>3376</v>
+        <v>3385</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3377</v>
+        <v>3386</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3378</v>
+        <v>3387</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>3379</v>
+        <v>3388</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3380</v>
+        <v>3389</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>3381</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>3382</v>
+        <v>3391</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>3383</v>
+        <v>3392</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3384</v>
+        <v>3393</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>3385</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>3386</v>
+        <v>3395</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>3387</v>
+        <v>3396</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3388</v>
+        <v>3397</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>3389</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>3390</v>
+        <v>3399</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>3391</v>
+        <v>3400</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3392</v>
+        <v>3401</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>3265</v>
@@ -25164,107 +25282,107 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>3393</v>
+        <v>3402</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>3353</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>3394</v>
+        <v>3403</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>3395</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>3396</v>
+        <v>3405</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>3377</v>
+        <v>3386</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3397</v>
+        <v>3406</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>3398</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>3399</v>
+        <v>3408</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3400</v>
+        <v>3409</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>3401</v>
+        <v>3410</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>3402</v>
+        <v>3411</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>3403</v>
+        <v>3412</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>3404</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>3405</v>
+        <v>3414</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>3406</v>
+        <v>3415</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>3407</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>3408</v>
+        <v>3417</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>3409</v>
+        <v>3418</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>3410</v>
+        <v>3419</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>3411</v>
+        <v>3420</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>3353</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>3412</v>
+        <v>3421</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>3413</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>3414</v>
+        <v>3423</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>3267</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>3415</v>
+        <v>3424</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>3270</v>
@@ -25272,70 +25390,70 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>3416</v>
+        <v>3425</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>3417</v>
+        <v>3426</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>3418</v>
+        <v>3427</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>3419</v>
+        <v>3428</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>3420</v>
+        <v>3429</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>3421</v>
+        <v>3430</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>3422</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>3423</v>
+        <v>3432</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>3424</v>
+        <v>3433</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>3425</v>
+        <v>3434</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>3426</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>3427</v>
+        <v>3436</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>3428</v>
+        <v>3437</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>3429</v>
+        <v>3438</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>3430</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>3431</v>
+        <v>3440</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>3432</v>
+        <v>3441</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>3433</v>
+        <v>3442</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>3434</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -25346,157 +25464,157 @@
         <v>3271</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>3435</v>
+        <v>3444</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>3436</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>3437</v>
+        <v>3446</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>3438</v>
+        <v>3447</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>3439</v>
+        <v>3448</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>3440</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>3441</v>
+        <v>3450</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>3442</v>
+        <v>3451</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>3443</v>
+        <v>3452</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>3444</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>3445</v>
+        <v>3454</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>3446</v>
+        <v>3455</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>3447</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>3448</v>
+        <v>3457</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>3449</v>
+        <v>3458</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>3450</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>3451</v>
+        <v>3460</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>3452</v>
+        <v>3461</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>3453</v>
+        <v>3462</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>3454</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>3455</v>
+        <v>3464</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>3456</v>
+        <v>3465</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>3457</v>
+        <v>3466</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>3458</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>3459</v>
+        <v>3468</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>3460</v>
+        <v>3469</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>3461</v>
+        <v>3470</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>3462</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:4">
       <c r="A34" s="15" t="s">
-        <v>3463</v>
+        <v>3472</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>3464</v>
+        <v>3473</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>3465</v>
+        <v>3474</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" ht="27" spans="1:4">
       <c r="A35" s="13" t="s">
-        <v>3466</v>
+        <v>3475</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>3467</v>
+        <v>3476</v>
       </c>
       <c r="C35" t="s">
-        <v>3468</v>
+        <v>3477</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>3469</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>3470</v>
+        <v>3479</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>3471</v>
+        <v>3480</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13" t="s">
-        <v>3472</v>
+        <v>3481</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>3473</v>
+        <v>3482</v>
       </c>
       <c r="D37" s="12"/>
     </row>
@@ -25514,31 +25632,31 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="13" t="s">
-        <v>3474</v>
+        <v>3483</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>3475</v>
+        <v>3484</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>3476</v>
+        <v>3485</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="13" t="s">
-        <v>3477</v>
+        <v>3486</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>3478</v>
+        <v>3487</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="13" t="s">
-        <v>3479</v>
+        <v>3488</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>3278</v>
@@ -25550,13 +25668,13 @@
     </row>
     <row r="42" ht="27" spans="1:4">
       <c r="A42" s="15" t="s">
-        <v>3480</v>
+        <v>3489</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>3481</v>
+        <v>3490</v>
       </c>
       <c r="D42" s="12"/>
     </row>
@@ -25574,13 +25692,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>3482</v>
+        <v>3491</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>3483</v>
+        <v>3492</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>3484</v>
+        <v>3493</v>
       </c>
       <c r="D44" s="12"/>
     </row>
@@ -25598,19 +25716,19 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>3485</v>
+        <v>3494</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>3486</v>
+        <v>3495</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>3487</v>
+        <v>3496</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3488</v>
+        <v>3497</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>3271</v>
@@ -25619,60 +25737,60 @@
         <v>3293</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>3489</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="17" t="s">
-        <v>3490</v>
+        <v>3499</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>3491</v>
+        <v>3500</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>3492</v>
+        <v>3501</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>3493</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>3494</v>
+        <v>3503</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>3428</v>
+        <v>3437</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>3495</v>
+        <v>3504</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>3496</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>3497</v>
+        <v>3506</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>3498</v>
+        <v>3507</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>3499</v>
+        <v>3508</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>3500</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>3501</v>
+        <v>3510</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>3502</v>
+        <v>3511</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>3503</v>
+        <v>3512</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -25765,10 +25883,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3504</v>
+        <v>3513</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3505</v>
+        <v>3514</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -25778,7 +25896,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>3506</v>
+        <v>3515</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -25791,7 +25909,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>3507</v>
+        <v>3516</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -25804,7 +25922,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>3508</v>
+        <v>3517</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
@@ -25817,7 +25935,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>3509</v>
+        <v>3518</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -25830,7 +25948,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>3510</v>
+        <v>3519</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -25843,7 +25961,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>3511</v>
+        <v>3520</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -25856,7 +25974,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3512</v>
+        <v>3521</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -25864,7 +25982,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3513</v>
+        <v>3522</v>
       </c>
       <c r="B9">
         <v>3</v>

--- a/base work.xlsx
+++ b/base work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526">
   <si>
     <t>nane</t>
   </si>
@@ -10169,6 +10169,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
       <t>Junior/Middle</t>
     </r>
     <r>
@@ -10218,6 +10225,19 @@
 Киев</t>
   </si>
   <si>
+    <t>Тестировщик (QA)</t>
+  </si>
+  <si>
+    <t>https://www.work.ua/jobs/2565403/</t>
+  </si>
+  <si>
+    <t>Апекс-Инфо    Агентство
+Город:
+Киев
+Вид занятости:
+полная занятость</t>
+  </si>
+  <si>
     <t>История общения</t>
   </si>
   <si>
@@ -10688,12 +10708,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="176" formatCode="dd/mmm"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd/mmm"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="56">
     <font>
@@ -10928,9 +10948,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10950,38 +10969,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -10994,25 +10999,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11024,9 +11020,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11041,14 +11037,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11061,8 +11065,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11107,7 +11127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11125,37 +11145,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11173,19 +11205,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11197,91 +11301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11338,17 +11358,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11365,6 +11388,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -11375,39 +11413,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11435,78 +11440,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="41" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="41" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11515,66 +11535,66 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="41" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="41" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11789,29 +11809,29 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -24138,10 +24158,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
@@ -24177,7 +24197,7 @@
       <c r="D2" t="s">
         <v>3196</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="70">
         <v>42769</v>
       </c>
     </row>
@@ -24189,7 +24209,7 @@
       <c r="C3" s="31" t="s">
         <v>3198</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="71">
         <v>42769</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -24204,7 +24224,7 @@
         <v>3201</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="72">
+      <c r="E4" s="70">
         <v>42769</v>
       </c>
     </row>
@@ -24218,7 +24238,7 @@
       <c r="D5" t="s">
         <v>3204</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="70">
         <v>42769</v>
       </c>
     </row>
@@ -24230,7 +24250,7 @@
       <c r="D6" s="12" t="s">
         <v>3206</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="70">
         <v>42769</v>
       </c>
     </row>
@@ -24245,7 +24265,7 @@
       <c r="D7" s="19" t="s">
         <v>3209</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="72">
         <v>42769</v>
       </c>
     </row>
@@ -24256,7 +24276,7 @@
       <c r="C8" s="32" t="s">
         <v>3211</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24268,7 +24288,7 @@
         <v>3213</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="72">
+      <c r="E9" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24283,7 +24303,7 @@
       <c r="D10" s="39" t="s">
         <v>3216</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="73">
         <v>42770</v>
       </c>
       <c r="F10" s="20" t="s">
@@ -24298,7 +24318,7 @@
       <c r="D11" t="s">
         <v>3219</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24310,7 +24330,7 @@
       <c r="C12" s="40" t="s">
         <v>3221</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="73">
         <v>42770</v>
       </c>
       <c r="F12" s="20" t="s">
@@ -24324,7 +24344,7 @@
       <c r="C13" s="32" t="s">
         <v>3224</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24336,7 +24356,7 @@
         <v>3226</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="72">
+      <c r="E14" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24348,7 +24368,7 @@
         <v>3228</v>
       </c>
       <c r="D15" s="41"/>
-      <c r="E15" s="72">
+      <c r="E15" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24359,7 +24379,7 @@
       <c r="C16" s="32" t="s">
         <v>3230</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24370,7 +24390,7 @@
       <c r="C17" s="32" t="s">
         <v>3232</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24381,7 +24401,7 @@
       <c r="C18" s="32" t="s">
         <v>3234</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24407,7 +24427,7 @@
       <c r="C20" s="32" t="s">
         <v>3240</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24418,7 +24438,7 @@
       <c r="C21" s="32" t="s">
         <v>3242</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24429,7 +24449,7 @@
       <c r="C22" s="32" t="s">
         <v>3244</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="70">
         <v>42770</v>
       </c>
     </row>
@@ -24446,7 +24466,7 @@
       <c r="D23" t="s">
         <v>3248</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="70">
         <v>42771</v>
       </c>
     </row>
@@ -24458,7 +24478,7 @@
       <c r="C24" s="42" t="s">
         <v>3250</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="72">
         <v>42772</v>
       </c>
     </row>
@@ -24470,7 +24490,7 @@
         <v>3252</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="72">
+      <c r="E25" s="70">
         <v>42772</v>
       </c>
     </row>
@@ -24482,7 +24502,7 @@
         <v>3254</v>
       </c>
       <c r="D26" s="44"/>
-      <c r="E26" s="72">
+      <c r="E26" s="70">
         <v>42772</v>
       </c>
     </row>
@@ -24499,7 +24519,7 @@
       <c r="D27" t="s">
         <v>3258</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="70">
         <v>42772</v>
       </c>
     </row>
@@ -24516,7 +24536,7 @@
       <c r="D28" t="s">
         <v>3262</v>
       </c>
-      <c r="E28" s="72">
+      <c r="E28" s="70">
         <v>42772</v>
       </c>
     </row>
@@ -24533,7 +24553,7 @@
       <c r="D29" t="s">
         <v>3265</v>
       </c>
-      <c r="E29" s="72">
+      <c r="E29" s="70">
         <v>42773</v>
       </c>
     </row>
@@ -24547,7 +24567,7 @@
       <c r="C30" s="32" t="s">
         <v>3257</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="70">
         <v>42773</v>
       </c>
     </row>
@@ -24564,7 +24584,7 @@
       <c r="D31" t="s">
         <v>3270</v>
       </c>
-      <c r="E31" s="72">
+      <c r="E31" s="70">
         <v>42773</v>
       </c>
     </row>
@@ -24578,7 +24598,7 @@
       <c r="C32" s="32" t="s">
         <v>3273</v>
       </c>
-      <c r="E32" s="72">
+      <c r="E32" s="70">
         <v>42773</v>
       </c>
     </row>
@@ -24628,7 +24648,7 @@
       <c r="C36" s="32" t="s">
         <v>3285</v>
       </c>
-      <c r="E36" s="76">
+      <c r="E36" s="74">
         <v>42774</v>
       </c>
     </row>
@@ -24978,13 +24998,13 @@
       </c>
     </row>
     <row r="64" ht="55.5" spans="1:5">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="68" t="s">
         <v>3360</v>
       </c>
       <c r="B64" s="55" t="s">
         <v>3361</v>
       </c>
-      <c r="D64" s="71" t="s">
+      <c r="D64" s="23" t="s">
         <v>3362</v>
       </c>
       <c r="E64">
@@ -24992,13 +25012,13 @@
       </c>
     </row>
     <row r="65" ht="111" spans="1:5">
-      <c r="A65" s="77" t="s">
+      <c r="A65" s="75" t="s">
         <v>3363</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>3364</v>
       </c>
-      <c r="D65" s="71" t="s">
+      <c r="D65" s="23" t="s">
         <v>3365</v>
       </c>
       <c r="E65">
@@ -25012,11 +25032,26 @@
       <c r="B66" s="55" t="s">
         <v>3367</v>
       </c>
-      <c r="D66" s="71" t="s">
+      <c r="D66" s="23" t="s">
         <v>3368</v>
       </c>
       <c r="E66">
         <v>3.03</v>
+      </c>
+    </row>
+    <row r="67" ht="67.5" spans="1:5">
+      <c r="A67" s="76" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>3370</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="77" t="s">
+        <v>3371</v>
+      </c>
+      <c r="E67">
+        <v>7.03</v>
       </c>
     </row>
   </sheetData>
@@ -25127,32 +25162,32 @@
         <v>3194</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3369</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>3370</v>
+        <v>3373</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3372</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>3373</v>
+        <v>3376</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3374</v>
+        <v>3377</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>654</v>
@@ -25160,25 +25195,25 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>3375</v>
+        <v>3378</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3376</v>
+        <v>3379</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>3377</v>
+        <v>3380</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3378</v>
+        <v>3381</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>3302</v>
@@ -25186,27 +25221,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>3379</v>
+        <v>3382</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3380</v>
+        <v>3383</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>3383</v>
+        <v>3386</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3303</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3305</v>
@@ -25214,67 +25249,67 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>3385</v>
+        <v>3388</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3387</v>
+        <v>3390</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>3388</v>
+        <v>3391</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3389</v>
+        <v>3392</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>3391</v>
+        <v>3394</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3393</v>
+        <v>3396</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>3394</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>3395</v>
+        <v>3398</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>3396</v>
+        <v>3399</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>3398</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>3265</v>
@@ -25282,107 +25317,107 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>3402</v>
+        <v>3405</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>3353</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>3403</v>
+        <v>3406</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>3404</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3406</v>
+        <v>3409</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>3407</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>3410</v>
+        <v>3413</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>3412</v>
+        <v>3415</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>3413</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>3415</v>
+        <v>3418</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>3416</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>3417</v>
+        <v>3420</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>3353</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>3422</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>3423</v>
+        <v>3426</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>3267</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>3424</v>
+        <v>3427</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>3270</v>
@@ -25390,70 +25425,70 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>3426</v>
+        <v>3429</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>3427</v>
+        <v>3430</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>3431</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>3432</v>
+        <v>3435</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>3434</v>
+        <v>3437</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>3435</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>3436</v>
+        <v>3439</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>3438</v>
+        <v>3441</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>3443</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -25464,157 +25499,157 @@
         <v>3271</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>3448</v>
+        <v>3451</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>3455</v>
+        <v>3458</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>3459</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>3460</v>
+        <v>3463</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>3461</v>
+        <v>3464</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>3462</v>
+        <v>3465</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>3463</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>3464</v>
+        <v>3467</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>3465</v>
+        <v>3468</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>3466</v>
+        <v>3469</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>3467</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>3468</v>
+        <v>3471</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>3469</v>
+        <v>3472</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>3470</v>
+        <v>3473</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>3471</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:4">
       <c r="A34" s="15" t="s">
-        <v>3472</v>
+        <v>3475</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>3473</v>
+        <v>3476</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>3474</v>
+        <v>3477</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" ht="27" spans="1:4">
       <c r="A35" s="13" t="s">
-        <v>3475</v>
+        <v>3478</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>3476</v>
+        <v>3479</v>
       </c>
       <c r="C35" t="s">
-        <v>3477</v>
+        <v>3480</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>3478</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>3479</v>
+        <v>3482</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>3480</v>
+        <v>3483</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13" t="s">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>3482</v>
+        <v>3485</v>
       </c>
       <c r="D37" s="12"/>
     </row>
@@ -25632,31 +25667,31 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="13" t="s">
-        <v>3483</v>
+        <v>3486</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>3484</v>
+        <v>3487</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>3485</v>
+        <v>3488</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="13" t="s">
-        <v>3486</v>
+        <v>3489</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>3487</v>
+        <v>3490</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="13" t="s">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>3278</v>
@@ -25668,13 +25703,13 @@
     </row>
     <row r="42" ht="27" spans="1:4">
       <c r="A42" s="15" t="s">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="D42" s="12"/>
     </row>
@@ -25692,13 +25727,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>3491</v>
+        <v>3494</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>3492</v>
+        <v>3495</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>3493</v>
+        <v>3496</v>
       </c>
       <c r="D44" s="12"/>
     </row>
@@ -25716,19 +25751,19 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>3494</v>
+        <v>3497</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>3495</v>
+        <v>3498</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>3496</v>
+        <v>3499</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3497</v>
+        <v>3500</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>3271</v>
@@ -25737,60 +25772,60 @@
         <v>3293</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>3498</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="17" t="s">
-        <v>3499</v>
+        <v>3502</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>3500</v>
+        <v>3503</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>3501</v>
+        <v>3504</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>3502</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>3503</v>
+        <v>3506</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>3505</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>3506</v>
+        <v>3509</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>3507</v>
+        <v>3510</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>3508</v>
+        <v>3511</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>3509</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>3510</v>
+        <v>3513</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>3511</v>
+        <v>3514</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>3512</v>
+        <v>3515</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -25883,10 +25918,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3513</v>
+        <v>3516</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3514</v>
+        <v>3517</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -25896,7 +25931,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>3515</v>
+        <v>3518</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -25909,7 +25944,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>3516</v>
+        <v>3519</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -25922,7 +25957,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>3517</v>
+        <v>3520</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
@@ -25935,7 +25970,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -25948,7 +25983,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>3519</v>
+        <v>3522</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -25961,7 +25996,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>3520</v>
+        <v>3523</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -25974,7 +26009,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3521</v>
+        <v>3524</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -25982,7 +26017,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3522</v>
+        <v>3525</v>
       </c>
       <c r="B9">
         <v>3</v>

--- a/base work.xlsx
+++ b/base work.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13305" tabRatio="993" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="14325" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cold base" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536">
   <si>
     <t>nane</t>
   </si>
@@ -10238,6 +10238,54 @@
 полная занятость</t>
   </si>
   <si>
+    <t>https://hh.ua/vacancy/19886288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOZZY GROUP, Корпорация </t>
+  </si>
+  <si>
+    <t>Manual QA, Мануальный Тестировщик</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company5046770/vacancy6618394</t>
+  </si>
+  <si>
+    <t>Порохня А.С., ФЛП 
+Реклама и PR-услуги
+Регион:Киев
+Телефон: +380963916948</t>
+  </si>
+  <si>
+    <t>http://jobik.net/vacancy/4588471/?subscr_id=3612244</t>
+  </si>
+  <si>
+    <t>РАБОТОДАТЕЛЬ
+Название: Sparkle Design
+Контактное лицо: Евгений
+E-mail: 
+evgen@sparkledesign.com
+Сайт компании: http://www.sparkledesign.com/</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company4616161/vacancy6623389</t>
+  </si>
+  <si>
+    <t>ТIЕС ТЕХ, ТОВ 
+IT-консалтинг / Услуги / Производство оборудования
+Регион:Киев
+Сайт:www.tstechpro.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+РАБОТОДАТЕЛЬ
+Название: Apeiron System
+Контактное лицо: Апейрон
+E-mail: 
+Lishchenko.Maryna@apeironhr.com.ua
+Телефон: 8068-117-98-14 или 227-44-63
+Сайт компании: http://www.apeironHR.com.ua</t>
+  </si>
+  <si>
     <t>История общения</t>
   </si>
   <si>
@@ -10709,13 +10757,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd/mmm"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -10948,6 +10996,27 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="24.75"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF0099FF"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -10956,14 +11025,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10984,9 +11082,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -10994,60 +11102,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11059,7 +11113,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11073,16 +11134,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11127,13 +11188,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11145,13 +11206,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11163,31 +11254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11205,31 +11278,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11242,72 +11369,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11358,20 +11419,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11402,21 +11460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -11441,17 +11484,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11460,73 +11521,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="41" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11535,70 +11596,70 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="41" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26">
       <alignment vertical="top"/>
     </xf>
@@ -11821,17 +11882,32 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -12236,7 +12312,7 @@
   <cols>
     <col min="1" max="1" width="20.1416666666667"/>
     <col min="2" max="2" width="29.35"/>
-    <col min="3" max="3" width="34.2833333333333" style="78"/>
+    <col min="3" max="3" width="34.2833333333333" style="83"/>
     <col min="4" max="4" width="24.85"/>
     <col min="5" max="5" width="71.6666666666667"/>
     <col min="6" max="1025" width="8.575"/>
@@ -12252,7 +12328,7 @@
       <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="84" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -12269,7 +12345,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="85" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -12286,7 +12362,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="83" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -12303,7 +12379,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="85" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -12320,7 +12396,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="83" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
@@ -12337,7 +12413,7 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="83" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
@@ -12354,7 +12430,7 @@
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="83" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
@@ -12383,7 +12459,7 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="83" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
@@ -12400,7 +12476,7 @@
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="83" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
@@ -12417,7 +12493,7 @@
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="83" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
@@ -12449,7 +12525,7 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="83" t="s">
         <v>59</v>
       </c>
       <c r="D14" t="s">
@@ -12466,7 +12542,7 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="83" t="s">
         <v>64</v>
       </c>
       <c r="D15" t="s">
@@ -12483,7 +12559,7 @@
       <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="83" t="s">
         <v>69</v>
       </c>
       <c r="D16" t="s">
@@ -12500,7 +12576,7 @@
       <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="83" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
@@ -12517,7 +12593,7 @@
       <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="83" t="s">
         <v>79</v>
       </c>
       <c r="E18" t="s">
@@ -12531,7 +12607,7 @@
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
@@ -12548,7 +12624,7 @@
       <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="83" t="s">
         <v>88</v>
       </c>
       <c r="E20" t="s">
@@ -12562,7 +12638,7 @@
       <c r="B21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="83" t="s">
         <v>92</v>
       </c>
       <c r="D21" t="s">
@@ -12579,7 +12655,7 @@
       <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="83" t="s">
         <v>97</v>
       </c>
       <c r="D22" t="s">
@@ -12596,7 +12672,7 @@
       <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="83" t="s">
         <v>102</v>
       </c>
       <c r="D23" t="s">
@@ -12613,7 +12689,7 @@
       <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="83" t="s">
         <v>107</v>
       </c>
       <c r="D24" t="s">
@@ -12642,7 +12718,7 @@
       <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="83" t="s">
         <v>115</v>
       </c>
       <c r="D26" t="s">
@@ -12659,7 +12735,7 @@
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="83" t="s">
         <v>120</v>
       </c>
       <c r="D27" t="s">
@@ -12751,7 +12827,7 @@
       <c r="B34" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="83" t="s">
         <v>143</v>
       </c>
       <c r="D34" t="s">
@@ -12792,7 +12868,7 @@
       <c r="B37" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="83" t="s">
         <v>154</v>
       </c>
       <c r="D37" t="s">
@@ -12809,7 +12885,7 @@
       <c r="B38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="83" t="s">
         <v>159</v>
       </c>
       <c r="D38" t="s">
@@ -12826,7 +12902,7 @@
       <c r="B39" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="83" t="s">
         <v>164</v>
       </c>
       <c r="D39" t="s">
@@ -12873,7 +12949,7 @@
       <c r="B42" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="83" t="s">
         <v>177</v>
       </c>
       <c r="D42" t="s">
@@ -12905,7 +12981,7 @@
       <c r="B44" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="83" t="s">
         <v>186</v>
       </c>
       <c r="D44" t="s">
@@ -12919,7 +12995,7 @@
       <c r="B45" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="85" t="s">
         <v>190</v>
       </c>
       <c r="D45" t="s">
@@ -12960,7 +13036,7 @@
       <c r="B48" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="83" t="s">
         <v>201</v>
       </c>
       <c r="D48" t="s">
@@ -12992,7 +13068,7 @@
       <c r="B50" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="83" t="s">
         <v>210</v>
       </c>
       <c r="D50" t="s">
@@ -13051,7 +13127,7 @@
       <c r="B54" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C54" s="83" t="s">
         <v>226</v>
       </c>
       <c r="D54" t="s">
@@ -13068,7 +13144,7 @@
       <c r="B55" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C55" s="83" t="s">
         <v>231</v>
       </c>
       <c r="D55" t="s">
@@ -13085,7 +13161,7 @@
       <c r="B56" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="C56" s="83" t="s">
         <v>236</v>
       </c>
       <c r="D56" t="s">
@@ -13102,7 +13178,7 @@
       <c r="B57" t="s">
         <v>240</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C57" s="83" t="s">
         <v>241</v>
       </c>
       <c r="D57" t="s">
@@ -13131,7 +13207,7 @@
       <c r="B59" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="83" t="s">
         <v>249</v>
       </c>
       <c r="D59" t="s">
@@ -13148,7 +13224,7 @@
       <c r="B60" t="s">
         <v>253</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="83" t="s">
         <v>254</v>
       </c>
       <c r="D60" t="s">
@@ -13162,7 +13238,7 @@
       <c r="B61" t="s">
         <v>257</v>
       </c>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="83" t="s">
         <v>258</v>
       </c>
       <c r="D61" t="s">
@@ -13191,7 +13267,7 @@
       <c r="B63" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="83" t="s">
         <v>266</v>
       </c>
       <c r="D63" t="s">
@@ -13220,7 +13296,7 @@
       <c r="B65" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="78" t="s">
+      <c r="C65" s="83" t="s">
         <v>274</v>
       </c>
       <c r="D65" t="s">
@@ -13237,7 +13313,7 @@
       <c r="B66" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C66" s="83" t="s">
         <v>279</v>
       </c>
       <c r="E66" t="s">
@@ -13251,7 +13327,7 @@
       <c r="B67" t="s">
         <v>282</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="83" t="s">
         <v>283</v>
       </c>
       <c r="D67" t="s">
@@ -13280,7 +13356,7 @@
       <c r="B69" t="s">
         <v>290</v>
       </c>
-      <c r="C69" s="78" t="s">
+      <c r="C69" s="83" t="s">
         <v>291</v>
       </c>
       <c r="D69" t="s">
@@ -13312,7 +13388,7 @@
       <c r="B71" t="s">
         <v>299</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C71" s="83" t="s">
         <v>300</v>
       </c>
       <c r="D71" t="s">
@@ -13338,7 +13414,7 @@
       <c r="B73" t="s">
         <v>305</v>
       </c>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="83" t="s">
         <v>306</v>
       </c>
       <c r="D73" t="s">
@@ -13385,7 +13461,7 @@
       <c r="B76" t="s">
         <v>318</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C76" s="83" t="s">
         <v>319</v>
       </c>
       <c r="D76" t="s">
@@ -13402,7 +13478,7 @@
       <c r="B77" t="s">
         <v>323</v>
       </c>
-      <c r="C77" s="78" t="s">
+      <c r="C77" s="83" t="s">
         <v>324</v>
       </c>
       <c r="D77" t="s">
@@ -13431,7 +13507,7 @@
       <c r="B79" t="s">
         <v>331</v>
       </c>
-      <c r="C79" s="78" t="s">
+      <c r="C79" s="83" t="s">
         <v>332</v>
       </c>
       <c r="D79" t="s">
@@ -13514,7 +13590,7 @@
       <c r="B85" t="s">
         <v>353</v>
       </c>
-      <c r="C85" s="78" t="s">
+      <c r="C85" s="83" t="s">
         <v>354</v>
       </c>
       <c r="D85" t="s">
@@ -13531,7 +13607,7 @@
       <c r="B86" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="78" t="s">
+      <c r="C86" s="83" t="s">
         <v>359</v>
       </c>
       <c r="D86" t="s">
@@ -13548,7 +13624,7 @@
       <c r="B87" t="s">
         <v>363</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="83" t="s">
         <v>364</v>
       </c>
       <c r="D87" t="s">
@@ -13562,7 +13638,7 @@
       <c r="A88" t="s">
         <v>367</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C88" s="83" t="s">
         <v>368</v>
       </c>
       <c r="D88" t="s">
@@ -13594,7 +13670,7 @@
       <c r="B90" t="s">
         <v>376</v>
       </c>
-      <c r="C90" s="78" t="s">
+      <c r="C90" s="83" t="s">
         <v>377</v>
       </c>
       <c r="D90" t="s">
@@ -13611,7 +13687,7 @@
       <c r="B91" t="s">
         <v>381</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="C91" s="83" t="s">
         <v>382</v>
       </c>
       <c r="D91" t="s">
@@ -13628,7 +13704,7 @@
       <c r="B92" t="s">
         <v>386</v>
       </c>
-      <c r="C92" s="78" t="s">
+      <c r="C92" s="83" t="s">
         <v>387</v>
       </c>
       <c r="D92" t="s">
@@ -13645,7 +13721,7 @@
       <c r="B93" t="s">
         <v>391</v>
       </c>
-      <c r="C93" s="78" t="s">
+      <c r="C93" s="83" t="s">
         <v>392</v>
       </c>
       <c r="D93" t="s">
@@ -13671,7 +13747,7 @@
       <c r="B95" t="s">
         <v>398</v>
       </c>
-      <c r="C95" s="78" t="s">
+      <c r="C95" s="83" t="s">
         <v>399</v>
       </c>
       <c r="D95" t="s">
@@ -13697,7 +13773,7 @@
       <c r="B97" t="s">
         <v>405</v>
       </c>
-      <c r="C97" s="78" t="s">
+      <c r="C97" s="83" t="s">
         <v>406</v>
       </c>
       <c r="D97" t="s">
@@ -13711,7 +13787,7 @@
       <c r="B98" t="s">
         <v>409</v>
       </c>
-      <c r="C98" s="78" t="s">
+      <c r="C98" s="83" t="s">
         <v>410</v>
       </c>
       <c r="D98" t="s">
@@ -13767,7 +13843,7 @@
       <c r="B102" t="s">
         <v>424</v>
       </c>
-      <c r="C102" s="78" t="s">
+      <c r="C102" s="83" t="s">
         <v>425</v>
       </c>
       <c r="D102" t="s">
@@ -13784,7 +13860,7 @@
       <c r="B103" t="s">
         <v>429</v>
       </c>
-      <c r="C103" s="78" t="s">
+      <c r="C103" s="83" t="s">
         <v>430</v>
       </c>
       <c r="D103" t="s">
@@ -13801,7 +13877,7 @@
       <c r="B104" t="s">
         <v>434</v>
       </c>
-      <c r="C104" s="80" t="s">
+      <c r="C104" s="85" t="s">
         <v>435</v>
       </c>
       <c r="D104" t="s">
@@ -13833,7 +13909,7 @@
       <c r="B106" t="s">
         <v>443</v>
       </c>
-      <c r="C106" s="78" t="s">
+      <c r="C106" s="83" t="s">
         <v>444</v>
       </c>
       <c r="D106" t="s">
@@ -13859,7 +13935,7 @@
       <c r="B108" t="s">
         <v>450</v>
       </c>
-      <c r="C108" s="78" t="s">
+      <c r="C108" s="83" t="s">
         <v>451</v>
       </c>
       <c r="D108" t="s">
@@ -13876,7 +13952,7 @@
       <c r="B109" t="s">
         <v>455</v>
       </c>
-      <c r="C109" s="78" t="s">
+      <c r="C109" s="83" t="s">
         <v>456</v>
       </c>
       <c r="D109" t="s">
@@ -13917,7 +13993,7 @@
       <c r="B112" t="s">
         <v>466</v>
       </c>
-      <c r="C112" s="78" t="s">
+      <c r="C112" s="83" t="s">
         <v>467</v>
       </c>
       <c r="D112" t="s">
@@ -13946,7 +14022,7 @@
       <c r="B114" t="s">
         <v>474</v>
       </c>
-      <c r="C114" s="78" t="s">
+      <c r="C114" s="83" t="s">
         <v>475</v>
       </c>
       <c r="D114" t="s">
@@ -13963,7 +14039,7 @@
       <c r="B115" t="s">
         <v>479</v>
       </c>
-      <c r="C115" s="78" t="s">
+      <c r="C115" s="83" t="s">
         <v>480</v>
       </c>
       <c r="D115" t="s">
@@ -14025,7 +14101,7 @@
       <c r="B119" t="s">
         <v>496</v>
       </c>
-      <c r="C119" s="78" t="s">
+      <c r="C119" s="83" t="s">
         <v>497</v>
       </c>
       <c r="D119" t="s">
@@ -14069,7 +14145,7 @@
       <c r="B122" t="s">
         <v>508</v>
       </c>
-      <c r="C122" s="78" t="s">
+      <c r="C122" s="83" t="s">
         <v>509</v>
       </c>
       <c r="D122" t="s">
@@ -14083,7 +14159,7 @@
       <c r="B123" t="s">
         <v>512</v>
       </c>
-      <c r="C123" s="80" t="s">
+      <c r="C123" s="85" t="s">
         <v>513</v>
       </c>
       <c r="D123" t="s">
@@ -14100,7 +14176,7 @@
       <c r="B124" t="s">
         <v>517</v>
       </c>
-      <c r="C124" s="78" t="s">
+      <c r="C124" s="83" t="s">
         <v>518</v>
       </c>
       <c r="D124" t="s">
@@ -14126,7 +14202,7 @@
       <c r="B126" t="s">
         <v>524</v>
       </c>
-      <c r="C126" s="78" t="s">
+      <c r="C126" s="83" t="s">
         <v>525</v>
       </c>
       <c r="D126" t="s">
@@ -14143,7 +14219,7 @@
       <c r="B127" t="s">
         <v>529</v>
       </c>
-      <c r="C127" s="78" t="s">
+      <c r="C127" s="83" t="s">
         <v>530</v>
       </c>
       <c r="D127" t="s">
@@ -14169,7 +14245,7 @@
       <c r="B129" t="s">
         <v>536</v>
       </c>
-      <c r="C129" s="78" t="s">
+      <c r="C129" s="83" t="s">
         <v>537</v>
       </c>
       <c r="D129" t="s">
@@ -14186,7 +14262,7 @@
       <c r="B130" t="s">
         <v>541</v>
       </c>
-      <c r="C130" s="80" t="s">
+      <c r="C130" s="85" t="s">
         <v>542</v>
       </c>
       <c r="D130" t="s">
@@ -14218,7 +14294,7 @@
       <c r="B132" t="s">
         <v>550</v>
       </c>
-      <c r="C132" s="78" t="s">
+      <c r="C132" s="83" t="s">
         <v>551</v>
       </c>
       <c r="D132" t="s">
@@ -14250,7 +14326,7 @@
       <c r="B134" t="s">
         <v>559</v>
       </c>
-      <c r="C134" s="78" t="s">
+      <c r="C134" s="83" t="s">
         <v>560</v>
       </c>
       <c r="D134" t="s">
@@ -14264,7 +14340,7 @@
       <c r="B135" t="s">
         <v>563</v>
       </c>
-      <c r="C135" s="78" t="s">
+      <c r="C135" s="83" t="s">
         <v>564</v>
       </c>
       <c r="D135" t="s">
@@ -14290,7 +14366,7 @@
       <c r="B137" t="s">
         <v>570</v>
       </c>
-      <c r="C137" s="78" t="s">
+      <c r="C137" s="83" t="s">
         <v>571</v>
       </c>
       <c r="D137" t="s">
@@ -14307,7 +14383,7 @@
       <c r="B138" t="s">
         <v>575</v>
       </c>
-      <c r="C138" s="78" t="s">
+      <c r="C138" s="83" t="s">
         <v>576</v>
       </c>
       <c r="D138" t="s">
@@ -14324,7 +14400,7 @@
       <c r="B139" t="s">
         <v>580</v>
       </c>
-      <c r="C139" s="78" t="s">
+      <c r="C139" s="83" t="s">
         <v>581</v>
       </c>
       <c r="D139" t="s">
@@ -14353,7 +14429,7 @@
       <c r="B141" t="s">
         <v>588</v>
       </c>
-      <c r="C141" s="78" t="s">
+      <c r="C141" s="83" t="s">
         <v>589</v>
       </c>
       <c r="D141" t="s">
@@ -14439,7 +14515,7 @@
       <c r="B147" t="s">
         <v>611</v>
       </c>
-      <c r="C147" s="78" t="s">
+      <c r="C147" s="83" t="s">
         <v>612</v>
       </c>
       <c r="D147" t="s">
@@ -14456,7 +14532,7 @@
       <c r="B148" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="80" t="s">
+      <c r="C148" s="85" t="s">
         <v>617</v>
       </c>
       <c r="D148" t="s">
@@ -14485,7 +14561,7 @@
       <c r="B150" t="s">
         <v>624</v>
       </c>
-      <c r="C150" s="78" t="s">
+      <c r="C150" s="83" t="s">
         <v>625</v>
       </c>
       <c r="D150" t="s">
@@ -14502,7 +14578,7 @@
       <c r="B151" t="s">
         <v>629</v>
       </c>
-      <c r="C151" s="78" t="s">
+      <c r="C151" s="83" t="s">
         <v>630</v>
       </c>
       <c r="D151" t="s">
@@ -14516,7 +14592,7 @@
       <c r="B152" t="s">
         <v>633</v>
       </c>
-      <c r="C152" s="78" t="s">
+      <c r="C152" s="83" t="s">
         <v>634</v>
       </c>
       <c r="D152" t="s">
@@ -14533,7 +14609,7 @@
       <c r="B153" t="s">
         <v>638</v>
       </c>
-      <c r="C153" s="78" t="s">
+      <c r="C153" s="83" t="s">
         <v>639</v>
       </c>
       <c r="D153" t="s">
@@ -14619,7 +14695,7 @@
       <c r="B159" t="s">
         <v>661</v>
       </c>
-      <c r="C159" s="78" t="s">
+      <c r="C159" s="83" t="s">
         <v>662</v>
       </c>
       <c r="D159" t="s">
@@ -14636,7 +14712,7 @@
       <c r="B160" t="s">
         <v>666</v>
       </c>
-      <c r="C160" s="78" t="s">
+      <c r="C160" s="83" t="s">
         <v>667</v>
       </c>
       <c r="D160" t="s">
@@ -14668,7 +14744,7 @@
       <c r="B162" t="s">
         <v>675</v>
       </c>
-      <c r="C162" s="78" t="s">
+      <c r="C162" s="83" t="s">
         <v>676</v>
       </c>
       <c r="D162" t="s">
@@ -14697,7 +14773,7 @@
       <c r="B164" t="s">
         <v>683</v>
       </c>
-      <c r="C164" s="78" t="s">
+      <c r="C164" s="83" t="s">
         <v>684</v>
       </c>
       <c r="D164" t="s">
@@ -14714,7 +14790,7 @@
       <c r="B165" t="s">
         <v>688</v>
       </c>
-      <c r="C165" s="78" t="s">
+      <c r="C165" s="83" t="s">
         <v>689</v>
       </c>
       <c r="D165" t="s">
@@ -14758,7 +14834,7 @@
       <c r="B168" t="s">
         <v>700</v>
       </c>
-      <c r="C168" s="78" t="s">
+      <c r="C168" s="83" t="s">
         <v>701</v>
       </c>
       <c r="D168" t="s">
@@ -14787,7 +14863,7 @@
       <c r="B170" t="s">
         <v>708</v>
       </c>
-      <c r="C170" s="80" t="s">
+      <c r="C170" s="85" t="s">
         <v>709</v>
       </c>
       <c r="D170" t="s">
@@ -14804,7 +14880,7 @@
       <c r="B171" t="s">
         <v>713</v>
       </c>
-      <c r="C171" s="78" t="s">
+      <c r="C171" s="83" t="s">
         <v>714</v>
       </c>
       <c r="D171" t="s">
@@ -14857,7 +14933,7 @@
       <c r="B175" t="s">
         <v>727</v>
       </c>
-      <c r="C175" s="78" t="s">
+      <c r="C175" s="83" t="s">
         <v>728</v>
       </c>
       <c r="E175" t="s">
@@ -14871,7 +14947,7 @@
       <c r="B176" t="s">
         <v>731</v>
       </c>
-      <c r="C176" s="78" t="s">
+      <c r="C176" s="83" t="s">
         <v>732</v>
       </c>
       <c r="D176" t="s">
@@ -14888,7 +14964,7 @@
       <c r="B177" t="s">
         <v>736</v>
       </c>
-      <c r="C177" s="78" t="s">
+      <c r="C177" s="83" t="s">
         <v>737</v>
       </c>
       <c r="D177" t="s">
@@ -14920,7 +14996,7 @@
       <c r="B180" t="s">
         <v>744</v>
       </c>
-      <c r="C180" s="78" t="s">
+      <c r="C180" s="83" t="s">
         <v>745</v>
       </c>
       <c r="D180" t="s">
@@ -14937,7 +15013,7 @@
       <c r="B181" t="s">
         <v>749</v>
       </c>
-      <c r="C181" s="78" t="s">
+      <c r="C181" s="83" t="s">
         <v>750</v>
       </c>
       <c r="D181" t="s">
@@ -14966,7 +15042,7 @@
       <c r="B183" t="s">
         <v>757</v>
       </c>
-      <c r="C183" s="78" t="s">
+      <c r="C183" s="83" t="s">
         <v>758</v>
       </c>
       <c r="D183" t="s">
@@ -14998,7 +15074,7 @@
       <c r="B185" t="s">
         <v>766</v>
       </c>
-      <c r="C185" s="78" t="s">
+      <c r="C185" s="83" t="s">
         <v>767</v>
       </c>
       <c r="D185" t="s">
@@ -15030,7 +15106,7 @@
       <c r="B187" t="s">
         <v>775</v>
       </c>
-      <c r="C187" s="78" t="s">
+      <c r="C187" s="83" t="s">
         <v>776</v>
       </c>
       <c r="D187" t="s">
@@ -15047,7 +15123,7 @@
       <c r="B188" t="s">
         <v>780</v>
       </c>
-      <c r="C188" s="78" t="s">
+      <c r="C188" s="83" t="s">
         <v>781</v>
       </c>
       <c r="D188" t="s">
@@ -15085,7 +15161,7 @@
       <c r="B191" t="s">
         <v>790</v>
       </c>
-      <c r="C191" s="80" t="s">
+      <c r="C191" s="85" t="s">
         <v>791</v>
       </c>
       <c r="D191" t="s">
@@ -15153,7 +15229,7 @@
       <c r="B196" t="s">
         <v>808</v>
       </c>
-      <c r="C196" s="78" t="s">
+      <c r="C196" s="83" t="s">
         <v>809</v>
       </c>
       <c r="D196" t="s">
@@ -15206,7 +15282,7 @@
       <c r="B200" t="s">
         <v>822</v>
       </c>
-      <c r="C200" s="78" t="s">
+      <c r="C200" s="83" t="s">
         <v>823</v>
       </c>
       <c r="E200" t="s">
@@ -15220,7 +15296,7 @@
       <c r="B201" t="s">
         <v>826</v>
       </c>
-      <c r="C201" s="78" t="s">
+      <c r="C201" s="83" t="s">
         <v>827</v>
       </c>
       <c r="D201" t="s">
@@ -15237,7 +15313,7 @@
       <c r="B202" t="s">
         <v>831</v>
       </c>
-      <c r="C202" s="78" t="s">
+      <c r="C202" s="83" t="s">
         <v>832</v>
       </c>
       <c r="D202" t="s">
@@ -15251,7 +15327,7 @@
       <c r="B203" t="s">
         <v>835</v>
       </c>
-      <c r="C203" s="80" t="s">
+      <c r="C203" s="85" t="s">
         <v>836</v>
       </c>
       <c r="D203" t="s">
@@ -15292,7 +15368,7 @@
       <c r="B206" t="s">
         <v>846</v>
       </c>
-      <c r="C206" s="78" t="s">
+      <c r="C206" s="83" t="s">
         <v>847</v>
       </c>
       <c r="D206" t="s">
@@ -15339,7 +15415,7 @@
       <c r="B209" t="s">
         <v>859</v>
       </c>
-      <c r="C209" s="78" t="s">
+      <c r="C209" s="83" t="s">
         <v>860</v>
       </c>
       <c r="D209" t="s">
@@ -15356,7 +15432,7 @@
       <c r="B210" t="s">
         <v>864</v>
       </c>
-      <c r="C210" s="78" t="s">
+      <c r="C210" s="83" t="s">
         <v>865</v>
       </c>
       <c r="D210" t="s">
@@ -15373,7 +15449,7 @@
       <c r="B211" t="s">
         <v>869</v>
       </c>
-      <c r="C211" s="78" t="s">
+      <c r="C211" s="83" t="s">
         <v>870</v>
       </c>
       <c r="D211" t="s">
@@ -15390,7 +15466,7 @@
       <c r="B212" t="s">
         <v>874</v>
       </c>
-      <c r="C212" s="78" t="s">
+      <c r="C212" s="83" t="s">
         <v>875</v>
       </c>
       <c r="D212" t="s">
@@ -15455,7 +15531,7 @@
       <c r="B217" t="s">
         <v>891</v>
       </c>
-      <c r="C217" s="78" t="s">
+      <c r="C217" s="83" t="s">
         <v>892</v>
       </c>
       <c r="D217" t="s">
@@ -15511,7 +15587,7 @@
       <c r="B221" t="s">
         <v>906</v>
       </c>
-      <c r="C221" s="78" t="s">
+      <c r="C221" s="83" t="s">
         <v>907</v>
       </c>
       <c r="D221" t="s">
@@ -15564,7 +15640,7 @@
       <c r="B225" t="s">
         <v>920</v>
       </c>
-      <c r="C225" s="78" t="s">
+      <c r="C225" s="83" t="s">
         <v>921</v>
       </c>
       <c r="D225" t="s">
@@ -15581,7 +15657,7 @@
       <c r="B226" t="s">
         <v>925</v>
       </c>
-      <c r="C226" s="78" t="s">
+      <c r="C226" s="83" t="s">
         <v>926</v>
       </c>
       <c r="D226" t="s">
@@ -15610,7 +15686,7 @@
       <c r="B228" t="s">
         <v>933</v>
       </c>
-      <c r="C228" s="78" t="s">
+      <c r="C228" s="83" t="s">
         <v>934</v>
       </c>
       <c r="D228" t="s">
@@ -15672,7 +15748,7 @@
       <c r="B233" t="s">
         <v>949</v>
       </c>
-      <c r="C233" s="78" t="s">
+      <c r="C233" s="83" t="s">
         <v>950</v>
       </c>
       <c r="D233" t="s">
@@ -15701,7 +15777,7 @@
       <c r="B235" t="s">
         <v>957</v>
       </c>
-      <c r="C235" s="78" t="s">
+      <c r="C235" s="83" t="s">
         <v>958</v>
       </c>
       <c r="D235" t="s">
@@ -15718,7 +15794,7 @@
       <c r="B236" t="s">
         <v>962</v>
       </c>
-      <c r="C236" s="78" t="s">
+      <c r="C236" s="83" t="s">
         <v>963</v>
       </c>
       <c r="D236" t="s">
@@ -15762,7 +15838,7 @@
       <c r="B239" t="s">
         <v>974</v>
       </c>
-      <c r="C239" s="78" t="s">
+      <c r="C239" s="83" t="s">
         <v>975</v>
       </c>
       <c r="D239" t="s">
@@ -15794,7 +15870,7 @@
       <c r="B241" t="s">
         <v>983</v>
       </c>
-      <c r="C241" s="78" t="s">
+      <c r="C241" s="83" t="s">
         <v>984</v>
       </c>
       <c r="D241" t="s">
@@ -15811,7 +15887,7 @@
       <c r="B242" t="s">
         <v>988</v>
       </c>
-      <c r="C242" s="78" t="s">
+      <c r="C242" s="83" t="s">
         <v>989</v>
       </c>
       <c r="D242" t="s">
@@ -15858,7 +15934,7 @@
       <c r="B245" t="s">
         <v>1001</v>
       </c>
-      <c r="C245" s="78" t="s">
+      <c r="C245" s="83" t="s">
         <v>1002</v>
       </c>
       <c r="D245" t="s">
@@ -15875,7 +15951,7 @@
       <c r="B246" t="s">
         <v>1006</v>
       </c>
-      <c r="C246" s="78" t="s">
+      <c r="C246" s="83" t="s">
         <v>1007</v>
       </c>
       <c r="E246" t="s">
@@ -15889,7 +15965,7 @@
       <c r="B247" t="s">
         <v>1010</v>
       </c>
-      <c r="C247" s="78" t="s">
+      <c r="C247" s="83" t="s">
         <v>1011</v>
       </c>
       <c r="D247" t="s">
@@ -15906,7 +15982,7 @@
       <c r="B248" t="s">
         <v>1015</v>
       </c>
-      <c r="C248" s="78" t="s">
+      <c r="C248" s="83" t="s">
         <v>1016</v>
       </c>
       <c r="D248" t="s">
@@ -15923,7 +15999,7 @@
       <c r="B249" t="s">
         <v>1020</v>
       </c>
-      <c r="C249" s="78" t="s">
+      <c r="C249" s="83" t="s">
         <v>1021</v>
       </c>
       <c r="D249" t="s">
@@ -15961,7 +16037,7 @@
       <c r="B252" t="s">
         <v>1030</v>
       </c>
-      <c r="C252" s="78" t="s">
+      <c r="C252" s="83" t="s">
         <v>1031</v>
       </c>
       <c r="D252" t="s">
@@ -15978,7 +16054,7 @@
       <c r="B253" t="s">
         <v>1035</v>
       </c>
-      <c r="C253" s="78" t="s">
+      <c r="C253" s="83" t="s">
         <v>1036</v>
       </c>
       <c r="D253" t="s">
@@ -15995,7 +16071,7 @@
       <c r="B254" t="s">
         <v>1040</v>
       </c>
-      <c r="C254" s="78" t="s">
+      <c r="C254" s="83" t="s">
         <v>1041</v>
       </c>
       <c r="D254" t="s">
@@ -16012,7 +16088,7 @@
       <c r="B255" t="s">
         <v>1045</v>
       </c>
-      <c r="C255" s="78" t="s">
+      <c r="C255" s="83" t="s">
         <v>1046</v>
       </c>
       <c r="D255" t="s">
@@ -16029,7 +16105,7 @@
       <c r="B256" t="s">
         <v>1050</v>
       </c>
-      <c r="C256" s="78" t="s">
+      <c r="C256" s="83" t="s">
         <v>1051</v>
       </c>
       <c r="D256" t="s">
@@ -16046,7 +16122,7 @@
       <c r="B257" t="s">
         <v>1055</v>
       </c>
-      <c r="C257" s="78" t="s">
+      <c r="C257" s="83" t="s">
         <v>1056</v>
       </c>
       <c r="D257" t="s">
@@ -16087,7 +16163,7 @@
       <c r="B260" t="s">
         <v>1066</v>
       </c>
-      <c r="C260" s="78" t="s">
+      <c r="C260" s="83" t="s">
         <v>1067</v>
       </c>
       <c r="D260" t="s">
@@ -16116,7 +16192,7 @@
       <c r="B262" t="s">
         <v>1074</v>
       </c>
-      <c r="C262" s="78" t="s">
+      <c r="C262" s="83" t="s">
         <v>1075</v>
       </c>
       <c r="D262" t="s">
@@ -16130,7 +16206,7 @@
       <c r="B263" t="s">
         <v>1078</v>
       </c>
-      <c r="C263" s="78" t="s">
+      <c r="C263" s="83" t="s">
         <v>1079</v>
       </c>
       <c r="D263" t="s">
@@ -16144,7 +16220,7 @@
       <c r="B264" t="s">
         <v>1082</v>
       </c>
-      <c r="C264" s="78" t="s">
+      <c r="C264" s="83" t="s">
         <v>1083</v>
       </c>
       <c r="D264" t="s">
@@ -16161,7 +16237,7 @@
       <c r="B265" t="s">
         <v>1087</v>
       </c>
-      <c r="C265" s="78" t="s">
+      <c r="C265" s="83" t="s">
         <v>1088</v>
       </c>
       <c r="D265" t="s">
@@ -16202,7 +16278,7 @@
       <c r="B268" t="s">
         <v>1098</v>
       </c>
-      <c r="C268" s="78" t="s">
+      <c r="C268" s="83" t="s">
         <v>1099</v>
       </c>
       <c r="D268" t="s">
@@ -16234,7 +16310,7 @@
       <c r="B270" t="s">
         <v>1107</v>
       </c>
-      <c r="C270" s="78" t="s">
+      <c r="C270" s="83" t="s">
         <v>1108</v>
       </c>
       <c r="D270" t="s">
@@ -16248,7 +16324,7 @@
       <c r="B271" t="s">
         <v>1111</v>
       </c>
-      <c r="C271" s="78" t="s">
+      <c r="C271" s="83" t="s">
         <v>1112</v>
       </c>
       <c r="D271" t="s">
@@ -16265,7 +16341,7 @@
       <c r="B272" t="s">
         <v>1116</v>
       </c>
-      <c r="C272" s="78" t="s">
+      <c r="C272" s="83" t="s">
         <v>1117</v>
       </c>
       <c r="D272" t="s">
@@ -16282,7 +16358,7 @@
       <c r="B273" t="s">
         <v>1121</v>
       </c>
-      <c r="C273" s="78" t="s">
+      <c r="C273" s="83" t="s">
         <v>1122</v>
       </c>
       <c r="D273" t="s">
@@ -16299,7 +16375,7 @@
       <c r="B274" t="s">
         <v>1126</v>
       </c>
-      <c r="C274" s="78" t="s">
+      <c r="C274" s="83" t="s">
         <v>1127</v>
       </c>
       <c r="D274" t="s">
@@ -16331,7 +16407,7 @@
       <c r="B276" t="s">
         <v>1135</v>
       </c>
-      <c r="C276" s="78" t="s">
+      <c r="C276" s="83" t="s">
         <v>1136</v>
       </c>
       <c r="D276" t="s">
@@ -16357,7 +16433,7 @@
       <c r="B278" t="s">
         <v>1142</v>
       </c>
-      <c r="C278" s="78" t="s">
+      <c r="C278" s="83" t="s">
         <v>1143</v>
       </c>
       <c r="D278" t="s">
@@ -16386,7 +16462,7 @@
       <c r="B280" t="s">
         <v>1150</v>
       </c>
-      <c r="C280" s="78" t="s">
+      <c r="C280" s="83" t="s">
         <v>1151</v>
       </c>
       <c r="D280" t="s">
@@ -16418,7 +16494,7 @@
       <c r="B282" t="s">
         <v>1159</v>
       </c>
-      <c r="C282" s="78" t="s">
+      <c r="C282" s="83" t="s">
         <v>1160</v>
       </c>
       <c r="D282" t="s">
@@ -16444,7 +16520,7 @@
       <c r="B284" t="s">
         <v>1166</v>
       </c>
-      <c r="C284" s="78" t="s">
+      <c r="C284" s="83" t="s">
         <v>1167</v>
       </c>
       <c r="D284" t="s">
@@ -16461,7 +16537,7 @@
       <c r="B285" t="s">
         <v>1171</v>
       </c>
-      <c r="C285" s="78" t="s">
+      <c r="C285" s="83" t="s">
         <v>1172</v>
       </c>
       <c r="D285" t="s">
@@ -16478,7 +16554,7 @@
       <c r="B286" t="s">
         <v>1176</v>
       </c>
-      <c r="C286" s="78" t="s">
+      <c r="C286" s="83" t="s">
         <v>1177</v>
       </c>
       <c r="D286" t="s">
@@ -16519,7 +16595,7 @@
       <c r="B289" t="s">
         <v>1187</v>
       </c>
-      <c r="C289" s="78" t="s">
+      <c r="C289" s="83" t="s">
         <v>1188</v>
       </c>
       <c r="D289" t="s">
@@ -16536,7 +16612,7 @@
       <c r="B290" t="s">
         <v>1192</v>
       </c>
-      <c r="C290" s="78" t="s">
+      <c r="C290" s="83" t="s">
         <v>1193</v>
       </c>
       <c r="D290" t="s">
@@ -16553,7 +16629,7 @@
       <c r="B291" t="s">
         <v>1197</v>
       </c>
-      <c r="C291" s="78" t="s">
+      <c r="C291" s="83" t="s">
         <v>1198</v>
       </c>
       <c r="D291" t="s">
@@ -16570,7 +16646,7 @@
       <c r="B292" t="s">
         <v>1202</v>
       </c>
-      <c r="C292" s="78" t="s">
+      <c r="C292" s="83" t="s">
         <v>1203</v>
       </c>
       <c r="D292" t="s">
@@ -16587,7 +16663,7 @@
       <c r="B293" t="s">
         <v>1207</v>
       </c>
-      <c r="C293" s="78" t="s">
+      <c r="C293" s="83" t="s">
         <v>1208</v>
       </c>
       <c r="D293" t="s">
@@ -16613,7 +16689,7 @@
       <c r="B295" t="s">
         <v>1214</v>
       </c>
-      <c r="C295" s="78" t="s">
+      <c r="C295" s="83" t="s">
         <v>1215</v>
       </c>
       <c r="D295" t="s">
@@ -16627,7 +16703,7 @@
       <c r="B296" t="s">
         <v>1218</v>
       </c>
-      <c r="C296" s="78" t="s">
+      <c r="C296" s="83" t="s">
         <v>1219</v>
       </c>
       <c r="D296" t="s">
@@ -16644,7 +16720,7 @@
       <c r="B297" t="s">
         <v>1223</v>
       </c>
-      <c r="C297" s="78" t="s">
+      <c r="C297" s="83" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -16655,7 +16731,7 @@
       <c r="B298" t="s">
         <v>1226</v>
       </c>
-      <c r="C298" s="78" t="s">
+      <c r="C298" s="83" t="s">
         <v>1227</v>
       </c>
       <c r="D298" t="s">
@@ -16672,7 +16748,7 @@
       <c r="B299" t="s">
         <v>1231</v>
       </c>
-      <c r="C299" s="78" t="s">
+      <c r="C299" s="83" t="s">
         <v>1232</v>
       </c>
       <c r="D299" t="s">
@@ -16689,7 +16765,7 @@
       <c r="B300" t="s">
         <v>1236</v>
       </c>
-      <c r="C300" s="78" t="s">
+      <c r="C300" s="83" t="s">
         <v>1237</v>
       </c>
       <c r="D300" t="s">
@@ -16718,7 +16794,7 @@
       <c r="B302" t="s">
         <v>1244</v>
       </c>
-      <c r="C302" s="78" t="s">
+      <c r="C302" s="83" t="s">
         <v>1245</v>
       </c>
       <c r="D302" t="s">
@@ -16735,7 +16811,7 @@
       <c r="B303" t="s">
         <v>1249</v>
       </c>
-      <c r="C303" s="78" t="s">
+      <c r="C303" s="83" t="s">
         <v>1250</v>
       </c>
       <c r="D303" t="s">
@@ -16767,7 +16843,7 @@
       <c r="B305" t="s">
         <v>1258</v>
       </c>
-      <c r="C305" s="78" t="s">
+      <c r="C305" s="83" t="s">
         <v>1259</v>
       </c>
       <c r="D305" t="s">
@@ -16784,7 +16860,7 @@
       <c r="B306" t="s">
         <v>1263</v>
       </c>
-      <c r="C306" s="78" t="s">
+      <c r="C306" s="83" t="s">
         <v>1264</v>
       </c>
       <c r="D306" t="s">
@@ -16813,7 +16889,7 @@
       <c r="B308" t="s">
         <v>1271</v>
       </c>
-      <c r="C308" s="78" t="s">
+      <c r="C308" s="83" t="s">
         <v>1272</v>
       </c>
       <c r="D308" t="s">
@@ -16830,7 +16906,7 @@
       <c r="B309" t="s">
         <v>1276</v>
       </c>
-      <c r="C309" s="78" t="s">
+      <c r="C309" s="83" t="s">
         <v>1277</v>
       </c>
       <c r="D309" t="s">
@@ -16856,7 +16932,7 @@
       <c r="B311" t="s">
         <v>1283</v>
       </c>
-      <c r="C311" s="78" t="s">
+      <c r="C311" s="83" t="s">
         <v>1284</v>
       </c>
       <c r="D311" t="s">
@@ -16873,7 +16949,7 @@
       <c r="B312" t="s">
         <v>1288</v>
       </c>
-      <c r="C312" s="78" t="s">
+      <c r="C312" s="83" t="s">
         <v>1289</v>
       </c>
       <c r="D312" t="s">
@@ -16890,7 +16966,7 @@
       <c r="B313" t="s">
         <v>1293</v>
       </c>
-      <c r="C313" s="78" t="s">
+      <c r="C313" s="83" t="s">
         <v>1294</v>
       </c>
       <c r="D313" t="s">
@@ -16922,7 +16998,7 @@
       <c r="B315" t="s">
         <v>1302</v>
       </c>
-      <c r="C315" s="80" t="s">
+      <c r="C315" s="85" t="s">
         <v>1303</v>
       </c>
       <c r="D315" t="s">
@@ -16954,7 +17030,7 @@
       <c r="B317" t="s">
         <v>1311</v>
       </c>
-      <c r="C317" s="78" t="s">
+      <c r="C317" s="83" t="s">
         <v>1312</v>
       </c>
       <c r="E317" t="s">
@@ -16968,7 +17044,7 @@
       <c r="B318" t="s">
         <v>1315</v>
       </c>
-      <c r="C318" s="78" t="s">
+      <c r="C318" s="83" t="s">
         <v>1316</v>
       </c>
       <c r="D318" t="s">
@@ -17012,7 +17088,7 @@
       <c r="B321" t="s">
         <v>1327</v>
       </c>
-      <c r="C321" s="78" t="s">
+      <c r="C321" s="83" t="s">
         <v>1328</v>
       </c>
       <c r="D321" t="s">
@@ -17029,7 +17105,7 @@
       <c r="B322" t="s">
         <v>1332</v>
       </c>
-      <c r="C322" s="78" t="s">
+      <c r="C322" s="83" t="s">
         <v>1333</v>
       </c>
       <c r="D322" t="s">
@@ -17046,7 +17122,7 @@
       <c r="B323" t="s">
         <v>1337</v>
       </c>
-      <c r="C323" s="78" t="s">
+      <c r="C323" s="83" t="s">
         <v>1338</v>
       </c>
       <c r="D323" t="s">
@@ -17063,7 +17139,7 @@
       <c r="B324" t="s">
         <v>1342</v>
       </c>
-      <c r="C324" s="78" t="s">
+      <c r="C324" s="83" t="s">
         <v>1343</v>
       </c>
       <c r="D324" t="s">
@@ -17080,7 +17156,7 @@
       <c r="B325" t="s">
         <v>1347</v>
       </c>
-      <c r="C325" s="78" t="s">
+      <c r="C325" s="83" t="s">
         <v>1348</v>
       </c>
       <c r="D325" t="s">
@@ -17109,7 +17185,7 @@
       <c r="B327" t="s">
         <v>1355</v>
       </c>
-      <c r="C327" s="78" t="s">
+      <c r="C327" s="83" t="s">
         <v>1356</v>
       </c>
       <c r="D327" t="s">
@@ -17126,7 +17202,7 @@
       <c r="B328" t="s">
         <v>1360</v>
       </c>
-      <c r="C328" s="78" t="s">
+      <c r="C328" s="83" t="s">
         <v>1361</v>
       </c>
       <c r="D328" t="s">
@@ -17143,7 +17219,7 @@
       <c r="B329" t="s">
         <v>1365</v>
       </c>
-      <c r="C329" s="78" t="s">
+      <c r="C329" s="83" t="s">
         <v>1366</v>
       </c>
       <c r="D329" t="s">
@@ -17169,7 +17245,7 @@
       <c r="B331" t="s">
         <v>1372</v>
       </c>
-      <c r="C331" s="78" t="s">
+      <c r="C331" s="83" t="s">
         <v>1373</v>
       </c>
       <c r="D331" t="s">
@@ -17186,7 +17262,7 @@
       <c r="B332" t="s">
         <v>1377</v>
       </c>
-      <c r="C332" s="78" t="s">
+      <c r="C332" s="83" t="s">
         <v>1378</v>
       </c>
       <c r="D332" t="s">
@@ -17227,7 +17303,7 @@
       <c r="B335" t="s">
         <v>1388</v>
       </c>
-      <c r="C335" s="78" t="s">
+      <c r="C335" s="83" t="s">
         <v>1389</v>
       </c>
       <c r="D335" t="s">
@@ -17256,7 +17332,7 @@
       <c r="B337" t="s">
         <v>1396</v>
       </c>
-      <c r="C337" s="78" t="s">
+      <c r="C337" s="83" t="s">
         <v>1397</v>
       </c>
       <c r="D337" t="s">
@@ -17270,7 +17346,7 @@
       <c r="B338" t="s">
         <v>1400</v>
       </c>
-      <c r="C338" s="78" t="s">
+      <c r="C338" s="83" t="s">
         <v>1401</v>
       </c>
       <c r="D338" t="s">
@@ -17293,7 +17369,7 @@
       <c r="B340" t="s">
         <v>1406</v>
       </c>
-      <c r="C340" s="78" t="s">
+      <c r="C340" s="83" t="s">
         <v>1407</v>
       </c>
       <c r="D340" t="s">
@@ -17310,7 +17386,7 @@
       <c r="B341" t="s">
         <v>1411</v>
       </c>
-      <c r="C341" s="78" t="s">
+      <c r="C341" s="83" t="s">
         <v>1412</v>
       </c>
       <c r="D341" t="s">
@@ -17339,7 +17415,7 @@
       <c r="B343" t="s">
         <v>1419</v>
       </c>
-      <c r="C343" s="78" t="s">
+      <c r="C343" s="83" t="s">
         <v>1420</v>
       </c>
       <c r="D343" t="s">
@@ -17380,7 +17456,7 @@
       <c r="B346" t="s">
         <v>1430</v>
       </c>
-      <c r="C346" s="78" t="s">
+      <c r="C346" s="83" t="s">
         <v>1431</v>
       </c>
       <c r="D346" t="s">
@@ -17397,7 +17473,7 @@
       <c r="B347" t="s">
         <v>1435</v>
       </c>
-      <c r="C347" s="78" t="s">
+      <c r="C347" s="83" t="s">
         <v>1436</v>
       </c>
       <c r="D347" t="s">
@@ -17414,7 +17490,7 @@
       <c r="B348" t="s">
         <v>1440</v>
       </c>
-      <c r="C348" s="78" t="s">
+      <c r="C348" s="83" t="s">
         <v>1441</v>
       </c>
       <c r="D348" t="s">
@@ -17431,7 +17507,7 @@
       <c r="B349" t="s">
         <v>1445</v>
       </c>
-      <c r="C349" s="78" t="s">
+      <c r="C349" s="83" t="s">
         <v>1446</v>
       </c>
       <c r="D349" t="s">
@@ -17448,7 +17524,7 @@
       <c r="B350" t="s">
         <v>1450</v>
       </c>
-      <c r="C350" s="78" t="s">
+      <c r="C350" s="83" t="s">
         <v>1451</v>
       </c>
       <c r="D350" t="s">
@@ -17474,7 +17550,7 @@
       <c r="B352" t="s">
         <v>1457</v>
       </c>
-      <c r="C352" s="78" t="s">
+      <c r="C352" s="83" t="s">
         <v>1458</v>
       </c>
       <c r="D352" t="s">
@@ -17491,7 +17567,7 @@
       <c r="B353" t="s">
         <v>1462</v>
       </c>
-      <c r="C353" s="78" t="s">
+      <c r="C353" s="83" t="s">
         <v>1463</v>
       </c>
       <c r="D353" t="s">
@@ -17544,7 +17620,7 @@
       <c r="B357" t="s">
         <v>1476</v>
       </c>
-      <c r="C357" s="78" t="s">
+      <c r="C357" s="83" t="s">
         <v>1477</v>
       </c>
       <c r="E357" t="s">
@@ -17558,7 +17634,7 @@
       <c r="B358" t="s">
         <v>1480</v>
       </c>
-      <c r="C358" s="78" t="s">
+      <c r="C358" s="83" t="s">
         <v>1481</v>
       </c>
       <c r="D358" t="s">
@@ -17575,7 +17651,7 @@
       <c r="B359" t="s">
         <v>1485</v>
       </c>
-      <c r="C359" s="78" t="s">
+      <c r="C359" s="83" t="s">
         <v>1486</v>
       </c>
       <c r="D359" t="s">
@@ -17598,7 +17674,7 @@
       <c r="B361" t="s">
         <v>1491</v>
       </c>
-      <c r="C361" s="78" t="s">
+      <c r="C361" s="83" t="s">
         <v>1492</v>
       </c>
       <c r="D361" t="s">
@@ -17669,7 +17745,7 @@
       <c r="B366" t="s">
         <v>1510</v>
       </c>
-      <c r="C366" s="78" t="s">
+      <c r="C366" s="83" t="s">
         <v>1511</v>
       </c>
       <c r="D366" t="s">
@@ -17698,7 +17774,7 @@
       <c r="B368" t="s">
         <v>1518</v>
       </c>
-      <c r="C368" s="78" t="s">
+      <c r="C368" s="83" t="s">
         <v>1519</v>
       </c>
       <c r="D368" t="s">
@@ -17724,7 +17800,7 @@
       <c r="B370" t="s">
         <v>1524</v>
       </c>
-      <c r="C370" s="78" t="s">
+      <c r="C370" s="83" t="s">
         <v>1525</v>
       </c>
       <c r="D370" t="s">
@@ -17777,7 +17853,7 @@
       <c r="B374" t="s">
         <v>1538</v>
       </c>
-      <c r="C374" s="78" t="s">
+      <c r="C374" s="83" t="s">
         <v>1539</v>
       </c>
       <c r="E374" t="s">
@@ -17803,7 +17879,7 @@
       <c r="B376" t="s">
         <v>1545</v>
       </c>
-      <c r="C376" s="78" t="s">
+      <c r="C376" s="83" t="s">
         <v>1546</v>
       </c>
       <c r="D376" t="s">
@@ -17820,7 +17896,7 @@
       <c r="B377" t="s">
         <v>1550</v>
       </c>
-      <c r="C377" s="78" t="s">
+      <c r="C377" s="83" t="s">
         <v>1551</v>
       </c>
       <c r="D377" t="s">
@@ -17837,7 +17913,7 @@
       <c r="B378" t="s">
         <v>1555</v>
       </c>
-      <c r="C378" s="78" t="s">
+      <c r="C378" s="83" t="s">
         <v>1556</v>
       </c>
       <c r="D378" t="s">
@@ -17866,7 +17942,7 @@
       <c r="B380" t="s">
         <v>1563</v>
       </c>
-      <c r="C380" s="78" t="s">
+      <c r="C380" s="83" t="s">
         <v>1564</v>
       </c>
       <c r="D380" t="s">
@@ -17928,7 +18004,7 @@
       <c r="B385" t="s">
         <v>1579</v>
       </c>
-      <c r="C385" s="78" t="s">
+      <c r="C385" s="83" t="s">
         <v>1580</v>
       </c>
       <c r="D385" t="s">
@@ -17945,7 +18021,7 @@
       <c r="B386" t="s">
         <v>1584</v>
       </c>
-      <c r="C386" s="78" t="s">
+      <c r="C386" s="83" t="s">
         <v>1585</v>
       </c>
       <c r="E386" t="s">
@@ -17968,7 +18044,7 @@
       <c r="B388" t="s">
         <v>1590</v>
       </c>
-      <c r="C388" s="78" t="s">
+      <c r="C388" s="83" t="s">
         <v>1591</v>
       </c>
       <c r="D388" t="s">
@@ -18006,7 +18082,7 @@
       <c r="B391" t="s">
         <v>1600</v>
       </c>
-      <c r="C391" s="78" t="s">
+      <c r="C391" s="83" t="s">
         <v>1601</v>
       </c>
       <c r="D391" t="s">
@@ -18074,7 +18150,7 @@
       <c r="B396" t="s">
         <v>1618</v>
       </c>
-      <c r="C396" s="78" t="s">
+      <c r="C396" s="83" t="s">
         <v>1619</v>
       </c>
       <c r="D396" t="s">
@@ -18115,7 +18191,7 @@
       <c r="B399" t="s">
         <v>1629</v>
       </c>
-      <c r="C399" s="78" t="s">
+      <c r="C399" s="83" t="s">
         <v>1630</v>
       </c>
       <c r="E399" t="s">
@@ -18129,7 +18205,7 @@
       <c r="B400" t="s">
         <v>1633</v>
       </c>
-      <c r="C400" s="78" t="s">
+      <c r="C400" s="83" t="s">
         <v>1634</v>
       </c>
       <c r="D400" t="s">
@@ -18143,7 +18219,7 @@
       <c r="B401" t="s">
         <v>1637</v>
       </c>
-      <c r="C401" s="78" t="s">
+      <c r="C401" s="83" t="s">
         <v>1638</v>
       </c>
       <c r="D401" t="s">
@@ -18157,7 +18233,7 @@
       <c r="B402" t="s">
         <v>1641</v>
       </c>
-      <c r="C402" s="78" t="s">
+      <c r="C402" s="83" t="s">
         <v>1642</v>
       </c>
       <c r="D402" t="s">
@@ -18171,7 +18247,7 @@
       <c r="B403" t="s">
         <v>1645</v>
       </c>
-      <c r="C403" s="78" t="s">
+      <c r="C403" s="83" t="s">
         <v>1646</v>
       </c>
       <c r="D403" t="s">
@@ -18185,7 +18261,7 @@
       <c r="B404" t="s">
         <v>1649</v>
       </c>
-      <c r="C404" s="78" t="s">
+      <c r="C404" s="83" t="s">
         <v>1650</v>
       </c>
       <c r="D404" t="s">
@@ -18202,7 +18278,7 @@
       <c r="B405" t="s">
         <v>1654</v>
       </c>
-      <c r="C405" s="78" t="s">
+      <c r="C405" s="83" t="s">
         <v>1655</v>
       </c>
       <c r="D405" t="s">
@@ -18219,7 +18295,7 @@
       <c r="B406" t="s">
         <v>1659</v>
       </c>
-      <c r="C406" s="78" t="s">
+      <c r="C406" s="83" t="s">
         <v>1660</v>
       </c>
       <c r="D406" t="s">
@@ -18260,7 +18336,7 @@
       <c r="B409" t="s">
         <v>1670</v>
       </c>
-      <c r="C409" s="78" t="s">
+      <c r="C409" s="83" t="s">
         <v>1671</v>
       </c>
       <c r="D409" t="s">
@@ -18286,7 +18362,7 @@
       <c r="B411" t="s">
         <v>1677</v>
       </c>
-      <c r="C411" s="78" t="s">
+      <c r="C411" s="83" t="s">
         <v>1678</v>
       </c>
       <c r="D411" t="s">
@@ -18354,7 +18430,7 @@
       <c r="B416" t="s">
         <v>1695</v>
       </c>
-      <c r="C416" s="80" t="s">
+      <c r="C416" s="85" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -18365,7 +18441,7 @@
       <c r="B417" t="s">
         <v>1698</v>
       </c>
-      <c r="C417" s="78" t="s">
+      <c r="C417" s="83" t="s">
         <v>1699</v>
       </c>
       <c r="D417" t="s">
@@ -18382,7 +18458,7 @@
       <c r="B418" t="s">
         <v>1703</v>
       </c>
-      <c r="C418" s="78" t="s">
+      <c r="C418" s="83" t="s">
         <v>1704</v>
       </c>
       <c r="D418" t="s">
@@ -18408,7 +18484,7 @@
       <c r="B420" t="s">
         <v>1710</v>
       </c>
-      <c r="C420" s="78" t="s">
+      <c r="C420" s="83" t="s">
         <v>1711</v>
       </c>
       <c r="D420" t="s">
@@ -18425,7 +18501,7 @@
       <c r="B421" t="s">
         <v>1715</v>
       </c>
-      <c r="C421" s="78" t="s">
+      <c r="C421" s="83" t="s">
         <v>1716</v>
       </c>
       <c r="D421" t="s">
@@ -18442,7 +18518,7 @@
       <c r="B422" t="s">
         <v>1670</v>
       </c>
-      <c r="C422" s="78" t="s">
+      <c r="C422" s="83" t="s">
         <v>1720</v>
       </c>
       <c r="D422" t="s">
@@ -18459,7 +18535,7 @@
       <c r="B423" t="s">
         <v>1724</v>
       </c>
-      <c r="C423" s="78" t="s">
+      <c r="C423" s="83" t="s">
         <v>1725</v>
       </c>
       <c r="D423" t="s">
@@ -18476,7 +18552,7 @@
       <c r="B424" t="s">
         <v>1729</v>
       </c>
-      <c r="C424" s="78" t="s">
+      <c r="C424" s="83" t="s">
         <v>1730</v>
       </c>
       <c r="D424" t="s">
@@ -18505,7 +18581,7 @@
       <c r="B426" t="s">
         <v>1737</v>
       </c>
-      <c r="C426" s="78" t="s">
+      <c r="C426" s="83" t="s">
         <v>1738</v>
       </c>
       <c r="D426" t="s">
@@ -18522,7 +18598,7 @@
       <c r="B427" t="s">
         <v>1742</v>
       </c>
-      <c r="C427" s="78" t="s">
+      <c r="C427" s="83" t="s">
         <v>1743</v>
       </c>
       <c r="E427" t="s">
@@ -18548,7 +18624,7 @@
       <c r="B429" t="s">
         <v>1749</v>
       </c>
-      <c r="C429" s="78" t="s">
+      <c r="C429" s="83" t="s">
         <v>1750</v>
       </c>
       <c r="D429" t="s">
@@ -18574,7 +18650,7 @@
       <c r="B431" t="s">
         <v>1756</v>
       </c>
-      <c r="C431" s="78" t="s">
+      <c r="C431" s="83" t="s">
         <v>1757</v>
       </c>
       <c r="D431" t="s">
@@ -18588,7 +18664,7 @@
       <c r="B432" t="s">
         <v>1760</v>
       </c>
-      <c r="C432" s="78" t="s">
+      <c r="C432" s="83" t="s">
         <v>1761</v>
       </c>
       <c r="D432" t="s">
@@ -18635,7 +18711,7 @@
       <c r="A436" t="s">
         <v>1772</v>
       </c>
-      <c r="C436" s="78" t="s">
+      <c r="C436" s="83" t="s">
         <v>1773</v>
       </c>
       <c r="D436" t="s">
@@ -18742,7 +18818,7 @@
       <c r="B444" t="s">
         <v>1800</v>
       </c>
-      <c r="C444" s="78" t="s">
+      <c r="C444" s="83" t="s">
         <v>1801</v>
       </c>
       <c r="D444" t="s">
@@ -18792,7 +18868,7 @@
       <c r="B448" t="s">
         <v>1813</v>
       </c>
-      <c r="C448" s="78" t="s">
+      <c r="C448" s="83" t="s">
         <v>1814</v>
       </c>
       <c r="D448" t="s">
@@ -18806,7 +18882,7 @@
       <c r="B449" t="s">
         <v>1817</v>
       </c>
-      <c r="C449" s="78" t="s">
+      <c r="C449" s="83" t="s">
         <v>1818</v>
       </c>
     </row>
@@ -18817,7 +18893,7 @@
       <c r="B450" t="s">
         <v>1820</v>
       </c>
-      <c r="C450" s="78" t="s">
+      <c r="C450" s="83" t="s">
         <v>1821</v>
       </c>
       <c r="D450" t="s">
@@ -18834,7 +18910,7 @@
       <c r="B451" t="s">
         <v>1825</v>
       </c>
-      <c r="C451" s="78" t="s">
+      <c r="C451" s="83" t="s">
         <v>1826</v>
       </c>
       <c r="D451" t="s">
@@ -18848,7 +18924,7 @@
       <c r="B452" t="s">
         <v>1829</v>
       </c>
-      <c r="C452" s="78" t="s">
+      <c r="C452" s="83" t="s">
         <v>1830</v>
       </c>
       <c r="D452" t="s">
@@ -18913,7 +18989,7 @@
       <c r="B457" t="s">
         <v>1846</v>
       </c>
-      <c r="C457" s="78" t="s">
+      <c r="C457" s="83" t="s">
         <v>1847</v>
       </c>
       <c r="D457" t="s">
@@ -18945,7 +19021,7 @@
       <c r="B459" t="s">
         <v>1855</v>
       </c>
-      <c r="C459" s="80" t="s">
+      <c r="C459" s="85" t="s">
         <v>1856</v>
       </c>
       <c r="D459" t="s">
@@ -18959,7 +19035,7 @@
       <c r="B460" t="s">
         <v>1859</v>
       </c>
-      <c r="C460" s="78" t="s">
+      <c r="C460" s="83" t="s">
         <v>1860</v>
       </c>
       <c r="D460" t="s">
@@ -18976,7 +19052,7 @@
       <c r="B461" t="s">
         <v>1864</v>
       </c>
-      <c r="C461" s="80" t="s">
+      <c r="C461" s="85" t="s">
         <v>1865</v>
       </c>
       <c r="E461" t="s">
@@ -19002,7 +19078,7 @@
       <c r="B463" t="s">
         <v>1871</v>
       </c>
-      <c r="C463" s="78" t="s">
+      <c r="C463" s="83" t="s">
         <v>1872</v>
       </c>
       <c r="D463" t="s">
@@ -19031,7 +19107,7 @@
       <c r="B465" t="s">
         <v>1879</v>
       </c>
-      <c r="C465" s="78" t="s">
+      <c r="C465" s="83" t="s">
         <v>1880</v>
       </c>
       <c r="D465" t="s">
@@ -19048,7 +19124,7 @@
       <c r="B466" t="s">
         <v>1884</v>
       </c>
-      <c r="C466" s="80" t="s">
+      <c r="C466" s="85" t="s">
         <v>1885</v>
       </c>
       <c r="D466" t="s">
@@ -19065,7 +19141,7 @@
       <c r="B467" t="s">
         <v>1889</v>
       </c>
-      <c r="C467" s="78" t="s">
+      <c r="C467" s="83" t="s">
         <v>1890</v>
       </c>
       <c r="D467" t="s">
@@ -19118,7 +19194,7 @@
       <c r="B471" t="s">
         <v>1903</v>
       </c>
-      <c r="C471" s="78" t="s">
+      <c r="C471" s="83" t="s">
         <v>1904</v>
       </c>
       <c r="D471" t="s">
@@ -19132,7 +19208,7 @@
       <c r="B472" t="s">
         <v>1907</v>
       </c>
-      <c r="C472" s="78" t="s">
+      <c r="C472" s="83" t="s">
         <v>1908</v>
       </c>
       <c r="D472" t="s">
@@ -19170,7 +19246,7 @@
       <c r="B475" t="s">
         <v>1917</v>
       </c>
-      <c r="C475" s="78" t="s">
+      <c r="C475" s="83" t="s">
         <v>1918</v>
       </c>
       <c r="D475" t="s">
@@ -19184,7 +19260,7 @@
       <c r="B476" t="s">
         <v>1921</v>
       </c>
-      <c r="C476" s="78" t="s">
+      <c r="C476" s="83" t="s">
         <v>1922</v>
       </c>
       <c r="D476" t="s">
@@ -19228,7 +19304,7 @@
       <c r="B479" t="s">
         <v>1933</v>
       </c>
-      <c r="C479" s="78" t="s">
+      <c r="C479" s="83" t="s">
         <v>1934</v>
       </c>
       <c r="D479" t="s">
@@ -19254,7 +19330,7 @@
       <c r="B481" t="s">
         <v>1940</v>
       </c>
-      <c r="C481" s="78" t="s">
+      <c r="C481" s="83" t="s">
         <v>1941</v>
       </c>
       <c r="D481" t="s">
@@ -19286,7 +19362,7 @@
       <c r="B483" t="s">
         <v>1949</v>
       </c>
-      <c r="C483" s="78" t="s">
+      <c r="C483" s="83" t="s">
         <v>1950</v>
       </c>
       <c r="E483" t="s">
@@ -19300,7 +19376,7 @@
       <c r="B484" t="s">
         <v>1953</v>
       </c>
-      <c r="C484" s="78" t="s">
+      <c r="C484" s="83" t="s">
         <v>1954</v>
       </c>
       <c r="D484" t="s">
@@ -19317,7 +19393,7 @@
       <c r="B485" t="s">
         <v>1958</v>
       </c>
-      <c r="C485" s="78" t="s">
+      <c r="C485" s="83" t="s">
         <v>1959</v>
       </c>
       <c r="D485" t="s">
@@ -19355,7 +19431,7 @@
       <c r="B488" t="s">
         <v>1968</v>
       </c>
-      <c r="C488" s="78" t="s">
+      <c r="C488" s="83" t="s">
         <v>1969</v>
       </c>
       <c r="D488" t="s">
@@ -19384,7 +19460,7 @@
       <c r="B490" t="s">
         <v>1976</v>
       </c>
-      <c r="C490" s="78" t="s">
+      <c r="C490" s="83" t="s">
         <v>1977</v>
       </c>
       <c r="D490" t="s">
@@ -19413,7 +19489,7 @@
       <c r="B492" t="s">
         <v>1984</v>
       </c>
-      <c r="C492" s="78" t="s">
+      <c r="C492" s="83" t="s">
         <v>1985</v>
       </c>
       <c r="D492" t="s">
@@ -19430,7 +19506,7 @@
       <c r="B493" t="s">
         <v>1989</v>
       </c>
-      <c r="C493" s="78" t="s">
+      <c r="C493" s="83" t="s">
         <v>1990</v>
       </c>
       <c r="D493" t="s">
@@ -19447,7 +19523,7 @@
       <c r="B494" t="s">
         <v>1994</v>
       </c>
-      <c r="C494" s="78" t="s">
+      <c r="C494" s="83" t="s">
         <v>1995</v>
       </c>
       <c r="D494" t="s">
@@ -19464,7 +19540,7 @@
       <c r="B495" t="s">
         <v>1999</v>
       </c>
-      <c r="C495" s="78" t="s">
+      <c r="C495" s="83" t="s">
         <v>2000</v>
       </c>
       <c r="D495" t="s">
@@ -19493,7 +19569,7 @@
       <c r="B497" t="s">
         <v>2007</v>
       </c>
-      <c r="C497" s="78" t="s">
+      <c r="C497" s="83" t="s">
         <v>2008</v>
       </c>
       <c r="D497" t="s">
@@ -19510,7 +19586,7 @@
       <c r="B498" t="s">
         <v>2012</v>
       </c>
-      <c r="C498" s="78" t="s">
+      <c r="C498" s="83" t="s">
         <v>2013</v>
       </c>
       <c r="D498" t="s">
@@ -19527,7 +19603,7 @@
       <c r="B499" t="s">
         <v>2017</v>
       </c>
-      <c r="C499" s="78" t="s">
+      <c r="C499" s="83" t="s">
         <v>2018</v>
       </c>
       <c r="D499" t="s">
@@ -19544,7 +19620,7 @@
       <c r="B500" t="s">
         <v>2022</v>
       </c>
-      <c r="C500" s="78" t="s">
+      <c r="C500" s="83" t="s">
         <v>2023</v>
       </c>
       <c r="D500" t="s">
@@ -19570,7 +19646,7 @@
       <c r="B502" t="s">
         <v>2029</v>
       </c>
-      <c r="C502" s="78" t="s">
+      <c r="C502" s="83" t="s">
         <v>2030</v>
       </c>
       <c r="D502" t="s">
@@ -19587,7 +19663,7 @@
       <c r="B503" t="s">
         <v>2034</v>
       </c>
-      <c r="C503" s="78" t="s">
+      <c r="C503" s="83" t="s">
         <v>2035</v>
       </c>
       <c r="D503" t="s">
@@ -19604,7 +19680,7 @@
       <c r="B504" t="s">
         <v>2039</v>
       </c>
-      <c r="C504" s="78" t="s">
+      <c r="C504" s="83" t="s">
         <v>2040</v>
       </c>
       <c r="D504" t="s">
@@ -19654,7 +19730,7 @@
       <c r="B508" t="s">
         <v>2052</v>
       </c>
-      <c r="C508" s="80" t="s">
+      <c r="C508" s="85" t="s">
         <v>2053</v>
       </c>
       <c r="D508" t="s">
@@ -19671,7 +19747,7 @@
       <c r="B509" t="s">
         <v>2057</v>
       </c>
-      <c r="C509" s="78" t="s">
+      <c r="C509" s="83" t="s">
         <v>2058</v>
       </c>
       <c r="D509" t="s">
@@ -19685,7 +19761,7 @@
       <c r="B510" t="s">
         <v>2061</v>
       </c>
-      <c r="C510" s="78" t="s">
+      <c r="C510" s="83" t="s">
         <v>2062</v>
       </c>
       <c r="D510" t="s">
@@ -19699,7 +19775,7 @@
       <c r="B511" t="s">
         <v>2065</v>
       </c>
-      <c r="C511" s="78" t="s">
+      <c r="C511" s="83" t="s">
         <v>2066</v>
       </c>
       <c r="D511" t="s">
@@ -19716,7 +19792,7 @@
       <c r="B512" t="s">
         <v>2070</v>
       </c>
-      <c r="C512" s="78" t="s">
+      <c r="C512" s="83" t="s">
         <v>2071</v>
       </c>
       <c r="D512" t="s">
@@ -19733,7 +19809,7 @@
       <c r="B513" t="s">
         <v>2075</v>
       </c>
-      <c r="C513" s="78" t="s">
+      <c r="C513" s="83" t="s">
         <v>2076</v>
       </c>
       <c r="D513" t="s">
@@ -19750,7 +19826,7 @@
       <c r="B514" t="s">
         <v>2080</v>
       </c>
-      <c r="C514" s="78" t="s">
+      <c r="C514" s="83" t="s">
         <v>2081</v>
       </c>
       <c r="D514" t="s">
@@ -19776,7 +19852,7 @@
       <c r="B516" t="s">
         <v>2086</v>
       </c>
-      <c r="C516" s="78" t="s">
+      <c r="C516" s="83" t="s">
         <v>2087</v>
       </c>
       <c r="D516" t="s">
@@ -19847,7 +19923,7 @@
       <c r="B521" t="s">
         <v>2105</v>
       </c>
-      <c r="C521" s="78" t="s">
+      <c r="C521" s="83" t="s">
         <v>2106</v>
       </c>
       <c r="D521" t="s">
@@ -19864,7 +19940,7 @@
       <c r="B522" t="s">
         <v>2110</v>
       </c>
-      <c r="C522" s="78" t="s">
+      <c r="C522" s="83" t="s">
         <v>2111</v>
       </c>
       <c r="D522" t="s">
@@ -19878,7 +19954,7 @@
       <c r="B523" t="s">
         <v>2113</v>
       </c>
-      <c r="C523" s="78" t="s">
+      <c r="C523" s="83" t="s">
         <v>2114</v>
       </c>
       <c r="D523" t="s">
@@ -19895,7 +19971,7 @@
       <c r="B524" t="s">
         <v>2118</v>
       </c>
-      <c r="C524" s="78" t="s">
+      <c r="C524" s="83" t="s">
         <v>2119</v>
       </c>
       <c r="D524" t="s">
@@ -19924,7 +20000,7 @@
       <c r="B526" t="s">
         <v>2126</v>
       </c>
-      <c r="C526" s="78" t="s">
+      <c r="C526" s="83" t="s">
         <v>2127</v>
       </c>
       <c r="D526" t="s">
@@ -19950,7 +20026,7 @@
       <c r="B528" t="s">
         <v>2133</v>
       </c>
-      <c r="C528" s="78" t="s">
+      <c r="C528" s="83" t="s">
         <v>2134</v>
       </c>
       <c r="D528" t="s">
@@ -19967,7 +20043,7 @@
       <c r="B529" t="s">
         <v>2138</v>
       </c>
-      <c r="C529" s="78" t="s">
+      <c r="C529" s="83" t="s">
         <v>2139</v>
       </c>
       <c r="D529" t="s">
@@ -19984,7 +20060,7 @@
       <c r="B530" t="s">
         <v>2143</v>
       </c>
-      <c r="C530" s="78" t="s">
+      <c r="C530" s="83" t="s">
         <v>2144</v>
       </c>
       <c r="D530" t="s">
@@ -20001,7 +20077,7 @@
       <c r="B531" t="s">
         <v>2148</v>
       </c>
-      <c r="C531" s="78" t="s">
+      <c r="C531" s="83" t="s">
         <v>2149</v>
       </c>
       <c r="D531" t="s">
@@ -20018,7 +20094,7 @@
       <c r="B532" t="s">
         <v>2153</v>
       </c>
-      <c r="C532" s="78" t="s">
+      <c r="C532" s="83" t="s">
         <v>2154</v>
       </c>
       <c r="D532" t="s">
@@ -20044,7 +20120,7 @@
       <c r="B534" t="s">
         <v>2160</v>
       </c>
-      <c r="C534" s="78" t="s">
+      <c r="C534" s="83" t="s">
         <v>2161</v>
       </c>
       <c r="D534" t="s">
@@ -20061,7 +20137,7 @@
       <c r="B535" t="s">
         <v>2165</v>
       </c>
-      <c r="C535" s="78" t="s">
+      <c r="C535" s="83" t="s">
         <v>2166</v>
       </c>
       <c r="E535" t="s">
@@ -20075,7 +20151,7 @@
       <c r="B536" t="s">
         <v>2169</v>
       </c>
-      <c r="C536" s="78" t="s">
+      <c r="C536" s="83" t="s">
         <v>2170</v>
       </c>
       <c r="D536" t="s">
@@ -20101,7 +20177,7 @@
       <c r="B538" t="s">
         <v>2176</v>
       </c>
-      <c r="C538" s="78" t="s">
+      <c r="C538" s="83" t="s">
         <v>2177</v>
       </c>
       <c r="D538" t="s">
@@ -20196,7 +20272,7 @@
       <c r="B545" t="s">
         <v>2201</v>
       </c>
-      <c r="C545" s="78" t="s">
+      <c r="C545" s="83" t="s">
         <v>2202</v>
       </c>
       <c r="D545" t="s">
@@ -20213,7 +20289,7 @@
       <c r="B546" t="s">
         <v>2206</v>
       </c>
-      <c r="C546" s="78" t="s">
+      <c r="C546" s="83" t="s">
         <v>2207</v>
       </c>
       <c r="D546" t="s">
@@ -20227,7 +20303,7 @@
       <c r="B547" t="s">
         <v>2210</v>
       </c>
-      <c r="C547" s="78" t="s">
+      <c r="C547" s="83" t="s">
         <v>2211</v>
       </c>
       <c r="D547" t="s">
@@ -20244,7 +20320,7 @@
       <c r="B548" t="s">
         <v>2215</v>
       </c>
-      <c r="C548" s="80" t="s">
+      <c r="C548" s="85" t="s">
         <v>2216</v>
       </c>
       <c r="D548" t="s">
@@ -20261,7 +20337,7 @@
       <c r="B549" t="s">
         <v>2220</v>
       </c>
-      <c r="C549" s="78" t="s">
+      <c r="C549" s="83" t="s">
         <v>2221</v>
       </c>
       <c r="D549" t="s">
@@ -20287,7 +20363,7 @@
       <c r="B551" t="s">
         <v>2227</v>
       </c>
-      <c r="C551" s="78" t="s">
+      <c r="C551" s="83" t="s">
         <v>2228</v>
       </c>
       <c r="D551" t="s">
@@ -20301,7 +20377,7 @@
       <c r="B552" t="s">
         <v>2231</v>
       </c>
-      <c r="C552" s="78" t="s">
+      <c r="C552" s="83" t="s">
         <v>2232</v>
       </c>
       <c r="D552" t="s">
@@ -20342,7 +20418,7 @@
       <c r="B555" t="s">
         <v>2242</v>
       </c>
-      <c r="C555" s="78" t="s">
+      <c r="C555" s="83" t="s">
         <v>2243</v>
       </c>
       <c r="D555" t="s">
@@ -20356,7 +20432,7 @@
       <c r="B556" t="s">
         <v>2246</v>
       </c>
-      <c r="C556" s="78" t="s">
+      <c r="C556" s="83" t="s">
         <v>2247</v>
       </c>
       <c r="D556" t="s">
@@ -20385,7 +20461,7 @@
       <c r="B558" t="s">
         <v>2254</v>
       </c>
-      <c r="C558" s="78" t="s">
+      <c r="C558" s="83" t="s">
         <v>2255</v>
       </c>
       <c r="D558" t="s">
@@ -20402,7 +20478,7 @@
       <c r="B559" t="s">
         <v>2259</v>
       </c>
-      <c r="C559" s="78" t="s">
+      <c r="C559" s="83" t="s">
         <v>2260</v>
       </c>
       <c r="D559" t="s">
@@ -20494,7 +20570,7 @@
       <c r="B566" t="s">
         <v>2283</v>
       </c>
-      <c r="C566" s="78" t="s">
+      <c r="C566" s="83" t="s">
         <v>2284</v>
       </c>
       <c r="D566" t="s">
@@ -20508,7 +20584,7 @@
       <c r="B567" t="s">
         <v>2287</v>
       </c>
-      <c r="C567" s="78" t="s">
+      <c r="C567" s="83" t="s">
         <v>2288</v>
       </c>
       <c r="D567" t="s">
@@ -20522,7 +20598,7 @@
       <c r="B568" t="s">
         <v>2291</v>
       </c>
-      <c r="C568" s="78" t="s">
+      <c r="C568" s="83" t="s">
         <v>2292</v>
       </c>
       <c r="D568" t="s">
@@ -20539,7 +20615,7 @@
       <c r="B569" t="s">
         <v>2296</v>
       </c>
-      <c r="C569" s="78" t="s">
+      <c r="C569" s="83" t="s">
         <v>2297</v>
       </c>
       <c r="D569" t="s">
@@ -20556,7 +20632,7 @@
       <c r="B570" t="s">
         <v>2301</v>
       </c>
-      <c r="C570" s="78" t="s">
+      <c r="C570" s="83" t="s">
         <v>2302</v>
       </c>
       <c r="D570" t="s">
@@ -20582,7 +20658,7 @@
       <c r="B572" t="s">
         <v>2308</v>
       </c>
-      <c r="C572" s="78" t="s">
+      <c r="C572" s="83" t="s">
         <v>2309</v>
       </c>
       <c r="D572" t="s">
@@ -20614,7 +20690,7 @@
       <c r="B574" t="s">
         <v>2317</v>
       </c>
-      <c r="C574" s="78" t="s">
+      <c r="C574" s="83" t="s">
         <v>2318</v>
       </c>
       <c r="D574" t="s">
@@ -20646,7 +20722,7 @@
       <c r="B576" t="s">
         <v>2326</v>
       </c>
-      <c r="C576" s="78" t="s">
+      <c r="C576" s="83" t="s">
         <v>2327</v>
       </c>
       <c r="D576" t="s">
@@ -20663,7 +20739,7 @@
       <c r="B577" t="s">
         <v>2331</v>
       </c>
-      <c r="C577" s="78" t="s">
+      <c r="C577" s="83" t="s">
         <v>2332</v>
       </c>
       <c r="D577" t="s">
@@ -20680,7 +20756,7 @@
       <c r="B578" t="s">
         <v>2336</v>
       </c>
-      <c r="C578" s="78" t="s">
+      <c r="C578" s="83" t="s">
         <v>2337</v>
       </c>
       <c r="D578" t="s">
@@ -20694,7 +20770,7 @@
       <c r="B579" t="s">
         <v>2340</v>
       </c>
-      <c r="C579" s="78" t="s">
+      <c r="C579" s="83" t="s">
         <v>2341</v>
       </c>
       <c r="D579" t="s">
@@ -20711,7 +20787,7 @@
       <c r="B580" t="s">
         <v>2345</v>
       </c>
-      <c r="C580" s="78" t="s">
+      <c r="C580" s="83" t="s">
         <v>2346</v>
       </c>
       <c r="D580" t="s">
@@ -20728,7 +20804,7 @@
       <c r="B581" t="s">
         <v>2350</v>
       </c>
-      <c r="C581" s="78" t="s">
+      <c r="C581" s="83" t="s">
         <v>2351</v>
       </c>
       <c r="D581" t="s">
@@ -20784,7 +20860,7 @@
       <c r="B585" t="s">
         <v>2365</v>
       </c>
-      <c r="C585" s="78" t="s">
+      <c r="C585" s="83" t="s">
         <v>2366</v>
       </c>
       <c r="D585" t="s">
@@ -20807,7 +20883,7 @@
       <c r="B587" t="s">
         <v>2371</v>
       </c>
-      <c r="C587" s="78" t="s">
+      <c r="C587" s="83" t="s">
         <v>2372</v>
       </c>
       <c r="D587" t="s">
@@ -20842,7 +20918,7 @@
       <c r="B590" t="s">
         <v>2380</v>
       </c>
-      <c r="C590" s="80" t="s">
+      <c r="C590" s="85" t="s">
         <v>2381</v>
       </c>
       <c r="D590" t="s">
@@ -20868,7 +20944,7 @@
       <c r="B592" t="s">
         <v>2387</v>
       </c>
-      <c r="C592" s="78" t="s">
+      <c r="C592" s="83" t="s">
         <v>2388</v>
       </c>
       <c r="E592" t="s">
@@ -20894,7 +20970,7 @@
       <c r="B594" t="s">
         <v>2394</v>
       </c>
-      <c r="C594" s="78" t="s">
+      <c r="C594" s="83" t="s">
         <v>2395</v>
       </c>
       <c r="D594" t="s">
@@ -20947,7 +21023,7 @@
       <c r="B598" t="s">
         <v>2408</v>
       </c>
-      <c r="C598" s="78" t="s">
+      <c r="C598" s="83" t="s">
         <v>2409</v>
       </c>
       <c r="D598" t="s">
@@ -21051,7 +21127,7 @@
       <c r="B606" t="s">
         <v>2435</v>
       </c>
-      <c r="C606" s="78" t="s">
+      <c r="C606" s="83" t="s">
         <v>2436</v>
       </c>
       <c r="D606" t="s">
@@ -21077,7 +21153,7 @@
       <c r="B608" t="s">
         <v>2442</v>
       </c>
-      <c r="C608" s="78" t="s">
+      <c r="C608" s="83" t="s">
         <v>2443</v>
       </c>
       <c r="D608" t="s">
@@ -21106,7 +21182,7 @@
       <c r="B610" t="s">
         <v>2450</v>
       </c>
-      <c r="C610" s="78" t="s">
+      <c r="C610" s="83" t="s">
         <v>2451</v>
       </c>
       <c r="E610" t="s">
@@ -21159,7 +21235,7 @@
       <c r="B614" t="s">
         <v>2464</v>
       </c>
-      <c r="C614" s="78" t="s">
+      <c r="C614" s="83" t="s">
         <v>2465</v>
       </c>
       <c r="D614" t="s">
@@ -21185,7 +21261,7 @@
       <c r="B616" t="s">
         <v>2471</v>
       </c>
-      <c r="C616" s="78" t="s">
+      <c r="C616" s="83" t="s">
         <v>2472</v>
       </c>
       <c r="D616" t="s">
@@ -21217,7 +21293,7 @@
       <c r="B618" t="s">
         <v>2480</v>
       </c>
-      <c r="C618" s="78" t="s">
+      <c r="C618" s="83" t="s">
         <v>2481</v>
       </c>
       <c r="D618" t="s">
@@ -21261,7 +21337,7 @@
       <c r="B621" t="s">
         <v>2491</v>
       </c>
-      <c r="C621" s="78" t="s">
+      <c r="C621" s="83" t="s">
         <v>2492</v>
       </c>
       <c r="D621" t="s">
@@ -21278,7 +21354,7 @@
       <c r="B622" t="s">
         <v>2496</v>
       </c>
-      <c r="C622" s="78" t="s">
+      <c r="C622" s="83" t="s">
         <v>2497</v>
       </c>
       <c r="D622" t="s">
@@ -21295,7 +21371,7 @@
       <c r="B623" t="s">
         <v>2501</v>
       </c>
-      <c r="C623" s="78" t="s">
+      <c r="C623" s="83" t="s">
         <v>2502</v>
       </c>
       <c r="D623" t="s">
@@ -21312,7 +21388,7 @@
       <c r="B624" t="s">
         <v>2506</v>
       </c>
-      <c r="C624" s="78" t="s">
+      <c r="C624" s="83" t="s">
         <v>2507</v>
       </c>
       <c r="D624" t="s">
@@ -21329,7 +21405,7 @@
       <c r="B625" t="s">
         <v>2511</v>
       </c>
-      <c r="C625" s="78" t="s">
+      <c r="C625" s="83" t="s">
         <v>2512</v>
       </c>
       <c r="D625" t="s">
@@ -21373,7 +21449,7 @@
       <c r="B629" t="s">
         <v>2522</v>
       </c>
-      <c r="C629" s="78" t="s">
+      <c r="C629" s="83" t="s">
         <v>2523</v>
       </c>
       <c r="D629" t="s">
@@ -21390,7 +21466,7 @@
       <c r="B630" t="s">
         <v>2527</v>
       </c>
-      <c r="C630" s="78" t="s">
+      <c r="C630" s="83" t="s">
         <v>2528</v>
       </c>
       <c r="D630" t="s">
@@ -21404,7 +21480,7 @@
       <c r="B631" t="s">
         <v>2531</v>
       </c>
-      <c r="C631" s="78" t="s">
+      <c r="C631" s="83" t="s">
         <v>2532</v>
       </c>
       <c r="D631" t="s">
@@ -21451,7 +21527,7 @@
       <c r="B635" t="s">
         <v>2543</v>
       </c>
-      <c r="C635" s="78" t="s">
+      <c r="C635" s="83" t="s">
         <v>2544</v>
       </c>
       <c r="D635" t="s">
@@ -21477,7 +21553,7 @@
       <c r="B637" t="s">
         <v>2550</v>
       </c>
-      <c r="C637" s="78" t="s">
+      <c r="C637" s="83" t="s">
         <v>2551</v>
       </c>
       <c r="D637" t="s">
@@ -21503,7 +21579,7 @@
       <c r="B639" t="s">
         <v>2557</v>
       </c>
-      <c r="C639" s="78" t="s">
+      <c r="C639" s="83" t="s">
         <v>2558</v>
       </c>
       <c r="D639" t="s">
@@ -21520,7 +21596,7 @@
       <c r="B640" t="s">
         <v>2562</v>
       </c>
-      <c r="C640" s="78" t="s">
+      <c r="C640" s="83" t="s">
         <v>2563</v>
       </c>
       <c r="D640" t="s">
@@ -21537,7 +21613,7 @@
       <c r="B641" t="s">
         <v>2567</v>
       </c>
-      <c r="C641" s="78" t="s">
+      <c r="C641" s="83" t="s">
         <v>2568</v>
       </c>
       <c r="D641" t="s">
@@ -21554,7 +21630,7 @@
       <c r="B642" t="s">
         <v>2572</v>
       </c>
-      <c r="C642" s="78" t="s">
+      <c r="C642" s="83" t="s">
         <v>2573</v>
       </c>
       <c r="D642" t="s">
@@ -21571,7 +21647,7 @@
       <c r="B643" t="s">
         <v>2577</v>
       </c>
-      <c r="C643" s="78" t="s">
+      <c r="C643" s="83" t="s">
         <v>2578</v>
       </c>
       <c r="D643" t="s">
@@ -21615,7 +21691,7 @@
       <c r="B646" t="s">
         <v>2589</v>
       </c>
-      <c r="C646" s="78" t="s">
+      <c r="C646" s="83" t="s">
         <v>2590</v>
       </c>
       <c r="D646" t="s">
@@ -21653,7 +21729,7 @@
       <c r="B649" t="s">
         <v>2598</v>
       </c>
-      <c r="C649" s="78" t="s">
+      <c r="C649" s="83" t="s">
         <v>2599</v>
       </c>
       <c r="D649" t="s">
@@ -21670,7 +21746,7 @@
       <c r="B650" t="s">
         <v>2603</v>
       </c>
-      <c r="C650" s="78" t="s">
+      <c r="C650" s="83" t="s">
         <v>2604</v>
       </c>
       <c r="D650" t="s">
@@ -21699,7 +21775,7 @@
       <c r="B652" t="s">
         <v>2611</v>
       </c>
-      <c r="C652" s="78" t="s">
+      <c r="C652" s="83" t="s">
         <v>2612</v>
       </c>
       <c r="D652" t="s">
@@ -21749,7 +21825,7 @@
       <c r="B656" t="s">
         <v>2624</v>
       </c>
-      <c r="C656" s="78" t="s">
+      <c r="C656" s="83" t="s">
         <v>2625</v>
       </c>
       <c r="D656" t="s">
@@ -21766,7 +21842,7 @@
       <c r="B657" t="s">
         <v>2629</v>
       </c>
-      <c r="C657" s="78" t="s">
+      <c r="C657" s="83" t="s">
         <v>2630</v>
       </c>
       <c r="D657" t="s">
@@ -21843,7 +21919,7 @@
       <c r="B663" t="s">
         <v>2649</v>
       </c>
-      <c r="C663" s="78" t="s">
+      <c r="C663" s="83" t="s">
         <v>2650</v>
       </c>
       <c r="D663" t="s">
@@ -21869,7 +21945,7 @@
       <c r="B665" t="s">
         <v>2656</v>
       </c>
-      <c r="C665" s="78" t="s">
+      <c r="C665" s="83" t="s">
         <v>2657</v>
       </c>
       <c r="D665" t="s">
@@ -21895,7 +21971,7 @@
       <c r="B667" t="s">
         <v>2550</v>
       </c>
-      <c r="C667" s="78" t="s">
+      <c r="C667" s="83" t="s">
         <v>2551</v>
       </c>
       <c r="D667" t="s">
@@ -21924,7 +22000,7 @@
       <c r="B669" t="s">
         <v>2669</v>
       </c>
-      <c r="C669" s="78" t="s">
+      <c r="C669" s="83" t="s">
         <v>2670</v>
       </c>
       <c r="D669" t="s">
@@ -21956,7 +22032,7 @@
       <c r="B671" t="s">
         <v>2678</v>
       </c>
-      <c r="C671" s="78" t="s">
+      <c r="C671" s="83" t="s">
         <v>2679</v>
       </c>
       <c r="D671" t="s">
@@ -21997,7 +22073,7 @@
       <c r="B674" t="s">
         <v>2689</v>
       </c>
-      <c r="C674" s="78" t="s">
+      <c r="C674" s="83" t="s">
         <v>2690</v>
       </c>
       <c r="D674" t="s">
@@ -22014,7 +22090,7 @@
       <c r="B675" t="s">
         <v>2694</v>
       </c>
-      <c r="C675" s="78" t="s">
+      <c r="C675" s="83" t="s">
         <v>2695</v>
       </c>
       <c r="D675" t="s">
@@ -22031,7 +22107,7 @@
       <c r="B676" t="s">
         <v>2699</v>
       </c>
-      <c r="C676" s="78" t="s">
+      <c r="C676" s="83" t="s">
         <v>2700</v>
       </c>
       <c r="D676" t="s">
@@ -22090,7 +22166,7 @@
       <c r="B680" t="s">
         <v>2715</v>
       </c>
-      <c r="C680" s="80" t="s">
+      <c r="C680" s="85" t="s">
         <v>2716</v>
       </c>
       <c r="D680" t="s">
@@ -22107,7 +22183,7 @@
       <c r="B681" t="s">
         <v>2720</v>
       </c>
-      <c r="C681" s="78" t="s">
+      <c r="C681" s="83" t="s">
         <v>2721</v>
       </c>
       <c r="D681" t="s">
@@ -22139,7 +22215,7 @@
       <c r="B683" t="s">
         <v>2729</v>
       </c>
-      <c r="C683" s="78" t="s">
+      <c r="C683" s="83" t="s">
         <v>2730</v>
       </c>
       <c r="D683" t="s">
@@ -22165,7 +22241,7 @@
       <c r="B685" t="s">
         <v>2736</v>
       </c>
-      <c r="C685" s="78" t="s">
+      <c r="C685" s="83" t="s">
         <v>2737</v>
       </c>
       <c r="D685" t="s">
@@ -22182,7 +22258,7 @@
       <c r="B686" t="s">
         <v>2741</v>
       </c>
-      <c r="C686" s="78" t="s">
+      <c r="C686" s="83" t="s">
         <v>2742</v>
       </c>
       <c r="D686" t="s">
@@ -22208,7 +22284,7 @@
       <c r="B688" t="s">
         <v>2748</v>
       </c>
-      <c r="C688" s="78" t="s">
+      <c r="C688" s="83" t="s">
         <v>2749</v>
       </c>
       <c r="D688" t="s">
@@ -22279,7 +22355,7 @@
       <c r="B693" t="s">
         <v>2767</v>
       </c>
-      <c r="C693" s="78" t="s">
+      <c r="C693" s="83" t="s">
         <v>2768</v>
       </c>
       <c r="D693" t="s">
@@ -22293,7 +22369,7 @@
       <c r="B694" t="s">
         <v>2771</v>
       </c>
-      <c r="C694" s="78" t="s">
+      <c r="C694" s="83" t="s">
         <v>2772</v>
       </c>
       <c r="D694" t="s">
@@ -22343,7 +22419,7 @@
       <c r="B698" t="s">
         <v>2784</v>
       </c>
-      <c r="C698" s="78" t="s">
+      <c r="C698" s="83" t="s">
         <v>2785</v>
       </c>
       <c r="D698" t="s">
@@ -22372,7 +22448,7 @@
       <c r="B700" t="s">
         <v>2792</v>
       </c>
-      <c r="C700" s="78" t="s">
+      <c r="C700" s="83" t="s">
         <v>2793</v>
       </c>
       <c r="E700" t="s">
@@ -22386,7 +22462,7 @@
       <c r="B701" t="s">
         <v>2796</v>
       </c>
-      <c r="C701" s="78" t="s">
+      <c r="C701" s="83" t="s">
         <v>2797</v>
       </c>
       <c r="D701" t="s">
@@ -22418,7 +22494,7 @@
       <c r="B703" t="s">
         <v>2805</v>
       </c>
-      <c r="C703" s="78" t="s">
+      <c r="C703" s="83" t="s">
         <v>2806</v>
       </c>
       <c r="D703" t="s">
@@ -22444,7 +22520,7 @@
       <c r="B705" t="s">
         <v>2812</v>
       </c>
-      <c r="C705" s="80" t="s">
+      <c r="C705" s="85" t="s">
         <v>2813</v>
       </c>
       <c r="D705" t="s">
@@ -22485,7 +22561,7 @@
       <c r="B708" t="s">
         <v>2823</v>
       </c>
-      <c r="C708" s="78" t="s">
+      <c r="C708" s="83" t="s">
         <v>2824</v>
       </c>
       <c r="D708" t="s">
@@ -22502,7 +22578,7 @@
       <c r="B709" t="s">
         <v>2828</v>
       </c>
-      <c r="C709" s="80" t="s">
+      <c r="C709" s="85" t="s">
         <v>2829</v>
       </c>
       <c r="D709" t="s">
@@ -22531,7 +22607,7 @@
       <c r="B711" t="s">
         <v>2836</v>
       </c>
-      <c r="C711" s="78" t="s">
+      <c r="C711" s="83" t="s">
         <v>2837</v>
       </c>
       <c r="D711" t="s">
@@ -22548,7 +22624,7 @@
       <c r="B712" t="s">
         <v>2841</v>
       </c>
-      <c r="C712" s="78" t="s">
+      <c r="C712" s="83" t="s">
         <v>2842</v>
       </c>
       <c r="D712" t="s">
@@ -22571,7 +22647,7 @@
       <c r="B714" t="s">
         <v>2847</v>
       </c>
-      <c r="C714" s="78" t="s">
+      <c r="C714" s="83" t="s">
         <v>2848</v>
       </c>
       <c r="D714" t="s">
@@ -22618,7 +22694,7 @@
       <c r="B718" t="s">
         <v>2859</v>
       </c>
-      <c r="C718" s="78" t="s">
+      <c r="C718" s="83" t="s">
         <v>2860</v>
       </c>
       <c r="D718" t="s">
@@ -22647,7 +22723,7 @@
       <c r="B720" t="s">
         <v>2867</v>
       </c>
-      <c r="C720" s="78" t="s">
+      <c r="C720" s="83" t="s">
         <v>2868</v>
       </c>
       <c r="D720" t="s">
@@ -22664,7 +22740,7 @@
       <c r="B721" t="s">
         <v>2872</v>
       </c>
-      <c r="C721" s="78" t="s">
+      <c r="C721" s="83" t="s">
         <v>2873</v>
       </c>
       <c r="D721" t="s">
@@ -22678,7 +22754,7 @@
       <c r="B722" t="s">
         <v>2876</v>
       </c>
-      <c r="C722" s="78" t="s">
+      <c r="C722" s="83" t="s">
         <v>2877</v>
       </c>
       <c r="D722" t="s">
@@ -22695,7 +22771,7 @@
       <c r="B723" t="s">
         <v>2881</v>
       </c>
-      <c r="C723" s="78" t="s">
+      <c r="C723" s="83" t="s">
         <v>2882</v>
       </c>
       <c r="D723" t="s">
@@ -22769,7 +22845,7 @@
       <c r="B729" t="s">
         <v>2900</v>
       </c>
-      <c r="C729" s="78" t="s">
+      <c r="C729" s="83" t="s">
         <v>2901</v>
       </c>
       <c r="D729" t="s">
@@ -22792,7 +22868,7 @@
       <c r="B731" t="s">
         <v>2906</v>
       </c>
-      <c r="C731" s="78" t="s">
+      <c r="C731" s="83" t="s">
         <v>2907</v>
       </c>
       <c r="D731" t="s">
@@ -22833,7 +22909,7 @@
       <c r="B734" t="s">
         <v>2917</v>
       </c>
-      <c r="C734" s="78" t="s">
+      <c r="C734" s="83" t="s">
         <v>2918</v>
       </c>
       <c r="D734" t="s">
@@ -22850,7 +22926,7 @@
       <c r="B735" t="s">
         <v>2922</v>
       </c>
-      <c r="C735" s="78" t="s">
+      <c r="C735" s="83" t="s">
         <v>2923</v>
       </c>
       <c r="D735" t="s">
@@ -22867,7 +22943,7 @@
       <c r="B736" t="s">
         <v>2927</v>
       </c>
-      <c r="C736" s="78" t="s">
+      <c r="C736" s="83" t="s">
         <v>2928</v>
       </c>
       <c r="D736" t="s">
@@ -22881,7 +22957,7 @@
       <c r="B737" t="s">
         <v>2931</v>
       </c>
-      <c r="C737" s="78" t="s">
+      <c r="C737" s="83" t="s">
         <v>2932</v>
       </c>
       <c r="D737" t="s">
@@ -22898,7 +22974,7 @@
       <c r="B738" t="s">
         <v>2936</v>
       </c>
-      <c r="C738" s="78" t="s">
+      <c r="C738" s="83" t="s">
         <v>2937</v>
       </c>
       <c r="D738" t="s">
@@ -22915,7 +22991,7 @@
       <c r="B739" t="s">
         <v>2941</v>
       </c>
-      <c r="C739" s="78" t="s">
+      <c r="C739" s="83" t="s">
         <v>2942</v>
       </c>
       <c r="D739" t="s">
@@ -22932,7 +23008,7 @@
       <c r="B740" t="s">
         <v>2946</v>
       </c>
-      <c r="C740" s="78" t="s">
+      <c r="C740" s="83" t="s">
         <v>2947</v>
       </c>
       <c r="D740" t="s">
@@ -22949,7 +23025,7 @@
       <c r="B741" t="s">
         <v>2951</v>
       </c>
-      <c r="C741" s="80" t="s">
+      <c r="C741" s="85" t="s">
         <v>2952</v>
       </c>
       <c r="D741" t="s">
@@ -22966,7 +23042,7 @@
       <c r="B742" t="s">
         <v>2956</v>
       </c>
-      <c r="C742" s="80" t="s">
+      <c r="C742" s="85" t="s">
         <v>2957</v>
       </c>
       <c r="D742" t="s">
@@ -22980,7 +23056,7 @@
       <c r="B743" t="s">
         <v>2960</v>
       </c>
-      <c r="C743" s="78" t="s">
+      <c r="C743" s="83" t="s">
         <v>2961</v>
       </c>
       <c r="D743" t="s">
@@ -22997,7 +23073,7 @@
       <c r="B744" t="s">
         <v>2965</v>
       </c>
-      <c r="C744" s="78" t="s">
+      <c r="C744" s="83" t="s">
         <v>2966</v>
       </c>
       <c r="D744" t="s">
@@ -23119,7 +23195,7 @@
       <c r="B754" t="s">
         <v>2996</v>
       </c>
-      <c r="C754" s="78" t="s">
+      <c r="C754" s="83" t="s">
         <v>2997</v>
       </c>
       <c r="D754" t="s">
@@ -23136,7 +23212,7 @@
       <c r="B755" t="s">
         <v>3001</v>
       </c>
-      <c r="C755" s="78" t="s">
+      <c r="C755" s="83" t="s">
         <v>3002</v>
       </c>
       <c r="D755" t="s">
@@ -23153,7 +23229,7 @@
       <c r="B756" t="s">
         <v>3006</v>
       </c>
-      <c r="C756" s="78" t="s">
+      <c r="C756" s="83" t="s">
         <v>3007</v>
       </c>
       <c r="D756" t="s">
@@ -23170,7 +23246,7 @@
       <c r="B757" t="s">
         <v>3011</v>
       </c>
-      <c r="C757" s="78" t="s">
+      <c r="C757" s="83" t="s">
         <v>3012</v>
       </c>
       <c r="E757" t="s">
@@ -23184,7 +23260,7 @@
       <c r="B758" t="s">
         <v>3015</v>
       </c>
-      <c r="C758" s="78" t="s">
+      <c r="C758" s="83" t="s">
         <v>3016</v>
       </c>
       <c r="D758" t="s">
@@ -23222,7 +23298,7 @@
       <c r="B761" t="s">
         <v>3025</v>
       </c>
-      <c r="C761" s="78" t="s">
+      <c r="C761" s="83" t="s">
         <v>3026</v>
       </c>
       <c r="D761" t="s">
@@ -23308,7 +23384,7 @@
       <c r="B768" t="s">
         <v>3047</v>
       </c>
-      <c r="C768" s="78" t="s">
+      <c r="C768" s="83" t="s">
         <v>3048</v>
       </c>
       <c r="D768" t="s">
@@ -23322,7 +23398,7 @@
       <c r="B769" t="s">
         <v>3051</v>
       </c>
-      <c r="C769" s="78" t="s">
+      <c r="C769" s="83" t="s">
         <v>3052</v>
       </c>
       <c r="D769" t="s">
@@ -23363,7 +23439,7 @@
       <c r="B772" t="s">
         <v>3062</v>
       </c>
-      <c r="C772" s="78" t="s">
+      <c r="C772" s="83" t="s">
         <v>3063</v>
       </c>
       <c r="E772" t="s">
@@ -23404,7 +23480,7 @@
       <c r="B775" t="s">
         <v>3072</v>
       </c>
-      <c r="C775" s="78" t="s">
+      <c r="C775" s="83" t="s">
         <v>3073</v>
       </c>
       <c r="D775" t="s">
@@ -23421,7 +23497,7 @@
       <c r="B776" t="s">
         <v>3077</v>
       </c>
-      <c r="C776" s="78" t="s">
+      <c r="C776" s="83" t="s">
         <v>3078</v>
       </c>
       <c r="D776" t="s">
@@ -23438,7 +23514,7 @@
       <c r="B777" t="s">
         <v>3082</v>
       </c>
-      <c r="C777" s="78" t="s">
+      <c r="C777" s="83" t="s">
         <v>3083</v>
       </c>
       <c r="E777" t="s">
@@ -23476,7 +23552,7 @@
       <c r="B780" t="s">
         <v>3092</v>
       </c>
-      <c r="C780" s="78" t="s">
+      <c r="C780" s="83" t="s">
         <v>3093</v>
       </c>
       <c r="D780" t="s">
@@ -23517,7 +23593,7 @@
       <c r="B783" t="s">
         <v>3103</v>
       </c>
-      <c r="C783" s="78" t="s">
+      <c r="C783" s="83" t="s">
         <v>3104</v>
       </c>
       <c r="D783" t="s">
@@ -23531,7 +23607,7 @@
       <c r="B784" t="s">
         <v>3107</v>
       </c>
-      <c r="C784" s="78" t="s">
+      <c r="C784" s="83" t="s">
         <v>3108</v>
       </c>
       <c r="D784" t="s">
@@ -23572,7 +23648,7 @@
       <c r="B787" t="s">
         <v>3118</v>
       </c>
-      <c r="C787" s="78" t="s">
+      <c r="C787" s="83" t="s">
         <v>3119</v>
       </c>
       <c r="D787" t="s">
@@ -23598,7 +23674,7 @@
       <c r="B789" t="s">
         <v>3125</v>
       </c>
-      <c r="C789" s="78" t="s">
+      <c r="C789" s="83" t="s">
         <v>3126</v>
       </c>
       <c r="D789" t="s">
@@ -23615,7 +23691,7 @@
       <c r="B790" t="s">
         <v>3130</v>
       </c>
-      <c r="C790" s="78" t="s">
+      <c r="C790" s="83" t="s">
         <v>3131</v>
       </c>
       <c r="D790" t="s">
@@ -23632,7 +23708,7 @@
       <c r="B791" t="s">
         <v>3135</v>
       </c>
-      <c r="C791" s="78" t="s">
+      <c r="C791" s="83" t="s">
         <v>3136</v>
       </c>
       <c r="D791" t="s">
@@ -23658,7 +23734,7 @@
       <c r="B793" t="s">
         <v>3142</v>
       </c>
-      <c r="C793" s="78" t="s">
+      <c r="C793" s="83" t="s">
         <v>3143</v>
       </c>
       <c r="D793" t="s">
@@ -23675,7 +23751,7 @@
       <c r="B794" t="s">
         <v>3147</v>
       </c>
-      <c r="C794" s="78" t="s">
+      <c r="C794" s="83" t="s">
         <v>3148</v>
       </c>
       <c r="D794" t="s">
@@ -23689,7 +23765,7 @@
       <c r="B795" t="s">
         <v>3151</v>
       </c>
-      <c r="C795" s="78" t="s">
+      <c r="C795" s="83" t="s">
         <v>3152</v>
       </c>
       <c r="D795" t="s">
@@ -23706,7 +23782,7 @@
       <c r="B796" t="s">
         <v>3156</v>
       </c>
-      <c r="C796" s="80" t="s">
+      <c r="C796" s="85" t="s">
         <v>3157</v>
       </c>
       <c r="D796" t="s">
@@ -23726,7 +23802,7 @@
       <c r="B798" t="s">
         <v>3161</v>
       </c>
-      <c r="C798" s="78" t="s">
+      <c r="C798" s="83" t="s">
         <v>3162</v>
       </c>
       <c r="D798" t="s">
@@ -23743,7 +23819,7 @@
       <c r="B799" t="s">
         <v>3166</v>
       </c>
-      <c r="C799" s="78" t="s">
+      <c r="C799" s="83" t="s">
         <v>3167</v>
       </c>
       <c r="D799" t="s">
@@ -23796,7 +23872,7 @@
       <c r="B803" t="s">
         <v>3180</v>
       </c>
-      <c r="C803" s="78" t="s">
+      <c r="C803" s="83" t="s">
         <v>3181</v>
       </c>
       <c r="D803" t="s">
@@ -24158,10 +24234,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
@@ -24189,7 +24265,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="2:5">
+    <row r="2" ht="40.5" customHeight="1" spans="2:5">
       <c r="B2" s="27" t="s">
         <v>3195</v>
       </c>
@@ -25040,18 +25116,73 @@
       </c>
     </row>
     <row r="67" ht="67.5" spans="1:5">
-      <c r="A67" s="76" t="s">
+      <c r="A67" s="75" t="s">
         <v>3369</v>
       </c>
       <c r="B67" s="23" t="s">
         <v>3370</v>
       </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="77" t="s">
+      <c r="D67" s="23" t="s">
         <v>3371</v>
       </c>
       <c r="E67">
         <v>7.03</v>
+      </c>
+    </row>
+    <row r="68" ht="29.25" spans="1:3">
+      <c r="A68" s="76" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B68" s="77" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="69" ht="54" spans="1:4">
+      <c r="A69" s="78" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B69" s="79" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D69" s="80" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="70" ht="81" spans="1:4">
+      <c r="A70" s="21" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C70" s="81"/>
+      <c r="D70" s="80" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="71" ht="67.5" spans="1:4">
+      <c r="A71" s="21" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B71" s="55" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D71" s="80" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="72" ht="108" spans="1:4">
+      <c r="A72" s="82" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B72" s="55" t="s">
+        <v>3344</v>
+      </c>
+      <c r="D72" s="80" t="s">
+        <v>3381</v>
       </c>
     </row>
   </sheetData>
@@ -25122,6 +25253,11 @@
     <hyperlink ref="C61" r:id="rId62" display="ООО ЛІГА ЗАКОН " tooltip="https://hh.ua/employer/2635831"/>
     <hyperlink ref="B64" r:id="rId63" display="https://rabota.ua/company2867616/vacancy6518353"/>
     <hyperlink ref="B66" r:id="rId64" display="https://www.work.ua/jobs/2566382"/>
+    <hyperlink ref="B68" r:id="rId65" display="https://hh.ua/vacancy/19886288"/>
+    <hyperlink ref="B69" r:id="rId66" display="https://rabota.ua/company5046770/vacancy6618394"/>
+    <hyperlink ref="B70" r:id="rId67" display="http://jobik.net/vacancy/4588471/?subscr_id=3612244"/>
+    <hyperlink ref="B71" r:id="rId68" display="https://rabota.ua/company4616161/vacancy6623389"/>
+    <hyperlink ref="B72" r:id="rId69" display="http://jobik.net/vacancy/3129504/?subscr_id=3612244"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -25162,32 +25298,32 @@
         <v>3194</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3372</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>3373</v>
+        <v>3383</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3374</v>
+        <v>3384</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3375</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>3376</v>
+        <v>3386</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3377</v>
+        <v>3387</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>654</v>
@@ -25195,25 +25331,25 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>3378</v>
+        <v>3388</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3379</v>
+        <v>3389</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3381</v>
+        <v>3391</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>3302</v>
@@ -25221,27 +25357,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>3382</v>
+        <v>3392</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3383</v>
+        <v>3393</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3384</v>
+        <v>3394</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>3385</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>3386</v>
+        <v>3396</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3303</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3387</v>
+        <v>3397</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3305</v>
@@ -25249,67 +25385,67 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>3388</v>
+        <v>3398</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3389</v>
+        <v>3399</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3390</v>
+        <v>3400</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>3391</v>
+        <v>3401</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3392</v>
+        <v>3402</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>3393</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>3394</v>
+        <v>3404</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>3395</v>
+        <v>3405</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3396</v>
+        <v>3406</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>3397</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>3398</v>
+        <v>3408</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>3399</v>
+        <v>3409</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3400</v>
+        <v>3410</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>3401</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>3402</v>
+        <v>3412</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>3403</v>
+        <v>3413</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3404</v>
+        <v>3414</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>3265</v>
@@ -25317,107 +25453,107 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>3405</v>
+        <v>3415</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>3353</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>3406</v>
+        <v>3416</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>3407</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>3408</v>
+        <v>3418</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>3389</v>
+        <v>3399</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3409</v>
+        <v>3419</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>3410</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>3411</v>
+        <v>3421</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3412</v>
+        <v>3422</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>3413</v>
+        <v>3423</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>3414</v>
+        <v>3424</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>3415</v>
+        <v>3425</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>3416</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>3417</v>
+        <v>3427</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>3418</v>
+        <v>3428</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>3419</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>3420</v>
+        <v>3430</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>3421</v>
+        <v>3431</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>3422</v>
+        <v>3432</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>3423</v>
+        <v>3433</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>3353</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>3424</v>
+        <v>3434</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>3425</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>3426</v>
+        <v>3436</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>3267</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>3427</v>
+        <v>3437</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>3270</v>
@@ -25425,70 +25561,70 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>3428</v>
+        <v>3438</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>3429</v>
+        <v>3439</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>3430</v>
+        <v>3440</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>3431</v>
+        <v>3441</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>3432</v>
+        <v>3442</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>3433</v>
+        <v>3443</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>3434</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>3435</v>
+        <v>3445</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>3437</v>
+        <v>3447</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>3438</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>3439</v>
+        <v>3449</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>3440</v>
+        <v>3450</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>3441</v>
+        <v>3451</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>3442</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>3443</v>
+        <v>3453</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>3444</v>
+        <v>3454</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>3445</v>
+        <v>3455</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>3446</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -25499,157 +25635,157 @@
         <v>3271</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>3447</v>
+        <v>3457</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>3448</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>3449</v>
+        <v>3459</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>3450</v>
+        <v>3460</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>3451</v>
+        <v>3461</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>3452</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>3453</v>
+        <v>3463</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>3454</v>
+        <v>3464</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>3455</v>
+        <v>3465</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>3456</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>3457</v>
+        <v>3467</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>3458</v>
+        <v>3468</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>3459</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>3460</v>
+        <v>3470</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>3461</v>
+        <v>3471</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>3462</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>3463</v>
+        <v>3473</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>3464</v>
+        <v>3474</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>3465</v>
+        <v>3475</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>3466</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>3467</v>
+        <v>3477</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>3468</v>
+        <v>3478</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>3469</v>
+        <v>3479</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>3470</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>3471</v>
+        <v>3481</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>3472</v>
+        <v>3482</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>3473</v>
+        <v>3483</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>3474</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:4">
       <c r="A34" s="15" t="s">
-        <v>3475</v>
+        <v>3485</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>3476</v>
+        <v>3486</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>3477</v>
+        <v>3487</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" ht="27" spans="1:4">
       <c r="A35" s="13" t="s">
-        <v>3478</v>
+        <v>3488</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>3479</v>
+        <v>3489</v>
       </c>
       <c r="C35" t="s">
-        <v>3480</v>
+        <v>3490</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>3481</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>3482</v>
+        <v>3492</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>3483</v>
+        <v>3493</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13" t="s">
-        <v>3484</v>
+        <v>3494</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>3485</v>
+        <v>3495</v>
       </c>
       <c r="D37" s="12"/>
     </row>
@@ -25667,31 +25803,31 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="13" t="s">
-        <v>3486</v>
+        <v>3496</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>3487</v>
+        <v>3497</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>3488</v>
+        <v>3498</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="13" t="s">
-        <v>3489</v>
+        <v>3499</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>3490</v>
+        <v>3500</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="13" t="s">
-        <v>3491</v>
+        <v>3501</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>3278</v>
@@ -25703,13 +25839,13 @@
     </row>
     <row r="42" ht="27" spans="1:4">
       <c r="A42" s="15" t="s">
-        <v>3492</v>
+        <v>3502</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>3493</v>
+        <v>3503</v>
       </c>
       <c r="D42" s="12"/>
     </row>
@@ -25727,13 +25863,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>3494</v>
+        <v>3504</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>3495</v>
+        <v>3505</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>3496</v>
+        <v>3506</v>
       </c>
       <c r="D44" s="12"/>
     </row>
@@ -25751,19 +25887,19 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>3497</v>
+        <v>3507</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>3498</v>
+        <v>3508</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>3499</v>
+        <v>3509</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3500</v>
+        <v>3510</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>3271</v>
@@ -25772,60 +25908,60 @@
         <v>3293</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>3501</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="17" t="s">
-        <v>3502</v>
+        <v>3512</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>3503</v>
+        <v>3513</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>3504</v>
+        <v>3514</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>3505</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>3506</v>
+        <v>3516</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>3440</v>
+        <v>3450</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>3507</v>
+        <v>3517</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>3508</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>3509</v>
+        <v>3519</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>3510</v>
+        <v>3520</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>3511</v>
+        <v>3521</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>3512</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>3513</v>
+        <v>3523</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>3514</v>
+        <v>3524</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>3515</v>
+        <v>3525</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -25918,10 +26054,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3516</v>
+        <v>3526</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3517</v>
+        <v>3527</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -25931,7 +26067,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>3518</v>
+        <v>3528</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -25944,7 +26080,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>3519</v>
+        <v>3529</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -25957,7 +26093,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>3520</v>
+        <v>3530</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
@@ -25970,7 +26106,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>3521</v>
+        <v>3531</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -25983,7 +26119,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>3522</v>
+        <v>3532</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -25996,7 +26132,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>3523</v>
+        <v>3533</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -26009,7 +26145,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3524</v>
+        <v>3534</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -26017,7 +26153,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3525</v>
+        <v>3535</v>
       </c>
       <c r="B9">
         <v>3</v>

--- a/base work.xlsx
+++ b/base work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554">
   <si>
     <t>nane</t>
   </si>
@@ -10286,6 +10286,80 @@
 Сайт компании: http://www.apeironHR.com.ua</t>
   </si>
   <si>
+    <t>Junior/Trainee QA Engineer</t>
+  </si>
+  <si>
+    <t>https://www.work.ua/jobs/2579562</t>
+  </si>
+  <si>
+    <t>Компания:
+Validio 
+Город:
+Киев
+Вид занятости:
+полная занятость, готовы взять студента</t>
+  </si>
+  <si>
+    <t>15.03</t>
+  </si>
+  <si>
+    <t>QA Engineer (web)</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company1471807/vacancy6537256</t>
+  </si>
+  <si>
+    <t>Регион:Киев
+Контакт:Ксения Квятковская
+Телефон: +380983817697
+Сайт:vintage.com.ua/</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company3135093/vacancy6642641</t>
+  </si>
+  <si>
+    <t>ELEGANCE 
+IT - разработка ПО
+Регион:Киев
+Контакт:Ирина
+Телефон: (063) 632-02-39
+Сайт:www.elgnc.com</t>
+  </si>
+  <si>
+    <t>22/03</t>
+  </si>
+  <si>
+    <t>Младший тестировщик / Junior Tester / Intern QA engineer</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company1320362/vacancy6210107</t>
+  </si>
+  <si>
+    <t>WebbyLab 
+IT - разработка ПО
+Регион:Киев
+Контакт:Виктория Прозорова
+Телефон: +38 0638094074
+Сайт:webbylab.com</t>
+  </si>
+  <si>
+    <t>Intern QA Automation</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company911/vacancy6632812</t>
+  </si>
+  <si>
+    <t>luxoft</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company322333/vacancy6042942</t>
+  </si>
+  <si>
+    <t>Регион: Киев
+Отрасль компании: Интернет
+Контактное лицо: Алина Федорова</t>
+  </si>
+  <si>
     <t>История общения</t>
   </si>
   <si>
@@ -10756,11 +10830,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mmm"/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd/mmm"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="58">
@@ -11009,16 +11083,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11032,16 +11105,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11059,9 +11148,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11069,14 +11158,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11084,7 +11166,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11097,9 +11179,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -11113,14 +11201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11134,16 +11215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11188,13 +11262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11206,7 +11280,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11218,7 +11346,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11230,37 +11400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11272,73 +11424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11351,24 +11443,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11419,6 +11493,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -11430,17 +11524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11460,44 +11543,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11516,78 +11566,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="36" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11596,70 +11670,70 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26">
       <alignment vertical="top"/>
     </xf>
@@ -11870,19 +11944,19 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11900,14 +11974,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="26" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -12312,7 +12383,7 @@
   <cols>
     <col min="1" max="1" width="20.1416666666667"/>
     <col min="2" max="2" width="29.35"/>
-    <col min="3" max="3" width="34.2833333333333" style="83"/>
+    <col min="3" max="3" width="34.2833333333333" style="82"/>
     <col min="4" max="4" width="24.85"/>
     <col min="5" max="5" width="71.6666666666667"/>
     <col min="6" max="1025" width="8.575"/>
@@ -12328,7 +12399,7 @@
       <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="83" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="20" t="s">
@@ -12345,7 +12416,7 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="84" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
@@ -12362,7 +12433,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="82" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -12379,7 +12450,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="84" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
@@ -12396,7 +12467,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="82" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
@@ -12413,7 +12484,7 @@
       <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="82" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
@@ -12430,7 +12501,7 @@
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="82" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
@@ -12459,7 +12530,7 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="82" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
@@ -12476,7 +12547,7 @@
       <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="82" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
@@ -12493,7 +12564,7 @@
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="82" t="s">
         <v>50</v>
       </c>
       <c r="D12" t="s">
@@ -12525,7 +12596,7 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="82" t="s">
         <v>59</v>
       </c>
       <c r="D14" t="s">
@@ -12542,7 +12613,7 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="82" t="s">
         <v>64</v>
       </c>
       <c r="D15" t="s">
@@ -12559,7 +12630,7 @@
       <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="82" t="s">
         <v>69</v>
       </c>
       <c r="D16" t="s">
@@ -12576,7 +12647,7 @@
       <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="82" t="s">
         <v>74</v>
       </c>
       <c r="D17" t="s">
@@ -12593,7 +12664,7 @@
       <c r="B18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="82" t="s">
         <v>79</v>
       </c>
       <c r="E18" t="s">
@@ -12607,7 +12678,7 @@
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>83</v>
       </c>
       <c r="D19" t="s">
@@ -12624,7 +12695,7 @@
       <c r="B20" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="82" t="s">
         <v>88</v>
       </c>
       <c r="E20" t="s">
@@ -12638,7 +12709,7 @@
       <c r="B21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="82" t="s">
         <v>92</v>
       </c>
       <c r="D21" t="s">
@@ -12655,7 +12726,7 @@
       <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="82" t="s">
         <v>97</v>
       </c>
       <c r="D22" t="s">
@@ -12672,7 +12743,7 @@
       <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="82" t="s">
         <v>102</v>
       </c>
       <c r="D23" t="s">
@@ -12689,7 +12760,7 @@
       <c r="B24" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="82" t="s">
         <v>107</v>
       </c>
       <c r="D24" t="s">
@@ -12718,7 +12789,7 @@
       <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="82" t="s">
         <v>115</v>
       </c>
       <c r="D26" t="s">
@@ -12735,7 +12806,7 @@
       <c r="B27" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="82" t="s">
         <v>120</v>
       </c>
       <c r="D27" t="s">
@@ -12827,7 +12898,7 @@
       <c r="B34" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="82" t="s">
         <v>143</v>
       </c>
       <c r="D34" t="s">
@@ -12868,7 +12939,7 @@
       <c r="B37" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="82" t="s">
         <v>154</v>
       </c>
       <c r="D37" t="s">
@@ -12885,7 +12956,7 @@
       <c r="B38" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="82" t="s">
         <v>159</v>
       </c>
       <c r="D38" t="s">
@@ -12902,7 +12973,7 @@
       <c r="B39" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="82" t="s">
         <v>164</v>
       </c>
       <c r="D39" t="s">
@@ -12949,7 +13020,7 @@
       <c r="B42" t="s">
         <v>176</v>
       </c>
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="82" t="s">
         <v>177</v>
       </c>
       <c r="D42" t="s">
@@ -12981,7 +13052,7 @@
       <c r="B44" t="s">
         <v>185</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="82" t="s">
         <v>186</v>
       </c>
       <c r="D44" t="s">
@@ -12995,7 +13066,7 @@
       <c r="B45" t="s">
         <v>189</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="84" t="s">
         <v>190</v>
       </c>
       <c r="D45" t="s">
@@ -13036,7 +13107,7 @@
       <c r="B48" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="83" t="s">
+      <c r="C48" s="82" t="s">
         <v>201</v>
       </c>
       <c r="D48" t="s">
@@ -13068,7 +13139,7 @@
       <c r="B50" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="82" t="s">
         <v>210</v>
       </c>
       <c r="D50" t="s">
@@ -13127,7 +13198,7 @@
       <c r="B54" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="82" t="s">
         <v>226</v>
       </c>
       <c r="D54" t="s">
@@ -13144,7 +13215,7 @@
       <c r="B55" t="s">
         <v>230</v>
       </c>
-      <c r="C55" s="83" t="s">
+      <c r="C55" s="82" t="s">
         <v>231</v>
       </c>
       <c r="D55" t="s">
@@ -13161,7 +13232,7 @@
       <c r="B56" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="83" t="s">
+      <c r="C56" s="82" t="s">
         <v>236</v>
       </c>
       <c r="D56" t="s">
@@ -13178,7 +13249,7 @@
       <c r="B57" t="s">
         <v>240</v>
       </c>
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="82" t="s">
         <v>241</v>
       </c>
       <c r="D57" t="s">
@@ -13207,7 +13278,7 @@
       <c r="B59" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="C59" s="82" t="s">
         <v>249</v>
       </c>
       <c r="D59" t="s">
@@ -13224,7 +13295,7 @@
       <c r="B60" t="s">
         <v>253</v>
       </c>
-      <c r="C60" s="83" t="s">
+      <c r="C60" s="82" t="s">
         <v>254</v>
       </c>
       <c r="D60" t="s">
@@ -13238,7 +13309,7 @@
       <c r="B61" t="s">
         <v>257</v>
       </c>
-      <c r="C61" s="83" t="s">
+      <c r="C61" s="82" t="s">
         <v>258</v>
       </c>
       <c r="D61" t="s">
@@ -13267,7 +13338,7 @@
       <c r="B63" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="83" t="s">
+      <c r="C63" s="82" t="s">
         <v>266</v>
       </c>
       <c r="D63" t="s">
@@ -13296,7 +13367,7 @@
       <c r="B65" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="82" t="s">
         <v>274</v>
       </c>
       <c r="D65" t="s">
@@ -13313,7 +13384,7 @@
       <c r="B66" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="83" t="s">
+      <c r="C66" s="82" t="s">
         <v>279</v>
       </c>
       <c r="E66" t="s">
@@ -13327,7 +13398,7 @@
       <c r="B67" t="s">
         <v>282</v>
       </c>
-      <c r="C67" s="83" t="s">
+      <c r="C67" s="82" t="s">
         <v>283</v>
       </c>
       <c r="D67" t="s">
@@ -13356,7 +13427,7 @@
       <c r="B69" t="s">
         <v>290</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="82" t="s">
         <v>291</v>
       </c>
       <c r="D69" t="s">
@@ -13388,7 +13459,7 @@
       <c r="B71" t="s">
         <v>299</v>
       </c>
-      <c r="C71" s="83" t="s">
+      <c r="C71" s="82" t="s">
         <v>300</v>
       </c>
       <c r="D71" t="s">
@@ -13414,7 +13485,7 @@
       <c r="B73" t="s">
         <v>305</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="82" t="s">
         <v>306</v>
       </c>
       <c r="D73" t="s">
@@ -13461,7 +13532,7 @@
       <c r="B76" t="s">
         <v>318</v>
       </c>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="82" t="s">
         <v>319</v>
       </c>
       <c r="D76" t="s">
@@ -13478,7 +13549,7 @@
       <c r="B77" t="s">
         <v>323</v>
       </c>
-      <c r="C77" s="83" t="s">
+      <c r="C77" s="82" t="s">
         <v>324</v>
       </c>
       <c r="D77" t="s">
@@ -13507,7 +13578,7 @@
       <c r="B79" t="s">
         <v>331</v>
       </c>
-      <c r="C79" s="83" t="s">
+      <c r="C79" s="82" t="s">
         <v>332</v>
       </c>
       <c r="D79" t="s">
@@ -13590,7 +13661,7 @@
       <c r="B85" t="s">
         <v>353</v>
       </c>
-      <c r="C85" s="83" t="s">
+      <c r="C85" s="82" t="s">
         <v>354</v>
       </c>
       <c r="D85" t="s">
@@ -13607,7 +13678,7 @@
       <c r="B86" t="s">
         <v>358</v>
       </c>
-      <c r="C86" s="83" t="s">
+      <c r="C86" s="82" t="s">
         <v>359</v>
       </c>
       <c r="D86" t="s">
@@ -13624,7 +13695,7 @@
       <c r="B87" t="s">
         <v>363</v>
       </c>
-      <c r="C87" s="83" t="s">
+      <c r="C87" s="82" t="s">
         <v>364</v>
       </c>
       <c r="D87" t="s">
@@ -13638,7 +13709,7 @@
       <c r="A88" t="s">
         <v>367</v>
       </c>
-      <c r="C88" s="83" t="s">
+      <c r="C88" s="82" t="s">
         <v>368</v>
       </c>
       <c r="D88" t="s">
@@ -13670,7 +13741,7 @@
       <c r="B90" t="s">
         <v>376</v>
       </c>
-      <c r="C90" s="83" t="s">
+      <c r="C90" s="82" t="s">
         <v>377</v>
       </c>
       <c r="D90" t="s">
@@ -13687,7 +13758,7 @@
       <c r="B91" t="s">
         <v>381</v>
       </c>
-      <c r="C91" s="83" t="s">
+      <c r="C91" s="82" t="s">
         <v>382</v>
       </c>
       <c r="D91" t="s">
@@ -13704,7 +13775,7 @@
       <c r="B92" t="s">
         <v>386</v>
       </c>
-      <c r="C92" s="83" t="s">
+      <c r="C92" s="82" t="s">
         <v>387</v>
       </c>
       <c r="D92" t="s">
@@ -13721,7 +13792,7 @@
       <c r="B93" t="s">
         <v>391</v>
       </c>
-      <c r="C93" s="83" t="s">
+      <c r="C93" s="82" t="s">
         <v>392</v>
       </c>
       <c r="D93" t="s">
@@ -13747,7 +13818,7 @@
       <c r="B95" t="s">
         <v>398</v>
       </c>
-      <c r="C95" s="83" t="s">
+      <c r="C95" s="82" t="s">
         <v>399</v>
       </c>
       <c r="D95" t="s">
@@ -13773,7 +13844,7 @@
       <c r="B97" t="s">
         <v>405</v>
       </c>
-      <c r="C97" s="83" t="s">
+      <c r="C97" s="82" t="s">
         <v>406</v>
       </c>
       <c r="D97" t="s">
@@ -13787,7 +13858,7 @@
       <c r="B98" t="s">
         <v>409</v>
       </c>
-      <c r="C98" s="83" t="s">
+      <c r="C98" s="82" t="s">
         <v>410</v>
       </c>
       <c r="D98" t="s">
@@ -13843,7 +13914,7 @@
       <c r="B102" t="s">
         <v>424</v>
       </c>
-      <c r="C102" s="83" t="s">
+      <c r="C102" s="82" t="s">
         <v>425</v>
       </c>
       <c r="D102" t="s">
@@ -13860,7 +13931,7 @@
       <c r="B103" t="s">
         <v>429</v>
       </c>
-      <c r="C103" s="83" t="s">
+      <c r="C103" s="82" t="s">
         <v>430</v>
       </c>
       <c r="D103" t="s">
@@ -13877,7 +13948,7 @@
       <c r="B104" t="s">
         <v>434</v>
       </c>
-      <c r="C104" s="85" t="s">
+      <c r="C104" s="84" t="s">
         <v>435</v>
       </c>
       <c r="D104" t="s">
@@ -13909,7 +13980,7 @@
       <c r="B106" t="s">
         <v>443</v>
       </c>
-      <c r="C106" s="83" t="s">
+      <c r="C106" s="82" t="s">
         <v>444</v>
       </c>
       <c r="D106" t="s">
@@ -13935,7 +14006,7 @@
       <c r="B108" t="s">
         <v>450</v>
       </c>
-      <c r="C108" s="83" t="s">
+      <c r="C108" s="82" t="s">
         <v>451</v>
       </c>
       <c r="D108" t="s">
@@ -13952,7 +14023,7 @@
       <c r="B109" t="s">
         <v>455</v>
       </c>
-      <c r="C109" s="83" t="s">
+      <c r="C109" s="82" t="s">
         <v>456</v>
       </c>
       <c r="D109" t="s">
@@ -13993,7 +14064,7 @@
       <c r="B112" t="s">
         <v>466</v>
       </c>
-      <c r="C112" s="83" t="s">
+      <c r="C112" s="82" t="s">
         <v>467</v>
       </c>
       <c r="D112" t="s">
@@ -14022,7 +14093,7 @@
       <c r="B114" t="s">
         <v>474</v>
       </c>
-      <c r="C114" s="83" t="s">
+      <c r="C114" s="82" t="s">
         <v>475</v>
       </c>
       <c r="D114" t="s">
@@ -14039,7 +14110,7 @@
       <c r="B115" t="s">
         <v>479</v>
       </c>
-      <c r="C115" s="83" t="s">
+      <c r="C115" s="82" t="s">
         <v>480</v>
       </c>
       <c r="D115" t="s">
@@ -14101,7 +14172,7 @@
       <c r="B119" t="s">
         <v>496</v>
       </c>
-      <c r="C119" s="83" t="s">
+      <c r="C119" s="82" t="s">
         <v>497</v>
       </c>
       <c r="D119" t="s">
@@ -14145,7 +14216,7 @@
       <c r="B122" t="s">
         <v>508</v>
       </c>
-      <c r="C122" s="83" t="s">
+      <c r="C122" s="82" t="s">
         <v>509</v>
       </c>
       <c r="D122" t="s">
@@ -14159,7 +14230,7 @@
       <c r="B123" t="s">
         <v>512</v>
       </c>
-      <c r="C123" s="85" t="s">
+      <c r="C123" s="84" t="s">
         <v>513</v>
       </c>
       <c r="D123" t="s">
@@ -14176,7 +14247,7 @@
       <c r="B124" t="s">
         <v>517</v>
       </c>
-      <c r="C124" s="83" t="s">
+      <c r="C124" s="82" t="s">
         <v>518</v>
       </c>
       <c r="D124" t="s">
@@ -14202,7 +14273,7 @@
       <c r="B126" t="s">
         <v>524</v>
       </c>
-      <c r="C126" s="83" t="s">
+      <c r="C126" s="82" t="s">
         <v>525</v>
       </c>
       <c r="D126" t="s">
@@ -14219,7 +14290,7 @@
       <c r="B127" t="s">
         <v>529</v>
       </c>
-      <c r="C127" s="83" t="s">
+      <c r="C127" s="82" t="s">
         <v>530</v>
       </c>
       <c r="D127" t="s">
@@ -14245,7 +14316,7 @@
       <c r="B129" t="s">
         <v>536</v>
       </c>
-      <c r="C129" s="83" t="s">
+      <c r="C129" s="82" t="s">
         <v>537</v>
       </c>
       <c r="D129" t="s">
@@ -14262,7 +14333,7 @@
       <c r="B130" t="s">
         <v>541</v>
       </c>
-      <c r="C130" s="85" t="s">
+      <c r="C130" s="84" t="s">
         <v>542</v>
       </c>
       <c r="D130" t="s">
@@ -14294,7 +14365,7 @@
       <c r="B132" t="s">
         <v>550</v>
       </c>
-      <c r="C132" s="83" t="s">
+      <c r="C132" s="82" t="s">
         <v>551</v>
       </c>
       <c r="D132" t="s">
@@ -14326,7 +14397,7 @@
       <c r="B134" t="s">
         <v>559</v>
       </c>
-      <c r="C134" s="83" t="s">
+      <c r="C134" s="82" t="s">
         <v>560</v>
       </c>
       <c r="D134" t="s">
@@ -14340,7 +14411,7 @@
       <c r="B135" t="s">
         <v>563</v>
       </c>
-      <c r="C135" s="83" t="s">
+      <c r="C135" s="82" t="s">
         <v>564</v>
       </c>
       <c r="D135" t="s">
@@ -14366,7 +14437,7 @@
       <c r="B137" t="s">
         <v>570</v>
       </c>
-      <c r="C137" s="83" t="s">
+      <c r="C137" s="82" t="s">
         <v>571</v>
       </c>
       <c r="D137" t="s">
@@ -14383,7 +14454,7 @@
       <c r="B138" t="s">
         <v>575</v>
       </c>
-      <c r="C138" s="83" t="s">
+      <c r="C138" s="82" t="s">
         <v>576</v>
       </c>
       <c r="D138" t="s">
@@ -14400,7 +14471,7 @@
       <c r="B139" t="s">
         <v>580</v>
       </c>
-      <c r="C139" s="83" t="s">
+      <c r="C139" s="82" t="s">
         <v>581</v>
       </c>
       <c r="D139" t="s">
@@ -14429,7 +14500,7 @@
       <c r="B141" t="s">
         <v>588</v>
       </c>
-      <c r="C141" s="83" t="s">
+      <c r="C141" s="82" t="s">
         <v>589</v>
       </c>
       <c r="D141" t="s">
@@ -14515,7 +14586,7 @@
       <c r="B147" t="s">
         <v>611</v>
       </c>
-      <c r="C147" s="83" t="s">
+      <c r="C147" s="82" t="s">
         <v>612</v>
       </c>
       <c r="D147" t="s">
@@ -14532,7 +14603,7 @@
       <c r="B148" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="85" t="s">
+      <c r="C148" s="84" t="s">
         <v>617</v>
       </c>
       <c r="D148" t="s">
@@ -14561,7 +14632,7 @@
       <c r="B150" t="s">
         <v>624</v>
       </c>
-      <c r="C150" s="83" t="s">
+      <c r="C150" s="82" t="s">
         <v>625</v>
       </c>
       <c r="D150" t="s">
@@ -14578,7 +14649,7 @@
       <c r="B151" t="s">
         <v>629</v>
       </c>
-      <c r="C151" s="83" t="s">
+      <c r="C151" s="82" t="s">
         <v>630</v>
       </c>
       <c r="D151" t="s">
@@ -14592,7 +14663,7 @@
       <c r="B152" t="s">
         <v>633</v>
       </c>
-      <c r="C152" s="83" t="s">
+      <c r="C152" s="82" t="s">
         <v>634</v>
       </c>
       <c r="D152" t="s">
@@ -14609,7 +14680,7 @@
       <c r="B153" t="s">
         <v>638</v>
       </c>
-      <c r="C153" s="83" t="s">
+      <c r="C153" s="82" t="s">
         <v>639</v>
       </c>
       <c r="D153" t="s">
@@ -14695,7 +14766,7 @@
       <c r="B159" t="s">
         <v>661</v>
       </c>
-      <c r="C159" s="83" t="s">
+      <c r="C159" s="82" t="s">
         <v>662</v>
       </c>
       <c r="D159" t="s">
@@ -14712,7 +14783,7 @@
       <c r="B160" t="s">
         <v>666</v>
       </c>
-      <c r="C160" s="83" t="s">
+      <c r="C160" s="82" t="s">
         <v>667</v>
       </c>
       <c r="D160" t="s">
@@ -14744,7 +14815,7 @@
       <c r="B162" t="s">
         <v>675</v>
       </c>
-      <c r="C162" s="83" t="s">
+      <c r="C162" s="82" t="s">
         <v>676</v>
       </c>
       <c r="D162" t="s">
@@ -14773,7 +14844,7 @@
       <c r="B164" t="s">
         <v>683</v>
       </c>
-      <c r="C164" s="83" t="s">
+      <c r="C164" s="82" t="s">
         <v>684</v>
       </c>
       <c r="D164" t="s">
@@ -14790,7 +14861,7 @@
       <c r="B165" t="s">
         <v>688</v>
       </c>
-      <c r="C165" s="83" t="s">
+      <c r="C165" s="82" t="s">
         <v>689</v>
       </c>
       <c r="D165" t="s">
@@ -14834,7 +14905,7 @@
       <c r="B168" t="s">
         <v>700</v>
       </c>
-      <c r="C168" s="83" t="s">
+      <c r="C168" s="82" t="s">
         <v>701</v>
       </c>
       <c r="D168" t="s">
@@ -14863,7 +14934,7 @@
       <c r="B170" t="s">
         <v>708</v>
       </c>
-      <c r="C170" s="85" t="s">
+      <c r="C170" s="84" t="s">
         <v>709</v>
       </c>
       <c r="D170" t="s">
@@ -14880,7 +14951,7 @@
       <c r="B171" t="s">
         <v>713</v>
       </c>
-      <c r="C171" s="83" t="s">
+      <c r="C171" s="82" t="s">
         <v>714</v>
       </c>
       <c r="D171" t="s">
@@ -14933,7 +15004,7 @@
       <c r="B175" t="s">
         <v>727</v>
       </c>
-      <c r="C175" s="83" t="s">
+      <c r="C175" s="82" t="s">
         <v>728</v>
       </c>
       <c r="E175" t="s">
@@ -14947,7 +15018,7 @@
       <c r="B176" t="s">
         <v>731</v>
       </c>
-      <c r="C176" s="83" t="s">
+      <c r="C176" s="82" t="s">
         <v>732</v>
       </c>
       <c r="D176" t="s">
@@ -14964,7 +15035,7 @@
       <c r="B177" t="s">
         <v>736</v>
       </c>
-      <c r="C177" s="83" t="s">
+      <c r="C177" s="82" t="s">
         <v>737</v>
       </c>
       <c r="D177" t="s">
@@ -14996,7 +15067,7 @@
       <c r="B180" t="s">
         <v>744</v>
       </c>
-      <c r="C180" s="83" t="s">
+      <c r="C180" s="82" t="s">
         <v>745</v>
       </c>
       <c r="D180" t="s">
@@ -15013,7 +15084,7 @@
       <c r="B181" t="s">
         <v>749</v>
       </c>
-      <c r="C181" s="83" t="s">
+      <c r="C181" s="82" t="s">
         <v>750</v>
       </c>
       <c r="D181" t="s">
@@ -15042,7 +15113,7 @@
       <c r="B183" t="s">
         <v>757</v>
       </c>
-      <c r="C183" s="83" t="s">
+      <c r="C183" s="82" t="s">
         <v>758</v>
       </c>
       <c r="D183" t="s">
@@ -15074,7 +15145,7 @@
       <c r="B185" t="s">
         <v>766</v>
       </c>
-      <c r="C185" s="83" t="s">
+      <c r="C185" s="82" t="s">
         <v>767</v>
       </c>
       <c r="D185" t="s">
@@ -15106,7 +15177,7 @@
       <c r="B187" t="s">
         <v>775</v>
       </c>
-      <c r="C187" s="83" t="s">
+      <c r="C187" s="82" t="s">
         <v>776</v>
       </c>
       <c r="D187" t="s">
@@ -15123,7 +15194,7 @@
       <c r="B188" t="s">
         <v>780</v>
       </c>
-      <c r="C188" s="83" t="s">
+      <c r="C188" s="82" t="s">
         <v>781</v>
       </c>
       <c r="D188" t="s">
@@ -15161,7 +15232,7 @@
       <c r="B191" t="s">
         <v>790</v>
       </c>
-      <c r="C191" s="85" t="s">
+      <c r="C191" s="84" t="s">
         <v>791</v>
       </c>
       <c r="D191" t="s">
@@ -15229,7 +15300,7 @@
       <c r="B196" t="s">
         <v>808</v>
       </c>
-      <c r="C196" s="83" t="s">
+      <c r="C196" s="82" t="s">
         <v>809</v>
       </c>
       <c r="D196" t="s">
@@ -15282,7 +15353,7 @@
       <c r="B200" t="s">
         <v>822</v>
       </c>
-      <c r="C200" s="83" t="s">
+      <c r="C200" s="82" t="s">
         <v>823</v>
       </c>
       <c r="E200" t="s">
@@ -15296,7 +15367,7 @@
       <c r="B201" t="s">
         <v>826</v>
       </c>
-      <c r="C201" s="83" t="s">
+      <c r="C201" s="82" t="s">
         <v>827</v>
       </c>
       <c r="D201" t="s">
@@ -15313,7 +15384,7 @@
       <c r="B202" t="s">
         <v>831</v>
       </c>
-      <c r="C202" s="83" t="s">
+      <c r="C202" s="82" t="s">
         <v>832</v>
       </c>
       <c r="D202" t="s">
@@ -15327,7 +15398,7 @@
       <c r="B203" t="s">
         <v>835</v>
       </c>
-      <c r="C203" s="85" t="s">
+      <c r="C203" s="84" t="s">
         <v>836</v>
       </c>
       <c r="D203" t="s">
@@ -15368,7 +15439,7 @@
       <c r="B206" t="s">
         <v>846</v>
       </c>
-      <c r="C206" s="83" t="s">
+      <c r="C206" s="82" t="s">
         <v>847</v>
       </c>
       <c r="D206" t="s">
@@ -15415,7 +15486,7 @@
       <c r="B209" t="s">
         <v>859</v>
       </c>
-      <c r="C209" s="83" t="s">
+      <c r="C209" s="82" t="s">
         <v>860</v>
       </c>
       <c r="D209" t="s">
@@ -15432,7 +15503,7 @@
       <c r="B210" t="s">
         <v>864</v>
       </c>
-      <c r="C210" s="83" t="s">
+      <c r="C210" s="82" t="s">
         <v>865</v>
       </c>
       <c r="D210" t="s">
@@ -15449,7 +15520,7 @@
       <c r="B211" t="s">
         <v>869</v>
       </c>
-      <c r="C211" s="83" t="s">
+      <c r="C211" s="82" t="s">
         <v>870</v>
       </c>
       <c r="D211" t="s">
@@ -15466,7 +15537,7 @@
       <c r="B212" t="s">
         <v>874</v>
       </c>
-      <c r="C212" s="83" t="s">
+      <c r="C212" s="82" t="s">
         <v>875</v>
       </c>
       <c r="D212" t="s">
@@ -15531,7 +15602,7 @@
       <c r="B217" t="s">
         <v>891</v>
       </c>
-      <c r="C217" s="83" t="s">
+      <c r="C217" s="82" t="s">
         <v>892</v>
       </c>
       <c r="D217" t="s">
@@ -15587,7 +15658,7 @@
       <c r="B221" t="s">
         <v>906</v>
       </c>
-      <c r="C221" s="83" t="s">
+      <c r="C221" s="82" t="s">
         <v>907</v>
       </c>
       <c r="D221" t="s">
@@ -15640,7 +15711,7 @@
       <c r="B225" t="s">
         <v>920</v>
       </c>
-      <c r="C225" s="83" t="s">
+      <c r="C225" s="82" t="s">
         <v>921</v>
       </c>
       <c r="D225" t="s">
@@ -15657,7 +15728,7 @@
       <c r="B226" t="s">
         <v>925</v>
       </c>
-      <c r="C226" s="83" t="s">
+      <c r="C226" s="82" t="s">
         <v>926</v>
       </c>
       <c r="D226" t="s">
@@ -15686,7 +15757,7 @@
       <c r="B228" t="s">
         <v>933</v>
       </c>
-      <c r="C228" s="83" t="s">
+      <c r="C228" s="82" t="s">
         <v>934</v>
       </c>
       <c r="D228" t="s">
@@ -15748,7 +15819,7 @@
       <c r="B233" t="s">
         <v>949</v>
       </c>
-      <c r="C233" s="83" t="s">
+      <c r="C233" s="82" t="s">
         <v>950</v>
       </c>
       <c r="D233" t="s">
@@ -15777,7 +15848,7 @@
       <c r="B235" t="s">
         <v>957</v>
       </c>
-      <c r="C235" s="83" t="s">
+      <c r="C235" s="82" t="s">
         <v>958</v>
       </c>
       <c r="D235" t="s">
@@ -15794,7 +15865,7 @@
       <c r="B236" t="s">
         <v>962</v>
       </c>
-      <c r="C236" s="83" t="s">
+      <c r="C236" s="82" t="s">
         <v>963</v>
       </c>
       <c r="D236" t="s">
@@ -15838,7 +15909,7 @@
       <c r="B239" t="s">
         <v>974</v>
       </c>
-      <c r="C239" s="83" t="s">
+      <c r="C239" s="82" t="s">
         <v>975</v>
       </c>
       <c r="D239" t="s">
@@ -15870,7 +15941,7 @@
       <c r="B241" t="s">
         <v>983</v>
       </c>
-      <c r="C241" s="83" t="s">
+      <c r="C241" s="82" t="s">
         <v>984</v>
       </c>
       <c r="D241" t="s">
@@ -15887,7 +15958,7 @@
       <c r="B242" t="s">
         <v>988</v>
       </c>
-      <c r="C242" s="83" t="s">
+      <c r="C242" s="82" t="s">
         <v>989</v>
       </c>
       <c r="D242" t="s">
@@ -15934,7 +16005,7 @@
       <c r="B245" t="s">
         <v>1001</v>
       </c>
-      <c r="C245" s="83" t="s">
+      <c r="C245" s="82" t="s">
         <v>1002</v>
       </c>
       <c r="D245" t="s">
@@ -15951,7 +16022,7 @@
       <c r="B246" t="s">
         <v>1006</v>
       </c>
-      <c r="C246" s="83" t="s">
+      <c r="C246" s="82" t="s">
         <v>1007</v>
       </c>
       <c r="E246" t="s">
@@ -15965,7 +16036,7 @@
       <c r="B247" t="s">
         <v>1010</v>
       </c>
-      <c r="C247" s="83" t="s">
+      <c r="C247" s="82" t="s">
         <v>1011</v>
       </c>
       <c r="D247" t="s">
@@ -15982,7 +16053,7 @@
       <c r="B248" t="s">
         <v>1015</v>
       </c>
-      <c r="C248" s="83" t="s">
+      <c r="C248" s="82" t="s">
         <v>1016</v>
       </c>
       <c r="D248" t="s">
@@ -15999,7 +16070,7 @@
       <c r="B249" t="s">
         <v>1020</v>
       </c>
-      <c r="C249" s="83" t="s">
+      <c r="C249" s="82" t="s">
         <v>1021</v>
       </c>
       <c r="D249" t="s">
@@ -16037,7 +16108,7 @@
       <c r="B252" t="s">
         <v>1030</v>
       </c>
-      <c r="C252" s="83" t="s">
+      <c r="C252" s="82" t="s">
         <v>1031</v>
       </c>
       <c r="D252" t="s">
@@ -16054,7 +16125,7 @@
       <c r="B253" t="s">
         <v>1035</v>
       </c>
-      <c r="C253" s="83" t="s">
+      <c r="C253" s="82" t="s">
         <v>1036</v>
       </c>
       <c r="D253" t="s">
@@ -16071,7 +16142,7 @@
       <c r="B254" t="s">
         <v>1040</v>
       </c>
-      <c r="C254" s="83" t="s">
+      <c r="C254" s="82" t="s">
         <v>1041</v>
       </c>
       <c r="D254" t="s">
@@ -16088,7 +16159,7 @@
       <c r="B255" t="s">
         <v>1045</v>
       </c>
-      <c r="C255" s="83" t="s">
+      <c r="C255" s="82" t="s">
         <v>1046</v>
       </c>
       <c r="D255" t="s">
@@ -16105,7 +16176,7 @@
       <c r="B256" t="s">
         <v>1050</v>
       </c>
-      <c r="C256" s="83" t="s">
+      <c r="C256" s="82" t="s">
         <v>1051</v>
       </c>
       <c r="D256" t="s">
@@ -16122,7 +16193,7 @@
       <c r="B257" t="s">
         <v>1055</v>
       </c>
-      <c r="C257" s="83" t="s">
+      <c r="C257" s="82" t="s">
         <v>1056</v>
       </c>
       <c r="D257" t="s">
@@ -16163,7 +16234,7 @@
       <c r="B260" t="s">
         <v>1066</v>
       </c>
-      <c r="C260" s="83" t="s">
+      <c r="C260" s="82" t="s">
         <v>1067</v>
       </c>
       <c r="D260" t="s">
@@ -16192,7 +16263,7 @@
       <c r="B262" t="s">
         <v>1074</v>
       </c>
-      <c r="C262" s="83" t="s">
+      <c r="C262" s="82" t="s">
         <v>1075</v>
       </c>
       <c r="D262" t="s">
@@ -16206,7 +16277,7 @@
       <c r="B263" t="s">
         <v>1078</v>
       </c>
-      <c r="C263" s="83" t="s">
+      <c r="C263" s="82" t="s">
         <v>1079</v>
       </c>
       <c r="D263" t="s">
@@ -16220,7 +16291,7 @@
       <c r="B264" t="s">
         <v>1082</v>
       </c>
-      <c r="C264" s="83" t="s">
+      <c r="C264" s="82" t="s">
         <v>1083</v>
       </c>
       <c r="D264" t="s">
@@ -16237,7 +16308,7 @@
       <c r="B265" t="s">
         <v>1087</v>
       </c>
-      <c r="C265" s="83" t="s">
+      <c r="C265" s="82" t="s">
         <v>1088</v>
       </c>
       <c r="D265" t="s">
@@ -16278,7 +16349,7 @@
       <c r="B268" t="s">
         <v>1098</v>
       </c>
-      <c r="C268" s="83" t="s">
+      <c r="C268" s="82" t="s">
         <v>1099</v>
       </c>
       <c r="D268" t="s">
@@ -16310,7 +16381,7 @@
       <c r="B270" t="s">
         <v>1107</v>
       </c>
-      <c r="C270" s="83" t="s">
+      <c r="C270" s="82" t="s">
         <v>1108</v>
       </c>
       <c r="D270" t="s">
@@ -16324,7 +16395,7 @@
       <c r="B271" t="s">
         <v>1111</v>
       </c>
-      <c r="C271" s="83" t="s">
+      <c r="C271" s="82" t="s">
         <v>1112</v>
       </c>
       <c r="D271" t="s">
@@ -16341,7 +16412,7 @@
       <c r="B272" t="s">
         <v>1116</v>
       </c>
-      <c r="C272" s="83" t="s">
+      <c r="C272" s="82" t="s">
         <v>1117</v>
       </c>
       <c r="D272" t="s">
@@ -16358,7 +16429,7 @@
       <c r="B273" t="s">
         <v>1121</v>
       </c>
-      <c r="C273" s="83" t="s">
+      <c r="C273" s="82" t="s">
         <v>1122</v>
       </c>
       <c r="D273" t="s">
@@ -16375,7 +16446,7 @@
       <c r="B274" t="s">
         <v>1126</v>
       </c>
-      <c r="C274" s="83" t="s">
+      <c r="C274" s="82" t="s">
         <v>1127</v>
       </c>
       <c r="D274" t="s">
@@ -16407,7 +16478,7 @@
       <c r="B276" t="s">
         <v>1135</v>
       </c>
-      <c r="C276" s="83" t="s">
+      <c r="C276" s="82" t="s">
         <v>1136</v>
       </c>
       <c r="D276" t="s">
@@ -16433,7 +16504,7 @@
       <c r="B278" t="s">
         <v>1142</v>
       </c>
-      <c r="C278" s="83" t="s">
+      <c r="C278" s="82" t="s">
         <v>1143</v>
       </c>
       <c r="D278" t="s">
@@ -16462,7 +16533,7 @@
       <c r="B280" t="s">
         <v>1150</v>
       </c>
-      <c r="C280" s="83" t="s">
+      <c r="C280" s="82" t="s">
         <v>1151</v>
       </c>
       <c r="D280" t="s">
@@ -16494,7 +16565,7 @@
       <c r="B282" t="s">
         <v>1159</v>
       </c>
-      <c r="C282" s="83" t="s">
+      <c r="C282" s="82" t="s">
         <v>1160</v>
       </c>
       <c r="D282" t="s">
@@ -16520,7 +16591,7 @@
       <c r="B284" t="s">
         <v>1166</v>
       </c>
-      <c r="C284" s="83" t="s">
+      <c r="C284" s="82" t="s">
         <v>1167</v>
       </c>
       <c r="D284" t="s">
@@ -16537,7 +16608,7 @@
       <c r="B285" t="s">
         <v>1171</v>
       </c>
-      <c r="C285" s="83" t="s">
+      <c r="C285" s="82" t="s">
         <v>1172</v>
       </c>
       <c r="D285" t="s">
@@ -16554,7 +16625,7 @@
       <c r="B286" t="s">
         <v>1176</v>
       </c>
-      <c r="C286" s="83" t="s">
+      <c r="C286" s="82" t="s">
         <v>1177</v>
       </c>
       <c r="D286" t="s">
@@ -16595,7 +16666,7 @@
       <c r="B289" t="s">
         <v>1187</v>
       </c>
-      <c r="C289" s="83" t="s">
+      <c r="C289" s="82" t="s">
         <v>1188</v>
       </c>
       <c r="D289" t="s">
@@ -16612,7 +16683,7 @@
       <c r="B290" t="s">
         <v>1192</v>
       </c>
-      <c r="C290" s="83" t="s">
+      <c r="C290" s="82" t="s">
         <v>1193</v>
       </c>
       <c r="D290" t="s">
@@ -16629,7 +16700,7 @@
       <c r="B291" t="s">
         <v>1197</v>
       </c>
-      <c r="C291" s="83" t="s">
+      <c r="C291" s="82" t="s">
         <v>1198</v>
       </c>
       <c r="D291" t="s">
@@ -16646,7 +16717,7 @@
       <c r="B292" t="s">
         <v>1202</v>
       </c>
-      <c r="C292" s="83" t="s">
+      <c r="C292" s="82" t="s">
         <v>1203</v>
       </c>
       <c r="D292" t="s">
@@ -16663,7 +16734,7 @@
       <c r="B293" t="s">
         <v>1207</v>
       </c>
-      <c r="C293" s="83" t="s">
+      <c r="C293" s="82" t="s">
         <v>1208</v>
       </c>
       <c r="D293" t="s">
@@ -16689,7 +16760,7 @@
       <c r="B295" t="s">
         <v>1214</v>
       </c>
-      <c r="C295" s="83" t="s">
+      <c r="C295" s="82" t="s">
         <v>1215</v>
       </c>
       <c r="D295" t="s">
@@ -16703,7 +16774,7 @@
       <c r="B296" t="s">
         <v>1218</v>
       </c>
-      <c r="C296" s="83" t="s">
+      <c r="C296" s="82" t="s">
         <v>1219</v>
       </c>
       <c r="D296" t="s">
@@ -16720,7 +16791,7 @@
       <c r="B297" t="s">
         <v>1223</v>
       </c>
-      <c r="C297" s="83" t="s">
+      <c r="C297" s="82" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -16731,7 +16802,7 @@
       <c r="B298" t="s">
         <v>1226</v>
       </c>
-      <c r="C298" s="83" t="s">
+      <c r="C298" s="82" t="s">
         <v>1227</v>
       </c>
       <c r="D298" t="s">
@@ -16748,7 +16819,7 @@
       <c r="B299" t="s">
         <v>1231</v>
       </c>
-      <c r="C299" s="83" t="s">
+      <c r="C299" s="82" t="s">
         <v>1232</v>
       </c>
       <c r="D299" t="s">
@@ -16765,7 +16836,7 @@
       <c r="B300" t="s">
         <v>1236</v>
       </c>
-      <c r="C300" s="83" t="s">
+      <c r="C300" s="82" t="s">
         <v>1237</v>
       </c>
       <c r="D300" t="s">
@@ -16794,7 +16865,7 @@
       <c r="B302" t="s">
         <v>1244</v>
       </c>
-      <c r="C302" s="83" t="s">
+      <c r="C302" s="82" t="s">
         <v>1245</v>
       </c>
       <c r="D302" t="s">
@@ -16811,7 +16882,7 @@
       <c r="B303" t="s">
         <v>1249</v>
       </c>
-      <c r="C303" s="83" t="s">
+      <c r="C303" s="82" t="s">
         <v>1250</v>
       </c>
       <c r="D303" t="s">
@@ -16843,7 +16914,7 @@
       <c r="B305" t="s">
         <v>1258</v>
       </c>
-      <c r="C305" s="83" t="s">
+      <c r="C305" s="82" t="s">
         <v>1259</v>
       </c>
       <c r="D305" t="s">
@@ -16860,7 +16931,7 @@
       <c r="B306" t="s">
         <v>1263</v>
       </c>
-      <c r="C306" s="83" t="s">
+      <c r="C306" s="82" t="s">
         <v>1264</v>
       </c>
       <c r="D306" t="s">
@@ -16889,7 +16960,7 @@
       <c r="B308" t="s">
         <v>1271</v>
       </c>
-      <c r="C308" s="83" t="s">
+      <c r="C308" s="82" t="s">
         <v>1272</v>
       </c>
       <c r="D308" t="s">
@@ -16906,7 +16977,7 @@
       <c r="B309" t="s">
         <v>1276</v>
       </c>
-      <c r="C309" s="83" t="s">
+      <c r="C309" s="82" t="s">
         <v>1277</v>
       </c>
       <c r="D309" t="s">
@@ -16932,7 +17003,7 @@
       <c r="B311" t="s">
         <v>1283</v>
       </c>
-      <c r="C311" s="83" t="s">
+      <c r="C311" s="82" t="s">
         <v>1284</v>
       </c>
       <c r="D311" t="s">
@@ -16949,7 +17020,7 @@
       <c r="B312" t="s">
         <v>1288</v>
       </c>
-      <c r="C312" s="83" t="s">
+      <c r="C312" s="82" t="s">
         <v>1289</v>
       </c>
       <c r="D312" t="s">
@@ -16966,7 +17037,7 @@
       <c r="B313" t="s">
         <v>1293</v>
       </c>
-      <c r="C313" s="83" t="s">
+      <c r="C313" s="82" t="s">
         <v>1294</v>
       </c>
       <c r="D313" t="s">
@@ -16998,7 +17069,7 @@
       <c r="B315" t="s">
         <v>1302</v>
       </c>
-      <c r="C315" s="85" t="s">
+      <c r="C315" s="84" t="s">
         <v>1303</v>
       </c>
       <c r="D315" t="s">
@@ -17030,7 +17101,7 @@
       <c r="B317" t="s">
         <v>1311</v>
       </c>
-      <c r="C317" s="83" t="s">
+      <c r="C317" s="82" t="s">
         <v>1312</v>
       </c>
       <c r="E317" t="s">
@@ -17044,7 +17115,7 @@
       <c r="B318" t="s">
         <v>1315</v>
       </c>
-      <c r="C318" s="83" t="s">
+      <c r="C318" s="82" t="s">
         <v>1316</v>
       </c>
       <c r="D318" t="s">
@@ -17088,7 +17159,7 @@
       <c r="B321" t="s">
         <v>1327</v>
       </c>
-      <c r="C321" s="83" t="s">
+      <c r="C321" s="82" t="s">
         <v>1328</v>
       </c>
       <c r="D321" t="s">
@@ -17105,7 +17176,7 @@
       <c r="B322" t="s">
         <v>1332</v>
       </c>
-      <c r="C322" s="83" t="s">
+      <c r="C322" s="82" t="s">
         <v>1333</v>
       </c>
       <c r="D322" t="s">
@@ -17122,7 +17193,7 @@
       <c r="B323" t="s">
         <v>1337</v>
       </c>
-      <c r="C323" s="83" t="s">
+      <c r="C323" s="82" t="s">
         <v>1338</v>
       </c>
       <c r="D323" t="s">
@@ -17139,7 +17210,7 @@
       <c r="B324" t="s">
         <v>1342</v>
       </c>
-      <c r="C324" s="83" t="s">
+      <c r="C324" s="82" t="s">
         <v>1343</v>
       </c>
       <c r="D324" t="s">
@@ -17156,7 +17227,7 @@
       <c r="B325" t="s">
         <v>1347</v>
       </c>
-      <c r="C325" s="83" t="s">
+      <c r="C325" s="82" t="s">
         <v>1348</v>
       </c>
       <c r="D325" t="s">
@@ -17185,7 +17256,7 @@
       <c r="B327" t="s">
         <v>1355</v>
       </c>
-      <c r="C327" s="83" t="s">
+      <c r="C327" s="82" t="s">
         <v>1356</v>
       </c>
       <c r="D327" t="s">
@@ -17202,7 +17273,7 @@
       <c r="B328" t="s">
         <v>1360</v>
       </c>
-      <c r="C328" s="83" t="s">
+      <c r="C328" s="82" t="s">
         <v>1361</v>
       </c>
       <c r="D328" t="s">
@@ -17219,7 +17290,7 @@
       <c r="B329" t="s">
         <v>1365</v>
       </c>
-      <c r="C329" s="83" t="s">
+      <c r="C329" s="82" t="s">
         <v>1366</v>
       </c>
       <c r="D329" t="s">
@@ -17245,7 +17316,7 @@
       <c r="B331" t="s">
         <v>1372</v>
       </c>
-      <c r="C331" s="83" t="s">
+      <c r="C331" s="82" t="s">
         <v>1373</v>
       </c>
       <c r="D331" t="s">
@@ -17262,7 +17333,7 @@
       <c r="B332" t="s">
         <v>1377</v>
       </c>
-      <c r="C332" s="83" t="s">
+      <c r="C332" s="82" t="s">
         <v>1378</v>
       </c>
       <c r="D332" t="s">
@@ -17303,7 +17374,7 @@
       <c r="B335" t="s">
         <v>1388</v>
       </c>
-      <c r="C335" s="83" t="s">
+      <c r="C335" s="82" t="s">
         <v>1389</v>
       </c>
       <c r="D335" t="s">
@@ -17332,7 +17403,7 @@
       <c r="B337" t="s">
         <v>1396</v>
       </c>
-      <c r="C337" s="83" t="s">
+      <c r="C337" s="82" t="s">
         <v>1397</v>
       </c>
       <c r="D337" t="s">
@@ -17346,7 +17417,7 @@
       <c r="B338" t="s">
         <v>1400</v>
       </c>
-      <c r="C338" s="83" t="s">
+      <c r="C338" s="82" t="s">
         <v>1401</v>
       </c>
       <c r="D338" t="s">
@@ -17369,7 +17440,7 @@
       <c r="B340" t="s">
         <v>1406</v>
       </c>
-      <c r="C340" s="83" t="s">
+      <c r="C340" s="82" t="s">
         <v>1407</v>
       </c>
       <c r="D340" t="s">
@@ -17386,7 +17457,7 @@
       <c r="B341" t="s">
         <v>1411</v>
       </c>
-      <c r="C341" s="83" t="s">
+      <c r="C341" s="82" t="s">
         <v>1412</v>
       </c>
       <c r="D341" t="s">
@@ -17415,7 +17486,7 @@
       <c r="B343" t="s">
         <v>1419</v>
       </c>
-      <c r="C343" s="83" t="s">
+      <c r="C343" s="82" t="s">
         <v>1420</v>
       </c>
       <c r="D343" t="s">
@@ -17456,7 +17527,7 @@
       <c r="B346" t="s">
         <v>1430</v>
       </c>
-      <c r="C346" s="83" t="s">
+      <c r="C346" s="82" t="s">
         <v>1431</v>
       </c>
       <c r="D346" t="s">
@@ -17473,7 +17544,7 @@
       <c r="B347" t="s">
         <v>1435</v>
       </c>
-      <c r="C347" s="83" t="s">
+      <c r="C347" s="82" t="s">
         <v>1436</v>
       </c>
       <c r="D347" t="s">
@@ -17490,7 +17561,7 @@
       <c r="B348" t="s">
         <v>1440</v>
       </c>
-      <c r="C348" s="83" t="s">
+      <c r="C348" s="82" t="s">
         <v>1441</v>
       </c>
       <c r="D348" t="s">
@@ -17507,7 +17578,7 @@
       <c r="B349" t="s">
         <v>1445</v>
       </c>
-      <c r="C349" s="83" t="s">
+      <c r="C349" s="82" t="s">
         <v>1446</v>
       </c>
       <c r="D349" t="s">
@@ -17524,7 +17595,7 @@
       <c r="B350" t="s">
         <v>1450</v>
       </c>
-      <c r="C350" s="83" t="s">
+      <c r="C350" s="82" t="s">
         <v>1451</v>
       </c>
       <c r="D350" t="s">
@@ -17550,7 +17621,7 @@
       <c r="B352" t="s">
         <v>1457</v>
       </c>
-      <c r="C352" s="83" t="s">
+      <c r="C352" s="82" t="s">
         <v>1458</v>
       </c>
       <c r="D352" t="s">
@@ -17567,7 +17638,7 @@
       <c r="B353" t="s">
         <v>1462</v>
       </c>
-      <c r="C353" s="83" t="s">
+      <c r="C353" s="82" t="s">
         <v>1463</v>
       </c>
       <c r="D353" t="s">
@@ -17620,7 +17691,7 @@
       <c r="B357" t="s">
         <v>1476</v>
       </c>
-      <c r="C357" s="83" t="s">
+      <c r="C357" s="82" t="s">
         <v>1477</v>
       </c>
       <c r="E357" t="s">
@@ -17634,7 +17705,7 @@
       <c r="B358" t="s">
         <v>1480</v>
       </c>
-      <c r="C358" s="83" t="s">
+      <c r="C358" s="82" t="s">
         <v>1481</v>
       </c>
       <c r="D358" t="s">
@@ -17651,7 +17722,7 @@
       <c r="B359" t="s">
         <v>1485</v>
       </c>
-      <c r="C359" s="83" t="s">
+      <c r="C359" s="82" t="s">
         <v>1486</v>
       </c>
       <c r="D359" t="s">
@@ -17674,7 +17745,7 @@
       <c r="B361" t="s">
         <v>1491</v>
       </c>
-      <c r="C361" s="83" t="s">
+      <c r="C361" s="82" t="s">
         <v>1492</v>
       </c>
       <c r="D361" t="s">
@@ -17745,7 +17816,7 @@
       <c r="B366" t="s">
         <v>1510</v>
       </c>
-      <c r="C366" s="83" t="s">
+      <c r="C366" s="82" t="s">
         <v>1511</v>
       </c>
       <c r="D366" t="s">
@@ -17774,7 +17845,7 @@
       <c r="B368" t="s">
         <v>1518</v>
       </c>
-      <c r="C368" s="83" t="s">
+      <c r="C368" s="82" t="s">
         <v>1519</v>
       </c>
       <c r="D368" t="s">
@@ -17800,7 +17871,7 @@
       <c r="B370" t="s">
         <v>1524</v>
       </c>
-      <c r="C370" s="83" t="s">
+      <c r="C370" s="82" t="s">
         <v>1525</v>
       </c>
       <c r="D370" t="s">
@@ -17853,7 +17924,7 @@
       <c r="B374" t="s">
         <v>1538</v>
       </c>
-      <c r="C374" s="83" t="s">
+      <c r="C374" s="82" t="s">
         <v>1539</v>
       </c>
       <c r="E374" t="s">
@@ -17879,7 +17950,7 @@
       <c r="B376" t="s">
         <v>1545</v>
       </c>
-      <c r="C376" s="83" t="s">
+      <c r="C376" s="82" t="s">
         <v>1546</v>
       </c>
       <c r="D376" t="s">
@@ -17896,7 +17967,7 @@
       <c r="B377" t="s">
         <v>1550</v>
       </c>
-      <c r="C377" s="83" t="s">
+      <c r="C377" s="82" t="s">
         <v>1551</v>
       </c>
       <c r="D377" t="s">
@@ -17913,7 +17984,7 @@
       <c r="B378" t="s">
         <v>1555</v>
       </c>
-      <c r="C378" s="83" t="s">
+      <c r="C378" s="82" t="s">
         <v>1556</v>
       </c>
       <c r="D378" t="s">
@@ -17942,7 +18013,7 @@
       <c r="B380" t="s">
         <v>1563</v>
       </c>
-      <c r="C380" s="83" t="s">
+      <c r="C380" s="82" t="s">
         <v>1564</v>
       </c>
       <c r="D380" t="s">
@@ -18004,7 +18075,7 @@
       <c r="B385" t="s">
         <v>1579</v>
       </c>
-      <c r="C385" s="83" t="s">
+      <c r="C385" s="82" t="s">
         <v>1580</v>
       </c>
       <c r="D385" t="s">
@@ -18021,7 +18092,7 @@
       <c r="B386" t="s">
         <v>1584</v>
       </c>
-      <c r="C386" s="83" t="s">
+      <c r="C386" s="82" t="s">
         <v>1585</v>
       </c>
       <c r="E386" t="s">
@@ -18044,7 +18115,7 @@
       <c r="B388" t="s">
         <v>1590</v>
       </c>
-      <c r="C388" s="83" t="s">
+      <c r="C388" s="82" t="s">
         <v>1591</v>
       </c>
       <c r="D388" t="s">
@@ -18082,7 +18153,7 @@
       <c r="B391" t="s">
         <v>1600</v>
       </c>
-      <c r="C391" s="83" t="s">
+      <c r="C391" s="82" t="s">
         <v>1601</v>
       </c>
       <c r="D391" t="s">
@@ -18150,7 +18221,7 @@
       <c r="B396" t="s">
         <v>1618</v>
       </c>
-      <c r="C396" s="83" t="s">
+      <c r="C396" s="82" t="s">
         <v>1619</v>
       </c>
       <c r="D396" t="s">
@@ -18191,7 +18262,7 @@
       <c r="B399" t="s">
         <v>1629</v>
       </c>
-      <c r="C399" s="83" t="s">
+      <c r="C399" s="82" t="s">
         <v>1630</v>
       </c>
       <c r="E399" t="s">
@@ -18205,7 +18276,7 @@
       <c r="B400" t="s">
         <v>1633</v>
       </c>
-      <c r="C400" s="83" t="s">
+      <c r="C400" s="82" t="s">
         <v>1634</v>
       </c>
       <c r="D400" t="s">
@@ -18219,7 +18290,7 @@
       <c r="B401" t="s">
         <v>1637</v>
       </c>
-      <c r="C401" s="83" t="s">
+      <c r="C401" s="82" t="s">
         <v>1638</v>
       </c>
       <c r="D401" t="s">
@@ -18233,7 +18304,7 @@
       <c r="B402" t="s">
         <v>1641</v>
       </c>
-      <c r="C402" s="83" t="s">
+      <c r="C402" s="82" t="s">
         <v>1642</v>
       </c>
       <c r="D402" t="s">
@@ -18247,7 +18318,7 @@
       <c r="B403" t="s">
         <v>1645</v>
       </c>
-      <c r="C403" s="83" t="s">
+      <c r="C403" s="82" t="s">
         <v>1646</v>
       </c>
       <c r="D403" t="s">
@@ -18261,7 +18332,7 @@
       <c r="B404" t="s">
         <v>1649</v>
       </c>
-      <c r="C404" s="83" t="s">
+      <c r="C404" s="82" t="s">
         <v>1650</v>
       </c>
       <c r="D404" t="s">
@@ -18278,7 +18349,7 @@
       <c r="B405" t="s">
         <v>1654</v>
       </c>
-      <c r="C405" s="83" t="s">
+      <c r="C405" s="82" t="s">
         <v>1655</v>
       </c>
       <c r="D405" t="s">
@@ -18295,7 +18366,7 @@
       <c r="B406" t="s">
         <v>1659</v>
       </c>
-      <c r="C406" s="83" t="s">
+      <c r="C406" s="82" t="s">
         <v>1660</v>
       </c>
       <c r="D406" t="s">
@@ -18336,7 +18407,7 @@
       <c r="B409" t="s">
         <v>1670</v>
       </c>
-      <c r="C409" s="83" t="s">
+      <c r="C409" s="82" t="s">
         <v>1671</v>
       </c>
       <c r="D409" t="s">
@@ -18362,7 +18433,7 @@
       <c r="B411" t="s">
         <v>1677</v>
       </c>
-      <c r="C411" s="83" t="s">
+      <c r="C411" s="82" t="s">
         <v>1678</v>
       </c>
       <c r="D411" t="s">
@@ -18430,7 +18501,7 @@
       <c r="B416" t="s">
         <v>1695</v>
       </c>
-      <c r="C416" s="85" t="s">
+      <c r="C416" s="84" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -18441,7 +18512,7 @@
       <c r="B417" t="s">
         <v>1698</v>
       </c>
-      <c r="C417" s="83" t="s">
+      <c r="C417" s="82" t="s">
         <v>1699</v>
       </c>
       <c r="D417" t="s">
@@ -18458,7 +18529,7 @@
       <c r="B418" t="s">
         <v>1703</v>
       </c>
-      <c r="C418" s="83" t="s">
+      <c r="C418" s="82" t="s">
         <v>1704</v>
       </c>
       <c r="D418" t="s">
@@ -18484,7 +18555,7 @@
       <c r="B420" t="s">
         <v>1710</v>
       </c>
-      <c r="C420" s="83" t="s">
+      <c r="C420" s="82" t="s">
         <v>1711</v>
       </c>
       <c r="D420" t="s">
@@ -18501,7 +18572,7 @@
       <c r="B421" t="s">
         <v>1715</v>
       </c>
-      <c r="C421" s="83" t="s">
+      <c r="C421" s="82" t="s">
         <v>1716</v>
       </c>
       <c r="D421" t="s">
@@ -18518,7 +18589,7 @@
       <c r="B422" t="s">
         <v>1670</v>
       </c>
-      <c r="C422" s="83" t="s">
+      <c r="C422" s="82" t="s">
         <v>1720</v>
       </c>
       <c r="D422" t="s">
@@ -18535,7 +18606,7 @@
       <c r="B423" t="s">
         <v>1724</v>
       </c>
-      <c r="C423" s="83" t="s">
+      <c r="C423" s="82" t="s">
         <v>1725</v>
       </c>
       <c r="D423" t="s">
@@ -18552,7 +18623,7 @@
       <c r="B424" t="s">
         <v>1729</v>
       </c>
-      <c r="C424" s="83" t="s">
+      <c r="C424" s="82" t="s">
         <v>1730</v>
       </c>
       <c r="D424" t="s">
@@ -18581,7 +18652,7 @@
       <c r="B426" t="s">
         <v>1737</v>
       </c>
-      <c r="C426" s="83" t="s">
+      <c r="C426" s="82" t="s">
         <v>1738</v>
       </c>
       <c r="D426" t="s">
@@ -18598,7 +18669,7 @@
       <c r="B427" t="s">
         <v>1742</v>
       </c>
-      <c r="C427" s="83" t="s">
+      <c r="C427" s="82" t="s">
         <v>1743</v>
       </c>
       <c r="E427" t="s">
@@ -18624,7 +18695,7 @@
       <c r="B429" t="s">
         <v>1749</v>
       </c>
-      <c r="C429" s="83" t="s">
+      <c r="C429" s="82" t="s">
         <v>1750</v>
       </c>
       <c r="D429" t="s">
@@ -18650,7 +18721,7 @@
       <c r="B431" t="s">
         <v>1756</v>
       </c>
-      <c r="C431" s="83" t="s">
+      <c r="C431" s="82" t="s">
         <v>1757</v>
       </c>
       <c r="D431" t="s">
@@ -18664,7 +18735,7 @@
       <c r="B432" t="s">
         <v>1760</v>
       </c>
-      <c r="C432" s="83" t="s">
+      <c r="C432" s="82" t="s">
         <v>1761</v>
       </c>
       <c r="D432" t="s">
@@ -18711,7 +18782,7 @@
       <c r="A436" t="s">
         <v>1772</v>
       </c>
-      <c r="C436" s="83" t="s">
+      <c r="C436" s="82" t="s">
         <v>1773</v>
       </c>
       <c r="D436" t="s">
@@ -18818,7 +18889,7 @@
       <c r="B444" t="s">
         <v>1800</v>
       </c>
-      <c r="C444" s="83" t="s">
+      <c r="C444" s="82" t="s">
         <v>1801</v>
       </c>
       <c r="D444" t="s">
@@ -18868,7 +18939,7 @@
       <c r="B448" t="s">
         <v>1813</v>
       </c>
-      <c r="C448" s="83" t="s">
+      <c r="C448" s="82" t="s">
         <v>1814</v>
       </c>
       <c r="D448" t="s">
@@ -18882,7 +18953,7 @@
       <c r="B449" t="s">
         <v>1817</v>
       </c>
-      <c r="C449" s="83" t="s">
+      <c r="C449" s="82" t="s">
         <v>1818</v>
       </c>
     </row>
@@ -18893,7 +18964,7 @@
       <c r="B450" t="s">
         <v>1820</v>
       </c>
-      <c r="C450" s="83" t="s">
+      <c r="C450" s="82" t="s">
         <v>1821</v>
       </c>
       <c r="D450" t="s">
@@ -18910,7 +18981,7 @@
       <c r="B451" t="s">
         <v>1825</v>
       </c>
-      <c r="C451" s="83" t="s">
+      <c r="C451" s="82" t="s">
         <v>1826</v>
       </c>
       <c r="D451" t="s">
@@ -18924,7 +18995,7 @@
       <c r="B452" t="s">
         <v>1829</v>
       </c>
-      <c r="C452" s="83" t="s">
+      <c r="C452" s="82" t="s">
         <v>1830</v>
       </c>
       <c r="D452" t="s">
@@ -18989,7 +19060,7 @@
       <c r="B457" t="s">
         <v>1846</v>
       </c>
-      <c r="C457" s="83" t="s">
+      <c r="C457" s="82" t="s">
         <v>1847</v>
       </c>
       <c r="D457" t="s">
@@ -19021,7 +19092,7 @@
       <c r="B459" t="s">
         <v>1855</v>
       </c>
-      <c r="C459" s="85" t="s">
+      <c r="C459" s="84" t="s">
         <v>1856</v>
       </c>
       <c r="D459" t="s">
@@ -19035,7 +19106,7 @@
       <c r="B460" t="s">
         <v>1859</v>
       </c>
-      <c r="C460" s="83" t="s">
+      <c r="C460" s="82" t="s">
         <v>1860</v>
       </c>
       <c r="D460" t="s">
@@ -19052,7 +19123,7 @@
       <c r="B461" t="s">
         <v>1864</v>
       </c>
-      <c r="C461" s="85" t="s">
+      <c r="C461" s="84" t="s">
         <v>1865</v>
       </c>
       <c r="E461" t="s">
@@ -19078,7 +19149,7 @@
       <c r="B463" t="s">
         <v>1871</v>
       </c>
-      <c r="C463" s="83" t="s">
+      <c r="C463" s="82" t="s">
         <v>1872</v>
       </c>
       <c r="D463" t="s">
@@ -19107,7 +19178,7 @@
       <c r="B465" t="s">
         <v>1879</v>
       </c>
-      <c r="C465" s="83" t="s">
+      <c r="C465" s="82" t="s">
         <v>1880</v>
       </c>
       <c r="D465" t="s">
@@ -19124,7 +19195,7 @@
       <c r="B466" t="s">
         <v>1884</v>
       </c>
-      <c r="C466" s="85" t="s">
+      <c r="C466" s="84" t="s">
         <v>1885</v>
       </c>
       <c r="D466" t="s">
@@ -19141,7 +19212,7 @@
       <c r="B467" t="s">
         <v>1889</v>
       </c>
-      <c r="C467" s="83" t="s">
+      <c r="C467" s="82" t="s">
         <v>1890</v>
       </c>
       <c r="D467" t="s">
@@ -19194,7 +19265,7 @@
       <c r="B471" t="s">
         <v>1903</v>
       </c>
-      <c r="C471" s="83" t="s">
+      <c r="C471" s="82" t="s">
         <v>1904</v>
       </c>
       <c r="D471" t="s">
@@ -19208,7 +19279,7 @@
       <c r="B472" t="s">
         <v>1907</v>
       </c>
-      <c r="C472" s="83" t="s">
+      <c r="C472" s="82" t="s">
         <v>1908</v>
       </c>
       <c r="D472" t="s">
@@ -19246,7 +19317,7 @@
       <c r="B475" t="s">
         <v>1917</v>
       </c>
-      <c r="C475" s="83" t="s">
+      <c r="C475" s="82" t="s">
         <v>1918</v>
       </c>
       <c r="D475" t="s">
@@ -19260,7 +19331,7 @@
       <c r="B476" t="s">
         <v>1921</v>
       </c>
-      <c r="C476" s="83" t="s">
+      <c r="C476" s="82" t="s">
         <v>1922</v>
       </c>
       <c r="D476" t="s">
@@ -19304,7 +19375,7 @@
       <c r="B479" t="s">
         <v>1933</v>
       </c>
-      <c r="C479" s="83" t="s">
+      <c r="C479" s="82" t="s">
         <v>1934</v>
       </c>
       <c r="D479" t="s">
@@ -19330,7 +19401,7 @@
       <c r="B481" t="s">
         <v>1940</v>
       </c>
-      <c r="C481" s="83" t="s">
+      <c r="C481" s="82" t="s">
         <v>1941</v>
       </c>
       <c r="D481" t="s">
@@ -19362,7 +19433,7 @@
       <c r="B483" t="s">
         <v>1949</v>
       </c>
-      <c r="C483" s="83" t="s">
+      <c r="C483" s="82" t="s">
         <v>1950</v>
       </c>
       <c r="E483" t="s">
@@ -19376,7 +19447,7 @@
       <c r="B484" t="s">
         <v>1953</v>
       </c>
-      <c r="C484" s="83" t="s">
+      <c r="C484" s="82" t="s">
         <v>1954</v>
       </c>
       <c r="D484" t="s">
@@ -19393,7 +19464,7 @@
       <c r="B485" t="s">
         <v>1958</v>
       </c>
-      <c r="C485" s="83" t="s">
+      <c r="C485" s="82" t="s">
         <v>1959</v>
       </c>
       <c r="D485" t="s">
@@ -19431,7 +19502,7 @@
       <c r="B488" t="s">
         <v>1968</v>
       </c>
-      <c r="C488" s="83" t="s">
+      <c r="C488" s="82" t="s">
         <v>1969</v>
       </c>
       <c r="D488" t="s">
@@ -19460,7 +19531,7 @@
       <c r="B490" t="s">
         <v>1976</v>
       </c>
-      <c r="C490" s="83" t="s">
+      <c r="C490" s="82" t="s">
         <v>1977</v>
       </c>
       <c r="D490" t="s">
@@ -19489,7 +19560,7 @@
       <c r="B492" t="s">
         <v>1984</v>
       </c>
-      <c r="C492" s="83" t="s">
+      <c r="C492" s="82" t="s">
         <v>1985</v>
       </c>
       <c r="D492" t="s">
@@ -19506,7 +19577,7 @@
       <c r="B493" t="s">
         <v>1989</v>
       </c>
-      <c r="C493" s="83" t="s">
+      <c r="C493" s="82" t="s">
         <v>1990</v>
       </c>
       <c r="D493" t="s">
@@ -19523,7 +19594,7 @@
       <c r="B494" t="s">
         <v>1994</v>
       </c>
-      <c r="C494" s="83" t="s">
+      <c r="C494" s="82" t="s">
         <v>1995</v>
       </c>
       <c r="D494" t="s">
@@ -19540,7 +19611,7 @@
       <c r="B495" t="s">
         <v>1999</v>
       </c>
-      <c r="C495" s="83" t="s">
+      <c r="C495" s="82" t="s">
         <v>2000</v>
       </c>
       <c r="D495" t="s">
@@ -19569,7 +19640,7 @@
       <c r="B497" t="s">
         <v>2007</v>
       </c>
-      <c r="C497" s="83" t="s">
+      <c r="C497" s="82" t="s">
         <v>2008</v>
       </c>
       <c r="D497" t="s">
@@ -19586,7 +19657,7 @@
       <c r="B498" t="s">
         <v>2012</v>
       </c>
-      <c r="C498" s="83" t="s">
+      <c r="C498" s="82" t="s">
         <v>2013</v>
       </c>
       <c r="D498" t="s">
@@ -19603,7 +19674,7 @@
       <c r="B499" t="s">
         <v>2017</v>
       </c>
-      <c r="C499" s="83" t="s">
+      <c r="C499" s="82" t="s">
         <v>2018</v>
       </c>
       <c r="D499" t="s">
@@ -19620,7 +19691,7 @@
       <c r="B500" t="s">
         <v>2022</v>
       </c>
-      <c r="C500" s="83" t="s">
+      <c r="C500" s="82" t="s">
         <v>2023</v>
       </c>
       <c r="D500" t="s">
@@ -19646,7 +19717,7 @@
       <c r="B502" t="s">
         <v>2029</v>
       </c>
-      <c r="C502" s="83" t="s">
+      <c r="C502" s="82" t="s">
         <v>2030</v>
       </c>
       <c r="D502" t="s">
@@ -19663,7 +19734,7 @@
       <c r="B503" t="s">
         <v>2034</v>
       </c>
-      <c r="C503" s="83" t="s">
+      <c r="C503" s="82" t="s">
         <v>2035</v>
       </c>
       <c r="D503" t="s">
@@ -19680,7 +19751,7 @@
       <c r="B504" t="s">
         <v>2039</v>
       </c>
-      <c r="C504" s="83" t="s">
+      <c r="C504" s="82" t="s">
         <v>2040</v>
       </c>
       <c r="D504" t="s">
@@ -19730,7 +19801,7 @@
       <c r="B508" t="s">
         <v>2052</v>
       </c>
-      <c r="C508" s="85" t="s">
+      <c r="C508" s="84" t="s">
         <v>2053</v>
       </c>
       <c r="D508" t="s">
@@ -19747,7 +19818,7 @@
       <c r="B509" t="s">
         <v>2057</v>
       </c>
-      <c r="C509" s="83" t="s">
+      <c r="C509" s="82" t="s">
         <v>2058</v>
       </c>
       <c r="D509" t="s">
@@ -19761,7 +19832,7 @@
       <c r="B510" t="s">
         <v>2061</v>
       </c>
-      <c r="C510" s="83" t="s">
+      <c r="C510" s="82" t="s">
         <v>2062</v>
       </c>
       <c r="D510" t="s">
@@ -19775,7 +19846,7 @@
       <c r="B511" t="s">
         <v>2065</v>
       </c>
-      <c r="C511" s="83" t="s">
+      <c r="C511" s="82" t="s">
         <v>2066</v>
       </c>
       <c r="D511" t="s">
@@ -19792,7 +19863,7 @@
       <c r="B512" t="s">
         <v>2070</v>
       </c>
-      <c r="C512" s="83" t="s">
+      <c r="C512" s="82" t="s">
         <v>2071</v>
       </c>
       <c r="D512" t="s">
@@ -19809,7 +19880,7 @@
       <c r="B513" t="s">
         <v>2075</v>
       </c>
-      <c r="C513" s="83" t="s">
+      <c r="C513" s="82" t="s">
         <v>2076</v>
       </c>
       <c r="D513" t="s">
@@ -19826,7 +19897,7 @@
       <c r="B514" t="s">
         <v>2080</v>
       </c>
-      <c r="C514" s="83" t="s">
+      <c r="C514" s="82" t="s">
         <v>2081</v>
       </c>
       <c r="D514" t="s">
@@ -19852,7 +19923,7 @@
       <c r="B516" t="s">
         <v>2086</v>
       </c>
-      <c r="C516" s="83" t="s">
+      <c r="C516" s="82" t="s">
         <v>2087</v>
       </c>
       <c r="D516" t="s">
@@ -19923,7 +19994,7 @@
       <c r="B521" t="s">
         <v>2105</v>
       </c>
-      <c r="C521" s="83" t="s">
+      <c r="C521" s="82" t="s">
         <v>2106</v>
       </c>
       <c r="D521" t="s">
@@ -19940,7 +20011,7 @@
       <c r="B522" t="s">
         <v>2110</v>
       </c>
-      <c r="C522" s="83" t="s">
+      <c r="C522" s="82" t="s">
         <v>2111</v>
       </c>
       <c r="D522" t="s">
@@ -19954,7 +20025,7 @@
       <c r="B523" t="s">
         <v>2113</v>
       </c>
-      <c r="C523" s="83" t="s">
+      <c r="C523" s="82" t="s">
         <v>2114</v>
       </c>
       <c r="D523" t="s">
@@ -19971,7 +20042,7 @@
       <c r="B524" t="s">
         <v>2118</v>
       </c>
-      <c r="C524" s="83" t="s">
+      <c r="C524" s="82" t="s">
         <v>2119</v>
       </c>
       <c r="D524" t="s">
@@ -20000,7 +20071,7 @@
       <c r="B526" t="s">
         <v>2126</v>
       </c>
-      <c r="C526" s="83" t="s">
+      <c r="C526" s="82" t="s">
         <v>2127</v>
       </c>
       <c r="D526" t="s">
@@ -20026,7 +20097,7 @@
       <c r="B528" t="s">
         <v>2133</v>
       </c>
-      <c r="C528" s="83" t="s">
+      <c r="C528" s="82" t="s">
         <v>2134</v>
       </c>
       <c r="D528" t="s">
@@ -20043,7 +20114,7 @@
       <c r="B529" t="s">
         <v>2138</v>
       </c>
-      <c r="C529" s="83" t="s">
+      <c r="C529" s="82" t="s">
         <v>2139</v>
       </c>
       <c r="D529" t="s">
@@ -20060,7 +20131,7 @@
       <c r="B530" t="s">
         <v>2143</v>
       </c>
-      <c r="C530" s="83" t="s">
+      <c r="C530" s="82" t="s">
         <v>2144</v>
       </c>
       <c r="D530" t="s">
@@ -20077,7 +20148,7 @@
       <c r="B531" t="s">
         <v>2148</v>
       </c>
-      <c r="C531" s="83" t="s">
+      <c r="C531" s="82" t="s">
         <v>2149</v>
       </c>
       <c r="D531" t="s">
@@ -20094,7 +20165,7 @@
       <c r="B532" t="s">
         <v>2153</v>
       </c>
-      <c r="C532" s="83" t="s">
+      <c r="C532" s="82" t="s">
         <v>2154</v>
       </c>
       <c r="D532" t="s">
@@ -20120,7 +20191,7 @@
       <c r="B534" t="s">
         <v>2160</v>
       </c>
-      <c r="C534" s="83" t="s">
+      <c r="C534" s="82" t="s">
         <v>2161</v>
       </c>
       <c r="D534" t="s">
@@ -20137,7 +20208,7 @@
       <c r="B535" t="s">
         <v>2165</v>
       </c>
-      <c r="C535" s="83" t="s">
+      <c r="C535" s="82" t="s">
         <v>2166</v>
       </c>
       <c r="E535" t="s">
@@ -20151,7 +20222,7 @@
       <c r="B536" t="s">
         <v>2169</v>
       </c>
-      <c r="C536" s="83" t="s">
+      <c r="C536" s="82" t="s">
         <v>2170</v>
       </c>
       <c r="D536" t="s">
@@ -20177,7 +20248,7 @@
       <c r="B538" t="s">
         <v>2176</v>
       </c>
-      <c r="C538" s="83" t="s">
+      <c r="C538" s="82" t="s">
         <v>2177</v>
       </c>
       <c r="D538" t="s">
@@ -20272,7 +20343,7 @@
       <c r="B545" t="s">
         <v>2201</v>
       </c>
-      <c r="C545" s="83" t="s">
+      <c r="C545" s="82" t="s">
         <v>2202</v>
       </c>
       <c r="D545" t="s">
@@ -20289,7 +20360,7 @@
       <c r="B546" t="s">
         <v>2206</v>
       </c>
-      <c r="C546" s="83" t="s">
+      <c r="C546" s="82" t="s">
         <v>2207</v>
       </c>
       <c r="D546" t="s">
@@ -20303,7 +20374,7 @@
       <c r="B547" t="s">
         <v>2210</v>
       </c>
-      <c r="C547" s="83" t="s">
+      <c r="C547" s="82" t="s">
         <v>2211</v>
       </c>
       <c r="D547" t="s">
@@ -20320,7 +20391,7 @@
       <c r="B548" t="s">
         <v>2215</v>
       </c>
-      <c r="C548" s="85" t="s">
+      <c r="C548" s="84" t="s">
         <v>2216</v>
       </c>
       <c r="D548" t="s">
@@ -20337,7 +20408,7 @@
       <c r="B549" t="s">
         <v>2220</v>
       </c>
-      <c r="C549" s="83" t="s">
+      <c r="C549" s="82" t="s">
         <v>2221</v>
       </c>
       <c r="D549" t="s">
@@ -20363,7 +20434,7 @@
       <c r="B551" t="s">
         <v>2227</v>
       </c>
-      <c r="C551" s="83" t="s">
+      <c r="C551" s="82" t="s">
         <v>2228</v>
       </c>
       <c r="D551" t="s">
@@ -20377,7 +20448,7 @@
       <c r="B552" t="s">
         <v>2231</v>
       </c>
-      <c r="C552" s="83" t="s">
+      <c r="C552" s="82" t="s">
         <v>2232</v>
       </c>
       <c r="D552" t="s">
@@ -20418,7 +20489,7 @@
       <c r="B555" t="s">
         <v>2242</v>
       </c>
-      <c r="C555" s="83" t="s">
+      <c r="C555" s="82" t="s">
         <v>2243</v>
       </c>
       <c r="D555" t="s">
@@ -20432,7 +20503,7 @@
       <c r="B556" t="s">
         <v>2246</v>
       </c>
-      <c r="C556" s="83" t="s">
+      <c r="C556" s="82" t="s">
         <v>2247</v>
       </c>
       <c r="D556" t="s">
@@ -20461,7 +20532,7 @@
       <c r="B558" t="s">
         <v>2254</v>
       </c>
-      <c r="C558" s="83" t="s">
+      <c r="C558" s="82" t="s">
         <v>2255</v>
       </c>
       <c r="D558" t="s">
@@ -20478,7 +20549,7 @@
       <c r="B559" t="s">
         <v>2259</v>
       </c>
-      <c r="C559" s="83" t="s">
+      <c r="C559" s="82" t="s">
         <v>2260</v>
       </c>
       <c r="D559" t="s">
@@ -20570,7 +20641,7 @@
       <c r="B566" t="s">
         <v>2283</v>
       </c>
-      <c r="C566" s="83" t="s">
+      <c r="C566" s="82" t="s">
         <v>2284</v>
       </c>
       <c r="D566" t="s">
@@ -20584,7 +20655,7 @@
       <c r="B567" t="s">
         <v>2287</v>
       </c>
-      <c r="C567" s="83" t="s">
+      <c r="C567" s="82" t="s">
         <v>2288</v>
       </c>
       <c r="D567" t="s">
@@ -20598,7 +20669,7 @@
       <c r="B568" t="s">
         <v>2291</v>
       </c>
-      <c r="C568" s="83" t="s">
+      <c r="C568" s="82" t="s">
         <v>2292</v>
       </c>
       <c r="D568" t="s">
@@ -20615,7 +20686,7 @@
       <c r="B569" t="s">
         <v>2296</v>
       </c>
-      <c r="C569" s="83" t="s">
+      <c r="C569" s="82" t="s">
         <v>2297</v>
       </c>
       <c r="D569" t="s">
@@ -20632,7 +20703,7 @@
       <c r="B570" t="s">
         <v>2301</v>
       </c>
-      <c r="C570" s="83" t="s">
+      <c r="C570" s="82" t="s">
         <v>2302</v>
       </c>
       <c r="D570" t="s">
@@ -20658,7 +20729,7 @@
       <c r="B572" t="s">
         <v>2308</v>
       </c>
-      <c r="C572" s="83" t="s">
+      <c r="C572" s="82" t="s">
         <v>2309</v>
       </c>
       <c r="D572" t="s">
@@ -20690,7 +20761,7 @@
       <c r="B574" t="s">
         <v>2317</v>
       </c>
-      <c r="C574" s="83" t="s">
+      <c r="C574" s="82" t="s">
         <v>2318</v>
       </c>
       <c r="D574" t="s">
@@ -20722,7 +20793,7 @@
       <c r="B576" t="s">
         <v>2326</v>
       </c>
-      <c r="C576" s="83" t="s">
+      <c r="C576" s="82" t="s">
         <v>2327</v>
       </c>
       <c r="D576" t="s">
@@ -20739,7 +20810,7 @@
       <c r="B577" t="s">
         <v>2331</v>
       </c>
-      <c r="C577" s="83" t="s">
+      <c r="C577" s="82" t="s">
         <v>2332</v>
       </c>
       <c r="D577" t="s">
@@ -20756,7 +20827,7 @@
       <c r="B578" t="s">
         <v>2336</v>
       </c>
-      <c r="C578" s="83" t="s">
+      <c r="C578" s="82" t="s">
         <v>2337</v>
       </c>
       <c r="D578" t="s">
@@ -20770,7 +20841,7 @@
       <c r="B579" t="s">
         <v>2340</v>
       </c>
-      <c r="C579" s="83" t="s">
+      <c r="C579" s="82" t="s">
         <v>2341</v>
       </c>
       <c r="D579" t="s">
@@ -20787,7 +20858,7 @@
       <c r="B580" t="s">
         <v>2345</v>
       </c>
-      <c r="C580" s="83" t="s">
+      <c r="C580" s="82" t="s">
         <v>2346</v>
       </c>
       <c r="D580" t="s">
@@ -20804,7 +20875,7 @@
       <c r="B581" t="s">
         <v>2350</v>
       </c>
-      <c r="C581" s="83" t="s">
+      <c r="C581" s="82" t="s">
         <v>2351</v>
       </c>
       <c r="D581" t="s">
@@ -20860,7 +20931,7 @@
       <c r="B585" t="s">
         <v>2365</v>
       </c>
-      <c r="C585" s="83" t="s">
+      <c r="C585" s="82" t="s">
         <v>2366</v>
       </c>
       <c r="D585" t="s">
@@ -20883,7 +20954,7 @@
       <c r="B587" t="s">
         <v>2371</v>
       </c>
-      <c r="C587" s="83" t="s">
+      <c r="C587" s="82" t="s">
         <v>2372</v>
       </c>
       <c r="D587" t="s">
@@ -20918,7 +20989,7 @@
       <c r="B590" t="s">
         <v>2380</v>
       </c>
-      <c r="C590" s="85" t="s">
+      <c r="C590" s="84" t="s">
         <v>2381</v>
       </c>
       <c r="D590" t="s">
@@ -20944,7 +21015,7 @@
       <c r="B592" t="s">
         <v>2387</v>
       </c>
-      <c r="C592" s="83" t="s">
+      <c r="C592" s="82" t="s">
         <v>2388</v>
       </c>
       <c r="E592" t="s">
@@ -20970,7 +21041,7 @@
       <c r="B594" t="s">
         <v>2394</v>
       </c>
-      <c r="C594" s="83" t="s">
+      <c r="C594" s="82" t="s">
         <v>2395</v>
       </c>
       <c r="D594" t="s">
@@ -21023,7 +21094,7 @@
       <c r="B598" t="s">
         <v>2408</v>
       </c>
-      <c r="C598" s="83" t="s">
+      <c r="C598" s="82" t="s">
         <v>2409</v>
       </c>
       <c r="D598" t="s">
@@ -21127,7 +21198,7 @@
       <c r="B606" t="s">
         <v>2435</v>
       </c>
-      <c r="C606" s="83" t="s">
+      <c r="C606" s="82" t="s">
         <v>2436</v>
       </c>
       <c r="D606" t="s">
@@ -21153,7 +21224,7 @@
       <c r="B608" t="s">
         <v>2442</v>
       </c>
-      <c r="C608" s="83" t="s">
+      <c r="C608" s="82" t="s">
         <v>2443</v>
       </c>
       <c r="D608" t="s">
@@ -21182,7 +21253,7 @@
       <c r="B610" t="s">
         <v>2450</v>
       </c>
-      <c r="C610" s="83" t="s">
+      <c r="C610" s="82" t="s">
         <v>2451</v>
       </c>
       <c r="E610" t="s">
@@ -21235,7 +21306,7 @@
       <c r="B614" t="s">
         <v>2464</v>
       </c>
-      <c r="C614" s="83" t="s">
+      <c r="C614" s="82" t="s">
         <v>2465</v>
       </c>
       <c r="D614" t="s">
@@ -21261,7 +21332,7 @@
       <c r="B616" t="s">
         <v>2471</v>
       </c>
-      <c r="C616" s="83" t="s">
+      <c r="C616" s="82" t="s">
         <v>2472</v>
       </c>
       <c r="D616" t="s">
@@ -21293,7 +21364,7 @@
       <c r="B618" t="s">
         <v>2480</v>
       </c>
-      <c r="C618" s="83" t="s">
+      <c r="C618" s="82" t="s">
         <v>2481</v>
       </c>
       <c r="D618" t="s">
@@ -21337,7 +21408,7 @@
       <c r="B621" t="s">
         <v>2491</v>
       </c>
-      <c r="C621" s="83" t="s">
+      <c r="C621" s="82" t="s">
         <v>2492</v>
       </c>
       <c r="D621" t="s">
@@ -21354,7 +21425,7 @@
       <c r="B622" t="s">
         <v>2496</v>
       </c>
-      <c r="C622" s="83" t="s">
+      <c r="C622" s="82" t="s">
         <v>2497</v>
       </c>
       <c r="D622" t="s">
@@ -21371,7 +21442,7 @@
       <c r="B623" t="s">
         <v>2501</v>
       </c>
-      <c r="C623" s="83" t="s">
+      <c r="C623" s="82" t="s">
         <v>2502</v>
       </c>
       <c r="D623" t="s">
@@ -21388,7 +21459,7 @@
       <c r="B624" t="s">
         <v>2506</v>
       </c>
-      <c r="C624" s="83" t="s">
+      <c r="C624" s="82" t="s">
         <v>2507</v>
       </c>
       <c r="D624" t="s">
@@ -21405,7 +21476,7 @@
       <c r="B625" t="s">
         <v>2511</v>
       </c>
-      <c r="C625" s="83" t="s">
+      <c r="C625" s="82" t="s">
         <v>2512</v>
       </c>
       <c r="D625" t="s">
@@ -21449,7 +21520,7 @@
       <c r="B629" t="s">
         <v>2522</v>
       </c>
-      <c r="C629" s="83" t="s">
+      <c r="C629" s="82" t="s">
         <v>2523</v>
       </c>
       <c r="D629" t="s">
@@ -21466,7 +21537,7 @@
       <c r="B630" t="s">
         <v>2527</v>
       </c>
-      <c r="C630" s="83" t="s">
+      <c r="C630" s="82" t="s">
         <v>2528</v>
       </c>
       <c r="D630" t="s">
@@ -21480,7 +21551,7 @@
       <c r="B631" t="s">
         <v>2531</v>
       </c>
-      <c r="C631" s="83" t="s">
+      <c r="C631" s="82" t="s">
         <v>2532</v>
       </c>
       <c r="D631" t="s">
@@ -21527,7 +21598,7 @@
       <c r="B635" t="s">
         <v>2543</v>
       </c>
-      <c r="C635" s="83" t="s">
+      <c r="C635" s="82" t="s">
         <v>2544</v>
       </c>
       <c r="D635" t="s">
@@ -21553,7 +21624,7 @@
       <c r="B637" t="s">
         <v>2550</v>
       </c>
-      <c r="C637" s="83" t="s">
+      <c r="C637" s="82" t="s">
         <v>2551</v>
       </c>
       <c r="D637" t="s">
@@ -21579,7 +21650,7 @@
       <c r="B639" t="s">
         <v>2557</v>
       </c>
-      <c r="C639" s="83" t="s">
+      <c r="C639" s="82" t="s">
         <v>2558</v>
       </c>
       <c r="D639" t="s">
@@ -21596,7 +21667,7 @@
       <c r="B640" t="s">
         <v>2562</v>
       </c>
-      <c r="C640" s="83" t="s">
+      <c r="C640" s="82" t="s">
         <v>2563</v>
       </c>
       <c r="D640" t="s">
@@ -21613,7 +21684,7 @@
       <c r="B641" t="s">
         <v>2567</v>
       </c>
-      <c r="C641" s="83" t="s">
+      <c r="C641" s="82" t="s">
         <v>2568</v>
       </c>
       <c r="D641" t="s">
@@ -21630,7 +21701,7 @@
       <c r="B642" t="s">
         <v>2572</v>
       </c>
-      <c r="C642" s="83" t="s">
+      <c r="C642" s="82" t="s">
         <v>2573</v>
       </c>
       <c r="D642" t="s">
@@ -21647,7 +21718,7 @@
       <c r="B643" t="s">
         <v>2577</v>
       </c>
-      <c r="C643" s="83" t="s">
+      <c r="C643" s="82" t="s">
         <v>2578</v>
       </c>
       <c r="D643" t="s">
@@ -21691,7 +21762,7 @@
       <c r="B646" t="s">
         <v>2589</v>
       </c>
-      <c r="C646" s="83" t="s">
+      <c r="C646" s="82" t="s">
         <v>2590</v>
       </c>
       <c r="D646" t="s">
@@ -21729,7 +21800,7 @@
       <c r="B649" t="s">
         <v>2598</v>
       </c>
-      <c r="C649" s="83" t="s">
+      <c r="C649" s="82" t="s">
         <v>2599</v>
       </c>
       <c r="D649" t="s">
@@ -21746,7 +21817,7 @@
       <c r="B650" t="s">
         <v>2603</v>
       </c>
-      <c r="C650" s="83" t="s">
+      <c r="C650" s="82" t="s">
         <v>2604</v>
       </c>
       <c r="D650" t="s">
@@ -21775,7 +21846,7 @@
       <c r="B652" t="s">
         <v>2611</v>
       </c>
-      <c r="C652" s="83" t="s">
+      <c r="C652" s="82" t="s">
         <v>2612</v>
       </c>
       <c r="D652" t="s">
@@ -21825,7 +21896,7 @@
       <c r="B656" t="s">
         <v>2624</v>
       </c>
-      <c r="C656" s="83" t="s">
+      <c r="C656" s="82" t="s">
         <v>2625</v>
       </c>
       <c r="D656" t="s">
@@ -21842,7 +21913,7 @@
       <c r="B657" t="s">
         <v>2629</v>
       </c>
-      <c r="C657" s="83" t="s">
+      <c r="C657" s="82" t="s">
         <v>2630</v>
       </c>
       <c r="D657" t="s">
@@ -21919,7 +21990,7 @@
       <c r="B663" t="s">
         <v>2649</v>
       </c>
-      <c r="C663" s="83" t="s">
+      <c r="C663" s="82" t="s">
         <v>2650</v>
       </c>
       <c r="D663" t="s">
@@ -21945,7 +22016,7 @@
       <c r="B665" t="s">
         <v>2656</v>
       </c>
-      <c r="C665" s="83" t="s">
+      <c r="C665" s="82" t="s">
         <v>2657</v>
       </c>
       <c r="D665" t="s">
@@ -21971,7 +22042,7 @@
       <c r="B667" t="s">
         <v>2550</v>
       </c>
-      <c r="C667" s="83" t="s">
+      <c r="C667" s="82" t="s">
         <v>2551</v>
       </c>
       <c r="D667" t="s">
@@ -22000,7 +22071,7 @@
       <c r="B669" t="s">
         <v>2669</v>
       </c>
-      <c r="C669" s="83" t="s">
+      <c r="C669" s="82" t="s">
         <v>2670</v>
       </c>
       <c r="D669" t="s">
@@ -22032,7 +22103,7 @@
       <c r="B671" t="s">
         <v>2678</v>
       </c>
-      <c r="C671" s="83" t="s">
+      <c r="C671" s="82" t="s">
         <v>2679</v>
       </c>
       <c r="D671" t="s">
@@ -22073,7 +22144,7 @@
       <c r="B674" t="s">
         <v>2689</v>
       </c>
-      <c r="C674" s="83" t="s">
+      <c r="C674" s="82" t="s">
         <v>2690</v>
       </c>
       <c r="D674" t="s">
@@ -22090,7 +22161,7 @@
       <c r="B675" t="s">
         <v>2694</v>
       </c>
-      <c r="C675" s="83" t="s">
+      <c r="C675" s="82" t="s">
         <v>2695</v>
       </c>
       <c r="D675" t="s">
@@ -22107,7 +22178,7 @@
       <c r="B676" t="s">
         <v>2699</v>
       </c>
-      <c r="C676" s="83" t="s">
+      <c r="C676" s="82" t="s">
         <v>2700</v>
       </c>
       <c r="D676" t="s">
@@ -22166,7 +22237,7 @@
       <c r="B680" t="s">
         <v>2715</v>
       </c>
-      <c r="C680" s="85" t="s">
+      <c r="C680" s="84" t="s">
         <v>2716</v>
       </c>
       <c r="D680" t="s">
@@ -22183,7 +22254,7 @@
       <c r="B681" t="s">
         <v>2720</v>
       </c>
-      <c r="C681" s="83" t="s">
+      <c r="C681" s="82" t="s">
         <v>2721</v>
       </c>
       <c r="D681" t="s">
@@ -22215,7 +22286,7 @@
       <c r="B683" t="s">
         <v>2729</v>
       </c>
-      <c r="C683" s="83" t="s">
+      <c r="C683" s="82" t="s">
         <v>2730</v>
       </c>
       <c r="D683" t="s">
@@ -22241,7 +22312,7 @@
       <c r="B685" t="s">
         <v>2736</v>
       </c>
-      <c r="C685" s="83" t="s">
+      <c r="C685" s="82" t="s">
         <v>2737</v>
       </c>
       <c r="D685" t="s">
@@ -22258,7 +22329,7 @@
       <c r="B686" t="s">
         <v>2741</v>
       </c>
-      <c r="C686" s="83" t="s">
+      <c r="C686" s="82" t="s">
         <v>2742</v>
       </c>
       <c r="D686" t="s">
@@ -22284,7 +22355,7 @@
       <c r="B688" t="s">
         <v>2748</v>
       </c>
-      <c r="C688" s="83" t="s">
+      <c r="C688" s="82" t="s">
         <v>2749</v>
       </c>
       <c r="D688" t="s">
@@ -22355,7 +22426,7 @@
       <c r="B693" t="s">
         <v>2767</v>
       </c>
-      <c r="C693" s="83" t="s">
+      <c r="C693" s="82" t="s">
         <v>2768</v>
       </c>
       <c r="D693" t="s">
@@ -22369,7 +22440,7 @@
       <c r="B694" t="s">
         <v>2771</v>
       </c>
-      <c r="C694" s="83" t="s">
+      <c r="C694" s="82" t="s">
         <v>2772</v>
       </c>
       <c r="D694" t="s">
@@ -22419,7 +22490,7 @@
       <c r="B698" t="s">
         <v>2784</v>
       </c>
-      <c r="C698" s="83" t="s">
+      <c r="C698" s="82" t="s">
         <v>2785</v>
       </c>
       <c r="D698" t="s">
@@ -22448,7 +22519,7 @@
       <c r="B700" t="s">
         <v>2792</v>
       </c>
-      <c r="C700" s="83" t="s">
+      <c r="C700" s="82" t="s">
         <v>2793</v>
       </c>
       <c r="E700" t="s">
@@ -22462,7 +22533,7 @@
       <c r="B701" t="s">
         <v>2796</v>
       </c>
-      <c r="C701" s="83" t="s">
+      <c r="C701" s="82" t="s">
         <v>2797</v>
       </c>
       <c r="D701" t="s">
@@ -22494,7 +22565,7 @@
       <c r="B703" t="s">
         <v>2805</v>
       </c>
-      <c r="C703" s="83" t="s">
+      <c r="C703" s="82" t="s">
         <v>2806</v>
       </c>
       <c r="D703" t="s">
@@ -22520,7 +22591,7 @@
       <c r="B705" t="s">
         <v>2812</v>
       </c>
-      <c r="C705" s="85" t="s">
+      <c r="C705" s="84" t="s">
         <v>2813</v>
       </c>
       <c r="D705" t="s">
@@ -22561,7 +22632,7 @@
       <c r="B708" t="s">
         <v>2823</v>
       </c>
-      <c r="C708" s="83" t="s">
+      <c r="C708" s="82" t="s">
         <v>2824</v>
       </c>
       <c r="D708" t="s">
@@ -22578,7 +22649,7 @@
       <c r="B709" t="s">
         <v>2828</v>
       </c>
-      <c r="C709" s="85" t="s">
+      <c r="C709" s="84" t="s">
         <v>2829</v>
       </c>
       <c r="D709" t="s">
@@ -22607,7 +22678,7 @@
       <c r="B711" t="s">
         <v>2836</v>
       </c>
-      <c r="C711" s="83" t="s">
+      <c r="C711" s="82" t="s">
         <v>2837</v>
       </c>
       <c r="D711" t="s">
@@ -22624,7 +22695,7 @@
       <c r="B712" t="s">
         <v>2841</v>
       </c>
-      <c r="C712" s="83" t="s">
+      <c r="C712" s="82" t="s">
         <v>2842</v>
       </c>
       <c r="D712" t="s">
@@ -22647,7 +22718,7 @@
       <c r="B714" t="s">
         <v>2847</v>
       </c>
-      <c r="C714" s="83" t="s">
+      <c r="C714" s="82" t="s">
         <v>2848</v>
       </c>
       <c r="D714" t="s">
@@ -22694,7 +22765,7 @@
       <c r="B718" t="s">
         <v>2859</v>
       </c>
-      <c r="C718" s="83" t="s">
+      <c r="C718" s="82" t="s">
         <v>2860</v>
       </c>
       <c r="D718" t="s">
@@ -22723,7 +22794,7 @@
       <c r="B720" t="s">
         <v>2867</v>
       </c>
-      <c r="C720" s="83" t="s">
+      <c r="C720" s="82" t="s">
         <v>2868</v>
       </c>
       <c r="D720" t="s">
@@ -22740,7 +22811,7 @@
       <c r="B721" t="s">
         <v>2872</v>
       </c>
-      <c r="C721" s="83" t="s">
+      <c r="C721" s="82" t="s">
         <v>2873</v>
       </c>
       <c r="D721" t="s">
@@ -22754,7 +22825,7 @@
       <c r="B722" t="s">
         <v>2876</v>
       </c>
-      <c r="C722" s="83" t="s">
+      <c r="C722" s="82" t="s">
         <v>2877</v>
       </c>
       <c r="D722" t="s">
@@ -22771,7 +22842,7 @@
       <c r="B723" t="s">
         <v>2881</v>
       </c>
-      <c r="C723" s="83" t="s">
+      <c r="C723" s="82" t="s">
         <v>2882</v>
       </c>
       <c r="D723" t="s">
@@ -22845,7 +22916,7 @@
       <c r="B729" t="s">
         <v>2900</v>
       </c>
-      <c r="C729" s="83" t="s">
+      <c r="C729" s="82" t="s">
         <v>2901</v>
       </c>
       <c r="D729" t="s">
@@ -22868,7 +22939,7 @@
       <c r="B731" t="s">
         <v>2906</v>
       </c>
-      <c r="C731" s="83" t="s">
+      <c r="C731" s="82" t="s">
         <v>2907</v>
       </c>
       <c r="D731" t="s">
@@ -22909,7 +22980,7 @@
       <c r="B734" t="s">
         <v>2917</v>
       </c>
-      <c r="C734" s="83" t="s">
+      <c r="C734" s="82" t="s">
         <v>2918</v>
       </c>
       <c r="D734" t="s">
@@ -22926,7 +22997,7 @@
       <c r="B735" t="s">
         <v>2922</v>
       </c>
-      <c r="C735" s="83" t="s">
+      <c r="C735" s="82" t="s">
         <v>2923</v>
       </c>
       <c r="D735" t="s">
@@ -22943,7 +23014,7 @@
       <c r="B736" t="s">
         <v>2927</v>
       </c>
-      <c r="C736" s="83" t="s">
+      <c r="C736" s="82" t="s">
         <v>2928</v>
       </c>
       <c r="D736" t="s">
@@ -22957,7 +23028,7 @@
       <c r="B737" t="s">
         <v>2931</v>
       </c>
-      <c r="C737" s="83" t="s">
+      <c r="C737" s="82" t="s">
         <v>2932</v>
       </c>
       <c r="D737" t="s">
@@ -22974,7 +23045,7 @@
       <c r="B738" t="s">
         <v>2936</v>
       </c>
-      <c r="C738" s="83" t="s">
+      <c r="C738" s="82" t="s">
         <v>2937</v>
       </c>
       <c r="D738" t="s">
@@ -22991,7 +23062,7 @@
       <c r="B739" t="s">
         <v>2941</v>
       </c>
-      <c r="C739" s="83" t="s">
+      <c r="C739" s="82" t="s">
         <v>2942</v>
       </c>
       <c r="D739" t="s">
@@ -23008,7 +23079,7 @@
       <c r="B740" t="s">
         <v>2946</v>
       </c>
-      <c r="C740" s="83" t="s">
+      <c r="C740" s="82" t="s">
         <v>2947</v>
       </c>
       <c r="D740" t="s">
@@ -23025,7 +23096,7 @@
       <c r="B741" t="s">
         <v>2951</v>
       </c>
-      <c r="C741" s="85" t="s">
+      <c r="C741" s="84" t="s">
         <v>2952</v>
       </c>
       <c r="D741" t="s">
@@ -23042,7 +23113,7 @@
       <c r="B742" t="s">
         <v>2956</v>
       </c>
-      <c r="C742" s="85" t="s">
+      <c r="C742" s="84" t="s">
         <v>2957</v>
       </c>
       <c r="D742" t="s">
@@ -23056,7 +23127,7 @@
       <c r="B743" t="s">
         <v>2960</v>
       </c>
-      <c r="C743" s="83" t="s">
+      <c r="C743" s="82" t="s">
         <v>2961</v>
       </c>
       <c r="D743" t="s">
@@ -23073,7 +23144,7 @@
       <c r="B744" t="s">
         <v>2965</v>
       </c>
-      <c r="C744" s="83" t="s">
+      <c r="C744" s="82" t="s">
         <v>2966</v>
       </c>
       <c r="D744" t="s">
@@ -23195,7 +23266,7 @@
       <c r="B754" t="s">
         <v>2996</v>
       </c>
-      <c r="C754" s="83" t="s">
+      <c r="C754" s="82" t="s">
         <v>2997</v>
       </c>
       <c r="D754" t="s">
@@ -23212,7 +23283,7 @@
       <c r="B755" t="s">
         <v>3001</v>
       </c>
-      <c r="C755" s="83" t="s">
+      <c r="C755" s="82" t="s">
         <v>3002</v>
       </c>
       <c r="D755" t="s">
@@ -23229,7 +23300,7 @@
       <c r="B756" t="s">
         <v>3006</v>
       </c>
-      <c r="C756" s="83" t="s">
+      <c r="C756" s="82" t="s">
         <v>3007</v>
       </c>
       <c r="D756" t="s">
@@ -23246,7 +23317,7 @@
       <c r="B757" t="s">
         <v>3011</v>
       </c>
-      <c r="C757" s="83" t="s">
+      <c r="C757" s="82" t="s">
         <v>3012</v>
       </c>
       <c r="E757" t="s">
@@ -23260,7 +23331,7 @@
       <c r="B758" t="s">
         <v>3015</v>
       </c>
-      <c r="C758" s="83" t="s">
+      <c r="C758" s="82" t="s">
         <v>3016</v>
       </c>
       <c r="D758" t="s">
@@ -23298,7 +23369,7 @@
       <c r="B761" t="s">
         <v>3025</v>
       </c>
-      <c r="C761" s="83" t="s">
+      <c r="C761" s="82" t="s">
         <v>3026</v>
       </c>
       <c r="D761" t="s">
@@ -23384,7 +23455,7 @@
       <c r="B768" t="s">
         <v>3047</v>
       </c>
-      <c r="C768" s="83" t="s">
+      <c r="C768" s="82" t="s">
         <v>3048</v>
       </c>
       <c r="D768" t="s">
@@ -23398,7 +23469,7 @@
       <c r="B769" t="s">
         <v>3051</v>
       </c>
-      <c r="C769" s="83" t="s">
+      <c r="C769" s="82" t="s">
         <v>3052</v>
       </c>
       <c r="D769" t="s">
@@ -23439,7 +23510,7 @@
       <c r="B772" t="s">
         <v>3062</v>
       </c>
-      <c r="C772" s="83" t="s">
+      <c r="C772" s="82" t="s">
         <v>3063</v>
       </c>
       <c r="E772" t="s">
@@ -23480,7 +23551,7 @@
       <c r="B775" t="s">
         <v>3072</v>
       </c>
-      <c r="C775" s="83" t="s">
+      <c r="C775" s="82" t="s">
         <v>3073</v>
       </c>
       <c r="D775" t="s">
@@ -23497,7 +23568,7 @@
       <c r="B776" t="s">
         <v>3077</v>
       </c>
-      <c r="C776" s="83" t="s">
+      <c r="C776" s="82" t="s">
         <v>3078</v>
       </c>
       <c r="D776" t="s">
@@ -23514,7 +23585,7 @@
       <c r="B777" t="s">
         <v>3082</v>
       </c>
-      <c r="C777" s="83" t="s">
+      <c r="C777" s="82" t="s">
         <v>3083</v>
       </c>
       <c r="E777" t="s">
@@ -23552,7 +23623,7 @@
       <c r="B780" t="s">
         <v>3092</v>
       </c>
-      <c r="C780" s="83" t="s">
+      <c r="C780" s="82" t="s">
         <v>3093</v>
       </c>
       <c r="D780" t="s">
@@ -23593,7 +23664,7 @@
       <c r="B783" t="s">
         <v>3103</v>
       </c>
-      <c r="C783" s="83" t="s">
+      <c r="C783" s="82" t="s">
         <v>3104</v>
       </c>
       <c r="D783" t="s">
@@ -23607,7 +23678,7 @@
       <c r="B784" t="s">
         <v>3107</v>
       </c>
-      <c r="C784" s="83" t="s">
+      <c r="C784" s="82" t="s">
         <v>3108</v>
       </c>
       <c r="D784" t="s">
@@ -23648,7 +23719,7 @@
       <c r="B787" t="s">
         <v>3118</v>
       </c>
-      <c r="C787" s="83" t="s">
+      <c r="C787" s="82" t="s">
         <v>3119</v>
       </c>
       <c r="D787" t="s">
@@ -23674,7 +23745,7 @@
       <c r="B789" t="s">
         <v>3125</v>
       </c>
-      <c r="C789" s="83" t="s">
+      <c r="C789" s="82" t="s">
         <v>3126</v>
       </c>
       <c r="D789" t="s">
@@ -23691,7 +23762,7 @@
       <c r="B790" t="s">
         <v>3130</v>
       </c>
-      <c r="C790" s="83" t="s">
+      <c r="C790" s="82" t="s">
         <v>3131</v>
       </c>
       <c r="D790" t="s">
@@ -23708,7 +23779,7 @@
       <c r="B791" t="s">
         <v>3135</v>
       </c>
-      <c r="C791" s="83" t="s">
+      <c r="C791" s="82" t="s">
         <v>3136</v>
       </c>
       <c r="D791" t="s">
@@ -23734,7 +23805,7 @@
       <c r="B793" t="s">
         <v>3142</v>
       </c>
-      <c r="C793" s="83" t="s">
+      <c r="C793" s="82" t="s">
         <v>3143</v>
       </c>
       <c r="D793" t="s">
@@ -23751,7 +23822,7 @@
       <c r="B794" t="s">
         <v>3147</v>
       </c>
-      <c r="C794" s="83" t="s">
+      <c r="C794" s="82" t="s">
         <v>3148</v>
       </c>
       <c r="D794" t="s">
@@ -23765,7 +23836,7 @@
       <c r="B795" t="s">
         <v>3151</v>
       </c>
-      <c r="C795" s="83" t="s">
+      <c r="C795" s="82" t="s">
         <v>3152</v>
       </c>
       <c r="D795" t="s">
@@ -23782,7 +23853,7 @@
       <c r="B796" t="s">
         <v>3156</v>
       </c>
-      <c r="C796" s="85" t="s">
+      <c r="C796" s="84" t="s">
         <v>3157</v>
       </c>
       <c r="D796" t="s">
@@ -23802,7 +23873,7 @@
       <c r="B798" t="s">
         <v>3161</v>
       </c>
-      <c r="C798" s="83" t="s">
+      <c r="C798" s="82" t="s">
         <v>3162</v>
       </c>
       <c r="D798" t="s">
@@ -23819,7 +23890,7 @@
       <c r="B799" t="s">
         <v>3166</v>
       </c>
-      <c r="C799" s="83" t="s">
+      <c r="C799" s="82" t="s">
         <v>3167</v>
       </c>
       <c r="D799" t="s">
@@ -23872,7 +23943,7 @@
       <c r="B803" t="s">
         <v>3180</v>
       </c>
-      <c r="C803" s="83" t="s">
+      <c r="C803" s="82" t="s">
         <v>3181</v>
       </c>
       <c r="D803" t="s">
@@ -24234,10 +24305,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B82" sqref="B81:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
@@ -25147,7 +25218,7 @@
       <c r="B69" s="79" t="s">
         <v>3375</v>
       </c>
-      <c r="D69" s="80" t="s">
+      <c r="D69" s="23" t="s">
         <v>3376</v>
       </c>
     </row>
@@ -25158,8 +25229,8 @@
       <c r="B70" s="55" t="s">
         <v>3377</v>
       </c>
-      <c r="C70" s="81"/>
-      <c r="D70" s="80" t="s">
+      <c r="C70" s="80"/>
+      <c r="D70" s="23" t="s">
         <v>3378</v>
       </c>
     </row>
@@ -25170,19 +25241,91 @@
       <c r="B71" s="55" t="s">
         <v>3379</v>
       </c>
-      <c r="D71" s="80" t="s">
+      <c r="D71" s="23" t="s">
         <v>3380</v>
       </c>
     </row>
     <row r="72" ht="108" spans="1:4">
-      <c r="A72" s="82" t="s">
+      <c r="A72" s="63" t="s">
         <v>3343</v>
       </c>
       <c r="B72" s="55" t="s">
         <v>3344</v>
       </c>
-      <c r="D72" s="80" t="s">
+      <c r="D72" s="23" t="s">
         <v>3381</v>
+      </c>
+    </row>
+    <row r="73" ht="81" spans="1:5">
+      <c r="A73" s="75" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>3384</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="74" ht="54" spans="1:4">
+      <c r="A74" s="21" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="75" ht="81" spans="1:5">
+      <c r="A75" s="21" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B75" s="55" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D75" s="81" t="s">
+        <v>3390</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="76" ht="81" spans="1:4">
+      <c r="A76" s="21" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B76" s="55" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D76" s="81" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="77" ht="27" spans="1:4">
+      <c r="A77" s="21" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B77" s="55" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="78" ht="40.5" spans="1:4">
+      <c r="A78" s="21" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B78" s="55" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D78" s="81" t="s">
+        <v>3399</v>
       </c>
     </row>
   </sheetData>
@@ -25258,6 +25401,10 @@
     <hyperlink ref="B70" r:id="rId67" display="http://jobik.net/vacancy/4588471/?subscr_id=3612244"/>
     <hyperlink ref="B71" r:id="rId68" display="https://rabota.ua/company4616161/vacancy6623389"/>
     <hyperlink ref="B72" r:id="rId69" display="http://jobik.net/vacancy/3129504/?subscr_id=3612244"/>
+    <hyperlink ref="B75" r:id="rId70" display="https://rabota.ua/company3135093/vacancy6642641"/>
+    <hyperlink ref="B76" r:id="rId71" display="https://rabota.ua/company1320362/vacancy6210107"/>
+    <hyperlink ref="B77" r:id="rId72" display="https://rabota.ua/company911/vacancy6632812"/>
+    <hyperlink ref="B78" r:id="rId73" display="https://rabota.ua/company322333/vacancy6042942"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -25298,32 +25445,32 @@
         <v>3194</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3382</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>3383</v>
+        <v>3401</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3384</v>
+        <v>3402</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3385</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>3386</v>
+        <v>3404</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3387</v>
+        <v>3405</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>654</v>
@@ -25331,25 +25478,25 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>3388</v>
+        <v>3406</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3389</v>
+        <v>3407</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>3390</v>
+        <v>3408</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3391</v>
+        <v>3409</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>3302</v>
@@ -25357,27 +25504,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>3392</v>
+        <v>3410</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3393</v>
+        <v>3411</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3394</v>
+        <v>3412</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>3395</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>3396</v>
+        <v>3414</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3303</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3397</v>
+        <v>3415</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3305</v>
@@ -25385,67 +25532,67 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>3398</v>
+        <v>3416</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3399</v>
+        <v>3417</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3400</v>
+        <v>3418</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>3401</v>
+        <v>3419</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3402</v>
+        <v>3420</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>3403</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>3404</v>
+        <v>3422</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>3405</v>
+        <v>3423</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3406</v>
+        <v>3424</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>3407</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>3408</v>
+        <v>3426</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>3409</v>
+        <v>3427</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3410</v>
+        <v>3428</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>3411</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>3412</v>
+        <v>3430</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>3413</v>
+        <v>3431</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3414</v>
+        <v>3432</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>3265</v>
@@ -25453,107 +25600,107 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>3415</v>
+        <v>3433</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>3353</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>3416</v>
+        <v>3434</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>3417</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>3418</v>
+        <v>3436</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>3399</v>
+        <v>3417</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3419</v>
+        <v>3437</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>3420</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>3421</v>
+        <v>3439</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3422</v>
+        <v>3440</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>3423</v>
+        <v>3441</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>3424</v>
+        <v>3442</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>3425</v>
+        <v>3443</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>3426</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>3427</v>
+        <v>3445</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>3428</v>
+        <v>3446</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>3429</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>3430</v>
+        <v>3448</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>3431</v>
+        <v>3449</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>3432</v>
+        <v>3450</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>3433</v>
+        <v>3451</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>3353</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>3434</v>
+        <v>3452</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>3435</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>3436</v>
+        <v>3454</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>3267</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>3437</v>
+        <v>3455</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>3270</v>
@@ -25561,70 +25708,70 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>3438</v>
+        <v>3456</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>3439</v>
+        <v>3457</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>3440</v>
+        <v>3458</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>3441</v>
+        <v>3459</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>3442</v>
+        <v>3460</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>3443</v>
+        <v>3461</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>3444</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>3445</v>
+        <v>3463</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>3446</v>
+        <v>3464</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>3447</v>
+        <v>3465</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>3448</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>3449</v>
+        <v>3467</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>3450</v>
+        <v>3468</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>3451</v>
+        <v>3469</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>3452</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>3453</v>
+        <v>3471</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>3454</v>
+        <v>3472</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>3455</v>
+        <v>3473</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>3456</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -25635,157 +25782,157 @@
         <v>3271</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>3457</v>
+        <v>3475</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>3458</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>3459</v>
+        <v>3477</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>3460</v>
+        <v>3478</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>3461</v>
+        <v>3479</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>3462</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>3463</v>
+        <v>3481</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>3464</v>
+        <v>3482</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>3465</v>
+        <v>3483</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>3466</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>3467</v>
+        <v>3485</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>3468</v>
+        <v>3486</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>3469</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>3470</v>
+        <v>3488</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>3471</v>
+        <v>3489</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>3472</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>3473</v>
+        <v>3491</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>3474</v>
+        <v>3492</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>3475</v>
+        <v>3493</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>3476</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>3477</v>
+        <v>3495</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>3478</v>
+        <v>3496</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>3479</v>
+        <v>3497</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>3480</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>3481</v>
+        <v>3499</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>3482</v>
+        <v>3500</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>3483</v>
+        <v>3501</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>3484</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:4">
       <c r="A34" s="15" t="s">
-        <v>3485</v>
+        <v>3503</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>3486</v>
+        <v>3504</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>3487</v>
+        <v>3505</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" ht="27" spans="1:4">
       <c r="A35" s="13" t="s">
-        <v>3488</v>
+        <v>3506</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>3489</v>
+        <v>3507</v>
       </c>
       <c r="C35" t="s">
-        <v>3490</v>
+        <v>3508</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>3491</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>3492</v>
+        <v>3510</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>3493</v>
+        <v>3511</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13" t="s">
-        <v>3494</v>
+        <v>3512</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>3495</v>
+        <v>3513</v>
       </c>
       <c r="D37" s="12"/>
     </row>
@@ -25803,31 +25950,31 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="13" t="s">
-        <v>3496</v>
+        <v>3514</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>3497</v>
+        <v>3515</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>3498</v>
+        <v>3516</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="13" t="s">
-        <v>3499</v>
+        <v>3517</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>3500</v>
+        <v>3518</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="13" t="s">
-        <v>3501</v>
+        <v>3519</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>3278</v>
@@ -25839,13 +25986,13 @@
     </row>
     <row r="42" ht="27" spans="1:4">
       <c r="A42" s="15" t="s">
-        <v>3502</v>
+        <v>3520</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>3503</v>
+        <v>3521</v>
       </c>
       <c r="D42" s="12"/>
     </row>
@@ -25863,13 +26010,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>3504</v>
+        <v>3522</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>3505</v>
+        <v>3523</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>3506</v>
+        <v>3524</v>
       </c>
       <c r="D44" s="12"/>
     </row>
@@ -25887,19 +26034,19 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>3507</v>
+        <v>3525</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>3508</v>
+        <v>3526</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>3509</v>
+        <v>3527</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3510</v>
+        <v>3528</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>3271</v>
@@ -25908,60 +26055,60 @@
         <v>3293</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>3511</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="17" t="s">
-        <v>3512</v>
+        <v>3530</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>3513</v>
+        <v>3531</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>3514</v>
+        <v>3532</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>3515</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>3516</v>
+        <v>3534</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>3450</v>
+        <v>3468</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>3517</v>
+        <v>3535</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>3518</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>3519</v>
+        <v>3537</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>3520</v>
+        <v>3538</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>3521</v>
+        <v>3539</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>3522</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>3523</v>
+        <v>3541</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>3524</v>
+        <v>3542</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>3525</v>
+        <v>3543</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -26054,10 +26201,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3526</v>
+        <v>3544</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3527</v>
+        <v>3545</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -26067,7 +26214,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>3528</v>
+        <v>3546</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -26080,7 +26227,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>3529</v>
+        <v>3547</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -26093,7 +26240,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>3530</v>
+        <v>3548</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
@@ -26106,7 +26253,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>3531</v>
+        <v>3549</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -26119,7 +26266,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>3532</v>
+        <v>3550</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -26132,7 +26279,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>3533</v>
+        <v>3551</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -26145,7 +26292,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3534</v>
+        <v>3552</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -26153,7 +26300,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3535</v>
+        <v>3553</v>
       </c>
       <c r="B9">
         <v>3</v>

--- a/base work.xlsx
+++ b/base work.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564">
   <si>
     <t>nane</t>
   </si>
@@ -10360,6 +10360,52 @@
 Контактное лицо: Алина Федорова</t>
   </si>
   <si>
+    <t>https://rabota.ua/company1776308/vacancy6277326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior QA Tester
+Region: Kiev
+Company branch: IT-software Manufacturing
+Job Type: full-time
+Publication date: 04.04.2017
+</t>
+  </si>
+  <si>
+    <t>Junior Test Engineer</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company476433/vacancy6657371</t>
+  </si>
+  <si>
+    <t>Junior Test Engineer
+Region: Kiev
+Company branch: IT-software Manufacturing
+Contact person: Recruiter
+Contact phone: +380443633203</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company2280768/vacancy6660489</t>
+  </si>
+  <si>
+    <t>CNA International Ukraine агентство 
+IT - разработка ПО
+Регион:Киев
+Сайт:cnaint.com.ua</t>
+  </si>
+  <si>
+    <t>JUNIOR TO MIDDLE QA ENGINEER</t>
+  </si>
+  <si>
+    <t>https://rabota.ua/company788/vacancy6644374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Регион: Киев
+Отрасль компании: IT - разработка ПО
+Контактное лицо: Александра Тонконог
+Контактный телефон: 0931201111</t>
+  </si>
+  <si>
     <t>История общения</t>
   </si>
   <si>
@@ -10831,11 +10877,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="dd/mmm"/>
     <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd/mmm"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="58">
     <font>
@@ -11097,31 +11143,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11141,10 +11171,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11157,10 +11203,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11173,7 +11219,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11181,20 +11227,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11212,6 +11244,20 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11274,13 +11320,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11292,25 +11344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11322,19 +11362,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11352,7 +11386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11364,7 +11416,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11376,43 +11476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11424,25 +11488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11495,8 +11541,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -11504,11 +11552,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11528,6 +11574,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -11539,15 +11594,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11570,8 +11616,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11595,73 +11641,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="40" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="40" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -11670,57 +11716,57 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="40" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="42" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="40" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11729,7 +11775,7 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11944,16 +11990,16 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="26" applyNumberFormat="1" applyFill="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="26" applyNumberFormat="1">
@@ -24305,10 +24351,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B82" sqref="B81:B82"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelCol="5"/>
@@ -25288,7 +25334,7 @@
       <c r="B75" s="55" t="s">
         <v>3389</v>
       </c>
-      <c r="D75" s="81" t="s">
+      <c r="D75" s="23" t="s">
         <v>3390</v>
       </c>
       <c r="E75" t="s">
@@ -25302,7 +25348,7 @@
       <c r="B76" s="55" t="s">
         <v>3393</v>
       </c>
-      <c r="D76" s="81" t="s">
+      <c r="D76" s="23" t="s">
         <v>3394</v>
       </c>
     </row>
@@ -25317,15 +25363,62 @@
         <v>3397</v>
       </c>
     </row>
-    <row r="78" ht="40.5" spans="1:4">
+    <row r="78" ht="40.5" spans="1:5">
       <c r="A78" s="21" t="s">
         <v>3255</v>
       </c>
       <c r="B78" s="55" t="s">
         <v>3398</v>
       </c>
-      <c r="D78" s="81" t="s">
+      <c r="D78" s="23" t="s">
         <v>3399</v>
+      </c>
+      <c r="E78">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="79" ht="81" spans="1:4">
+      <c r="A79" s="21" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D79" s="81" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="80" ht="67.5" spans="1:4">
+      <c r="A80" s="21" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B80" s="55" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D80" s="81" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="81" ht="54" spans="1:4">
+      <c r="A81" s="21" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B81" s="55" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D81" s="81" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="82" ht="67.5" spans="1:4">
+      <c r="A82" s="21" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B82" s="55" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D82" s="81" t="s">
+        <v>3409</v>
       </c>
     </row>
   </sheetData>
@@ -25405,6 +25498,10 @@
     <hyperlink ref="B76" r:id="rId71" display="https://rabota.ua/company1320362/vacancy6210107"/>
     <hyperlink ref="B77" r:id="rId72" display="https://rabota.ua/company911/vacancy6632812"/>
     <hyperlink ref="B78" r:id="rId73" display="https://rabota.ua/company322333/vacancy6042942"/>
+    <hyperlink ref="B80" r:id="rId74" display="https://rabota.ua/company476433/vacancy6657371"/>
+    <hyperlink ref="B79" r:id="rId75" display="https://rabota.ua/company1776308/vacancy6277326"/>
+    <hyperlink ref="B81" r:id="rId76" display="https://rabota.ua/company2280768/vacancy6660489"/>
+    <hyperlink ref="B82" r:id="rId77" display="https://rabota.ua/company788/vacancy6644374"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -25445,32 +25542,32 @@
         <v>3194</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3400</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>3401</v>
+        <v>3411</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3402</v>
+        <v>3412</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3403</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>3404</v>
+        <v>3414</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3405</v>
+        <v>3415</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>654</v>
@@ -25478,25 +25575,25 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>3406</v>
+        <v>3416</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3407</v>
+        <v>3417</v>
       </c>
       <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>3408</v>
+        <v>3418</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3409</v>
+        <v>3419</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>3302</v>
@@ -25504,27 +25601,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>3410</v>
+        <v>3420</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>3411</v>
+        <v>3421</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3412</v>
+        <v>3422</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>3413</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>3414</v>
+        <v>3424</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3303</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3415</v>
+        <v>3425</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>3305</v>
@@ -25532,67 +25629,67 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>3416</v>
+        <v>3426</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>3417</v>
+        <v>3427</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3418</v>
+        <v>3428</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>3419</v>
+        <v>3429</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3420</v>
+        <v>3430</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>3421</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>3422</v>
+        <v>3432</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>3423</v>
+        <v>3433</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3424</v>
+        <v>3434</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>3425</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>3426</v>
+        <v>3436</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>3427</v>
+        <v>3437</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3428</v>
+        <v>3438</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>3429</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>3430</v>
+        <v>3440</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>3431</v>
+        <v>3441</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3432</v>
+        <v>3442</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>3265</v>
@@ -25600,107 +25697,107 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>3433</v>
+        <v>3443</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>3353</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>3434</v>
+        <v>3444</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>3435</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>3436</v>
+        <v>3446</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>3417</v>
+        <v>3427</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3437</v>
+        <v>3447</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>3438</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>3439</v>
+        <v>3449</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>3440</v>
+        <v>3450</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>3441</v>
+        <v>3451</v>
       </c>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>3442</v>
+        <v>3452</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>3443</v>
+        <v>3453</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>3444</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>3445</v>
+        <v>3455</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>3446</v>
+        <v>3456</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>3447</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>3448</v>
+        <v>3458</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>3449</v>
+        <v>3459</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>3450</v>
+        <v>3460</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>3451</v>
+        <v>3461</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>3353</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>3452</v>
+        <v>3462</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>3453</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>3454</v>
+        <v>3464</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>3267</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>3455</v>
+        <v>3465</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>3270</v>
@@ -25708,70 +25805,70 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>3456</v>
+        <v>3466</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>3457</v>
+        <v>3467</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>3458</v>
+        <v>3468</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>3459</v>
+        <v>3469</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>3460</v>
+        <v>3470</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>3461</v>
+        <v>3471</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>3462</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>3463</v>
+        <v>3473</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>3464</v>
+        <v>3474</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>3465</v>
+        <v>3475</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>3466</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>3467</v>
+        <v>3477</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>3468</v>
+        <v>3478</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>3469</v>
+        <v>3479</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>3470</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>3471</v>
+        <v>3481</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>3472</v>
+        <v>3482</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>3473</v>
+        <v>3483</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>3474</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -25782,157 +25879,157 @@
         <v>3271</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>3475</v>
+        <v>3485</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>3476</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>3477</v>
+        <v>3487</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>3478</v>
+        <v>3488</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>3479</v>
+        <v>3489</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>3480</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
-        <v>3481</v>
+        <v>3491</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>3482</v>
+        <v>3492</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>3483</v>
+        <v>3493</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>3484</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>3485</v>
+        <v>3495</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>3486</v>
+        <v>3496</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>3487</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>3488</v>
+        <v>3498</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>3255</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>3489</v>
+        <v>3499</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>3490</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>3491</v>
+        <v>3501</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>3492</v>
+        <v>3502</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>3493</v>
+        <v>3503</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>3494</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>3495</v>
+        <v>3505</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>3496</v>
+        <v>3506</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>3497</v>
+        <v>3507</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>3498</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>3499</v>
+        <v>3509</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>3500</v>
+        <v>3510</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>3501</v>
+        <v>3511</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>3502</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:4">
       <c r="A34" s="15" t="s">
-        <v>3503</v>
+        <v>3513</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>3504</v>
+        <v>3514</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>3505</v>
+        <v>3515</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" ht="27" spans="1:4">
       <c r="A35" s="13" t="s">
-        <v>3506</v>
+        <v>3516</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>3507</v>
+        <v>3517</v>
       </c>
       <c r="C35" t="s">
-        <v>3508</v>
+        <v>3518</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>3509</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>3510</v>
+        <v>3520</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>3511</v>
+        <v>3521</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="13" t="s">
-        <v>3512</v>
+        <v>3522</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>3513</v>
+        <v>3523</v>
       </c>
       <c r="D37" s="12"/>
     </row>
@@ -25950,31 +26047,31 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="13" t="s">
-        <v>3514</v>
+        <v>3524</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>3515</v>
+        <v>3525</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>3516</v>
+        <v>3526</v>
       </c>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="13" t="s">
-        <v>3517</v>
+        <v>3527</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>3271</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>3518</v>
+        <v>3528</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="13" t="s">
-        <v>3519</v>
+        <v>3529</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>3278</v>
@@ -25986,13 +26083,13 @@
     </row>
     <row r="42" ht="27" spans="1:4">
       <c r="A42" s="15" t="s">
-        <v>3520</v>
+        <v>3530</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>3300</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>3521</v>
+        <v>3531</v>
       </c>
       <c r="D42" s="12"/>
     </row>
@@ -26010,13 +26107,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="10" t="s">
-        <v>3522</v>
+        <v>3532</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>3523</v>
+        <v>3533</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>3524</v>
+        <v>3534</v>
       </c>
       <c r="D44" s="12"/>
     </row>
@@ -26034,19 +26131,19 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>3525</v>
+        <v>3535</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>3526</v>
+        <v>3536</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>3527</v>
+        <v>3537</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3528</v>
+        <v>3538</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>3271</v>
@@ -26055,60 +26152,60 @@
         <v>3293</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>3529</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="17" t="s">
-        <v>3530</v>
+        <v>3540</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>3531</v>
+        <v>3541</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>3532</v>
+        <v>3542</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>3533</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>3534</v>
+        <v>3544</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>3468</v>
+        <v>3478</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>3535</v>
+        <v>3545</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>3536</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>3537</v>
+        <v>3547</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>3538</v>
+        <v>3548</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>3539</v>
+        <v>3549</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>3540</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>3541</v>
+        <v>3551</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>3542</v>
+        <v>3552</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>3543</v>
+        <v>3553</v>
       </c>
       <c r="D51" s="12"/>
     </row>
@@ -26201,10 +26298,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>3544</v>
+        <v>3554</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3545</v>
+        <v>3555</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -26214,7 +26311,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>3546</v>
+        <v>3556</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -26227,7 +26324,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>3547</v>
+        <v>3557</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -26240,7 +26337,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>3548</v>
+        <v>3558</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
@@ -26253,7 +26350,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>3549</v>
+        <v>3559</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -26266,7 +26363,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>3550</v>
+        <v>3560</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -26279,7 +26376,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>3551</v>
+        <v>3561</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -26292,7 +26389,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3552</v>
+        <v>3562</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -26300,7 +26397,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3553</v>
+        <v>3563</v>
       </c>
       <c r="B9">
         <v>3</v>
